--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE13DB4-1487-4539-BBDF-DE4BC40D6F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780C98ED-F23C-45CB-954E-018CC3A19A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalog-static'!$A$1:$O$78</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1255,7 +1258,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1859,9 +1862,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1899,7 +1902,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2005,7 +2008,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2147,18 +2150,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2216,7 +2220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -2263,7 +2267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
@@ -2545,7 +2549,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>58</v>
       </c>
@@ -2592,7 +2596,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
@@ -2639,7 +2643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>68</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>79</v>
       </c>
@@ -2780,7 +2784,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>84</v>
       </c>
@@ -2827,7 +2831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>95</v>
       </c>
@@ -2921,7 +2925,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>100</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>105</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3062,7 +3066,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>115</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>136</v>
       </c>
@@ -3297,7 +3301,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -3344,7 +3348,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
@@ -3391,7 +3395,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>152</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>158</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>162</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>176</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>181</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>185</v>
       </c>
@@ -3767,7 +3771,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>190</v>
       </c>
@@ -3814,7 +3818,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>194</v>
       </c>
@@ -3861,7 +3865,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>199</v>
       </c>
@@ -3908,7 +3912,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>204</v>
       </c>
@@ -3955,7 +3959,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>209</v>
       </c>
@@ -4002,7 +4006,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>214</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>219</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>224</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>229</v>
       </c>
@@ -4284,7 +4288,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>244</v>
       </c>
@@ -4331,7 +4335,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>249</v>
       </c>
@@ -4378,7 +4382,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>254</v>
       </c>
@@ -4425,7 +4429,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>259</v>
       </c>
@@ -4472,7 +4476,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>264</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>269</v>
       </c>
@@ -4566,7 +4570,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>274</v>
       </c>
@@ -4613,7 +4617,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>279</v>
       </c>
@@ -4660,7 +4664,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>284</v>
       </c>
@@ -4707,7 +4711,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>290</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>295</v>
       </c>
@@ -4801,7 +4805,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>300</v>
       </c>
@@ -4848,7 +4852,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>305</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>310</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>315</v>
       </c>
@@ -4989,7 +4993,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>320</v>
       </c>
@@ -5083,7 +5087,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>330</v>
       </c>
@@ -5130,7 +5134,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>335</v>
       </c>
@@ -5177,7 +5181,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
         <v>340</v>
       </c>
@@ -5224,7 +5228,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>345</v>
       </c>
@@ -5271,7 +5275,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>350</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>355</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>360</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
         <v>365</v>
       </c>
@@ -5459,7 +5463,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>370</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>375</v>
       </c>
@@ -5553,7 +5557,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
         <v>380</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>385</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>390</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>395</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>400</v>
       </c>
@@ -5788,7 +5792,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>405</v>
       </c>
@@ -5836,6 +5840,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O78" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter val="2023*"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <customFilters and="1">
+        <customFilter operator="greaterThanOrEqual" val="35"/>
+        <customFilter operator="lessThanOrEqual" val="55"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780C98ED-F23C-45CB-954E-018CC3A19A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BF02F5-55D3-4DDE-811F-6F7A0C44EC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalog-static'!$A$1:$O$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalog-static'!$A$1:$O$100</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="531">
   <si>
     <t>ObsID</t>
   </si>
@@ -1253,6 +1266,369 @@
   </si>
   <si>
     <t>2023-12-17-0240_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20231218UTa</t>
+  </si>
+  <si>
+    <t>2023-12-18_00:00:36</t>
+  </si>
+  <si>
+    <t>2023-12-17-2359_9-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0000_6-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0017_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20231218UTb</t>
+  </si>
+  <si>
+    <t>2023-12-18_01:22:36</t>
+  </si>
+  <si>
+    <t>2023-12-18-0122_6-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0122_6-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0134_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20231218UTc</t>
+  </si>
+  <si>
+    <t>2023-12-18_02:21:24</t>
+  </si>
+  <si>
+    <t>2023-12-18-0221_4-Jupiter_R656G620B632-RGB-Smth-WthBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0221_4-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0235_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20231218UTd</t>
+  </si>
+  <si>
+    <t>2023-12-18_03:12:54</t>
+  </si>
+  <si>
+    <t>2023-12-18-0312_8-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0312_9-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0327_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20231218UTe</t>
+  </si>
+  <si>
+    <t>2023-12-18_04:16:24</t>
+  </si>
+  <si>
+    <t>2023-12-18-0416_4-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0416_4-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0430_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20231218UTf</t>
+  </si>
+  <si>
+    <t>2023-12-18_05:13:06</t>
+  </si>
+  <si>
+    <t>2023-12-18-0513_1-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0513_1-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-18-0527_0-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20231229UTa</t>
+  </si>
+  <si>
+    <t>2023-12-29_00:48:00</t>
+  </si>
+  <si>
+    <t>'u/10'</t>
+  </si>
+  <si>
+    <t>2023-12-29-0048_0-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-29-0048_0-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-29-0104_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20231229UTb</t>
+  </si>
+  <si>
+    <t>2023-12-29_02:07:00</t>
+  </si>
+  <si>
+    <t>2023-12-29-0207_0-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-29-0207_0-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-29-0220_0-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20231229UTc</t>
+  </si>
+  <si>
+    <t>2023-12-29_03:35:48</t>
+  </si>
+  <si>
+    <t>2023-12-29-0335_7-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-29-0335_8-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2023-12-29-0352_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240129UTa</t>
+  </si>
+  <si>
+    <t>2024-01-29_02:07:00</t>
+  </si>
+  <si>
+    <t>2024-01-29-0207_0-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-29-0207_0-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-29-0223_3-Jupiter_R685G550B450-RGB-ClrSmth-WthBal-WV</t>
+  </si>
+  <si>
+    <t>20240129UTb</t>
+  </si>
+  <si>
+    <t>2024-01-29_02:35:36</t>
+  </si>
+  <si>
+    <t>2024-01-29-0235_6-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-29-0235_6-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-29-0248_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240130UTa</t>
+  </si>
+  <si>
+    <t>2024-01-30-0131_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240130UTb</t>
+  </si>
+  <si>
+    <t>20240130UTc</t>
+  </si>
+  <si>
+    <t>2024-01-30_03:22:06</t>
+  </si>
+  <si>
+    <t>2024-01-30-0322_1-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-30-0322_1-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-30-0334_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240131UTa</t>
+  </si>
+  <si>
+    <t>2024-01-31_02:22:30</t>
+  </si>
+  <si>
+    <t>2024-01-31-0222_5-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-31-0222_5-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-31-0236_3-Jupiter_R685G550B450-RGB-ClrSmthWhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240131UTb</t>
+  </si>
+  <si>
+    <t>2024-01-31_02:49:06</t>
+  </si>
+  <si>
+    <t>2024-01-31-0249_1-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-31-0249_1-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-31-0302_3-Jupiter_R685G550B450-RGB-ClrSmthWhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240202UTa</t>
+  </si>
+  <si>
+    <t>2024-02-02_02:17:06</t>
+  </si>
+  <si>
+    <t>2024-02-02-0217_1-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-02-0217_1-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-02-0229_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240202UTb</t>
+  </si>
+  <si>
+    <t>2024-02-02_03:19:30</t>
+  </si>
+  <si>
+    <t>2024-02-02-0319_5-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-02-0319_5-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-02-0334_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>2024-01-30_01:17:06</t>
+  </si>
+  <si>
+    <t>2024-01-30-0117_1-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-30-0117_1-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-30_02:48:00</t>
+  </si>
+  <si>
+    <t>2024-01-30-0248_0-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-30-0248_0-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-01-30-0306_4-Jupiter_R685G550B450-DR-ST-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240220UTa</t>
+  </si>
+  <si>
+    <t>2024-02-20_01:34:24</t>
+  </si>
+  <si>
+    <t>2024-02-20-0134_3-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-20-0134_4-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-20-0148_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240220UTb</t>
+  </si>
+  <si>
+    <t>2024-02-20_02:00:36</t>
+  </si>
+  <si>
+    <t>2024-02-20-0200_7-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-20-0200_6-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-20-0214_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240229UTa</t>
+  </si>
+  <si>
+    <t>2024-02-29_02:03:12</t>
+  </si>
+  <si>
+    <t>2024-02-29-0203_5-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-29-0203_2-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-29-0216_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240229UTb</t>
+  </si>
+  <si>
+    <t>2024-02-29_02:29:06</t>
+  </si>
+  <si>
+    <t>2024-02-29-0229_1-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-29-0229_1-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-02-29-0241_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240301UTa</t>
+  </si>
+  <si>
+    <t>2024-03-01_01:54:00</t>
+  </si>
+  <si>
+    <t>2024-03-01-0154_0-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-03-01-0154_0-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-03-01-0207_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240301UTb</t>
+  </si>
+  <si>
+    <t>2024-03-01_02:20:00</t>
+  </si>
+  <si>
+    <t>2024-03-01-0220_0-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-03-01-0220_0-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-03-01-0232_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1777,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1623,6 +1999,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1784,7 +2166,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1803,6 +2185,9 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2158,17 +2543,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
     <col min="7" max="7" width="8.6328125" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" customWidth="1"/>
   </cols>
@@ -2220,7 +2607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -2267,7 +2654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2314,7 +2701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -2361,7 +2748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
@@ -2408,7 +2795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
@@ -2455,7 +2842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -2502,54 +2889,54 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>96.8</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>266.3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>190.1</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>58</v>
       </c>
@@ -2596,7 +2983,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
@@ -2643,7 +3030,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>68</v>
       </c>
@@ -2690,7 +3077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
@@ -2737,7 +3124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>79</v>
       </c>
@@ -2784,7 +3171,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>84</v>
       </c>
@@ -2831,54 +3218,54 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>296.2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>282.5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>212.7</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
         <v>93</v>
       </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="s">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>95</v>
       </c>
@@ -2925,7 +3312,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>100</v>
       </c>
@@ -2972,7 +3359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>105</v>
       </c>
@@ -3019,144 +3406,144 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>34.9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>198.9</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>135.4</v>
       </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="F19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="17">
         <v>228.2</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="17">
         <v>24.3</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="17">
         <v>321.10000000000002</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="9" t="s">
+      <c r="F20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="9">
-        <v>1</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="L20" s="17">
+        <v>1</v>
+      </c>
+      <c r="M20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="N20" s="9">
-        <v>1</v>
-      </c>
-      <c r="O20" s="9" t="s">
+      <c r="N20" s="17">
+        <v>1</v>
+      </c>
+      <c r="O20" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>0.7</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>149.4</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>86.4</v>
       </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="F21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3207,7 +3594,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
@@ -3254,7 +3641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>136</v>
       </c>
@@ -3301,7 +3688,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -3348,7 +3735,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
@@ -3395,7 +3782,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>152</v>
       </c>
@@ -3442,7 +3829,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>158</v>
       </c>
@@ -3489,7 +3876,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>162</v>
       </c>
@@ -3630,7 +4017,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>176</v>
       </c>
@@ -3677,7 +4064,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>181</v>
       </c>
@@ -3724,7 +4111,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>185</v>
       </c>
@@ -3771,7 +4158,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>190</v>
       </c>
@@ -3818,7 +4205,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>194</v>
       </c>
@@ -3865,7 +4252,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>199</v>
       </c>
@@ -3912,7 +4299,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>204</v>
       </c>
@@ -3959,7 +4346,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>209</v>
       </c>
@@ -4006,7 +4393,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>214</v>
       </c>
@@ -4053,7 +4440,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>219</v>
       </c>
@@ -4100,7 +4487,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>224</v>
       </c>
@@ -4147,7 +4534,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>229</v>
       </c>
@@ -4288,7 +4675,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>244</v>
       </c>
@@ -4335,7 +4722,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>249</v>
       </c>
@@ -4382,7 +4769,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>254</v>
       </c>
@@ -4429,7 +4816,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>259</v>
       </c>
@@ -4476,7 +4863,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>264</v>
       </c>
@@ -4523,7 +4910,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>269</v>
       </c>
@@ -4570,7 +4957,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>274</v>
       </c>
@@ -4617,7 +5004,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>279</v>
       </c>
@@ -4664,7 +5051,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>284</v>
       </c>
@@ -4711,7 +5098,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>290</v>
       </c>
@@ -4758,7 +5145,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>295</v>
       </c>
@@ -4805,7 +5192,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>300</v>
       </c>
@@ -4852,7 +5239,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>305</v>
       </c>
@@ -4899,7 +5286,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>310</v>
       </c>
@@ -4946,7 +5333,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>315</v>
       </c>
@@ -4993,7 +5380,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>320</v>
       </c>
@@ -5087,7 +5474,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>330</v>
       </c>
@@ -5134,7 +5521,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>335</v>
       </c>
@@ -5181,7 +5568,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
         <v>340</v>
       </c>
@@ -5228,7 +5615,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>345</v>
       </c>
@@ -5275,7 +5662,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>350</v>
       </c>
@@ -5322,7 +5709,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>355</v>
       </c>
@@ -5369,7 +5756,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>360</v>
       </c>
@@ -5416,7 +5803,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
         <v>365</v>
       </c>
@@ -5463,7 +5850,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>370</v>
       </c>
@@ -5510,7 +5897,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>375</v>
       </c>
@@ -5557,7 +5944,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
         <v>380</v>
       </c>
@@ -5604,7 +5991,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>385</v>
       </c>
@@ -5651,7 +6038,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>390</v>
       </c>
@@ -5698,7 +6085,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>395</v>
       </c>
@@ -5745,7 +6132,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>400</v>
       </c>
@@ -5792,7 +6179,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>405</v>
       </c>
@@ -5839,20 +6226,1137 @@
         <v>409</v>
       </c>
     </row>
+    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C79" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="D79" s="1">
+        <v>173.1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>222.6</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="L79" s="1">
+        <v>1</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="D80" s="1">
+        <v>222.6</v>
+      </c>
+      <c r="E80" s="1">
+        <v>272.2</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L80" s="1">
+        <v>1</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="N80" s="1">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C81" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="D81" s="1">
+        <v>258.2</v>
+      </c>
+      <c r="E81" s="1">
+        <v>307.7</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L81" s="1">
+        <v>1</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N81" s="1">
+        <v>1</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C82" s="1">
+        <v>127.9</v>
+      </c>
+      <c r="D82" s="1">
+        <v>289.3</v>
+      </c>
+      <c r="E82" s="1">
+        <v>338.9</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C83" s="1">
+        <v>166.6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>327.7</v>
+      </c>
+      <c r="E83" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="N83" s="1">
+        <v>1</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C84" s="1">
+        <v>201.2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E84" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L84" s="1">
+        <v>1</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="N84" s="1">
+        <v>1</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C85" s="2">
+        <v>335.9</v>
+      </c>
+      <c r="D85" s="2">
+        <v>54.1</v>
+      </c>
+      <c r="E85" s="2">
+        <v>106.6</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="L85" s="2">
+        <v>1</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="N85" s="2">
+        <v>1</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C86" s="2">
+        <v>24</v>
+      </c>
+      <c r="D86" s="2">
+        <v>101.9</v>
+      </c>
+      <c r="E86" s="2">
+        <v>154.4</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="N86" s="2">
+        <v>1</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C87" s="2">
+        <v>78.2</v>
+      </c>
+      <c r="D87" s="2">
+        <v>155.6</v>
+      </c>
+      <c r="E87" s="2">
+        <v>208.1</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="N87" s="2">
+        <v>1</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C88" s="3">
+        <v>235</v>
+      </c>
+      <c r="D88" s="3">
+        <v>76.3</v>
+      </c>
+      <c r="E88" s="3">
+        <v>137</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="N88" s="3">
+        <v>1</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C89" s="3">
+        <v>252.4</v>
+      </c>
+      <c r="D89" s="3">
+        <v>93.6</v>
+      </c>
+      <c r="E89" s="3">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="N89" s="3">
+        <v>1</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D90" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="E90" s="3">
+        <v>257.2</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="L90" s="3">
+        <v>1</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="N90" s="3">
+        <v>1</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C91" s="3">
+        <v>57.7</v>
+      </c>
+      <c r="D91" s="3">
+        <v>251.2</v>
+      </c>
+      <c r="E91" s="3">
+        <v>312.2</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="L91" s="3">
+        <v>1</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="N91" s="3">
+        <v>1</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C92" s="3">
+        <v>78.5</v>
+      </c>
+      <c r="D92" s="3">
+        <v>271.8</v>
+      </c>
+      <c r="E92" s="3">
+        <v>332.8</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="L92" s="3">
+        <v>1</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="N92" s="3">
+        <v>1</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C93" s="3">
+        <v>199.9</v>
+      </c>
+      <c r="D93" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="E93" s="3">
+        <v>87.1</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="L93" s="3">
+        <v>1</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="N93" s="3">
+        <v>1</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C94" s="3">
+        <v>216.1</v>
+      </c>
+      <c r="D94" s="3">
+        <v>41.9</v>
+      </c>
+      <c r="E94" s="3">
+        <v>103.2</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="N94" s="3">
+        <v>1</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C95" s="3">
+        <v>152</v>
+      </c>
+      <c r="D95" s="3">
+        <v>322.8</v>
+      </c>
+      <c r="E95" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L95" s="3">
+        <v>1</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="N95" s="3">
+        <v>1</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C96" s="3">
+        <v>190</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E96" s="3">
+        <v>62.3</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="L96" s="3">
+        <v>1</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="N96" s="3">
+        <v>1</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>501</v>
+      </c>
+      <c r="B97" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97" s="18">
+        <v>84.5</v>
+      </c>
+      <c r="D97">
+        <v>118.1</v>
+      </c>
+      <c r="E97">
+        <v>184.7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" t="s">
+        <v>70</v>
+      </c>
+      <c r="J97" t="s">
+        <v>70</v>
+      </c>
+      <c r="K97" t="s">
+        <v>503</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97" t="s">
+        <v>504</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>506</v>
+      </c>
+      <c r="B98" t="s">
+        <v>507</v>
+      </c>
+      <c r="C98" s="18">
+        <v>100.5</v>
+      </c>
+      <c r="D98">
+        <v>134</v>
+      </c>
+      <c r="E98">
+        <v>200.6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" t="s">
+        <v>27</v>
+      </c>
+      <c r="I98" t="s">
+        <v>70</v>
+      </c>
+      <c r="J98" t="s">
+        <v>70</v>
+      </c>
+      <c r="K98" t="s">
+        <v>508</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98" t="s">
+        <v>509</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="C99" s="20">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="D99" s="19">
+        <v>45.9</v>
+      </c>
+      <c r="E99" s="19">
+        <v>114.9</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J99" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K99" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="L99" s="19">
+        <v>1</v>
+      </c>
+      <c r="M99" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="N99" s="19">
+        <v>1</v>
+      </c>
+      <c r="O99" s="19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="C100" s="20">
+        <v>96.9</v>
+      </c>
+      <c r="D100" s="19">
+        <v>61.6</v>
+      </c>
+      <c r="E100" s="19">
+        <v>130.6</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J100" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K100" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="L100" s="19">
+        <v>1</v>
+      </c>
+      <c r="M100" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="N100" s="19">
+        <v>1</v>
+      </c>
+      <c r="O100" s="19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="C101" s="19">
+        <v>233.1</v>
+      </c>
+      <c r="D101" s="19">
+        <v>190.4</v>
+      </c>
+      <c r="E101" s="19">
+        <v>259.7</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I101" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J101" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K101" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="L101" s="19">
+        <v>1</v>
+      </c>
+      <c r="M101" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="N101" s="19">
+        <v>1</v>
+      </c>
+      <c r="O101" s="19" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="C102" s="19">
+        <v>249</v>
+      </c>
+      <c r="D102" s="19">
+        <v>206.1</v>
+      </c>
+      <c r="E102" s="19">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J102" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K102" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="L102" s="19">
+        <v>1</v>
+      </c>
+      <c r="M102" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="N102" s="19">
+        <v>1</v>
+      </c>
+      <c r="O102" s="19" t="s">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O78" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter val="2023*"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <customFilters and="1">
-        <customFilter operator="greaterThanOrEqual" val="35"/>
-        <customFilter operator="lessThanOrEqual" val="55"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BF02F5-55D3-4DDE-811F-6F7A0C44EC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF62F0EC-2203-4430-8B3A-1FD1DA7E90AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2546,7 +2546,7 @@
   <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D99" sqref="D99"/>

--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF62F0EC-2203-4430-8B3A-1FD1DA7E90AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F778EAB-5435-4908-9CBB-D860C484F55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalog-static'!$A$1:$O$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalog-static'!$A$1:$O$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="538">
   <si>
     <t>ObsID</t>
   </si>
@@ -1629,13 +1630,37 @@
   </si>
   <si>
     <t>2024-03-01-0232_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>PJ Date</t>
+  </si>
+  <si>
+    <t>Good data</t>
+  </si>
+  <si>
+    <t>Good data set</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Coverage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1776,8 +1801,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2005,6 +2038,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2166,7 +2205,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -2188,6 +2227,23 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2546,10 +2602,10 @@
   <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7355,8 +7411,1969 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAB7429-FBC2-4107-812C-81FA0409F1FA}">
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G102" sqref="A1:G102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="24">
+        <v>334.5</v>
+      </c>
+      <c r="C2" s="24">
+        <v>35.4</v>
+      </c>
+      <c r="D2" s="24">
+        <v>310.39999999999998</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="26">
+        <v>44772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>347.8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>265.8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1">
+        <v>335.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>214.6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="24">
+        <v>98.5</v>
+      </c>
+      <c r="C5" s="24">
+        <v>14.3</v>
+      </c>
+      <c r="D5" s="24">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="25">
+        <v>44</v>
+      </c>
+      <c r="G5" s="26">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="10">
+        <v>186.7</v>
+      </c>
+      <c r="C6" s="10">
+        <v>26.7</v>
+      </c>
+      <c r="D6" s="10">
+        <v>309.39999999999998</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>322</v>
+      </c>
+      <c r="D7" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>266.3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>190.1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="11">
+        <v>231.2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D9" s="11">
+        <v>302.2</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>144.4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="4">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4">
+        <v>101.7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>28.4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="4">
+        <v>152.1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>230.3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="24">
+        <v>340.6</v>
+      </c>
+      <c r="C13" s="24">
+        <v>13.5</v>
+      </c>
+      <c r="D13" s="24">
+        <v>302</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="26">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="24">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C14" s="24">
+        <v>50.4</v>
+      </c>
+      <c r="D14" s="24">
+        <v>339</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>296.2</v>
+      </c>
+      <c r="C15">
+        <v>282.5</v>
+      </c>
+      <c r="D15">
+        <v>212.7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="21">
+        <v>45</v>
+      </c>
+      <c r="G15" s="23">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="7">
+        <v>266.7</v>
+      </c>
+      <c r="C16" s="7">
+        <v>146.9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>80.8</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="7">
+        <v>317.3</v>
+      </c>
+      <c r="C17" s="7">
+        <v>197.1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>131</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="24">
+        <v>168.9</v>
+      </c>
+      <c r="C18" s="24">
+        <v>18.7</v>
+      </c>
+      <c r="D18" s="24">
+        <v>313.60000000000002</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="C19" s="6">
+        <v>198.9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>135.4</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="24">
+        <v>228.2</v>
+      </c>
+      <c r="C20" s="24">
+        <v>24.3</v>
+      </c>
+      <c r="D20" s="24">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="C21" s="6">
+        <v>149.4</v>
+      </c>
+      <c r="D21" s="6">
+        <v>86.4</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="21">
+        <v>46</v>
+      </c>
+      <c r="G21" s="23">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="9">
+        <v>178.6</v>
+      </c>
+      <c r="C22" s="9">
+        <v>47.5</v>
+      </c>
+      <c r="D22" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="21">
+        <v>48</v>
+      </c>
+      <c r="G22" s="23">
+        <v>44948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="1">
+        <v>112.6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="21">
+        <v>53</v>
+      </c>
+      <c r="G23" s="23">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="27">
+        <v>281.10000000000002</v>
+      </c>
+      <c r="C24" s="27">
+        <v>306</v>
+      </c>
+      <c r="D24" s="27">
+        <v>322.7</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="26">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>91</v>
+      </c>
+      <c r="D25" s="1">
+        <v>108</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="1">
+        <v>241.2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>250.8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>268</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="2">
+        <v>218.6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>159.5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>179.1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="2">
+        <v>232.7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>173.6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>193.2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="2">
+        <v>340.6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>258.60000000000002</v>
+      </c>
+      <c r="D29" s="2">
+        <v>279</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="10">
+        <v>130.4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>40.9</v>
+      </c>
+      <c r="D30" s="10">
+        <v>61.5</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="10">
+        <v>144.4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>54.8</v>
+      </c>
+      <c r="D31" s="10">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="3">
+        <v>204.8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="D32" s="3">
+        <v>99.1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="3">
+        <v>221.2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>115.4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="C34" s="27">
+        <v>224.8</v>
+      </c>
+      <c r="D34" s="27">
+        <v>247</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B35" s="27">
+        <v>18</v>
+      </c>
+      <c r="C35" s="27">
+        <v>242.5</v>
+      </c>
+      <c r="D35" s="27">
+        <v>264.7</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="25">
+        <v>54</v>
+      </c>
+      <c r="G35" s="26">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="4">
+        <v>182</v>
+      </c>
+      <c r="C36" s="4">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="D36" s="4">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="23">
+        <v>45192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="14">
+        <v>333</v>
+      </c>
+      <c r="C37" s="14">
+        <v>60.2</v>
+      </c>
+      <c r="D37" s="14">
+        <v>87.2</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="4">
+        <v>173.4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>224.5</v>
+      </c>
+      <c r="D38" s="4">
+        <v>252.8</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="24">
+        <v>21.8</v>
+      </c>
+      <c r="C39" s="24">
+        <v>27.3</v>
+      </c>
+      <c r="D39" s="24">
+        <v>57.2</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="27">
+        <v>182.8</v>
+      </c>
+      <c r="C40" s="27">
+        <v>180.6</v>
+      </c>
+      <c r="D40" s="27">
+        <v>210.8</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="27">
+        <v>201.5</v>
+      </c>
+      <c r="C41" s="27">
+        <v>199.1</v>
+      </c>
+      <c r="D41" s="27">
+        <v>229.3</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="7">
+        <v>160.1</v>
+      </c>
+      <c r="C42" s="7">
+        <v>89.3</v>
+      </c>
+      <c r="D42" s="7">
+        <v>121.9</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="27">
+        <v>176</v>
+      </c>
+      <c r="C43" s="27">
+        <v>105</v>
+      </c>
+      <c r="D43" s="27">
+        <v>137.6</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="25">
+        <v>55</v>
+      </c>
+      <c r="G43" s="26">
+        <v>45214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="13">
+        <v>121.8</v>
+      </c>
+      <c r="C44" s="13">
+        <v>35.6</v>
+      </c>
+      <c r="D44" s="13">
+        <v>68.7</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="13">
+        <v>138.5</v>
+      </c>
+      <c r="C45" s="13">
+        <v>52.2</v>
+      </c>
+      <c r="D45" s="13">
+        <v>85.4</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" s="7">
+        <v>69.7</v>
+      </c>
+      <c r="C46" s="7">
+        <v>328.3</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="16">
+        <v>87.3</v>
+      </c>
+      <c r="C47" s="16">
+        <v>345.8</v>
+      </c>
+      <c r="D47" s="16">
+        <v>19.5</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="24">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="C48" s="24">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D48" s="24">
+        <v>69.2</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B49" s="27">
+        <v>320.5</v>
+      </c>
+      <c r="C49" s="27">
+        <v>188.8</v>
+      </c>
+      <c r="D49" s="27">
+        <v>223.5</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="27">
+        <v>341</v>
+      </c>
+      <c r="C50" s="27">
+        <v>209.2</v>
+      </c>
+      <c r="D50" s="27">
+        <v>243.9</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" s="27">
+        <v>111.9</v>
+      </c>
+      <c r="C51" s="27">
+        <v>332.7</v>
+      </c>
+      <c r="D51" s="27">
+        <v>7.6</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" s="27">
+        <v>127.1</v>
+      </c>
+      <c r="C52" s="27">
+        <v>347.7</v>
+      </c>
+      <c r="D52" s="27">
+        <v>22.7</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="27">
+        <v>77</v>
+      </c>
+      <c r="C53" s="27">
+        <v>282.5</v>
+      </c>
+      <c r="D53" s="27">
+        <v>318</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B54" s="1">
+        <v>244.3</v>
+      </c>
+      <c r="C54" s="8">
+        <v>28.9</v>
+      </c>
+      <c r="D54" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="23"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" s="1">
+        <v>127.3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>241.6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>280.3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B56" s="1">
+        <v>144</v>
+      </c>
+      <c r="C56" s="1">
+        <v>258.10000000000002</v>
+      </c>
+      <c r="D56" s="1">
+        <v>296.8</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" s="2">
+        <v>262.2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>353.4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B58" s="2">
+        <v>278.39999999999998</v>
+      </c>
+      <c r="C58" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>48.9</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="23"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" s="10">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="C59" s="10">
+        <v>25</v>
+      </c>
+      <c r="D59" s="10">
+        <v>64.5</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B60" s="3">
+        <v>247</v>
+      </c>
+      <c r="C60" s="3">
+        <v>322.7</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="23"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B61" s="3">
+        <v>265.3</v>
+      </c>
+      <c r="C61" s="3">
+        <v>340.9</v>
+      </c>
+      <c r="D61" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="23"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B62" s="11">
+        <v>334.7</v>
+      </c>
+      <c r="C62" s="11">
+        <v>43.4</v>
+      </c>
+      <c r="D62" s="11">
+        <v>83.7</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B63" s="3">
+        <v>351.6</v>
+      </c>
+      <c r="C63" s="3">
+        <v>60.2</v>
+      </c>
+      <c r="D63" s="3">
+        <v>100.4</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="23"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B64" s="4">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="C64" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="D64" s="4">
+        <v>55</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="23"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B65" s="14">
+        <v>337.2</v>
+      </c>
+      <c r="C65" s="14">
+        <v>30.2</v>
+      </c>
+      <c r="D65" s="14">
+        <v>71</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="B66" s="27">
+        <v>238.1</v>
+      </c>
+      <c r="C66" s="27">
+        <v>191.8</v>
+      </c>
+      <c r="D66" s="27">
+        <v>236.1</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="25">
+        <v>56</v>
+      </c>
+      <c r="G66" s="26">
+        <v>45252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67" s="5">
+        <v>254.6</v>
+      </c>
+      <c r="C67" s="5">
+        <v>208.2</v>
+      </c>
+      <c r="D67" s="5">
+        <v>252.5</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="23"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C68" s="5">
+        <v>315.7</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="23"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B69" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="C69" s="5">
+        <v>333.3</v>
+      </c>
+      <c r="D69" s="5">
+        <v>17.8</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="23"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B70" s="15">
+        <v>44</v>
+      </c>
+      <c r="C70" s="15">
+        <v>350</v>
+      </c>
+      <c r="D70" s="15">
+        <v>34.6</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="23"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B71" s="7">
+        <v>28.2</v>
+      </c>
+      <c r="C71" s="7">
+        <v>281.2</v>
+      </c>
+      <c r="D71" s="7">
+        <v>327.60000000000002</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="23"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" s="7">
+        <v>43.7</v>
+      </c>
+      <c r="C72" s="7">
+        <v>296.5</v>
+      </c>
+      <c r="D72" s="7">
+        <v>342.9</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="23"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B73" s="13">
+        <v>176</v>
+      </c>
+      <c r="C73" s="13">
+        <v>61.5</v>
+      </c>
+      <c r="D73" s="13">
+        <v>108.2</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="23"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B74" s="7">
+        <v>192.2</v>
+      </c>
+      <c r="C74" s="7">
+        <v>77.5</v>
+      </c>
+      <c r="D74" s="7">
+        <v>124.2</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="23"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B75" s="7">
+        <v>209.8</v>
+      </c>
+      <c r="C75" s="7">
+        <v>95</v>
+      </c>
+      <c r="D75" s="7">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="23"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B76" s="6">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="C76" s="6">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D76" s="6">
+        <v>129.9</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="23"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B77" s="6">
+        <v>286.5</v>
+      </c>
+      <c r="C77" s="6">
+        <v>96</v>
+      </c>
+      <c r="D77" s="6">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="23"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B78" s="6">
+        <v>302.8</v>
+      </c>
+      <c r="C78" s="6">
+        <v>112</v>
+      </c>
+      <c r="D78" s="6">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="23"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B79" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="C79" s="1">
+        <v>173.1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>222.6</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="23"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B80" s="1">
+        <v>60.6</v>
+      </c>
+      <c r="C80" s="1">
+        <v>222.6</v>
+      </c>
+      <c r="D80" s="1">
+        <v>272.2</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="23"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B81" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>258.2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>307.7</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="23"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B82" s="1">
+        <v>127.9</v>
+      </c>
+      <c r="C82" s="1">
+        <v>289.3</v>
+      </c>
+      <c r="D82" s="1">
+        <v>338.9</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" s="23"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B83" s="1">
+        <v>166.6</v>
+      </c>
+      <c r="C83" s="1">
+        <v>327.7</v>
+      </c>
+      <c r="D83" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="23"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B84" s="1">
+        <v>201.2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D84" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="23"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B85" s="2">
+        <v>335.9</v>
+      </c>
+      <c r="C85" s="2">
+        <v>54.1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>106.6</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="23"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B86" s="2">
+        <v>24</v>
+      </c>
+      <c r="C86" s="2">
+        <v>101.9</v>
+      </c>
+      <c r="D86" s="2">
+        <v>154.4</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="23"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="B87" s="27">
+        <v>78.2</v>
+      </c>
+      <c r="C87" s="27">
+        <v>155.6</v>
+      </c>
+      <c r="D87" s="27">
+        <v>208.1</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="25">
+        <v>57</v>
+      </c>
+      <c r="G87" s="26">
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B88" s="3">
+        <v>235</v>
+      </c>
+      <c r="C88" s="3">
+        <v>76.3</v>
+      </c>
+      <c r="D88" s="3">
+        <v>137</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="23"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B89" s="3">
+        <v>252.4</v>
+      </c>
+      <c r="C89" s="3">
+        <v>93.6</v>
+      </c>
+      <c r="D89" s="3">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="23"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C90" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="D90" s="3">
+        <v>257.2</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="23"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B91" s="3">
+        <v>57.7</v>
+      </c>
+      <c r="C91" s="3">
+        <v>251.2</v>
+      </c>
+      <c r="D91" s="3">
+        <v>312.2</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="23"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B92" s="3">
+        <v>78.5</v>
+      </c>
+      <c r="C92" s="3">
+        <v>271.8</v>
+      </c>
+      <c r="D92" s="3">
+        <v>332.8</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="23"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B93" s="3">
+        <v>199.9</v>
+      </c>
+      <c r="C93" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="D93" s="3">
+        <v>87.1</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="23"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B94" s="3">
+        <v>216.1</v>
+      </c>
+      <c r="C94" s="3">
+        <v>41.9</v>
+      </c>
+      <c r="D94" s="3">
+        <v>103.2</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="23"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B95" s="3">
+        <v>152</v>
+      </c>
+      <c r="C95" s="3">
+        <v>322.8</v>
+      </c>
+      <c r="D95" s="3">
+        <v>24.6</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="23"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="B96" s="27">
+        <v>190</v>
+      </c>
+      <c r="C96" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="27">
+        <v>62.3</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" s="25">
+        <v>58</v>
+      </c>
+      <c r="G96" s="26">
+        <v>45325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>502</v>
+      </c>
+      <c r="B97" s="18">
+        <v>84.5</v>
+      </c>
+      <c r="C97">
+        <v>118.1</v>
+      </c>
+      <c r="D97">
+        <v>184.7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="23"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>507</v>
+      </c>
+      <c r="B98" s="18">
+        <v>100.5</v>
+      </c>
+      <c r="C98">
+        <v>134</v>
+      </c>
+      <c r="D98">
+        <v>200.6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="23"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="B99" s="20">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C99" s="19">
+        <v>45.9</v>
+      </c>
+      <c r="D99" s="19">
+        <v>114.9</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="23"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="B100" s="20">
+        <v>96.9</v>
+      </c>
+      <c r="C100" s="19">
+        <v>61.6</v>
+      </c>
+      <c r="D100" s="19">
+        <v>130.6</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="23"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="B101" s="19">
+        <v>233.1</v>
+      </c>
+      <c r="C101" s="19">
+        <v>190.4</v>
+      </c>
+      <c r="D101" s="19">
+        <v>259.7</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="23"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="B102" s="27">
+        <v>249</v>
+      </c>
+      <c r="C102" s="27">
+        <v>206.1</v>
+      </c>
+      <c r="D102" s="27">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" s="25">
+        <v>59</v>
+      </c>
+      <c r="G102" s="26">
+        <v>45358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F778EAB-5435-4908-9CBB-D860C484F55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BA5026-E24E-494E-A3C8-946EC6A18969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Status &amp; Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="Related Missions &amp; Observations" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalog-static'!$A$1:$O$102</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="685">
   <si>
     <t>ObsID</t>
   </si>
@@ -1651,6 +1652,470 @@
   </si>
   <si>
     <t>Coverage</t>
+  </si>
+  <si>
+    <t>20240919UTb</t>
+  </si>
+  <si>
+    <t>2024-09-19_10:55:48</t>
+  </si>
+  <si>
+    <t>2024-09-19-1055_8-Jupiter_R656G620B632-RGB-WhtBal-Smth</t>
+  </si>
+  <si>
+    <t>2024-09-19-1055_8-Jupiter_R656G647B632-RGB-WhtBal-Smth</t>
+  </si>
+  <si>
+    <t>2024-09-19-1111_7-Jupiter_R685G550B450-RGB-Smth-WhtBal-WV-WV</t>
+  </si>
+  <si>
+    <t>20240919UTc</t>
+  </si>
+  <si>
+    <t>2024-09-19_11:27:24</t>
+  </si>
+  <si>
+    <t>2024-09-19-1127_4-Jupiter_R656G620B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-19-1127_4-Jupiter_R656G647B632-RGB-Smth-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-19-1140_4-Jupiter_R685G550B450-RGB-Smth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240925UTb</t>
+  </si>
+  <si>
+    <t>2024-09-25_11:27:00</t>
+  </si>
+  <si>
+    <t>2024-09-25-1127_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-25-1127_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-25-1144_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240925UTc</t>
+  </si>
+  <si>
+    <t>2024-09-25_11:58:30</t>
+  </si>
+  <si>
+    <t>2024-09-25-1158_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-25-1158_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-25-1211_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240926UTa</t>
+  </si>
+  <si>
+    <t>2024-09-26_11:10:54</t>
+  </si>
+  <si>
+    <t>2024-09-26-1110_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-26-1110_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-26-1121_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240926UTb</t>
+  </si>
+  <si>
+    <t>2024-09-26_11:36:18</t>
+  </si>
+  <si>
+    <t>2024-09-26-1136_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-26-1136_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-26-1147_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240929UTa</t>
+  </si>
+  <si>
+    <t>2024-09-29_11:21:42</t>
+  </si>
+  <si>
+    <t>2024-09-29-1121_7-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-29-1121_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-29-1135_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20240929UTb</t>
+  </si>
+  <si>
+    <t>2024-09-29_11:55:18</t>
+  </si>
+  <si>
+    <t>2024-09-29-1155_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-29-1155_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-09-29-1208_0-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241002UTa</t>
+  </si>
+  <si>
+    <t>2024-10-02_11:34:24</t>
+  </si>
+  <si>
+    <t>2024-10-02-1134_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-02-1134_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-02-1159_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241002UTb</t>
+  </si>
+  <si>
+    <t>2024-10-02_12:12:00</t>
+  </si>
+  <si>
+    <t>2024-10-02-1212_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-02-1212_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-02-1224_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241006UTa</t>
+  </si>
+  <si>
+    <t>2024-10-06_06:38:42</t>
+  </si>
+  <si>
+    <t>2024-10-06-0638_6-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-06-0638_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-06-0650_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241006UTb</t>
+  </si>
+  <si>
+    <t>2024-10-06_07:02:12</t>
+  </si>
+  <si>
+    <t>2024-10-06-0702_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-06-0702_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-06-0716_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241007UTa</t>
+  </si>
+  <si>
+    <t>2024-10-07_11:45:30</t>
+  </si>
+  <si>
+    <t>2024-10-07-1145_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-07-1145_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-07-1201_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241007UTb</t>
+  </si>
+  <si>
+    <t>2024-10-07_12:13:36</t>
+  </si>
+  <si>
+    <t>2024-10-07-1213_6-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-07-1213_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-07-1225_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241008UTa</t>
+  </si>
+  <si>
+    <t>2024-10-08_11:41:00</t>
+  </si>
+  <si>
+    <t>'U'</t>
+  </si>
+  <si>
+    <t>2024-10-08-1141_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-08-1141_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-08-1153_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241008UTb</t>
+  </si>
+  <si>
+    <t>2024-10-08_12:05:24</t>
+  </si>
+  <si>
+    <t>2024-10-08-1205_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-08-1205_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-08-1218_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>2024-10-09_11:50:18</t>
+  </si>
+  <si>
+    <t>2024-10-09-1150_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-09-1150_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-09-1202_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241009UTb</t>
+  </si>
+  <si>
+    <t>2024-10-09_12:14:00</t>
+  </si>
+  <si>
+    <t>2024-10-09-1214_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-09-1214_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-09-1225_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241009UTc</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m JALPO</t>
+    </r>
+  </si>
+  <si>
+    <t>Raw Data Status</t>
+  </si>
+  <si>
+    <t>Processed Data Status</t>
+  </si>
+  <si>
+    <t>Quality Notes</t>
+  </si>
+  <si>
+    <t>Feature Notes</t>
+  </si>
+  <si>
+    <t>Publications</t>
+  </si>
+  <si>
+    <t>2023 AGU</t>
+  </si>
+  <si>
+    <t>2024 ESS</t>
+  </si>
+  <si>
+    <t>2024 EPSC</t>
+  </si>
+  <si>
+    <t>5um 9/03/2022 Orton</t>
+  </si>
+  <si>
+    <t>2023 AGU, 2024 ESS (VLT/MUSE)</t>
+  </si>
+  <si>
+    <t>2024 ESS contig. map</t>
+  </si>
+  <si>
+    <t>20241010UTa</t>
+  </si>
+  <si>
+    <t>2024-10-10_11:40:06</t>
+  </si>
+  <si>
+    <t>2024-10-10-1140_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-10-1140_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-10-1152_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241010UTb</t>
+  </si>
+  <si>
+    <t>2024-10-10_12:01:54</t>
+  </si>
+  <si>
+    <t>2024-10-10-1201_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-10-1201_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-10-1216_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241014UTa</t>
+  </si>
+  <si>
+    <t>2024-10-14_12:10:36</t>
+  </si>
+  <si>
+    <t>2024-10-14-1210_6-Jupiter_R656G620B632-RGB-WhtBal-Flattened</t>
+  </si>
+  <si>
+    <t>2024-10-14-1210_6-Jupiter_R656G647B632-RGB-WhtBal-Flattened</t>
+  </si>
+  <si>
+    <t>2024-10-14-1223_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241014UTb</t>
+  </si>
+  <si>
+    <t>2024-10-14_12:35:36</t>
+  </si>
+  <si>
+    <t>2024-10-14-1235_6-Jupiter_R656G620B632-RGB-WhtBal-Flattened</t>
+  </si>
+  <si>
+    <t>2024-10-14-1235_6-Jupiter_R656G647B632-RGB-WhtBal-Flattened</t>
+  </si>
+  <si>
+    <t>2024-10-14-1248_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241016UTa</t>
+  </si>
+  <si>
+    <t>2024-10-16_12:06:48</t>
+  </si>
+  <si>
+    <t>2024-10-16-1206_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-16-1206_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-16-1219_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241016UTb</t>
+  </si>
+  <si>
+    <t>2024-10-16_12:34:24</t>
+  </si>
+  <si>
+    <t>2024-10-16-1234_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-16-1234_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-16-1248_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241016UTc</t>
+  </si>
+  <si>
+    <t>2024-10-16_12:29:36</t>
+  </si>
+  <si>
+    <t>2024-10-16-1228_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-16-1229_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>20241022UTa</t>
+  </si>
+  <si>
+    <t>2024-10-22_11:48:30</t>
+  </si>
+  <si>
+    <t>2024-10-22-1148_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-22-1148_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-22-1201_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241022UTb</t>
+  </si>
+  <si>
+    <t>2024-10-22_12:13:18</t>
+  </si>
+  <si>
+    <t>2024-10-22-1213_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-22-1213_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-22-1225_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +2125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1809,8 +2274,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2044,6 +2524,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2205,7 +2703,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -2244,6 +2742,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2599,13 +3101,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="B88" sqref="B88:F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7410,6 +7912,1275 @@
         <v>530</v>
       </c>
     </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>538</v>
+      </c>
+      <c r="B103" t="s">
+        <v>539</v>
+      </c>
+      <c r="C103">
+        <v>23.7</v>
+      </c>
+      <c r="D103">
+        <v>236.9</v>
+      </c>
+      <c r="E103">
+        <v>359.9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" t="s">
+        <v>44</v>
+      </c>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+      <c r="K103" t="s">
+        <v>540</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103" t="s">
+        <v>541</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>543</v>
+      </c>
+      <c r="B104" t="s">
+        <v>544</v>
+      </c>
+      <c r="C104">
+        <v>43</v>
+      </c>
+      <c r="D104">
+        <v>256</v>
+      </c>
+      <c r="E104">
+        <v>19</v>
+      </c>
+      <c r="F104" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" t="s">
+        <v>44</v>
+      </c>
+      <c r="J104" t="s">
+        <v>132</v>
+      </c>
+      <c r="K104" t="s">
+        <v>545</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104" t="s">
+        <v>546</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C105" s="5">
+        <v>270.3</v>
+      </c>
+      <c r="D105" s="5">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E105" s="5">
+        <v>202.1</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="L105" s="5">
+        <v>1</v>
+      </c>
+      <c r="M105" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="N105" s="5">
+        <v>1</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C106" s="5">
+        <v>289.5</v>
+      </c>
+      <c r="D106" s="5">
+        <v>96.5</v>
+      </c>
+      <c r="E106" s="5">
+        <v>221.2</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L106" s="5">
+        <v>1</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="N106" s="5">
+        <v>1</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C107" s="5">
+        <v>58.4</v>
+      </c>
+      <c r="D107" s="5">
+        <v>218</v>
+      </c>
+      <c r="E107" s="5">
+        <v>342.9</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="L107" s="5">
+        <v>1</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="N107" s="5">
+        <v>1</v>
+      </c>
+      <c r="O107" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C108" s="5">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="D108" s="5">
+        <v>233.4</v>
+      </c>
+      <c r="E108" s="5">
+        <v>358.3</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="L108" s="5">
+        <v>1</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="N108" s="5">
+        <v>1</v>
+      </c>
+      <c r="O108" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C109" s="5">
+        <v>178.8</v>
+      </c>
+      <c r="D109" s="5">
+        <v>315.39999999999998</v>
+      </c>
+      <c r="E109" s="5">
+        <v>81.2</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="L109" s="5">
+        <v>1</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="N109" s="5">
+        <v>1</v>
+      </c>
+      <c r="O109" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C110" s="5">
+        <v>199.3</v>
+      </c>
+      <c r="D110" s="5">
+        <v>335.7</v>
+      </c>
+      <c r="E110" s="5">
+        <v>101.5</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="L110" s="5">
+        <v>1</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="N110" s="5">
+        <v>1</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>578</v>
+      </c>
+      <c r="B111" t="s">
+        <v>579</v>
+      </c>
+      <c r="C111">
+        <v>300.3</v>
+      </c>
+      <c r="D111">
+        <v>54</v>
+      </c>
+      <c r="E111">
+        <v>180.6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111" t="s">
+        <v>148</v>
+      </c>
+      <c r="J111" t="s">
+        <v>70</v>
+      </c>
+      <c r="K111" t="s">
+        <v>580</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111" t="s">
+        <v>581</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>583</v>
+      </c>
+      <c r="B112" t="s">
+        <v>584</v>
+      </c>
+      <c r="C112">
+        <v>323.3</v>
+      </c>
+      <c r="D112">
+        <v>76.8</v>
+      </c>
+      <c r="E112">
+        <v>203.3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112" t="s">
+        <v>70</v>
+      </c>
+      <c r="K112" t="s">
+        <v>585</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112" t="s">
+        <v>586</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C113" s="7">
+        <v>31.9</v>
+      </c>
+      <c r="D113" s="7">
+        <v>116.6</v>
+      </c>
+      <c r="E113" s="7">
+        <v>244.2</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="L113" s="7">
+        <v>1</v>
+      </c>
+      <c r="M113" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="N113" s="7">
+        <v>1</v>
+      </c>
+      <c r="O113" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C114" s="7">
+        <v>46.2</v>
+      </c>
+      <c r="D114" s="7">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="E114" s="7">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="L114" s="7">
+        <v>1</v>
+      </c>
+      <c r="M114" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="N114" s="7">
+        <v>1</v>
+      </c>
+      <c r="O114" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C115" s="7">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D115" s="7">
+        <v>92.4</v>
+      </c>
+      <c r="E115" s="7">
+        <v>220.2</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="L115" s="7">
+        <v>1</v>
+      </c>
+      <c r="M115" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="N115" s="7">
+        <v>1</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C116" s="7">
+        <v>34</v>
+      </c>
+      <c r="D116" s="7">
+        <v>109.3</v>
+      </c>
+      <c r="E116" s="7">
+        <v>237.2</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="L116" s="7">
+        <v>1</v>
+      </c>
+      <c r="M116" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="N116" s="7">
+        <v>1</v>
+      </c>
+      <c r="O116" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C117" s="7">
+        <v>172.1</v>
+      </c>
+      <c r="D117" s="7">
+        <v>240</v>
+      </c>
+      <c r="E117" s="7">
+        <v>8.1</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="L117" s="7">
+        <v>1</v>
+      </c>
+      <c r="M117" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="N117" s="7">
+        <v>1</v>
+      </c>
+      <c r="O117" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C118" s="7">
+        <v>187</v>
+      </c>
+      <c r="D118" s="7">
+        <v>254.7</v>
+      </c>
+      <c r="E118" s="7">
+        <v>22.9</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="L118" s="7">
+        <v>1</v>
+      </c>
+      <c r="M118" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="N118" s="7">
+        <v>1</v>
+      </c>
+      <c r="O118" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="C119" s="7">
+        <v>335.7</v>
+      </c>
+      <c r="D119" s="7">
+        <v>35.9</v>
+      </c>
+      <c r="E119" s="7">
+        <v>164.3</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="L119" s="7">
+        <v>1</v>
+      </c>
+      <c r="M119" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="N119" s="7">
+        <v>1</v>
+      </c>
+      <c r="O119" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C120" s="7">
+        <v>350.2</v>
+      </c>
+      <c r="D120" s="7">
+        <v>50.2</v>
+      </c>
+      <c r="E120" s="7">
+        <v>178.7</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L120" s="7">
+        <v>1</v>
+      </c>
+      <c r="M120" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="N120" s="7">
+        <v>1</v>
+      </c>
+      <c r="O120" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C121" s="7">
+        <v>127.5</v>
+      </c>
+      <c r="D121" s="7">
+        <v>180.1</v>
+      </c>
+      <c r="E121" s="7">
+        <v>308.8</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="L121" s="7">
+        <v>1</v>
+      </c>
+      <c r="M121" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="N121" s="7">
+        <v>1</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C122" s="7">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="D122" s="7">
+        <v>193.3</v>
+      </c>
+      <c r="E122" s="7">
+        <v>321.89999999999998</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="L122" s="7">
+        <v>1</v>
+      </c>
+      <c r="M122" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="N122" s="7">
+        <v>1</v>
+      </c>
+      <c r="O122" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="C123" s="31">
+        <v>57.9</v>
+      </c>
+      <c r="D123" s="31">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="E123" s="31">
+        <v>209.6</v>
+      </c>
+      <c r="F123" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J123" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K123" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="L123" s="31">
+        <v>1</v>
+      </c>
+      <c r="M123" s="31" t="s">
+        <v>654</v>
+      </c>
+      <c r="N123" s="31">
+        <v>1</v>
+      </c>
+      <c r="O123" s="31" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="C124" s="31">
+        <v>73.2</v>
+      </c>
+      <c r="D124" s="31">
+        <v>95</v>
+      </c>
+      <c r="E124" s="31">
+        <v>224.7</v>
+      </c>
+      <c r="F124" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G124" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I124" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J124" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K124" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="L124" s="31">
+        <v>1</v>
+      </c>
+      <c r="M124" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="N124" s="31">
+        <v>1</v>
+      </c>
+      <c r="O124" s="31" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>662</v>
+      </c>
+      <c r="C125" s="31">
+        <v>11.6</v>
+      </c>
+      <c r="D125" s="31">
+        <v>18.3</v>
+      </c>
+      <c r="E125" s="31">
+        <v>148.5</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J125" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K125" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="L125" s="31">
+        <v>1</v>
+      </c>
+      <c r="M125" s="31" t="s">
+        <v>664</v>
+      </c>
+      <c r="N125" s="31">
+        <v>1</v>
+      </c>
+      <c r="O125" s="31" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="C126" s="31">
+        <v>28.4</v>
+      </c>
+      <c r="D126" s="31">
+        <v>35</v>
+      </c>
+      <c r="E126" s="31">
+        <v>165.2</v>
+      </c>
+      <c r="F126" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I126" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J126" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K126" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="L126" s="31">
+        <v>1</v>
+      </c>
+      <c r="M126" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="N126" s="31">
+        <v>1</v>
+      </c>
+      <c r="O126" s="31" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="C127" s="31">
+        <v>25.5</v>
+      </c>
+      <c r="D127" s="31">
+        <v>32.1</v>
+      </c>
+      <c r="E127" s="31">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="F127" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I127" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J127" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K127" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="L127" s="31">
+        <v>1</v>
+      </c>
+      <c r="M127" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="N127" s="31">
+        <v>1</v>
+      </c>
+      <c r="O127" s="31" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>675</v>
+      </c>
+      <c r="B128" t="s">
+        <v>676</v>
+      </c>
+      <c r="C128">
+        <v>228.3</v>
+      </c>
+      <c r="D128">
+        <v>189.3</v>
+      </c>
+      <c r="E128">
+        <v>321.2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" t="s">
+        <v>132</v>
+      </c>
+      <c r="J128" t="s">
+        <v>44</v>
+      </c>
+      <c r="K128" t="s">
+        <v>677</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128" t="s">
+        <v>678</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>680</v>
+      </c>
+      <c r="B129" t="s">
+        <v>681</v>
+      </c>
+      <c r="C129">
+        <v>243.5</v>
+      </c>
+      <c r="D129">
+        <v>204.3</v>
+      </c>
+      <c r="E129">
+        <v>336.2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" t="s">
+        <v>132</v>
+      </c>
+      <c r="J129" t="s">
+        <v>91</v>
+      </c>
+      <c r="K129" t="s">
+        <v>682</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129" t="s">
+        <v>683</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>684</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7418,11 +9189,917 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F58391A-1A18-48BB-B42D-F47ACF826E68}">
+  <dimension ref="A1:F135"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f>'Catalog-static'!A2</f>
+        <v>20220730UTa</v>
+      </c>
+      <c r="F2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>'Catalog-static'!A3</f>
+        <v>20220810UTa</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f>'Catalog-static'!A4</f>
+        <v>20220812UTa</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>'Catalog-static'!A5</f>
+        <v>20220818UTa</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f>'Catalog-static'!A6</f>
+        <v>20220828UTa</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>'Catalog-static'!A7</f>
+        <v>20220830UTa</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>'Catalog-static'!A8</f>
+        <v>20220901UTa</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>'Catalog-static'!A9</f>
+        <v>20220904UTa</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f>'Catalog-static'!A10</f>
+        <v>20220905UTa</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>'Catalog-static'!A11</f>
+        <v>20220912UTa</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>'Catalog-static'!A12</f>
+        <v>20220913UTa</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>'Catalog-static'!A13</f>
+        <v>20220919UTa</v>
+      </c>
+      <c r="F13" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>'Catalog-static'!A14</f>
+        <v>20220919UTb</v>
+      </c>
+      <c r="F14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>'Catalog-static'!A15</f>
+        <v>20220925UTa</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>'Catalog-static'!A16</f>
+        <v>20221009UTa</v>
+      </c>
+      <c r="F16" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>'Catalog-static'!A17</f>
+        <v>20221009UTb</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>'Catalog-static'!A18</f>
+        <v>20221013UTa</v>
+      </c>
+      <c r="F18" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>'Catalog-static'!A19</f>
+        <v>20221019UTa</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>'Catalog-static'!A20</f>
+        <v>20221020UTa</v>
+      </c>
+      <c r="F20" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>'Catalog-static'!A21</f>
+        <v>20221021UTa</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>'Catalog-static'!A22</f>
+        <v>20230113UTa</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>'Catalog-static'!A23</f>
+        <v>20230815UTa</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>'Catalog-static'!A24</f>
+        <v>20230816UTa</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>'Catalog-static'!A25</f>
+        <v>20230817UTa</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>'Catalog-static'!A26</f>
+        <v>20230818UTa</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
+        <f>'Catalog-static'!A27</f>
+        <v>20230827UTa</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>'Catalog-static'!A28</f>
+        <v>20230827UTb</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
+        <f>'Catalog-static'!A29</f>
+        <v>20230830UTa</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
+        <f>'Catalog-static'!A30</f>
+        <v>20230831UTa</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f>'Catalog-static'!A31</f>
+        <v>20230831UTb</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f>'Catalog-static'!A32</f>
+        <v>20230905UTa</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f>'Catalog-static'!A33</f>
+        <v>20230905UTb</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="str">
+        <f>'Catalog-static'!A34</f>
+        <v>20230906UTa</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="str">
+        <f>'Catalog-static'!A35</f>
+        <v>20230906UTb</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="str">
+        <f>'Catalog-static'!A36</f>
+        <v>20230922UTa</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="str">
+        <f>'Catalog-static'!A37</f>
+        <v>20230924UTa</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>'Catalog-static'!A38</f>
+        <v>20230929UTa</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>'Catalog-static'!A39</f>
+        <v>20231005UTa</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f>'Catalog-static'!A40</f>
+        <v>20231006UTa</v>
+      </c>
+      <c r="F40" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f>'Catalog-static'!A41</f>
+        <v>20231006UTb</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="str">
+        <f>'Catalog-static'!A42</f>
+        <v>20231015UTa</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="str">
+        <f>'Catalog-static'!A43</f>
+        <v>20231015UTb</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="str">
+        <f>'Catalog-static'!A44</f>
+        <v>20231017UTa</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="str">
+        <f>'Catalog-static'!A45</f>
+        <v>20231017UTb</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="str">
+        <f>'Catalog-static'!A46</f>
+        <v>20231019UTa</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="str">
+        <f>'Catalog-static'!A47</f>
+        <v>20231019UTb</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f>'Catalog-static'!A48</f>
+        <v>20231022UTa</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f>'Catalog-static'!A49</f>
+        <v>20231023UTa</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f>'Catalog-static'!A50</f>
+        <v>20231023UTb</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
+        <f>'Catalog-static'!A51</f>
+        <v>20231024UTa</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="str">
+        <f>'Catalog-static'!A52</f>
+        <v>20231024UTb</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f>'Catalog-static'!A53</f>
+        <v>20231026UTa</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f>'Catalog-static'!A54</f>
+        <v>20231103UTa</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
+        <f>'Catalog-static'!A55</f>
+        <v>20231107UTa</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f>'Catalog-static'!A56</f>
+        <v>20231107UTb</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f>'Catalog-static'!A57</f>
+        <v>20231110UTa</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f>'Catalog-static'!A58</f>
+        <v>20231110UTb</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="str">
+        <f>'Catalog-static'!A59</f>
+        <v>20231110UTc</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f>'Catalog-static'!A60</f>
+        <v>20231112UTa</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f>'Catalog-static'!A61</f>
+        <v>20231112UTb</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f>'Catalog-static'!A62</f>
+        <v>20231113UTa</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f>'Catalog-static'!A63</f>
+        <v>20231113UTb</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f>'Catalog-static'!A64</f>
+        <v>20231115UTa</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
+        <f>'Catalog-static'!A65</f>
+        <v>20231115UTb</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="str">
+        <f>'Catalog-static'!A66</f>
+        <v>20231128UTa</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="str">
+        <f>'Catalog-static'!A67</f>
+        <v>20231128UTb</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="str">
+        <f>'Catalog-static'!A68</f>
+        <v>20231129UTa</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f>'Catalog-static'!A69</f>
+        <v>20231129UTb</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f>'Catalog-static'!A70</f>
+        <v>20231129UTc</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
+        <f>'Catalog-static'!A71</f>
+        <v>20231206UTa</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
+        <f>'Catalog-static'!A72</f>
+        <v>20231206UTb</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <f>'Catalog-static'!A73</f>
+        <v>20231207UTa</v>
+      </c>
+      <c r="F73" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <f>'Catalog-static'!A74</f>
+        <v>20231207UTb</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="str">
+        <f>'Catalog-static'!A75</f>
+        <v>20231207UTc</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <f>'Catalog-static'!A76</f>
+        <v>20231217UTa</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <f>'Catalog-static'!A77</f>
+        <v>20231217UTb</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <f>'Catalog-static'!A78</f>
+        <v>20231217UTc</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <f>'Catalog-static'!A79</f>
+        <v>20231218UTa</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="str">
+        <f>'Catalog-static'!A80</f>
+        <v>20231218UTb</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="str">
+        <f>'Catalog-static'!A81</f>
+        <v>20231218UTc</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="str">
+        <f>'Catalog-static'!A82</f>
+        <v>20231218UTd</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="str">
+        <f>'Catalog-static'!A83</f>
+        <v>20231218UTe</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="str">
+        <f>'Catalog-static'!A84</f>
+        <v>20231218UTf</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="str">
+        <f>'Catalog-static'!A85</f>
+        <v>20231229UTa</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="str">
+        <f>'Catalog-static'!A86</f>
+        <v>20231229UTb</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="str">
+        <f>'Catalog-static'!A87</f>
+        <v>20231229UTc</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="str">
+        <f>'Catalog-static'!A88</f>
+        <v>20240129UTa</v>
+      </c>
+      <c r="F88" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="str">
+        <f>'Catalog-static'!A89</f>
+        <v>20240129UTb</v>
+      </c>
+      <c r="F89" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="str">
+        <f>'Catalog-static'!A90</f>
+        <v>20240130UTa</v>
+      </c>
+      <c r="F90" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="str">
+        <f>'Catalog-static'!A91</f>
+        <v>20240130UTb</v>
+      </c>
+      <c r="F91" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="str">
+        <f>'Catalog-static'!A92</f>
+        <v>20240130UTc</v>
+      </c>
+      <c r="F92" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="str">
+        <f>'Catalog-static'!A93</f>
+        <v>20240131UTa</v>
+      </c>
+      <c r="F93" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="str">
+        <f>'Catalog-static'!A94</f>
+        <v>20240131UTb</v>
+      </c>
+      <c r="F94" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="str">
+        <f>'Catalog-static'!A95</f>
+        <v>20240202UTa</v>
+      </c>
+      <c r="F95" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="str">
+        <f>'Catalog-static'!A96</f>
+        <v>20240202UTb</v>
+      </c>
+      <c r="F96" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="str">
+        <f>'Catalog-static'!A97</f>
+        <v>20240220UTa</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="str">
+        <f>'Catalog-static'!A98</f>
+        <v>20240220UTb</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="str">
+        <f>'Catalog-static'!A99</f>
+        <v>20240229UTa</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="str">
+        <f>'Catalog-static'!A100</f>
+        <v>20240229UTb</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="str">
+        <f>'Catalog-static'!A101</f>
+        <v>20240301UTa</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="str">
+        <f>'Catalog-static'!A102</f>
+        <v>20240301UTb</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="str">
+        <f>'Catalog-static'!A103</f>
+        <v>20240919UTb</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="str">
+        <f>'Catalog-static'!A104</f>
+        <v>20240919UTc</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="str">
+        <f>'Catalog-static'!A105</f>
+        <v>20240925UTb</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="str">
+        <f>'Catalog-static'!A106</f>
+        <v>20240925UTc</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="str">
+        <f>'Catalog-static'!A107</f>
+        <v>20240926UTa</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="str">
+        <f>'Catalog-static'!A108</f>
+        <v>20240926UTb</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="str">
+        <f>'Catalog-static'!A109</f>
+        <v>20240929UTa</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="str">
+        <f>'Catalog-static'!A110</f>
+        <v>20240929UTb</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" t="str">
+        <f>'Catalog-static'!A111</f>
+        <v>20241002UTa</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="str">
+        <f>'Catalog-static'!A112</f>
+        <v>20241002UTb</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="str">
+        <f>'Catalog-static'!A113</f>
+        <v>20241006UTa</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="str">
+        <f>'Catalog-static'!A114</f>
+        <v>20241006UTb</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="str">
+        <f>'Catalog-static'!A115</f>
+        <v>20241007UTa</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="str">
+        <f>'Catalog-static'!A116</f>
+        <v>20241007UTb</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="str">
+        <f>'Catalog-static'!A117</f>
+        <v>20241008UTa</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="str">
+        <f>'Catalog-static'!A118</f>
+        <v>20241008UTb</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="str">
+        <f>'Catalog-static'!A119</f>
+        <v>20241009UTb</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="str">
+        <f>'Catalog-static'!A120</f>
+        <v>20241009UTc</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="str">
+        <f>'Catalog-static'!A121</f>
+        <v>20241010UTa</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="str">
+        <f>'Catalog-static'!A122</f>
+        <v>20241010UTb</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="str">
+        <f>'Catalog-static'!A123</f>
+        <v>20241014UTa</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="str">
+        <f>'Catalog-static'!A124</f>
+        <v>20241014UTb</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="str">
+        <f>'Catalog-static'!A125</f>
+        <v>20241016UTa</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="str">
+        <f>'Catalog-static'!A126</f>
+        <v>20241016UTb</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="str">
+        <f>'Catalog-static'!A127</f>
+        <v>20241016UTc</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="str">
+        <f>'Catalog-static'!A128</f>
+        <v>20241022UTa</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="str">
+        <f>'Catalog-static'!A129</f>
+        <v>20241022UTb</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <f>'Catalog-static'!A130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <f>'Catalog-static'!A131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <f>'Catalog-static'!A132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <f>'Catalog-static'!A133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <f>'Catalog-static'!A134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <f>'Catalog-static'!A135</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAB7429-FBC2-4107-812C-81FA0409F1FA}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G102" sqref="A1:G102"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7430,9 +10107,10 @@
     <col min="1" max="1" width="27.26953125" customWidth="1"/>
     <col min="6" max="6" width="5.6328125" style="21" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -7454,8 +10132,11 @@
       <c r="G1" s="22" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="22" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
@@ -7477,8 +10158,12 @@
       <c r="G2" s="26">
         <v>44772</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="28">
+        <v>44775</v>
+      </c>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -7495,8 +10180,11 @@
         <v>26</v>
       </c>
       <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="28">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -7513,8 +10201,11 @@
         <v>26</v>
       </c>
       <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="28">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>38</v>
       </c>
@@ -7536,8 +10227,11 @@
       <c r="G5" s="26">
         <v>44790</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" s="28">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
@@ -7555,7 +10249,7 @@
       </c>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -7573,7 +10267,7 @@
       </c>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -7590,8 +10284,11 @@
         <v>26</v>
       </c>
       <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="28">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>59</v>
       </c>
@@ -7608,8 +10305,11 @@
         <v>26</v>
       </c>
       <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" s="28">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -7627,7 +10327,7 @@
       </c>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
@@ -7645,7 +10345,7 @@
       </c>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>75</v>
       </c>
@@ -7663,7 +10363,7 @@
       </c>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>80</v>
       </c>
@@ -7685,8 +10385,9 @@
       <c r="G13" s="26">
         <v>44823</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
         <v>85</v>
       </c>
@@ -7705,7 +10406,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -7727,8 +10428,11 @@
       <c r="G15" s="23">
         <v>44833</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" s="28">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>96</v>
       </c>
@@ -8060,7 +10764,7 @@
       </c>
       <c r="G32" s="23"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>182</v>
       </c>
@@ -8078,7 +10782,7 @@
       </c>
       <c r="G33" s="23"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
         <v>186</v>
       </c>
@@ -8097,7 +10801,7 @@
       <c r="F34" s="25"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="27" t="s">
         <v>191</v>
       </c>
@@ -8120,7 +10824,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>195</v>
       </c>
@@ -8143,7 +10847,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>200</v>
       </c>
@@ -8161,7 +10865,7 @@
       </c>
       <c r="G37" s="23"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>205</v>
       </c>
@@ -8179,7 +10883,7 @@
       </c>
       <c r="G38" s="23"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>210</v>
       </c>
@@ -8199,8 +10903,9 @@
       <c r="G39" s="26" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="27" t="s">
         <v>215</v>
       </c>
@@ -8219,7 +10924,7 @@
       <c r="F40" s="25"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
         <v>220</v>
       </c>
@@ -8238,7 +10943,7 @@
       <c r="F41" s="25"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>225</v>
       </c>
@@ -8256,7 +10961,7 @@
       </c>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
         <v>230</v>
       </c>
@@ -8278,8 +10983,9 @@
       <c r="G43" s="26">
         <v>45214</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>235</v>
       </c>
@@ -8297,7 +11003,7 @@
       </c>
       <c r="G44" s="23"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>240</v>
       </c>
@@ -8315,7 +11021,7 @@
       </c>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>245</v>
       </c>
@@ -8333,7 +11039,7 @@
       </c>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>250</v>
       </c>
@@ -8351,7 +11057,7 @@
       </c>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>255</v>
       </c>

--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BA5026-E24E-494E-A3C8-946EC6A18969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB2823A-D022-4851-8477-9D4C238C83CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
@@ -3104,10 +3104,10 @@
   <dimension ref="A1:O129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B88" sqref="B88:F96"/>
+      <selection pane="bottomRight" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB2823A-D022-4851-8477-9D4C238C83CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC1A8AF-5D78-4E87-8AA5-5A719AA76F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="9700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
     <sheet name="Status &amp; Notes" sheetId="3" r:id="rId2"/>
     <sheet name="Related Missions &amp; Observations" sheetId="2" r:id="rId3"/>
+    <sheet name="Scratch" sheetId="4" r:id="rId4"/>
+    <sheet name="Validation" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalog-static'!$A$1:$O$102</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="927">
   <si>
     <t>ObsID</t>
   </si>
@@ -2116,6 +2118,732 @@
   </si>
   <si>
     <t>2024-10-22-1225_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Maybe some striping on early sequences?</t>
+  </si>
+  <si>
+    <t>Lots of high clouds, poor quality.</t>
+  </si>
+  <si>
+    <t>Proc. Status</t>
+  </si>
+  <si>
+    <t>Zipped</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
+  <si>
+    <t>Archive Status</t>
+  </si>
+  <si>
+    <t>Possible obscuration on later sequences due to trees</t>
+  </si>
+  <si>
+    <t>20241023UTa</t>
+  </si>
+  <si>
+    <t>2024-10-23_04:53:24</t>
+  </si>
+  <si>
+    <t>2024-10-23-0453_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-23-0453_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-23-0505_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241027UTa</t>
+  </si>
+  <si>
+    <t>2024-10-27_05:13:06</t>
+  </si>
+  <si>
+    <t>2024-10-27-0513_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0513_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0523_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241027UTb</t>
+  </si>
+  <si>
+    <t>2024-10-27_05:34:06</t>
+  </si>
+  <si>
+    <t>2024-10-27-0534_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0534_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0608_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241027UTc</t>
+  </si>
+  <si>
+    <t>2024-10-27_05:58:06</t>
+  </si>
+  <si>
+    <t>2024-10-27-0558_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0558_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>20241027UTd</t>
+  </si>
+  <si>
+    <t>2024-10-27_06:19:06</t>
+  </si>
+  <si>
+    <t>2024-10-27-0619_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0619_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0629_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241027UTe</t>
+  </si>
+  <si>
+    <t>2024-10-27_06:50:42</t>
+  </si>
+  <si>
+    <t>2024-10-27-0650_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0650_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0701_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241027UTf</t>
+  </si>
+  <si>
+    <t>2024-10-27_07:11:42</t>
+  </si>
+  <si>
+    <t>2024-10-27-0711_7-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0711_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0722_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241027UTg</t>
+  </si>
+  <si>
+    <t>2024-10-27_07:46:48</t>
+  </si>
+  <si>
+    <t>2024-10-27-0746_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0746_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0757_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241027UTh</t>
+  </si>
+  <si>
+    <t>2024-10-27_08:07:48</t>
+  </si>
+  <si>
+    <t>2024-10-27-0807_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0807_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0818_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241027UTi</t>
+  </si>
+  <si>
+    <t>2024-10-27_08:49:18</t>
+  </si>
+  <si>
+    <t>2024-10-27-0849_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0859_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241027UTj</t>
+  </si>
+  <si>
+    <t>2024-10-27_09:10:18</t>
+  </si>
+  <si>
+    <t>2024-10-27-0910_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0910_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-10-27-0920_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241105UTf</t>
+  </si>
+  <si>
+    <t>2024-11-05_07:16:06</t>
+  </si>
+  <si>
+    <t>2024-11-05-0716_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-05-0716_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-05-0726_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241115UTa</t>
+  </si>
+  <si>
+    <t>2024-11-15_04:35:24</t>
+  </si>
+  <si>
+    <t>2024-11-15-0435_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0435_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0445_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241115UTb</t>
+  </si>
+  <si>
+    <t>2024-11-15_04:56:18</t>
+  </si>
+  <si>
+    <t>2024-11-15-0456_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0456_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0506_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241115UTc</t>
+  </si>
+  <si>
+    <t>2024-11-15_05:17:12</t>
+  </si>
+  <si>
+    <t>2024-11-15-0517_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0517_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0527_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241115UTd</t>
+  </si>
+  <si>
+    <t>2024-11-15_05:38:06</t>
+  </si>
+  <si>
+    <t>2024-11-15-0538_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0538_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0548_6-Jupiter_R685G550B632450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241115UTe</t>
+  </si>
+  <si>
+    <t>2024-11-15_06:06:12</t>
+  </si>
+  <si>
+    <t>2024-11-15-0606_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0606_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0616_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241115UTf</t>
+  </si>
+  <si>
+    <t>2024-11-15_06:27:06</t>
+  </si>
+  <si>
+    <t>2024-11-15-0627_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0627_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0637_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241115UTg</t>
+  </si>
+  <si>
+    <t>2024-11-15_06:48:00</t>
+  </si>
+  <si>
+    <t>2024-11-15-0648_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0648_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0658_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241115UTh</t>
+  </si>
+  <si>
+    <t>2024-11-15_07:09:00</t>
+  </si>
+  <si>
+    <t>2024-11-15-0708_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0709_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0719_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241115UTi</t>
+  </si>
+  <si>
+    <t>2024-11-15_07:29:54</t>
+  </si>
+  <si>
+    <t>2024-11-15-0729_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0729_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-15-0740_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTa</t>
+  </si>
+  <si>
+    <t>2024-11-29_03:36:18</t>
+  </si>
+  <si>
+    <t>2024-11-29-0336_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0336_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0346_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTb</t>
+  </si>
+  <si>
+    <t>2024-11-29_03:56:54</t>
+  </si>
+  <si>
+    <t>2024-11-29-0357_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0356_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0407_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTc</t>
+  </si>
+  <si>
+    <t>2024-11-29_04:18:06</t>
+  </si>
+  <si>
+    <t>2024-11-29-0418_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0418_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0428_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTd</t>
+  </si>
+  <si>
+    <t>2024-11-29_04:39:00</t>
+  </si>
+  <si>
+    <t>2024-11-29-0439_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0449_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTe</t>
+  </si>
+  <si>
+    <t>2024-11-29_05:00:00</t>
+  </si>
+  <si>
+    <t>2024-11-29-0459_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0500_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0510_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTf</t>
+  </si>
+  <si>
+    <t>2024-11-29_05:20:54</t>
+  </si>
+  <si>
+    <t>2024-11-29-0520_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0520_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0531_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTg</t>
+  </si>
+  <si>
+    <t>2024-11-29_05:41:48</t>
+  </si>
+  <si>
+    <t>2024-11-29-0541_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0541_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0552_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTh</t>
+  </si>
+  <si>
+    <t>2024-11-29_06:02:42</t>
+  </si>
+  <si>
+    <t>2024-11-29-0602_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0602_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0613_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTi</t>
+  </si>
+  <si>
+    <t>2024-11-29_06:26:36</t>
+  </si>
+  <si>
+    <t>2024-11-29-0626_6-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0626_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0637_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTj</t>
+  </si>
+  <si>
+    <t>2024-11-29_06:47:36</t>
+  </si>
+  <si>
+    <t>2024-11-29-0647_6-Jupiter_R665G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0647_6-Jupiter_R665G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0658_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTk</t>
+  </si>
+  <si>
+    <t>2024-11-29_07:08:30</t>
+  </si>
+  <si>
+    <t>2024-11-29-0708_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0708_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0719_0-Jupiter_R686G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTl</t>
+  </si>
+  <si>
+    <t>2024-11-29_07:29:24</t>
+  </si>
+  <si>
+    <t>2024-11-29-0729_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0729_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0739_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTm</t>
+  </si>
+  <si>
+    <t>2024-11-29_07:50:18</t>
+  </si>
+  <si>
+    <t>2024-11-29-0750_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0750_3-Jupiter_R656G647B632-RGB_WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0800_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241129UTn</t>
+  </si>
+  <si>
+    <t>2024-11-29_08:11:18</t>
+  </si>
+  <si>
+    <t>2024-11-29-0811_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-11-29-0811_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>20241202UTa</t>
+  </si>
+  <si>
+    <t>2024-12-02_02:51:36</t>
+  </si>
+  <si>
+    <t>2024-12-02-0251_6-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0251_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0302_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241202UTb</t>
+  </si>
+  <si>
+    <t>2024-12-02_03:12:30</t>
+  </si>
+  <si>
+    <t>2024-12-02-0312_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0312_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0323_0-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241202UTc</t>
+  </si>
+  <si>
+    <t>2024-12-02_03:33:24</t>
+  </si>
+  <si>
+    <t>2024-12-02-0333_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0333_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0343_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241202UTd</t>
+  </si>
+  <si>
+    <t>2024-12-02_03:55:48</t>
+  </si>
+  <si>
+    <t>2024-12-02-0355_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0355_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0406_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241202UTe</t>
+  </si>
+  <si>
+    <t>2024-12-02_04:16:42</t>
+  </si>
+  <si>
+    <t>2024-12-02-0416_7-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0416_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0427_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241202UTf</t>
+  </si>
+  <si>
+    <t>2024-12-02_04:37:36</t>
+  </si>
+  <si>
+    <t>2024-12-02-0437_6-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0437_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0448_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241202UTg</t>
+  </si>
+  <si>
+    <t>2024-12-02_04:58:30</t>
+  </si>
+  <si>
+    <t>2024-12-02-0458_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0458_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0509_0-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241202UTh</t>
+  </si>
+  <si>
+    <t>2024-12-02_05:19:24</t>
+  </si>
+  <si>
+    <t>2024-12-02-0519_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0519_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-02-0529_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>Good NEDFs (240-360), Good SEB outbreak</t>
+  </si>
+  <si>
+    <t>Possible obscuration on later sequences due to trees; 1/28 00:43 has some of the tail of the NTB outbreak</t>
+  </si>
+  <si>
+    <t>?? is this 16?</t>
+  </si>
+  <si>
+    <t>Stacked</t>
+  </si>
+  <si>
+    <t>Good NEDFs (240-360), Good GRS</t>
+  </si>
+  <si>
+    <t>Poor focus</t>
+  </si>
+  <si>
+    <t>Very good focus, Good GRS</t>
+  </si>
+  <si>
+    <t>Flats! Poor to very good focus, Good GRS, Good SEB outbreak</t>
+  </si>
+  <si>
+    <t>Good to very good focus, Good GRS, Good SEB outbreak, Good NTB outbreak</t>
+  </si>
+  <si>
+    <t>Poor focus, Maybe some good NEDFs</t>
+  </si>
+  <si>
+    <t>L1~15-240 NEDF coverage</t>
+  </si>
+  <si>
+    <t>L1~0-230 NEDF coverage</t>
+  </si>
+  <si>
+    <t>L1~110-310 NEDF coverage</t>
+  </si>
+  <si>
+    <t>Very good focus, Good GRS - Seems like 15 Sci and 14 RGB</t>
+  </si>
+  <si>
+    <t>Very good focus, Good SEB outbreak, Good GRS(only 16 RGB) Plus 2 RGB 1x1 sets</t>
+  </si>
+  <si>
+    <t>Leigh VISIER Data</t>
   </si>
 </sst>
 </file>
@@ -2703,7 +3431,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -2746,6 +3474,8 @@
     <xf numFmtId="0" fontId="21" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3101,20 +3831,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O129"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B84" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D96" sqref="D96"/>
+      <selection pane="bottomRight" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.81640625" customWidth="1"/>
     <col min="2" max="2" width="27.26953125" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9179,6 +9909,2027 @@
       </c>
       <c r="O129" t="s">
         <v>684</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>700</v>
+      </c>
+      <c r="B130" t="s">
+        <v>701</v>
+      </c>
+      <c r="C130">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="D130">
+        <v>88.8</v>
+      </c>
+      <c r="E130">
+        <v>220.9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" t="s">
+        <v>610</v>
+      </c>
+      <c r="J130" t="s">
+        <v>610</v>
+      </c>
+      <c r="K130" t="s">
+        <v>702</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130" t="s">
+        <v>703</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>705</v>
+      </c>
+      <c r="B131" t="s">
+        <v>706</v>
+      </c>
+      <c r="C131">
+        <v>57.2</v>
+      </c>
+      <c r="D131">
+        <v>342.2</v>
+      </c>
+      <c r="E131">
+        <v>115.3</v>
+      </c>
+      <c r="F131" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" t="s">
+        <v>610</v>
+      </c>
+      <c r="J131" t="s">
+        <v>610</v>
+      </c>
+      <c r="K131" t="s">
+        <v>707</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131" t="s">
+        <v>708</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>710</v>
+      </c>
+      <c r="B132" t="s">
+        <v>711</v>
+      </c>
+      <c r="C132">
+        <v>70</v>
+      </c>
+      <c r="D132">
+        <v>354.9</v>
+      </c>
+      <c r="E132">
+        <v>128</v>
+      </c>
+      <c r="F132" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" t="s">
+        <v>610</v>
+      </c>
+      <c r="J132" t="s">
+        <v>610</v>
+      </c>
+      <c r="K132" t="s">
+        <v>712</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132" t="s">
+        <v>713</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>715</v>
+      </c>
+      <c r="B133" t="s">
+        <v>716</v>
+      </c>
+      <c r="C133">
+        <v>84.7</v>
+      </c>
+      <c r="D133">
+        <v>9.4</v>
+      </c>
+      <c r="E133">
+        <v>142.5</v>
+      </c>
+      <c r="F133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" t="s">
+        <v>610</v>
+      </c>
+      <c r="J133" t="s">
+        <v>610</v>
+      </c>
+      <c r="K133" t="s">
+        <v>717</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133" t="s">
+        <v>718</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>719</v>
+      </c>
+      <c r="B134" t="s">
+        <v>720</v>
+      </c>
+      <c r="C134">
+        <v>97.5</v>
+      </c>
+      <c r="D134">
+        <v>22.1</v>
+      </c>
+      <c r="E134">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="F134" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" t="s">
+        <v>610</v>
+      </c>
+      <c r="J134" t="s">
+        <v>610</v>
+      </c>
+      <c r="K134" t="s">
+        <v>721</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134" t="s">
+        <v>722</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>724</v>
+      </c>
+      <c r="B135" t="s">
+        <v>725</v>
+      </c>
+      <c r="C135">
+        <v>116.8</v>
+      </c>
+      <c r="D135">
+        <v>41.2</v>
+      </c>
+      <c r="E135">
+        <v>174.3</v>
+      </c>
+      <c r="F135" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" t="s">
+        <v>27</v>
+      </c>
+      <c r="I135" t="s">
+        <v>610</v>
+      </c>
+      <c r="J135" t="s">
+        <v>610</v>
+      </c>
+      <c r="K135" t="s">
+        <v>726</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135" t="s">
+        <v>727</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>729</v>
+      </c>
+      <c r="B136" t="s">
+        <v>730</v>
+      </c>
+      <c r="C136">
+        <v>129.6</v>
+      </c>
+      <c r="D136">
+        <v>53.9</v>
+      </c>
+      <c r="E136">
+        <v>187</v>
+      </c>
+      <c r="F136" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136" t="s">
+        <v>610</v>
+      </c>
+      <c r="J136" t="s">
+        <v>610</v>
+      </c>
+      <c r="K136" t="s">
+        <v>731</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136" t="s">
+        <v>732</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>734</v>
+      </c>
+      <c r="B137" t="s">
+        <v>735</v>
+      </c>
+      <c r="C137">
+        <v>151</v>
+      </c>
+      <c r="D137">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="E137">
+        <v>208.3</v>
+      </c>
+      <c r="F137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G137" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" t="s">
+        <v>27</v>
+      </c>
+      <c r="I137" t="s">
+        <v>610</v>
+      </c>
+      <c r="J137" t="s">
+        <v>610</v>
+      </c>
+      <c r="K137" t="s">
+        <v>736</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137" t="s">
+        <v>737</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>739</v>
+      </c>
+      <c r="B138" t="s">
+        <v>740</v>
+      </c>
+      <c r="C138">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="D138">
+        <v>87.8</v>
+      </c>
+      <c r="E138">
+        <v>221</v>
+      </c>
+      <c r="F138" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" t="s">
+        <v>27</v>
+      </c>
+      <c r="I138" t="s">
+        <v>610</v>
+      </c>
+      <c r="J138" t="s">
+        <v>610</v>
+      </c>
+      <c r="K138" t="s">
+        <v>741</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138" t="s">
+        <v>742</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>744</v>
+      </c>
+      <c r="B139" t="s">
+        <v>745</v>
+      </c>
+      <c r="C139">
+        <v>189.1</v>
+      </c>
+      <c r="D139">
+        <v>112.9</v>
+      </c>
+      <c r="E139">
+        <v>246</v>
+      </c>
+      <c r="F139" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" t="s">
+        <v>27</v>
+      </c>
+      <c r="I139" t="s">
+        <v>610</v>
+      </c>
+      <c r="J139" t="s">
+        <v>610</v>
+      </c>
+      <c r="K139" t="s">
+        <v>746</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139" t="s">
+        <v>746</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>748</v>
+      </c>
+      <c r="B140" t="s">
+        <v>749</v>
+      </c>
+      <c r="C140">
+        <v>201.9</v>
+      </c>
+      <c r="D140">
+        <v>125.6</v>
+      </c>
+      <c r="E140">
+        <v>258.7</v>
+      </c>
+      <c r="F140" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" t="s">
+        <v>27</v>
+      </c>
+      <c r="I140" t="s">
+        <v>610</v>
+      </c>
+      <c r="J140" t="s">
+        <v>610</v>
+      </c>
+      <c r="K140" t="s">
+        <v>750</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140" t="s">
+        <v>751</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>753</v>
+      </c>
+      <c r="B146" t="s">
+        <v>754</v>
+      </c>
+      <c r="C146">
+        <v>114.4</v>
+      </c>
+      <c r="D146">
+        <v>330</v>
+      </c>
+      <c r="E146">
+        <v>105.5</v>
+      </c>
+      <c r="F146" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" t="s">
+        <v>27</v>
+      </c>
+      <c r="I146" t="s">
+        <v>132</v>
+      </c>
+      <c r="J146" t="s">
+        <v>70</v>
+      </c>
+      <c r="K146" t="s">
+        <v>755</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146" t="s">
+        <v>756</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>758</v>
+      </c>
+      <c r="B147" t="s">
+        <v>759</v>
+      </c>
+      <c r="C147">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="D147">
+        <v>296.8</v>
+      </c>
+      <c r="E147">
+        <v>75</v>
+      </c>
+      <c r="F147" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" t="s">
+        <v>27</v>
+      </c>
+      <c r="I147" t="s">
+        <v>132</v>
+      </c>
+      <c r="J147" t="s">
+        <v>70</v>
+      </c>
+      <c r="K147" t="s">
+        <v>760</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147" t="s">
+        <v>761</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>763</v>
+      </c>
+      <c r="B148" t="s">
+        <v>764</v>
+      </c>
+      <c r="C148">
+        <v>169.4</v>
+      </c>
+      <c r="D148">
+        <v>309.5</v>
+      </c>
+      <c r="E148">
+        <v>87.7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" t="s">
+        <v>27</v>
+      </c>
+      <c r="I148" t="s">
+        <v>132</v>
+      </c>
+      <c r="J148" t="s">
+        <v>70</v>
+      </c>
+      <c r="K148" t="s">
+        <v>765</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148" t="s">
+        <v>766</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>768</v>
+      </c>
+      <c r="B149" t="s">
+        <v>769</v>
+      </c>
+      <c r="C149">
+        <v>182.2</v>
+      </c>
+      <c r="D149">
+        <v>322.10000000000002</v>
+      </c>
+      <c r="E149">
+        <v>100.3</v>
+      </c>
+      <c r="F149" t="s">
+        <v>26</v>
+      </c>
+      <c r="G149" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" t="s">
+        <v>132</v>
+      </c>
+      <c r="J149" t="s">
+        <v>70</v>
+      </c>
+      <c r="K149" t="s">
+        <v>770</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149" t="s">
+        <v>771</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>773</v>
+      </c>
+      <c r="B150" t="s">
+        <v>774</v>
+      </c>
+      <c r="C150">
+        <v>194.9</v>
+      </c>
+      <c r="D150">
+        <v>334.7</v>
+      </c>
+      <c r="E150">
+        <v>112.9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" t="s">
+        <v>27</v>
+      </c>
+      <c r="I150" t="s">
+        <v>132</v>
+      </c>
+      <c r="J150" t="s">
+        <v>70</v>
+      </c>
+      <c r="K150" t="s">
+        <v>775</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150" t="s">
+        <v>776</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>778</v>
+      </c>
+      <c r="B151" t="s">
+        <v>779</v>
+      </c>
+      <c r="C151">
+        <v>212</v>
+      </c>
+      <c r="D151">
+        <v>351.7</v>
+      </c>
+      <c r="E151">
+        <v>129.9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" t="s">
+        <v>132</v>
+      </c>
+      <c r="J151" t="s">
+        <v>70</v>
+      </c>
+      <c r="K151" t="s">
+        <v>780</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151" t="s">
+        <v>781</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>783</v>
+      </c>
+      <c r="B152" t="s">
+        <v>784</v>
+      </c>
+      <c r="C152">
+        <v>224.8</v>
+      </c>
+      <c r="D152">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E152">
+        <v>142.6</v>
+      </c>
+      <c r="F152" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" t="s">
+        <v>27</v>
+      </c>
+      <c r="I152" t="s">
+        <v>132</v>
+      </c>
+      <c r="J152" t="s">
+        <v>70</v>
+      </c>
+      <c r="K152" t="s">
+        <v>785</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152" t="s">
+        <v>786</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>788</v>
+      </c>
+      <c r="B153" t="s">
+        <v>789</v>
+      </c>
+      <c r="C153">
+        <v>237.5</v>
+      </c>
+      <c r="D153">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="F153" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" t="s">
+        <v>27</v>
+      </c>
+      <c r="I153" t="s">
+        <v>132</v>
+      </c>
+      <c r="J153" t="s">
+        <v>70</v>
+      </c>
+      <c r="K153" t="s">
+        <v>790</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153" t="s">
+        <v>791</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>793</v>
+      </c>
+      <c r="B154" t="s">
+        <v>794</v>
+      </c>
+      <c r="C154">
+        <v>250.3</v>
+      </c>
+      <c r="D154">
+        <v>29.7</v>
+      </c>
+      <c r="E154">
+        <v>167.9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" t="s">
+        <v>27</v>
+      </c>
+      <c r="I154" t="s">
+        <v>132</v>
+      </c>
+      <c r="J154" t="s">
+        <v>70</v>
+      </c>
+      <c r="K154" t="s">
+        <v>795</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154" t="s">
+        <v>796</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>798</v>
+      </c>
+      <c r="B155" t="s">
+        <v>799</v>
+      </c>
+      <c r="C155">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="D155">
+        <v>42.3</v>
+      </c>
+      <c r="E155">
+        <v>180.5</v>
+      </c>
+      <c r="F155" t="s">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" t="s">
+        <v>27</v>
+      </c>
+      <c r="I155" t="s">
+        <v>132</v>
+      </c>
+      <c r="J155" t="s">
+        <v>70</v>
+      </c>
+      <c r="K155" t="s">
+        <v>800</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155" t="s">
+        <v>801</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>803</v>
+      </c>
+      <c r="B156" t="s">
+        <v>804</v>
+      </c>
+      <c r="C156">
+        <v>173.2</v>
+      </c>
+      <c r="D156">
+        <v>206.9</v>
+      </c>
+      <c r="E156">
+        <v>348.7</v>
+      </c>
+      <c r="F156" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>18</v>
+      </c>
+      <c r="H156" t="s">
+        <v>27</v>
+      </c>
+      <c r="I156" t="s">
+        <v>132</v>
+      </c>
+      <c r="J156" t="s">
+        <v>70</v>
+      </c>
+      <c r="K156" t="s">
+        <v>805</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156" t="s">
+        <v>806</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>808</v>
+      </c>
+      <c r="B157" t="s">
+        <v>809</v>
+      </c>
+      <c r="C157">
+        <v>185.7</v>
+      </c>
+      <c r="D157">
+        <v>219.3</v>
+      </c>
+      <c r="E157">
+        <v>1.2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>26</v>
+      </c>
+      <c r="G157" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" t="s">
+        <v>27</v>
+      </c>
+      <c r="I157" t="s">
+        <v>132</v>
+      </c>
+      <c r="J157" t="s">
+        <v>70</v>
+      </c>
+      <c r="K157" t="s">
+        <v>810</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157" t="s">
+        <v>811</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>813</v>
+      </c>
+      <c r="B158" t="s">
+        <v>814</v>
+      </c>
+      <c r="C158">
+        <v>198.7</v>
+      </c>
+      <c r="D158">
+        <v>232.1</v>
+      </c>
+      <c r="E158">
+        <v>14</v>
+      </c>
+      <c r="F158" t="s">
+        <v>26</v>
+      </c>
+      <c r="G158" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" t="s">
+        <v>27</v>
+      </c>
+      <c r="I158" t="s">
+        <v>132</v>
+      </c>
+      <c r="J158" t="s">
+        <v>70</v>
+      </c>
+      <c r="K158" t="s">
+        <v>815</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158" t="s">
+        <v>816</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>818</v>
+      </c>
+      <c r="B159" t="s">
+        <v>819</v>
+      </c>
+      <c r="C159">
+        <v>211.4</v>
+      </c>
+      <c r="D159">
+        <v>244.8</v>
+      </c>
+      <c r="E159">
+        <v>26.7</v>
+      </c>
+      <c r="F159" t="s">
+        <v>26</v>
+      </c>
+      <c r="G159" t="s">
+        <v>18</v>
+      </c>
+      <c r="H159" t="s">
+        <v>27</v>
+      </c>
+      <c r="I159" t="s">
+        <v>132</v>
+      </c>
+      <c r="J159" t="s">
+        <v>70</v>
+      </c>
+      <c r="K159" t="s">
+        <v>820</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159" t="s">
+        <v>820</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>822</v>
+      </c>
+      <c r="B160" t="s">
+        <v>823</v>
+      </c>
+      <c r="C160">
+        <v>224.2</v>
+      </c>
+      <c r="D160">
+        <v>257.39999999999998</v>
+      </c>
+      <c r="E160">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F160" t="s">
+        <v>26</v>
+      </c>
+      <c r="G160" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" t="s">
+        <v>27</v>
+      </c>
+      <c r="I160" t="s">
+        <v>132</v>
+      </c>
+      <c r="J160" t="s">
+        <v>70</v>
+      </c>
+      <c r="K160" t="s">
+        <v>824</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160" t="s">
+        <v>825</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>827</v>
+      </c>
+      <c r="B161" t="s">
+        <v>828</v>
+      </c>
+      <c r="C161">
+        <v>237</v>
+      </c>
+      <c r="D161">
+        <v>270.10000000000002</v>
+      </c>
+      <c r="E161">
+        <v>52</v>
+      </c>
+      <c r="F161" t="s">
+        <v>26</v>
+      </c>
+      <c r="G161" t="s">
+        <v>18</v>
+      </c>
+      <c r="H161" t="s">
+        <v>27</v>
+      </c>
+      <c r="I161" t="s">
+        <v>132</v>
+      </c>
+      <c r="J161" t="s">
+        <v>70</v>
+      </c>
+      <c r="K161" t="s">
+        <v>829</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161" t="s">
+        <v>830</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>832</v>
+      </c>
+      <c r="B162" t="s">
+        <v>833</v>
+      </c>
+      <c r="C162">
+        <v>249.7</v>
+      </c>
+      <c r="D162">
+        <v>282.7</v>
+      </c>
+      <c r="E162">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="F162" t="s">
+        <v>26</v>
+      </c>
+      <c r="G162" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" t="s">
+        <v>27</v>
+      </c>
+      <c r="I162" t="s">
+        <v>132</v>
+      </c>
+      <c r="J162" t="s">
+        <v>70</v>
+      </c>
+      <c r="K162" t="s">
+        <v>834</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162" t="s">
+        <v>835</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>837</v>
+      </c>
+      <c r="B163" t="s">
+        <v>838</v>
+      </c>
+      <c r="C163">
+        <v>262.5</v>
+      </c>
+      <c r="D163">
+        <v>295.3</v>
+      </c>
+      <c r="E163">
+        <v>77.3</v>
+      </c>
+      <c r="F163" t="s">
+        <v>26</v>
+      </c>
+      <c r="G163" t="s">
+        <v>18</v>
+      </c>
+      <c r="H163" t="s">
+        <v>27</v>
+      </c>
+      <c r="I163" t="s">
+        <v>132</v>
+      </c>
+      <c r="J163" t="s">
+        <v>70</v>
+      </c>
+      <c r="K163" t="s">
+        <v>839</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163" t="s">
+        <v>840</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>842</v>
+      </c>
+      <c r="B164" t="s">
+        <v>843</v>
+      </c>
+      <c r="C164">
+        <v>277</v>
+      </c>
+      <c r="D164">
+        <v>309.8</v>
+      </c>
+      <c r="E164">
+        <v>91.7</v>
+      </c>
+      <c r="F164" t="s">
+        <v>26</v>
+      </c>
+      <c r="G164" t="s">
+        <v>18</v>
+      </c>
+      <c r="H164" t="s">
+        <v>27</v>
+      </c>
+      <c r="I164" t="s">
+        <v>132</v>
+      </c>
+      <c r="J164" t="s">
+        <v>70</v>
+      </c>
+      <c r="K164" t="s">
+        <v>844</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164" t="s">
+        <v>845</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>847</v>
+      </c>
+      <c r="B165" t="s">
+        <v>848</v>
+      </c>
+      <c r="C165">
+        <v>289.8</v>
+      </c>
+      <c r="D165">
+        <v>322.5</v>
+      </c>
+      <c r="E165">
+        <v>104.4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" t="s">
+        <v>18</v>
+      </c>
+      <c r="H165" t="s">
+        <v>27</v>
+      </c>
+      <c r="I165" t="s">
+        <v>132</v>
+      </c>
+      <c r="J165" t="s">
+        <v>70</v>
+      </c>
+      <c r="K165" t="s">
+        <v>849</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165" t="s">
+        <v>850</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>852</v>
+      </c>
+      <c r="B166" t="s">
+        <v>853</v>
+      </c>
+      <c r="C166">
+        <v>302.60000000000002</v>
+      </c>
+      <c r="D166">
+        <v>335.1</v>
+      </c>
+      <c r="E166">
+        <v>117</v>
+      </c>
+      <c r="F166" t="s">
+        <v>26</v>
+      </c>
+      <c r="G166" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" t="s">
+        <v>27</v>
+      </c>
+      <c r="I166" t="s">
+        <v>132</v>
+      </c>
+      <c r="J166" t="s">
+        <v>70</v>
+      </c>
+      <c r="K166" t="s">
+        <v>854</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166" t="s">
+        <v>855</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>857</v>
+      </c>
+      <c r="B167" t="s">
+        <v>858</v>
+      </c>
+      <c r="C167">
+        <v>315.3</v>
+      </c>
+      <c r="D167">
+        <v>347.8</v>
+      </c>
+      <c r="E167">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="F167" t="s">
+        <v>26</v>
+      </c>
+      <c r="G167" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" t="s">
+        <v>27</v>
+      </c>
+      <c r="I167" t="s">
+        <v>132</v>
+      </c>
+      <c r="J167" t="s">
+        <v>70</v>
+      </c>
+      <c r="K167" t="s">
+        <v>859</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167" t="s">
+        <v>860</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>862</v>
+      </c>
+      <c r="B168" t="s">
+        <v>863</v>
+      </c>
+      <c r="C168">
+        <v>328.1</v>
+      </c>
+      <c r="D168">
+        <v>0.4</v>
+      </c>
+      <c r="E168">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="F168" t="s">
+        <v>26</v>
+      </c>
+      <c r="G168" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" t="s">
+        <v>27</v>
+      </c>
+      <c r="I168" t="s">
+        <v>132</v>
+      </c>
+      <c r="J168" t="s">
+        <v>70</v>
+      </c>
+      <c r="K168" t="s">
+        <v>864</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168" t="s">
+        <v>865</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>867</v>
+      </c>
+      <c r="B169" t="s">
+        <v>868</v>
+      </c>
+      <c r="C169">
+        <v>340.9</v>
+      </c>
+      <c r="D169">
+        <v>13.1</v>
+      </c>
+      <c r="E169">
+        <v>155</v>
+      </c>
+      <c r="F169" t="s">
+        <v>26</v>
+      </c>
+      <c r="G169" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169" t="s">
+        <v>27</v>
+      </c>
+      <c r="I169" t="s">
+        <v>132</v>
+      </c>
+      <c r="J169" t="s">
+        <v>70</v>
+      </c>
+      <c r="K169" t="s">
+        <v>869</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169" t="s">
+        <v>870</v>
+      </c>
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>871</v>
+      </c>
+      <c r="B170" t="s">
+        <v>872</v>
+      </c>
+      <c r="C170">
+        <v>260</v>
+      </c>
+      <c r="D170">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="E170">
+        <v>53.7</v>
+      </c>
+      <c r="F170" t="s">
+        <v>26</v>
+      </c>
+      <c r="G170" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" t="s">
+        <v>27</v>
+      </c>
+      <c r="I170" t="s">
+        <v>132</v>
+      </c>
+      <c r="J170" t="s">
+        <v>70</v>
+      </c>
+      <c r="K170" t="s">
+        <v>873</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170" t="s">
+        <v>874</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>876</v>
+      </c>
+      <c r="B171" t="s">
+        <v>877</v>
+      </c>
+      <c r="C171">
+        <v>272.8</v>
+      </c>
+      <c r="D171">
+        <v>283.7</v>
+      </c>
+      <c r="E171">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F171" t="s">
+        <v>26</v>
+      </c>
+      <c r="G171" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" t="s">
+        <v>27</v>
+      </c>
+      <c r="I171" t="s">
+        <v>132</v>
+      </c>
+      <c r="J171" t="s">
+        <v>70</v>
+      </c>
+      <c r="K171" t="s">
+        <v>878</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171" t="s">
+        <v>879</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>881</v>
+      </c>
+      <c r="B172" t="s">
+        <v>882</v>
+      </c>
+      <c r="C172">
+        <v>285.5</v>
+      </c>
+      <c r="D172">
+        <v>296.3</v>
+      </c>
+      <c r="E172">
+        <v>79</v>
+      </c>
+      <c r="F172" t="s">
+        <v>26</v>
+      </c>
+      <c r="G172" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" t="s">
+        <v>27</v>
+      </c>
+      <c r="I172" t="s">
+        <v>132</v>
+      </c>
+      <c r="J172" t="s">
+        <v>70</v>
+      </c>
+      <c r="K172" t="s">
+        <v>883</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172" t="s">
+        <v>884</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>886</v>
+      </c>
+      <c r="B173" t="s">
+        <v>887</v>
+      </c>
+      <c r="C173">
+        <v>299.2</v>
+      </c>
+      <c r="D173">
+        <v>309.89999999999998</v>
+      </c>
+      <c r="E173">
+        <v>92.6</v>
+      </c>
+      <c r="F173" t="s">
+        <v>26</v>
+      </c>
+      <c r="G173" t="s">
+        <v>18</v>
+      </c>
+      <c r="H173" t="s">
+        <v>27</v>
+      </c>
+      <c r="I173" t="s">
+        <v>132</v>
+      </c>
+      <c r="J173" t="s">
+        <v>70</v>
+      </c>
+      <c r="K173" t="s">
+        <v>888</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173" t="s">
+        <v>889</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>891</v>
+      </c>
+      <c r="B174" t="s">
+        <v>892</v>
+      </c>
+      <c r="C174">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="D174">
+        <v>322.5</v>
+      </c>
+      <c r="E174">
+        <v>105.2</v>
+      </c>
+      <c r="F174" t="s">
+        <v>26</v>
+      </c>
+      <c r="G174" t="s">
+        <v>18</v>
+      </c>
+      <c r="H174" t="s">
+        <v>27</v>
+      </c>
+      <c r="I174" t="s">
+        <v>132</v>
+      </c>
+      <c r="J174" t="s">
+        <v>70</v>
+      </c>
+      <c r="K174" t="s">
+        <v>893</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174" t="s">
+        <v>894</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>896</v>
+      </c>
+      <c r="B175" t="s">
+        <v>897</v>
+      </c>
+      <c r="C175">
+        <v>324.7</v>
+      </c>
+      <c r="D175">
+        <v>335.1</v>
+      </c>
+      <c r="E175">
+        <v>117.8</v>
+      </c>
+      <c r="F175" t="s">
+        <v>26</v>
+      </c>
+      <c r="G175" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" t="s">
+        <v>27</v>
+      </c>
+      <c r="I175" t="s">
+        <v>132</v>
+      </c>
+      <c r="J175" t="s">
+        <v>70</v>
+      </c>
+      <c r="K175" t="s">
+        <v>898</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175" t="s">
+        <v>899</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>901</v>
+      </c>
+      <c r="B176" t="s">
+        <v>902</v>
+      </c>
+      <c r="C176">
+        <v>337.4</v>
+      </c>
+      <c r="D176">
+        <v>347.8</v>
+      </c>
+      <c r="E176">
+        <v>130.5</v>
+      </c>
+      <c r="F176" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" t="s">
+        <v>18</v>
+      </c>
+      <c r="H176" t="s">
+        <v>27</v>
+      </c>
+      <c r="I176" t="s">
+        <v>132</v>
+      </c>
+      <c r="J176" t="s">
+        <v>70</v>
+      </c>
+      <c r="K176" t="s">
+        <v>903</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176" t="s">
+        <v>904</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>906</v>
+      </c>
+      <c r="B177" t="s">
+        <v>907</v>
+      </c>
+      <c r="C177">
+        <v>350.2</v>
+      </c>
+      <c r="D177">
+        <v>0.4</v>
+      </c>
+      <c r="E177">
+        <v>143.1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>26</v>
+      </c>
+      <c r="G177" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" t="s">
+        <v>27</v>
+      </c>
+      <c r="I177" t="s">
+        <v>132</v>
+      </c>
+      <c r="J177" t="s">
+        <v>70</v>
+      </c>
+      <c r="K177" t="s">
+        <v>908</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177" t="s">
+        <v>909</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -9192,8 +11943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F58391A-1A18-48BB-B42D-F47ACF826E68}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
@@ -10053,39 +12804,39 @@
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130">
+      <c r="A130" t="str">
         <f>'Catalog-static'!A130</f>
-        <v>0</v>
+        <v>20241023UTa</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131">
+      <c r="A131" t="str">
         <f>'Catalog-static'!A131</f>
-        <v>0</v>
+        <v>20241027UTa</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132">
+      <c r="A132" t="str">
         <f>'Catalog-static'!A132</f>
-        <v>0</v>
+        <v>20241027UTb</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133">
+      <c r="A133" t="str">
         <f>'Catalog-static'!A133</f>
-        <v>0</v>
+        <v>20241027UTc</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134">
+      <c r="A134" t="str">
         <f>'Catalog-static'!A134</f>
-        <v>0</v>
+        <v>20241027UTd</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135">
+      <c r="A135" t="str">
         <f>'Catalog-static'!A135</f>
-        <v>0</v>
+        <v>20241027UTe</v>
       </c>
     </row>
   </sheetData>
@@ -10098,14 +12849,14 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="5.6328125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" style="21" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" style="21" customWidth="1"/>
     <col min="8" max="8" width="12.453125" customWidth="1"/>
   </cols>
@@ -12082,4 +14833,642 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB822E-4FB0-4362-8846-871BD8F7A1EF}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="47.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1" s="18">
+        <f>SUM(B2:B99)</f>
+        <v>349</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="32">
+        <v>45554</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="32">
+        <v>45558</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="32">
+        <v>45560</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="32">
+        <v>45564</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>689</v>
+      </c>
+      <c r="D5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="32">
+        <v>45567</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>689</v>
+      </c>
+      <c r="D6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="32">
+        <v>45571</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>689</v>
+      </c>
+      <c r="D7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="32">
+        <v>45572</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>689</v>
+      </c>
+      <c r="D8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="32">
+        <v>45573</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D9" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="32">
+        <v>45574</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>689</v>
+      </c>
+      <c r="D10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="32">
+        <v>45575</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>689</v>
+      </c>
+      <c r="D11" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="32">
+        <v>45579</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="32">
+        <v>45581</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>689</v>
+      </c>
+      <c r="D13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="32">
+        <v>45587</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>689</v>
+      </c>
+      <c r="D14" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="32">
+        <v>45588</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>689</v>
+      </c>
+      <c r="D15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="32">
+        <v>45592</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>689</v>
+      </c>
+      <c r="D16" t="s">
+        <v>697</v>
+      </c>
+      <c r="E16" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="32">
+        <v>45601</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D17" t="s">
+        <v>697</v>
+      </c>
+      <c r="E17" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="32">
+        <v>45607</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>689</v>
+      </c>
+      <c r="D18" t="s">
+        <v>914</v>
+      </c>
+      <c r="E18" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="32">
+        <v>45611</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>689</v>
+      </c>
+      <c r="D19" t="s">
+        <v>697</v>
+      </c>
+      <c r="E19" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="32">
+        <v>45614</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>689</v>
+      </c>
+      <c r="D20" t="s">
+        <v>697</v>
+      </c>
+      <c r="E20" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="32">
+        <v>45617</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>689</v>
+      </c>
+      <c r="D21" t="s">
+        <v>914</v>
+      </c>
+      <c r="E21" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="32">
+        <v>45620</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>689</v>
+      </c>
+      <c r="D22" t="s">
+        <v>914</v>
+      </c>
+      <c r="E22" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="32">
+        <v>45624</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>689</v>
+      </c>
+      <c r="D23" t="s">
+        <v>914</v>
+      </c>
+      <c r="E23" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="32">
+        <v>45625</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>689</v>
+      </c>
+      <c r="D24" t="s">
+        <v>697</v>
+      </c>
+      <c r="E24" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="32">
+        <v>45628</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>689</v>
+      </c>
+      <c r="D25" t="s">
+        <v>697</v>
+      </c>
+      <c r="E25" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="32">
+        <v>45629</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>689</v>
+      </c>
+      <c r="D26" t="s">
+        <v>697</v>
+      </c>
+      <c r="E26" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="32">
+        <v>45631</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>689</v>
+      </c>
+      <c r="D27" t="s">
+        <v>697</v>
+      </c>
+      <c r="E27" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="32">
+        <v>45657</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="32">
+        <v>45663</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="32">
+        <v>45671</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="32">
+        <v>45672</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="32">
+        <v>45673</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="32">
+        <v>45674</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>689</v>
+      </c>
+      <c r="E33" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="32">
+        <v>45684</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>926</v>
+      </c>
+      <c r="E34" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="32">
+        <v>45685</v>
+      </c>
+      <c r="B35">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>913</v>
+      </c>
+      <c r="E35" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="32">
+        <v>45686</v>
+      </c>
+      <c r="B36">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>689</v>
+      </c>
+      <c r="D36" t="s">
+        <v>697</v>
+      </c>
+      <c r="E36" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="32">
+        <v>45688</v>
+      </c>
+      <c r="B37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="32">
+        <v>45695</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="32"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="32"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="32"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="32"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="32"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="32"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="32"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43EC747-111A-4BB5-BFE1-00E73C62C53D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven Hill\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E7D1DE-7646-419C-9343-FBCDEEF9F27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A09BC2A-4D2C-48AC-8316-EFDA7D90A4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="-110" windowWidth="17990" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3348" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="1565">
   <si>
     <t>ObsID</t>
   </si>
@@ -2828,9 +2828,6 @@
     <t>Very good focus, Good SEB outbreak, Good GRS(only 16 RGB) Plus 2 RGB 1x1 sets</t>
   </si>
   <si>
-    <t>Flats! Poor to very good focus, Good GRS, Good SEB outbreak; Quality is pretty variable</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Possible obscuration on later sequences due to trees; </t>
     </r>
@@ -4764,16 +4761,16 @@
     <t>Maybe some striping on early sequences? 21 USABLE - LAST TWO DELETED</t>
   </si>
   <si>
-    <t>Check if zipped</t>
-  </si>
-  <si>
-    <t>Good focus at first, then degrading; Good GRS. 20241231UTc has a strong gradient</t>
-  </si>
-  <si>
-    <t>Zipped?</t>
-  </si>
-  <si>
     <t>Issues stacking</t>
+  </si>
+  <si>
+    <t>Some very sharp images, includes coverage of SEB outbreak</t>
+  </si>
+  <si>
+    <t>Flats! Poor to fair focus, Good GRS, Good SEB outbreak; Quality is pretty variable</t>
+  </si>
+  <si>
+    <t>Fair focus?; Good GRS. 20241231UTc has a strong gradient</t>
   </si>
 </sst>
 </file>
@@ -5465,9 +5462,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5505,7 +5502,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5611,7 +5608,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5753,7 +5750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12361,10 +12358,10 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>922</v>
+      </c>
+      <c r="B141" t="s">
         <v>923</v>
-      </c>
-      <c r="B141" t="s">
-        <v>924</v>
       </c>
       <c r="C141">
         <v>20.2</v>
@@ -12391,27 +12388,27 @@
         <v>70</v>
       </c>
       <c r="K141" t="s">
+        <v>924</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141" t="s">
         <v>925</v>
       </c>
-      <c r="L141">
-        <v>1</v>
-      </c>
-      <c r="M141" t="s">
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
         <v>926</v>
-      </c>
-      <c r="N141">
-        <v>1</v>
-      </c>
-      <c r="O141" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>927</v>
+      </c>
+      <c r="B142" t="s">
         <v>928</v>
-      </c>
-      <c r="B142" t="s">
-        <v>929</v>
       </c>
       <c r="C142">
         <v>39</v>
@@ -12438,27 +12435,27 @@
         <v>70</v>
       </c>
       <c r="K142" t="s">
+        <v>929</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142" t="s">
         <v>930</v>
       </c>
-      <c r="L142">
-        <v>1</v>
-      </c>
-      <c r="M142" t="s">
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
         <v>931</v>
-      </c>
-      <c r="N142">
-        <v>1</v>
-      </c>
-      <c r="O142" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>932</v>
+      </c>
+      <c r="B143" t="s">
         <v>933</v>
-      </c>
-      <c r="B143" t="s">
-        <v>934</v>
       </c>
       <c r="C143">
         <v>57.8</v>
@@ -12485,27 +12482,27 @@
         <v>70</v>
       </c>
       <c r="K143" t="s">
+        <v>934</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143" t="s">
         <v>935</v>
       </c>
-      <c r="L143">
-        <v>1</v>
-      </c>
-      <c r="M143" t="s">
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143" t="s">
         <v>936</v>
-      </c>
-      <c r="N143">
-        <v>1</v>
-      </c>
-      <c r="O143" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>937</v>
+      </c>
+      <c r="B144" t="s">
         <v>938</v>
-      </c>
-      <c r="B144" t="s">
-        <v>939</v>
       </c>
       <c r="C144">
         <v>76.7</v>
@@ -12532,27 +12529,27 @@
         <v>70</v>
       </c>
       <c r="K144" t="s">
+        <v>939</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144" t="s">
         <v>940</v>
       </c>
-      <c r="L144">
-        <v>1</v>
-      </c>
-      <c r="M144" t="s">
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
         <v>941</v>
-      </c>
-      <c r="N144">
-        <v>1</v>
-      </c>
-      <c r="O144" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>942</v>
+      </c>
+      <c r="B145" t="s">
         <v>943</v>
-      </c>
-      <c r="B145" t="s">
-        <v>944</v>
       </c>
       <c r="C145">
         <v>95.5</v>
@@ -12579,19 +12576,19 @@
         <v>70</v>
       </c>
       <c r="K145" t="s">
+        <v>944</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145" t="s">
         <v>945</v>
       </c>
-      <c r="L145">
-        <v>1</v>
-      </c>
-      <c r="M145" t="s">
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
         <v>946</v>
-      </c>
-      <c r="N145">
-        <v>1</v>
-      </c>
-      <c r="O145" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
@@ -12643,10 +12640,10 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>947</v>
+      </c>
+      <c r="B147" t="s">
         <v>948</v>
-      </c>
-      <c r="B147" t="s">
-        <v>949</v>
       </c>
       <c r="C147">
         <v>133.30000000000001</v>
@@ -12673,27 +12670,27 @@
         <v>70</v>
       </c>
       <c r="K147" t="s">
+        <v>949</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147" t="s">
         <v>950</v>
       </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-      <c r="M147" t="s">
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
         <v>951</v>
-      </c>
-      <c r="N147">
-        <v>1</v>
-      </c>
-      <c r="O147" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>952</v>
+      </c>
+      <c r="B148" t="s">
         <v>953</v>
-      </c>
-      <c r="B148" t="s">
-        <v>954</v>
       </c>
       <c r="C148">
         <v>152.1</v>
@@ -12720,27 +12717,27 @@
         <v>70</v>
       </c>
       <c r="K148" t="s">
+        <v>954</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148" t="s">
         <v>955</v>
       </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148" t="s">
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
         <v>956</v>
-      </c>
-      <c r="N148">
-        <v>1</v>
-      </c>
-      <c r="O148" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>957</v>
+      </c>
+      <c r="B149" t="s">
         <v>958</v>
-      </c>
-      <c r="B149" t="s">
-        <v>959</v>
       </c>
       <c r="C149">
         <v>170.9</v>
@@ -12767,27 +12764,27 @@
         <v>70</v>
       </c>
       <c r="K149" t="s">
+        <v>959</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149" t="s">
         <v>960</v>
       </c>
-      <c r="L149">
-        <v>1</v>
-      </c>
-      <c r="M149" t="s">
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
         <v>961</v>
-      </c>
-      <c r="N149">
-        <v>1</v>
-      </c>
-      <c r="O149" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>962</v>
+      </c>
+      <c r="B150" t="s">
         <v>963</v>
-      </c>
-      <c r="B150" t="s">
-        <v>964</v>
       </c>
       <c r="C150">
         <v>189.8</v>
@@ -12814,19 +12811,19 @@
         <v>70</v>
       </c>
       <c r="K150" t="s">
+        <v>964</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150" t="s">
         <v>965</v>
       </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-      <c r="M150" t="s">
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
         <v>966</v>
-      </c>
-      <c r="N150">
-        <v>1</v>
-      </c>
-      <c r="O150" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.35">
@@ -13254,10 +13251,10 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>967</v>
+      </c>
+      <c r="B164" t="s">
         <v>968</v>
-      </c>
-      <c r="B164" t="s">
-        <v>969</v>
       </c>
       <c r="C164">
         <v>223.2</v>
@@ -13284,27 +13281,27 @@
         <v>70</v>
       </c>
       <c r="K164" t="s">
+        <v>969</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164" t="s">
         <v>970</v>
       </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-      <c r="M164" t="s">
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
         <v>971</v>
-      </c>
-      <c r="N164">
-        <v>1</v>
-      </c>
-      <c r="O164" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>972</v>
+      </c>
+      <c r="B165" t="s">
         <v>973</v>
-      </c>
-      <c r="B165" t="s">
-        <v>974</v>
       </c>
       <c r="C165">
         <v>235.9</v>
@@ -13331,27 +13328,27 @@
         <v>70</v>
       </c>
       <c r="K165" t="s">
+        <v>974</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165" t="s">
         <v>975</v>
       </c>
-      <c r="L165">
-        <v>1</v>
-      </c>
-      <c r="M165" t="s">
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
         <v>976</v>
-      </c>
-      <c r="N165">
-        <v>1</v>
-      </c>
-      <c r="O165" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>977</v>
+      </c>
+      <c r="B166" t="s">
         <v>978</v>
-      </c>
-      <c r="B166" t="s">
-        <v>979</v>
       </c>
       <c r="C166">
         <v>248.7</v>
@@ -13378,27 +13375,27 @@
         <v>70</v>
       </c>
       <c r="K166" t="s">
+        <v>979</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166" t="s">
         <v>980</v>
       </c>
-      <c r="L166">
-        <v>1</v>
-      </c>
-      <c r="M166" t="s">
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
         <v>981</v>
-      </c>
-      <c r="N166">
-        <v>1</v>
-      </c>
-      <c r="O166" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>982</v>
+      </c>
+      <c r="B167" t="s">
         <v>983</v>
-      </c>
-      <c r="B167" t="s">
-        <v>984</v>
       </c>
       <c r="C167">
         <v>261.39999999999998</v>
@@ -13425,27 +13422,27 @@
         <v>70</v>
       </c>
       <c r="K167" t="s">
+        <v>984</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167" t="s">
         <v>985</v>
       </c>
-      <c r="L167">
-        <v>1</v>
-      </c>
-      <c r="M167" t="s">
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
         <v>986</v>
-      </c>
-      <c r="N167">
-        <v>1</v>
-      </c>
-      <c r="O167" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>987</v>
+      </c>
+      <c r="B168" t="s">
         <v>988</v>
-      </c>
-      <c r="B168" t="s">
-        <v>989</v>
       </c>
       <c r="C168">
         <v>274.2</v>
@@ -13472,27 +13469,27 @@
         <v>70</v>
       </c>
       <c r="K168" t="s">
+        <v>989</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168" t="s">
         <v>990</v>
       </c>
-      <c r="L168">
-        <v>1</v>
-      </c>
-      <c r="M168" t="s">
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
         <v>991</v>
-      </c>
-      <c r="N168">
-        <v>1</v>
-      </c>
-      <c r="O168" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>992</v>
+      </c>
+      <c r="B169" t="s">
         <v>993</v>
-      </c>
-      <c r="B169" t="s">
-        <v>994</v>
       </c>
       <c r="C169">
         <v>289.10000000000002</v>
@@ -13519,27 +13516,27 @@
         <v>70</v>
       </c>
       <c r="K169" t="s">
+        <v>994</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169" t="s">
         <v>995</v>
       </c>
-      <c r="L169">
-        <v>1</v>
-      </c>
-      <c r="M169" t="s">
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
         <v>996</v>
-      </c>
-      <c r="N169">
-        <v>1</v>
-      </c>
-      <c r="O169" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>997</v>
+      </c>
+      <c r="B170" t="s">
         <v>998</v>
-      </c>
-      <c r="B170" t="s">
-        <v>999</v>
       </c>
       <c r="C170">
         <v>301.89999999999998</v>
@@ -13566,27 +13563,27 @@
         <v>70</v>
       </c>
       <c r="K170" t="s">
+        <v>999</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170" t="s">
         <v>1000</v>
       </c>
-      <c r="L170">
-        <v>1</v>
-      </c>
-      <c r="M170" t="s">
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
         <v>1001</v>
-      </c>
-      <c r="N170">
-        <v>1</v>
-      </c>
-      <c r="O170" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B171" t="s">
         <v>1003</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1004</v>
       </c>
       <c r="C171">
         <v>314.60000000000002</v>
@@ -13613,27 +13610,27 @@
         <v>70</v>
       </c>
       <c r="K171" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171" t="s">
         <v>1005</v>
       </c>
-      <c r="L171">
-        <v>1</v>
-      </c>
-      <c r="M171" t="s">
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
         <v>1006</v>
-      </c>
-      <c r="N171">
-        <v>1</v>
-      </c>
-      <c r="O171" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B172" t="s">
         <v>1008</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1009</v>
       </c>
       <c r="C172">
         <v>327.39999999999998</v>
@@ -13660,27 +13657,27 @@
         <v>70</v>
       </c>
       <c r="K172" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172" t="s">
         <v>1010</v>
       </c>
-      <c r="L172">
-        <v>1</v>
-      </c>
-      <c r="M172" t="s">
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
         <v>1011</v>
-      </c>
-      <c r="N172">
-        <v>1</v>
-      </c>
-      <c r="O172" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B173" t="s">
         <v>1013</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1014</v>
       </c>
       <c r="C173">
         <v>340.2</v>
@@ -13707,27 +13704,27 @@
         <v>70</v>
       </c>
       <c r="K173" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173" t="s">
         <v>1015</v>
       </c>
-      <c r="L173">
-        <v>1</v>
-      </c>
-      <c r="M173" t="s">
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
         <v>1016</v>
-      </c>
-      <c r="N173">
-        <v>1</v>
-      </c>
-      <c r="O173" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B174" t="s">
         <v>1018</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1019</v>
       </c>
       <c r="C174">
         <v>352.9</v>
@@ -13754,27 +13751,27 @@
         <v>70</v>
       </c>
       <c r="K174" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174" t="s">
         <v>1020</v>
       </c>
-      <c r="L174">
-        <v>1</v>
-      </c>
-      <c r="M174" t="s">
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
         <v>1021</v>
-      </c>
-      <c r="N174">
-        <v>1</v>
-      </c>
-      <c r="O174" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B175" t="s">
         <v>1023</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1024</v>
       </c>
       <c r="C175">
         <v>5.7</v>
@@ -13801,27 +13798,27 @@
         <v>70</v>
       </c>
       <c r="K175" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175" t="s">
         <v>1025</v>
       </c>
-      <c r="L175">
-        <v>1</v>
-      </c>
-      <c r="M175" t="s">
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
         <v>1026</v>
-      </c>
-      <c r="N175">
-        <v>1</v>
-      </c>
-      <c r="O175" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B176" t="s">
         <v>1028</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1029</v>
       </c>
       <c r="C176">
         <v>18.399999999999999</v>
@@ -13848,27 +13845,27 @@
         <v>70</v>
       </c>
       <c r="K176" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176" t="s">
         <v>1030</v>
       </c>
-      <c r="L176">
-        <v>1</v>
-      </c>
-      <c r="M176" t="s">
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
         <v>1031</v>
-      </c>
-      <c r="N176">
-        <v>1</v>
-      </c>
-      <c r="O176" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B177" t="s">
         <v>1033</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1034</v>
       </c>
       <c r="C177">
         <v>31.1</v>
@@ -13895,27 +13892,27 @@
         <v>70</v>
       </c>
       <c r="K177" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177" t="s">
         <v>1035</v>
       </c>
-      <c r="L177">
-        <v>1</v>
-      </c>
-      <c r="M177" t="s">
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
         <v>1036</v>
-      </c>
-      <c r="N177">
-        <v>1</v>
-      </c>
-      <c r="O177" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B178" t="s">
         <v>1038</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1039</v>
       </c>
       <c r="C178">
         <v>43.9</v>
@@ -13942,27 +13939,27 @@
         <v>70</v>
       </c>
       <c r="K178" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178" t="s">
         <v>1040</v>
       </c>
-      <c r="L178">
-        <v>1</v>
-      </c>
-      <c r="M178" t="s">
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
         <v>1041</v>
-      </c>
-      <c r="N178">
-        <v>1</v>
-      </c>
-      <c r="O178" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B179" t="s">
         <v>1043</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1044</v>
       </c>
       <c r="C179">
         <v>56.7</v>
@@ -13989,27 +13986,27 @@
         <v>70</v>
       </c>
       <c r="K179" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179" t="s">
         <v>1045</v>
       </c>
-      <c r="L179">
-        <v>1</v>
-      </c>
-      <c r="M179" t="s">
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
         <v>1046</v>
-      </c>
-      <c r="N179">
-        <v>1</v>
-      </c>
-      <c r="O179" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B180" t="s">
         <v>1048</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1049</v>
       </c>
       <c r="C180">
         <v>3.4</v>
@@ -14036,27 +14033,27 @@
         <v>70</v>
       </c>
       <c r="K180" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180" t="s">
         <v>1050</v>
       </c>
-      <c r="L180">
-        <v>1</v>
-      </c>
-      <c r="M180" t="s">
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
         <v>1051</v>
-      </c>
-      <c r="N180">
-        <v>1</v>
-      </c>
-      <c r="O180" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B181" t="s">
         <v>1053</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1054</v>
       </c>
       <c r="C181">
         <v>16.100000000000001</v>
@@ -14083,27 +14080,27 @@
         <v>70</v>
       </c>
       <c r="K181" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181" t="s">
         <v>1055</v>
       </c>
-      <c r="L181">
-        <v>1</v>
-      </c>
-      <c r="M181" t="s">
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
         <v>1056</v>
-      </c>
-      <c r="N181">
-        <v>1</v>
-      </c>
-      <c r="O181" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B182" t="s">
         <v>1058</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1059</v>
       </c>
       <c r="C182">
         <v>28.9</v>
@@ -14130,27 +14127,27 @@
         <v>70</v>
       </c>
       <c r="K182" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182" t="s">
         <v>1060</v>
       </c>
-      <c r="L182">
-        <v>1</v>
-      </c>
-      <c r="M182" t="s">
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
         <v>1061</v>
-      </c>
-      <c r="N182">
-        <v>1</v>
-      </c>
-      <c r="O182" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B183" t="s">
         <v>1063</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1064</v>
       </c>
       <c r="C183">
         <v>41.6</v>
@@ -14177,27 +14174,27 @@
         <v>70</v>
       </c>
       <c r="K183" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183" t="s">
         <v>1065</v>
       </c>
-      <c r="L183">
-        <v>1</v>
-      </c>
-      <c r="M183" t="s">
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
         <v>1066</v>
-      </c>
-      <c r="N183">
-        <v>1</v>
-      </c>
-      <c r="O183" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B184" t="s">
         <v>1068</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1069</v>
       </c>
       <c r="C184">
         <v>54.3</v>
@@ -14224,27 +14221,27 @@
         <v>70</v>
       </c>
       <c r="K184" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184" t="s">
         <v>1070</v>
       </c>
-      <c r="L184">
-        <v>1</v>
-      </c>
-      <c r="M184" t="s">
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
         <v>1071</v>
-      </c>
-      <c r="N184">
-        <v>1</v>
-      </c>
-      <c r="O184" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B185" t="s">
         <v>1073</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1074</v>
       </c>
       <c r="C185">
         <v>67.2</v>
@@ -14271,27 +14268,27 @@
         <v>70</v>
       </c>
       <c r="K185" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185" t="s">
         <v>1075</v>
       </c>
-      <c r="L185">
-        <v>1</v>
-      </c>
-      <c r="M185" t="s">
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
         <v>1076</v>
-      </c>
-      <c r="N185">
-        <v>1</v>
-      </c>
-      <c r="O185" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B186" t="s">
         <v>1078</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1079</v>
       </c>
       <c r="C186">
         <v>79.900000000000006</v>
@@ -14318,27 +14315,27 @@
         <v>70</v>
       </c>
       <c r="K186" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186" t="s">
         <v>1080</v>
       </c>
-      <c r="L186">
-        <v>1</v>
-      </c>
-      <c r="M186" t="s">
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
         <v>1081</v>
-      </c>
-      <c r="N186">
-        <v>1</v>
-      </c>
-      <c r="O186" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B187" t="s">
         <v>1083</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1084</v>
       </c>
       <c r="C187">
         <v>92.6</v>
@@ -14365,27 +14362,27 @@
         <v>70</v>
       </c>
       <c r="K187" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187" t="s">
         <v>1085</v>
       </c>
-      <c r="L187">
-        <v>1</v>
-      </c>
-      <c r="M187" t="s">
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
         <v>1086</v>
-      </c>
-      <c r="N187">
-        <v>1</v>
-      </c>
-      <c r="O187" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B188" t="s">
         <v>1088</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1089</v>
       </c>
       <c r="C188">
         <v>105.4</v>
@@ -14412,27 +14409,27 @@
         <v>70</v>
       </c>
       <c r="K188" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188" t="s">
         <v>1090</v>
       </c>
-      <c r="L188">
-        <v>1</v>
-      </c>
-      <c r="M188" t="s">
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
         <v>1091</v>
-      </c>
-      <c r="N188">
-        <v>1</v>
-      </c>
-      <c r="O188" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B189" t="s">
         <v>1093</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1094</v>
       </c>
       <c r="C189">
         <v>121.2</v>
@@ -14459,27 +14456,27 @@
         <v>70</v>
       </c>
       <c r="K189" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189" t="s">
         <v>1095</v>
       </c>
-      <c r="L189">
-        <v>1</v>
-      </c>
-      <c r="M189" t="s">
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
         <v>1096</v>
-      </c>
-      <c r="N189">
-        <v>1</v>
-      </c>
-      <c r="O189" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B190" t="s">
         <v>1098</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1099</v>
       </c>
       <c r="C190">
         <v>134</v>
@@ -14506,27 +14503,27 @@
         <v>70</v>
       </c>
       <c r="K190" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190" t="s">
         <v>1100</v>
       </c>
-      <c r="L190">
-        <v>1</v>
-      </c>
-      <c r="M190" t="s">
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
         <v>1101</v>
-      </c>
-      <c r="N190">
-        <v>1</v>
-      </c>
-      <c r="O190" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B191" t="s">
         <v>1103</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1104</v>
       </c>
       <c r="C191">
         <v>146.69999999999999</v>
@@ -14553,27 +14550,27 @@
         <v>70</v>
       </c>
       <c r="K191" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191" t="s">
         <v>1105</v>
       </c>
-      <c r="L191">
-        <v>1</v>
-      </c>
-      <c r="M191" t="s">
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
         <v>1106</v>
-      </c>
-      <c r="N191">
-        <v>1</v>
-      </c>
-      <c r="O191" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B192" t="s">
         <v>1108</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1109</v>
       </c>
       <c r="C192">
         <v>159.5</v>
@@ -14600,27 +14597,27 @@
         <v>70</v>
       </c>
       <c r="K192" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192" t="s">
         <v>1110</v>
       </c>
-      <c r="L192">
-        <v>1</v>
-      </c>
-      <c r="M192" t="s">
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" t="s">
         <v>1111</v>
-      </c>
-      <c r="N192">
-        <v>1</v>
-      </c>
-      <c r="O192" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B193" t="s">
         <v>1113</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1114</v>
       </c>
       <c r="C193">
         <v>172.3</v>
@@ -14647,27 +14644,27 @@
         <v>70</v>
       </c>
       <c r="K193" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193" t="s">
         <v>1115</v>
       </c>
-      <c r="L193">
-        <v>1</v>
-      </c>
-      <c r="M193" t="s">
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193" t="s">
         <v>1116</v>
-      </c>
-      <c r="N193">
-        <v>1</v>
-      </c>
-      <c r="O193" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B194" t="s">
         <v>1118</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1119</v>
       </c>
       <c r="C194">
         <v>183.6</v>
@@ -14694,19 +14691,19 @@
         <v>70</v>
       </c>
       <c r="K194" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194" t="s">
         <v>1120</v>
       </c>
-      <c r="L194">
-        <v>1</v>
-      </c>
-      <c r="M194" t="s">
-        <v>1121</v>
-      </c>
       <c r="N194">
         <v>1</v>
       </c>
       <c r="O194" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.35">
@@ -15745,10 +15742,10 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B217" t="s">
         <v>1122</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1123</v>
       </c>
       <c r="C217">
         <v>43.3</v>
@@ -15775,27 +15772,27 @@
         <v>70</v>
       </c>
       <c r="K217" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217" t="s">
         <v>1124</v>
       </c>
-      <c r="L217">
-        <v>1</v>
-      </c>
-      <c r="M217" t="s">
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
         <v>1125</v>
-      </c>
-      <c r="N217">
-        <v>1</v>
-      </c>
-      <c r="O217" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B218" t="s">
         <v>1127</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1128</v>
       </c>
       <c r="C218">
         <v>56.1</v>
@@ -15822,27 +15819,27 @@
         <v>70</v>
       </c>
       <c r="K218" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218" t="s">
         <v>1129</v>
       </c>
-      <c r="L218">
-        <v>1</v>
-      </c>
-      <c r="M218" t="s">
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
         <v>1130</v>
-      </c>
-      <c r="N218">
-        <v>1</v>
-      </c>
-      <c r="O218" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B219" t="s">
         <v>1132</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1133</v>
       </c>
       <c r="C219">
         <v>68.8</v>
@@ -15869,27 +15866,27 @@
         <v>70</v>
       </c>
       <c r="K219" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219" t="s">
         <v>1134</v>
       </c>
-      <c r="L219">
-        <v>1</v>
-      </c>
-      <c r="M219" t="s">
+      <c r="N219">
+        <v>1</v>
+      </c>
+      <c r="O219" t="s">
         <v>1135</v>
-      </c>
-      <c r="N219">
-        <v>1</v>
-      </c>
-      <c r="O219" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B220" t="s">
         <v>1137</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1138</v>
       </c>
       <c r="C220">
         <v>81.599999999999994</v>
@@ -15916,27 +15913,27 @@
         <v>70</v>
       </c>
       <c r="K220" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220" t="s">
         <v>1139</v>
       </c>
-      <c r="L220">
-        <v>1</v>
-      </c>
-      <c r="M220" t="s">
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220" t="s">
         <v>1140</v>
-      </c>
-      <c r="N220">
-        <v>1</v>
-      </c>
-      <c r="O220" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B221" t="s">
         <v>1142</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1143</v>
       </c>
       <c r="C221">
         <v>94.3</v>
@@ -15963,27 +15960,27 @@
         <v>70</v>
       </c>
       <c r="K221" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221" t="s">
         <v>1144</v>
       </c>
-      <c r="L221">
-        <v>1</v>
-      </c>
-      <c r="M221" t="s">
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" t="s">
         <v>1145</v>
-      </c>
-      <c r="N221">
-        <v>1</v>
-      </c>
-      <c r="O221" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B222" t="s">
         <v>1147</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1148</v>
       </c>
       <c r="C222">
         <v>112.3</v>
@@ -16010,27 +16007,27 @@
         <v>70</v>
       </c>
       <c r="K222" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222" t="s">
         <v>1149</v>
       </c>
-      <c r="L222">
-        <v>1</v>
-      </c>
-      <c r="M222" t="s">
+      <c r="N222">
+        <v>1</v>
+      </c>
+      <c r="O222" t="s">
         <v>1150</v>
-      </c>
-      <c r="N222">
-        <v>1</v>
-      </c>
-      <c r="O222" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B223" t="s">
         <v>1152</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1153</v>
       </c>
       <c r="C223">
         <v>125.1</v>
@@ -16057,27 +16054,27 @@
         <v>70</v>
       </c>
       <c r="K223" t="s">
+        <v>1153</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223" t="s">
         <v>1154</v>
       </c>
-      <c r="L223">
-        <v>1</v>
-      </c>
-      <c r="M223" t="s">
+      <c r="N223">
+        <v>1</v>
+      </c>
+      <c r="O223" t="s">
         <v>1155</v>
-      </c>
-      <c r="N223">
-        <v>1</v>
-      </c>
-      <c r="O223" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B224" t="s">
         <v>1157</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1158</v>
       </c>
       <c r="C224">
         <v>137.80000000000001</v>
@@ -16104,27 +16101,27 @@
         <v>70</v>
       </c>
       <c r="K224" t="s">
+        <v>1158</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224" t="s">
         <v>1159</v>
       </c>
-      <c r="L224">
-        <v>1</v>
-      </c>
-      <c r="M224" t="s">
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
         <v>1160</v>
-      </c>
-      <c r="N224">
-        <v>1</v>
-      </c>
-      <c r="O224" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B225" t="s">
         <v>1162</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1163</v>
       </c>
       <c r="C225">
         <v>150.6</v>
@@ -16151,27 +16148,27 @@
         <v>70</v>
       </c>
       <c r="K225" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225" t="s">
         <v>1164</v>
       </c>
-      <c r="L225">
-        <v>1</v>
-      </c>
-      <c r="M225" t="s">
+      <c r="N225">
+        <v>1</v>
+      </c>
+      <c r="O225" t="s">
         <v>1165</v>
-      </c>
-      <c r="N225">
-        <v>1</v>
-      </c>
-      <c r="O225" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B226" t="s">
         <v>1167</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1168</v>
       </c>
       <c r="C226">
         <v>163.30000000000001</v>
@@ -16198,27 +16195,27 @@
         <v>70</v>
       </c>
       <c r="K226" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226" t="s">
         <v>1169</v>
       </c>
-      <c r="L226">
-        <v>1</v>
-      </c>
-      <c r="M226" t="s">
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" t="s">
         <v>1170</v>
-      </c>
-      <c r="N226">
-        <v>1</v>
-      </c>
-      <c r="O226" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B227" t="s">
         <v>1172</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1173</v>
       </c>
       <c r="C227">
         <v>176.1</v>
@@ -16245,27 +16242,27 @@
         <v>70</v>
       </c>
       <c r="K227" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227" t="s">
         <v>1174</v>
       </c>
-      <c r="L227">
-        <v>1</v>
-      </c>
-      <c r="M227" t="s">
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" t="s">
         <v>1175</v>
-      </c>
-      <c r="N227">
-        <v>1</v>
-      </c>
-      <c r="O227" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B228" t="s">
         <v>1177</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1178</v>
       </c>
       <c r="C228">
         <v>188.8</v>
@@ -16292,27 +16289,27 @@
         <v>70</v>
       </c>
       <c r="K228" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228" t="s">
         <v>1179</v>
       </c>
-      <c r="L228">
-        <v>1</v>
-      </c>
-      <c r="M228" t="s">
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" t="s">
         <v>1180</v>
-      </c>
-      <c r="N228">
-        <v>1</v>
-      </c>
-      <c r="O228" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B229" t="s">
         <v>1182</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1183</v>
       </c>
       <c r="C229">
         <v>201.6</v>
@@ -16339,27 +16336,27 @@
         <v>70</v>
       </c>
       <c r="K229" t="s">
+        <v>1183</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229" t="s">
         <v>1184</v>
       </c>
-      <c r="L229">
-        <v>1</v>
-      </c>
-      <c r="M229" t="s">
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229" t="s">
         <v>1185</v>
-      </c>
-      <c r="N229">
-        <v>1</v>
-      </c>
-      <c r="O229" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B230" t="s">
         <v>1187</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1188</v>
       </c>
       <c r="C230">
         <v>214.3</v>
@@ -16386,27 +16383,27 @@
         <v>70</v>
       </c>
       <c r="K230" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230" t="s">
         <v>1189</v>
       </c>
-      <c r="L230">
-        <v>1</v>
-      </c>
-      <c r="M230" t="s">
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230" t="s">
         <v>1190</v>
-      </c>
-      <c r="N230">
-        <v>1</v>
-      </c>
-      <c r="O230" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B231" t="s">
         <v>1192</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1193</v>
       </c>
       <c r="C231">
         <v>227</v>
@@ -16433,27 +16430,27 @@
         <v>70</v>
       </c>
       <c r="K231" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231" t="s">
         <v>1194</v>
       </c>
-      <c r="L231">
-        <v>1</v>
-      </c>
-      <c r="M231" t="s">
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231" t="s">
         <v>1195</v>
-      </c>
-      <c r="N231">
-        <v>1</v>
-      </c>
-      <c r="O231" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B232" t="s">
         <v>1197</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1198</v>
       </c>
       <c r="C232">
         <v>239.9</v>
@@ -16480,27 +16477,27 @@
         <v>70</v>
       </c>
       <c r="K232" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232" t="s">
         <v>1199</v>
       </c>
-      <c r="L232">
-        <v>1</v>
-      </c>
-      <c r="M232" t="s">
+      <c r="N232">
+        <v>1</v>
+      </c>
+      <c r="O232" t="s">
         <v>1200</v>
-      </c>
-      <c r="N232">
-        <v>1</v>
-      </c>
-      <c r="O232" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B233" t="s">
         <v>1202</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1203</v>
       </c>
       <c r="C233">
         <v>342.9</v>
@@ -16527,27 +16524,27 @@
         <v>70</v>
       </c>
       <c r="K233" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233" t="s">
         <v>1204</v>
       </c>
-      <c r="L233">
-        <v>1</v>
-      </c>
-      <c r="M233" t="s">
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233" t="s">
         <v>1205</v>
-      </c>
-      <c r="N233">
-        <v>1</v>
-      </c>
-      <c r="O233" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B234" t="s">
         <v>1207</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1208</v>
       </c>
       <c r="C234">
         <v>355.6</v>
@@ -16574,27 +16571,27 @@
         <v>70</v>
       </c>
       <c r="K234" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234" t="s">
         <v>1209</v>
       </c>
-      <c r="L234">
-        <v>1</v>
-      </c>
-      <c r="M234" t="s">
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" t="s">
         <v>1210</v>
-      </c>
-      <c r="N234">
-        <v>1</v>
-      </c>
-      <c r="O234" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B235" t="s">
         <v>1212</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1213</v>
       </c>
       <c r="C235">
         <v>8.4</v>
@@ -16621,27 +16618,27 @@
         <v>70</v>
       </c>
       <c r="K235" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235" t="s">
         <v>1214</v>
       </c>
-      <c r="L235">
-        <v>1</v>
-      </c>
-      <c r="M235" t="s">
+      <c r="N235">
+        <v>1</v>
+      </c>
+      <c r="O235" t="s">
         <v>1215</v>
-      </c>
-      <c r="N235">
-        <v>1</v>
-      </c>
-      <c r="O235" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B236" t="s">
         <v>1217</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1218</v>
       </c>
       <c r="C236">
         <v>21.2</v>
@@ -16668,27 +16665,27 @@
         <v>70</v>
       </c>
       <c r="K236" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236" t="s">
         <v>1219</v>
       </c>
-      <c r="L236">
-        <v>1</v>
-      </c>
-      <c r="M236" t="s">
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
         <v>1220</v>
-      </c>
-      <c r="N236">
-        <v>1</v>
-      </c>
-      <c r="O236" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B237" t="s">
         <v>1222</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1223</v>
       </c>
       <c r="C237">
         <v>33.9</v>
@@ -16715,27 +16712,27 @@
         <v>70</v>
       </c>
       <c r="K237" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237" t="s">
         <v>1224</v>
       </c>
-      <c r="L237">
-        <v>1</v>
-      </c>
-      <c r="M237" t="s">
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="O237" t="s">
         <v>1225</v>
-      </c>
-      <c r="N237">
-        <v>1</v>
-      </c>
-      <c r="O237" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B238" t="s">
         <v>1227</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1228</v>
       </c>
       <c r="C238">
         <v>46.7</v>
@@ -16762,27 +16759,27 @@
         <v>70</v>
       </c>
       <c r="K238" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238" t="s">
         <v>1229</v>
       </c>
-      <c r="L238">
-        <v>1</v>
-      </c>
-      <c r="M238" t="s">
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
         <v>1230</v>
-      </c>
-      <c r="N238">
-        <v>1</v>
-      </c>
-      <c r="O238" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B239" t="s">
         <v>1232</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1233</v>
       </c>
       <c r="C239">
         <v>59.4</v>
@@ -16809,27 +16806,27 @@
         <v>70</v>
       </c>
       <c r="K239" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239" t="s">
         <v>1234</v>
       </c>
-      <c r="L239">
-        <v>1</v>
-      </c>
-      <c r="M239" t="s">
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239" t="s">
         <v>1235</v>
-      </c>
-      <c r="N239">
-        <v>1</v>
-      </c>
-      <c r="O239" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B240" t="s">
         <v>1237</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1238</v>
       </c>
       <c r="C240">
         <v>86.7</v>
@@ -16856,27 +16853,27 @@
         <v>70</v>
       </c>
       <c r="K240" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240" t="s">
         <v>1239</v>
       </c>
-      <c r="L240">
-        <v>1</v>
-      </c>
-      <c r="M240" t="s">
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240" t="s">
         <v>1240</v>
-      </c>
-      <c r="N240">
-        <v>1</v>
-      </c>
-      <c r="O240" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B241" t="s">
         <v>1242</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1243</v>
       </c>
       <c r="C241">
         <v>98</v>
@@ -16903,27 +16900,27 @@
         <v>70</v>
       </c>
       <c r="K241" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241" t="s">
         <v>1244</v>
       </c>
-      <c r="L241">
-        <v>1</v>
-      </c>
-      <c r="M241" t="s">
+      <c r="N241">
+        <v>1</v>
+      </c>
+      <c r="O241" t="s">
         <v>1245</v>
-      </c>
-      <c r="N241">
-        <v>1</v>
-      </c>
-      <c r="O241" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B242" t="s">
         <v>1247</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1248</v>
       </c>
       <c r="C242">
         <v>110.7</v>
@@ -16950,27 +16947,27 @@
         <v>70</v>
       </c>
       <c r="K242" t="s">
+        <v>1248</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242" t="s">
         <v>1249</v>
       </c>
-      <c r="L242">
-        <v>1</v>
-      </c>
-      <c r="M242" t="s">
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="O242" t="s">
         <v>1250</v>
-      </c>
-      <c r="N242">
-        <v>1</v>
-      </c>
-      <c r="O242" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B243" t="s">
         <v>1252</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1253</v>
       </c>
       <c r="C243">
         <v>123.7</v>
@@ -16997,27 +16994,27 @@
         <v>70</v>
       </c>
       <c r="K243" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243" t="s">
         <v>1254</v>
       </c>
-      <c r="L243">
-        <v>1</v>
-      </c>
-      <c r="M243" t="s">
+      <c r="N243">
+        <v>1</v>
+      </c>
+      <c r="O243" t="s">
         <v>1255</v>
-      </c>
-      <c r="N243">
-        <v>1</v>
-      </c>
-      <c r="O243" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B244" t="s">
         <v>1257</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1258</v>
       </c>
       <c r="C244">
         <v>140</v>
@@ -17044,27 +17041,27 @@
         <v>70</v>
       </c>
       <c r="K244" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244" t="s">
         <v>1259</v>
       </c>
-      <c r="L244">
-        <v>1</v>
-      </c>
-      <c r="M244" t="s">
+      <c r="N244">
+        <v>1</v>
+      </c>
+      <c r="O244" t="s">
         <v>1260</v>
-      </c>
-      <c r="N244">
-        <v>1</v>
-      </c>
-      <c r="O244" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B245" t="s">
         <v>1262</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1263</v>
       </c>
       <c r="C245">
         <v>152.69999999999999</v>
@@ -17091,27 +17088,27 @@
         <v>70</v>
       </c>
       <c r="K245" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245" t="s">
         <v>1264</v>
       </c>
-      <c r="L245">
-        <v>1</v>
-      </c>
-      <c r="M245" t="s">
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
         <v>1265</v>
-      </c>
-      <c r="N245">
-        <v>1</v>
-      </c>
-      <c r="O245" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B246" t="s">
         <v>1267</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1268</v>
       </c>
       <c r="C246">
         <v>165.4</v>
@@ -17138,27 +17135,27 @@
         <v>70</v>
       </c>
       <c r="K246" t="s">
+        <v>1268</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246" t="s">
         <v>1269</v>
       </c>
-      <c r="L246">
-        <v>1</v>
-      </c>
-      <c r="M246" t="s">
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="O246" t="s">
         <v>1270</v>
-      </c>
-      <c r="N246">
-        <v>1</v>
-      </c>
-      <c r="O246" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B247" t="s">
         <v>1272</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1273</v>
       </c>
       <c r="C247">
         <v>178.2</v>
@@ -17185,27 +17182,27 @@
         <v>70</v>
       </c>
       <c r="K247" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247" t="s">
         <v>1274</v>
       </c>
-      <c r="L247">
-        <v>1</v>
-      </c>
-      <c r="M247" t="s">
+      <c r="N247">
+        <v>1</v>
+      </c>
+      <c r="O247" t="s">
         <v>1275</v>
-      </c>
-      <c r="N247">
-        <v>1</v>
-      </c>
-      <c r="O247" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B248" t="s">
         <v>1277</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1278</v>
       </c>
       <c r="C248">
         <v>190.9</v>
@@ -17232,27 +17229,27 @@
         <v>70</v>
       </c>
       <c r="K248" t="s">
+        <v>1278</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248" t="s">
         <v>1279</v>
       </c>
-      <c r="L248">
-        <v>1</v>
-      </c>
-      <c r="M248" t="s">
+      <c r="N248">
+        <v>1</v>
+      </c>
+      <c r="O248" t="s">
         <v>1280</v>
-      </c>
-      <c r="N248">
-        <v>1</v>
-      </c>
-      <c r="O248" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B249" t="s">
         <v>1282</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1283</v>
       </c>
       <c r="C249">
         <v>249</v>
@@ -17279,27 +17276,27 @@
         <v>70</v>
       </c>
       <c r="K249" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249" t="s">
         <v>1284</v>
       </c>
-      <c r="L249">
-        <v>1</v>
-      </c>
-      <c r="M249" t="s">
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" t="s">
         <v>1285</v>
-      </c>
-      <c r="N249">
-        <v>1</v>
-      </c>
-      <c r="O249" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B250" t="s">
         <v>1287</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1288</v>
       </c>
       <c r="C250">
         <v>261.8</v>
@@ -17326,27 +17323,27 @@
         <v>70</v>
       </c>
       <c r="K250" t="s">
+        <v>1288</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250" t="s">
         <v>1289</v>
       </c>
-      <c r="L250">
-        <v>1</v>
-      </c>
-      <c r="M250" t="s">
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="O250" t="s">
         <v>1290</v>
-      </c>
-      <c r="N250">
-        <v>1</v>
-      </c>
-      <c r="O250" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B251" t="s">
         <v>1292</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1293</v>
       </c>
       <c r="C251">
         <v>274.60000000000002</v>
@@ -17373,27 +17370,27 @@
         <v>70</v>
       </c>
       <c r="K251" t="s">
+        <v>1293</v>
+      </c>
+      <c r="L251">
+        <v>1</v>
+      </c>
+      <c r="M251" t="s">
         <v>1294</v>
       </c>
-      <c r="L251">
-        <v>1</v>
-      </c>
-      <c r="M251" t="s">
+      <c r="N251">
+        <v>1</v>
+      </c>
+      <c r="O251" t="s">
         <v>1295</v>
-      </c>
-      <c r="N251">
-        <v>1</v>
-      </c>
-      <c r="O251" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B252" t="s">
         <v>1297</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1298</v>
       </c>
       <c r="C252">
         <v>287.3</v>
@@ -17420,27 +17417,27 @@
         <v>70</v>
       </c>
       <c r="K252" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252" t="s">
         <v>1299</v>
       </c>
-      <c r="L252">
-        <v>1</v>
-      </c>
-      <c r="M252" t="s">
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252" t="s">
         <v>1300</v>
-      </c>
-      <c r="N252">
-        <v>1</v>
-      </c>
-      <c r="O252" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B253" t="s">
         <v>1302</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1303</v>
       </c>
       <c r="C253">
         <v>300.10000000000002</v>
@@ -17467,27 +17464,27 @@
         <v>70</v>
       </c>
       <c r="K253" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253" t="s">
         <v>1304</v>
       </c>
-      <c r="L253">
-        <v>1</v>
-      </c>
-      <c r="M253" t="s">
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="O253" t="s">
         <v>1305</v>
-      </c>
-      <c r="N253">
-        <v>1</v>
-      </c>
-      <c r="O253" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B254" t="s">
         <v>1307</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1308</v>
       </c>
       <c r="C254">
         <v>312.8</v>
@@ -17514,27 +17511,27 @@
         <v>70</v>
       </c>
       <c r="K254" t="s">
+        <v>1308</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254" t="s">
         <v>1309</v>
       </c>
-      <c r="L254">
-        <v>1</v>
-      </c>
-      <c r="M254" t="s">
+      <c r="N254">
+        <v>1</v>
+      </c>
+      <c r="O254" t="s">
         <v>1310</v>
-      </c>
-      <c r="N254">
-        <v>1</v>
-      </c>
-      <c r="O254" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B255" t="s">
         <v>1312</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1313</v>
       </c>
       <c r="C255">
         <v>326.60000000000002</v>
@@ -17561,27 +17558,27 @@
         <v>70</v>
       </c>
       <c r="K255" t="s">
+        <v>1313</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="M255" t="s">
         <v>1314</v>
       </c>
-      <c r="L255">
-        <v>1</v>
-      </c>
-      <c r="M255" t="s">
+      <c r="N255">
+        <v>1</v>
+      </c>
+      <c r="O255" t="s">
         <v>1315</v>
-      </c>
-      <c r="N255">
-        <v>1</v>
-      </c>
-      <c r="O255" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B256" t="s">
         <v>1317</v>
-      </c>
-      <c r="B256" t="s">
-        <v>1318</v>
       </c>
       <c r="C256">
         <v>339.3</v>
@@ -17608,27 +17605,27 @@
         <v>70</v>
       </c>
       <c r="K256" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="M256" t="s">
         <v>1319</v>
       </c>
-      <c r="L256">
-        <v>1</v>
-      </c>
-      <c r="M256" t="s">
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="O256" t="s">
         <v>1320</v>
-      </c>
-      <c r="N256">
-        <v>1</v>
-      </c>
-      <c r="O256" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B257" t="s">
         <v>1322</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1323</v>
       </c>
       <c r="C257">
         <v>352.1</v>
@@ -17655,27 +17652,27 @@
         <v>70</v>
       </c>
       <c r="K257" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257" t="s">
         <v>1324</v>
       </c>
-      <c r="L257">
-        <v>1</v>
-      </c>
-      <c r="M257" t="s">
+      <c r="N257">
+        <v>1</v>
+      </c>
+      <c r="O257" t="s">
         <v>1325</v>
-      </c>
-      <c r="N257">
-        <v>1</v>
-      </c>
-      <c r="O257" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B258" t="s">
         <v>1327</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1328</v>
       </c>
       <c r="C258">
         <v>4.8</v>
@@ -17702,27 +17699,27 @@
         <v>70</v>
       </c>
       <c r="K258" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258" t="s">
         <v>1329</v>
       </c>
-      <c r="L258">
-        <v>1</v>
-      </c>
-      <c r="M258" t="s">
+      <c r="N258">
+        <v>1</v>
+      </c>
+      <c r="O258" t="s">
         <v>1330</v>
-      </c>
-      <c r="N258">
-        <v>1</v>
-      </c>
-      <c r="O258" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B259" t="s">
         <v>1332</v>
-      </c>
-      <c r="B259" t="s">
-        <v>1333</v>
       </c>
       <c r="C259">
         <v>17.5</v>
@@ -17749,27 +17746,27 @@
         <v>70</v>
       </c>
       <c r="K259" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259" t="s">
         <v>1334</v>
       </c>
-      <c r="L259">
-        <v>1</v>
-      </c>
-      <c r="M259" t="s">
+      <c r="N259">
+        <v>1</v>
+      </c>
+      <c r="O259" t="s">
         <v>1335</v>
-      </c>
-      <c r="N259">
-        <v>1</v>
-      </c>
-      <c r="O259" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B260" t="s">
         <v>1337</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1338</v>
       </c>
       <c r="C260">
         <v>40.799999999999997</v>
@@ -17796,27 +17793,27 @@
         <v>70</v>
       </c>
       <c r="K260" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260" t="s">
         <v>1339</v>
       </c>
-      <c r="L260">
-        <v>1</v>
-      </c>
-      <c r="M260" t="s">
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260" t="s">
         <v>1340</v>
-      </c>
-      <c r="N260">
-        <v>1</v>
-      </c>
-      <c r="O260" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B261" t="s">
         <v>1342</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1343</v>
       </c>
       <c r="C261">
         <v>53</v>
@@ -17843,27 +17840,27 @@
         <v>70</v>
       </c>
       <c r="K261" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261" t="s">
         <v>1344</v>
       </c>
-      <c r="L261">
-        <v>1</v>
-      </c>
-      <c r="M261" t="s">
+      <c r="N261">
+        <v>1</v>
+      </c>
+      <c r="O261" t="s">
         <v>1345</v>
-      </c>
-      <c r="N261">
-        <v>1</v>
-      </c>
-      <c r="O261" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B262" t="s">
         <v>1347</v>
-      </c>
-      <c r="B262" t="s">
-        <v>1348</v>
       </c>
       <c r="C262">
         <v>65.8</v>
@@ -17890,27 +17887,27 @@
         <v>70</v>
       </c>
       <c r="K262" t="s">
+        <v>1348</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262" t="s">
         <v>1349</v>
       </c>
-      <c r="L262">
-        <v>1</v>
-      </c>
-      <c r="M262" t="s">
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262" t="s">
         <v>1350</v>
-      </c>
-      <c r="N262">
-        <v>1</v>
-      </c>
-      <c r="O262" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B263" t="s">
         <v>1352</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1353</v>
       </c>
       <c r="C263">
         <v>78.5</v>
@@ -17937,27 +17934,27 @@
         <v>70</v>
       </c>
       <c r="K263" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263" t="s">
         <v>1354</v>
       </c>
-      <c r="L263">
-        <v>1</v>
-      </c>
-      <c r="M263" t="s">
+      <c r="N263">
+        <v>1</v>
+      </c>
+      <c r="O263" t="s">
         <v>1355</v>
-      </c>
-      <c r="N263">
-        <v>1</v>
-      </c>
-      <c r="O263" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B264" t="s">
         <v>1357</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1358</v>
       </c>
       <c r="C264">
         <v>91.3</v>
@@ -17984,27 +17981,27 @@
         <v>70</v>
       </c>
       <c r="K264" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264" t="s">
         <v>1359</v>
       </c>
-      <c r="L264">
-        <v>1</v>
-      </c>
-      <c r="M264" t="s">
+      <c r="N264">
+        <v>1</v>
+      </c>
+      <c r="O264" t="s">
         <v>1360</v>
-      </c>
-      <c r="N264">
-        <v>1</v>
-      </c>
-      <c r="O264" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B265" t="s">
         <v>1362</v>
-      </c>
-      <c r="B265" t="s">
-        <v>1363</v>
       </c>
       <c r="C265">
         <v>105.9</v>
@@ -18031,27 +18028,27 @@
         <v>70</v>
       </c>
       <c r="K265" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265" t="s">
         <v>1364</v>
       </c>
-      <c r="L265">
-        <v>1</v>
-      </c>
-      <c r="M265" t="s">
+      <c r="N265">
+        <v>1</v>
+      </c>
+      <c r="O265" t="s">
         <v>1365</v>
-      </c>
-      <c r="N265">
-        <v>1</v>
-      </c>
-      <c r="O265" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B266" t="s">
         <v>1367</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1368</v>
       </c>
       <c r="C266">
         <v>118.6</v>
@@ -18078,27 +18075,27 @@
         <v>70</v>
       </c>
       <c r="K266" t="s">
+        <v>1368</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266" t="s">
         <v>1369</v>
       </c>
-      <c r="L266">
-        <v>1</v>
-      </c>
-      <c r="M266" t="s">
+      <c r="N266">
+        <v>1</v>
+      </c>
+      <c r="O266" t="s">
         <v>1370</v>
-      </c>
-      <c r="N266">
-        <v>1</v>
-      </c>
-      <c r="O266" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B267" t="s">
         <v>1372</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1373</v>
       </c>
       <c r="C267">
         <v>131.4</v>
@@ -18125,27 +18122,27 @@
         <v>70</v>
       </c>
       <c r="K267" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267" t="s">
         <v>1374</v>
       </c>
-      <c r="L267">
-        <v>1</v>
-      </c>
-      <c r="M267" t="s">
+      <c r="N267">
+        <v>1</v>
+      </c>
+      <c r="O267" t="s">
         <v>1375</v>
-      </c>
-      <c r="N267">
-        <v>1</v>
-      </c>
-      <c r="O267" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B268" t="s">
         <v>1377</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1378</v>
       </c>
       <c r="C268">
         <v>144.1</v>
@@ -18172,27 +18169,27 @@
         <v>70</v>
       </c>
       <c r="K268" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268" t="s">
         <v>1379</v>
       </c>
-      <c r="L268">
-        <v>1</v>
-      </c>
-      <c r="M268" t="s">
+      <c r="N268">
+        <v>1</v>
+      </c>
+      <c r="O268" t="s">
         <v>1380</v>
-      </c>
-      <c r="N268">
-        <v>1</v>
-      </c>
-      <c r="O268" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B269" t="s">
         <v>1382</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1383</v>
       </c>
       <c r="C269">
         <v>62.3</v>
@@ -18219,27 +18216,27 @@
         <v>70</v>
       </c>
       <c r="K269" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269" t="s">
         <v>1384</v>
       </c>
-      <c r="L269">
-        <v>1</v>
-      </c>
-      <c r="M269" t="s">
+      <c r="N269">
+        <v>1</v>
+      </c>
+      <c r="O269" t="s">
         <v>1385</v>
-      </c>
-      <c r="N269">
-        <v>1</v>
-      </c>
-      <c r="O269" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B270" t="s">
         <v>1387</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1388</v>
       </c>
       <c r="C270">
         <v>75</v>
@@ -18266,27 +18263,27 @@
         <v>70</v>
       </c>
       <c r="K270" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270" t="s">
         <v>1389</v>
       </c>
-      <c r="L270">
-        <v>1</v>
-      </c>
-      <c r="M270" t="s">
+      <c r="N270">
+        <v>1</v>
+      </c>
+      <c r="O270" t="s">
         <v>1390</v>
-      </c>
-      <c r="N270">
-        <v>1</v>
-      </c>
-      <c r="O270" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B271" t="s">
         <v>1392</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1393</v>
       </c>
       <c r="C271">
         <v>87.7</v>
@@ -18313,27 +18310,27 @@
         <v>70</v>
       </c>
       <c r="K271" t="s">
+        <v>1393</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271" t="s">
         <v>1394</v>
       </c>
-      <c r="L271">
-        <v>1</v>
-      </c>
-      <c r="M271" t="s">
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
         <v>1395</v>
-      </c>
-      <c r="N271">
-        <v>1</v>
-      </c>
-      <c r="O271" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B272" t="s">
         <v>1397</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1398</v>
       </c>
       <c r="C272">
         <v>100.5</v>
@@ -18360,27 +18357,27 @@
         <v>70</v>
       </c>
       <c r="K272" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272" t="s">
         <v>1399</v>
       </c>
-      <c r="L272">
-        <v>1</v>
-      </c>
-      <c r="M272" t="s">
+      <c r="N272">
+        <v>1</v>
+      </c>
+      <c r="O272" t="s">
         <v>1400</v>
-      </c>
-      <c r="N272">
-        <v>1</v>
-      </c>
-      <c r="O272" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B273" t="s">
         <v>1402</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1403</v>
       </c>
       <c r="C273">
         <v>113.3</v>
@@ -18407,27 +18404,27 @@
         <v>70</v>
       </c>
       <c r="K273" t="s">
+        <v>1403</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273" t="s">
         <v>1404</v>
       </c>
-      <c r="L273">
-        <v>1</v>
-      </c>
-      <c r="M273" t="s">
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" t="s">
         <v>1405</v>
-      </c>
-      <c r="N273">
-        <v>1</v>
-      </c>
-      <c r="O273" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B274" t="s">
         <v>1407</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1408</v>
       </c>
       <c r="C274">
         <v>126</v>
@@ -18454,27 +18451,27 @@
         <v>70</v>
       </c>
       <c r="K274" t="s">
+        <v>1408</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274" t="s">
         <v>1409</v>
       </c>
-      <c r="L274">
-        <v>1</v>
-      </c>
-      <c r="M274" t="s">
+      <c r="N274">
+        <v>1</v>
+      </c>
+      <c r="O274" t="s">
         <v>1410</v>
-      </c>
-      <c r="N274">
-        <v>1</v>
-      </c>
-      <c r="O274" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B275" t="s">
         <v>1412</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1413</v>
       </c>
       <c r="C275">
         <v>138.80000000000001</v>
@@ -18501,27 +18498,27 @@
         <v>70</v>
       </c>
       <c r="K275" t="s">
+        <v>1413</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275" t="s">
         <v>1414</v>
       </c>
-      <c r="L275">
-        <v>1</v>
-      </c>
-      <c r="M275" t="s">
+      <c r="N275">
+        <v>1</v>
+      </c>
+      <c r="O275" t="s">
         <v>1415</v>
-      </c>
-      <c r="N275">
-        <v>1</v>
-      </c>
-      <c r="O275" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B276" t="s">
         <v>1417</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1418</v>
       </c>
       <c r="C276">
         <v>160.5</v>
@@ -18548,27 +18545,27 @@
         <v>70</v>
       </c>
       <c r="K276" t="s">
+        <v>1418</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276" t="s">
         <v>1419</v>
       </c>
-      <c r="L276">
-        <v>1</v>
-      </c>
-      <c r="M276" t="s">
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
         <v>1420</v>
-      </c>
-      <c r="N276">
-        <v>1</v>
-      </c>
-      <c r="O276" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B277" t="s">
         <v>1422</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1423</v>
       </c>
       <c r="C277">
         <v>173.3</v>
@@ -18595,27 +18592,27 @@
         <v>70</v>
       </c>
       <c r="K277" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277" t="s">
         <v>1424</v>
       </c>
-      <c r="L277">
-        <v>1</v>
-      </c>
-      <c r="M277" t="s">
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" t="s">
         <v>1425</v>
-      </c>
-      <c r="N277">
-        <v>1</v>
-      </c>
-      <c r="O277" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B278" t="s">
         <v>1427</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1428</v>
       </c>
       <c r="C278">
         <v>186</v>
@@ -18642,27 +18639,27 @@
         <v>70</v>
       </c>
       <c r="K278" t="s">
+        <v>1428</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278" t="s">
         <v>1429</v>
       </c>
-      <c r="L278">
-        <v>1</v>
-      </c>
-      <c r="M278" t="s">
+      <c r="N278">
+        <v>1</v>
+      </c>
+      <c r="O278" t="s">
         <v>1430</v>
-      </c>
-      <c r="N278">
-        <v>1</v>
-      </c>
-      <c r="O278" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B279" t="s">
         <v>1432</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1433</v>
       </c>
       <c r="C279">
         <v>198.7</v>
@@ -18689,27 +18686,27 @@
         <v>70</v>
       </c>
       <c r="K279" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279" t="s">
         <v>1434</v>
       </c>
-      <c r="L279">
-        <v>1</v>
-      </c>
-      <c r="M279" t="s">
+      <c r="N279">
+        <v>1</v>
+      </c>
+      <c r="O279" t="s">
         <v>1435</v>
-      </c>
-      <c r="N279">
-        <v>1</v>
-      </c>
-      <c r="O279" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B280" t="s">
         <v>1437</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1438</v>
       </c>
       <c r="C280">
         <v>211.5</v>
@@ -18736,27 +18733,27 @@
         <v>70</v>
       </c>
       <c r="K280" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280" t="s">
         <v>1439</v>
       </c>
-      <c r="L280">
-        <v>1</v>
-      </c>
-      <c r="M280" t="s">
+      <c r="N280">
+        <v>1</v>
+      </c>
+      <c r="O280" t="s">
         <v>1440</v>
-      </c>
-      <c r="N280">
-        <v>1</v>
-      </c>
-      <c r="O280" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B281" t="s">
         <v>1442</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1443</v>
       </c>
       <c r="C281">
         <v>224.3</v>
@@ -18783,27 +18780,27 @@
         <v>70</v>
       </c>
       <c r="K281" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281" t="s">
         <v>1444</v>
       </c>
-      <c r="L281">
-        <v>1</v>
-      </c>
-      <c r="M281" t="s">
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
         <v>1445</v>
-      </c>
-      <c r="N281">
-        <v>1</v>
-      </c>
-      <c r="O281" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B282" t="s">
         <v>1447</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1448</v>
       </c>
       <c r="C282">
         <v>237</v>
@@ -18830,27 +18827,27 @@
         <v>70</v>
       </c>
       <c r="K282" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282" t="s">
         <v>1449</v>
       </c>
-      <c r="L282">
-        <v>1</v>
-      </c>
-      <c r="M282" t="s">
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" t="s">
         <v>1450</v>
-      </c>
-      <c r="N282">
-        <v>1</v>
-      </c>
-      <c r="O282" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B283" t="s">
         <v>1452</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1453</v>
       </c>
       <c r="C283">
         <v>249.8</v>
@@ -18877,27 +18874,27 @@
         <v>70</v>
       </c>
       <c r="K283" t="s">
+        <v>1453</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283" t="s">
         <v>1454</v>
       </c>
-      <c r="L283">
-        <v>1</v>
-      </c>
-      <c r="M283" t="s">
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283" t="s">
         <v>1455</v>
-      </c>
-      <c r="N283">
-        <v>1</v>
-      </c>
-      <c r="O283" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B284" t="s">
         <v>1457</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1458</v>
       </c>
       <c r="C284">
         <v>262.60000000000002</v>
@@ -18924,27 +18921,27 @@
         <v>70</v>
       </c>
       <c r="K284" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284" t="s">
         <v>1459</v>
       </c>
-      <c r="L284">
-        <v>1</v>
-      </c>
-      <c r="M284" t="s">
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
         <v>1460</v>
-      </c>
-      <c r="N284">
-        <v>1</v>
-      </c>
-      <c r="O284" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B285" t="s">
         <v>1462</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1463</v>
       </c>
       <c r="C285">
         <v>329.1</v>
@@ -18971,27 +18968,27 @@
         <v>70</v>
       </c>
       <c r="K285" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285" t="s">
         <v>1464</v>
       </c>
-      <c r="L285">
-        <v>1</v>
-      </c>
-      <c r="M285" t="s">
+      <c r="N285">
+        <v>1</v>
+      </c>
+      <c r="O285" t="s">
         <v>1465</v>
-      </c>
-      <c r="N285">
-        <v>1</v>
-      </c>
-      <c r="O285" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B286" t="s">
         <v>1467</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1468</v>
       </c>
       <c r="C286">
         <v>341.9</v>
@@ -19018,27 +19015,27 @@
         <v>70</v>
       </c>
       <c r="K286" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286" t="s">
         <v>1469</v>
       </c>
-      <c r="L286">
-        <v>1</v>
-      </c>
-      <c r="M286" t="s">
+      <c r="N286">
+        <v>1</v>
+      </c>
+      <c r="O286" t="s">
         <v>1470</v>
-      </c>
-      <c r="N286">
-        <v>1</v>
-      </c>
-      <c r="O286" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B287" t="s">
         <v>1472</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1473</v>
       </c>
       <c r="C287">
         <v>355.3</v>
@@ -19065,27 +19062,27 @@
         <v>70</v>
       </c>
       <c r="K287" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287" t="s">
         <v>1474</v>
       </c>
-      <c r="L287">
-        <v>1</v>
-      </c>
-      <c r="M287" t="s">
+      <c r="N287">
+        <v>1</v>
+      </c>
+      <c r="O287" t="s">
         <v>1475</v>
-      </c>
-      <c r="N287">
-        <v>1</v>
-      </c>
-      <c r="O287" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B288" t="s">
         <v>1477</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1478</v>
       </c>
       <c r="C288">
         <v>8</v>
@@ -19112,27 +19109,27 @@
         <v>70</v>
       </c>
       <c r="K288" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288" t="s">
         <v>1479</v>
       </c>
-      <c r="L288">
-        <v>1</v>
-      </c>
-      <c r="M288" t="s">
+      <c r="N288">
+        <v>1</v>
+      </c>
+      <c r="O288" t="s">
         <v>1480</v>
-      </c>
-      <c r="N288">
-        <v>1</v>
-      </c>
-      <c r="O288" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B289" t="s">
         <v>1482</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1483</v>
       </c>
       <c r="C289">
         <v>20.8</v>
@@ -19159,27 +19156,27 @@
         <v>70</v>
       </c>
       <c r="K289" t="s">
+        <v>1483</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289" t="s">
         <v>1484</v>
       </c>
-      <c r="L289">
-        <v>1</v>
-      </c>
-      <c r="M289" t="s">
+      <c r="N289">
+        <v>1</v>
+      </c>
+      <c r="O289" t="s">
         <v>1485</v>
-      </c>
-      <c r="N289">
-        <v>1</v>
-      </c>
-      <c r="O289" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B290" t="s">
         <v>1487</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1488</v>
       </c>
       <c r="C290">
         <v>33.6</v>
@@ -19206,27 +19203,27 @@
         <v>70</v>
       </c>
       <c r="K290" t="s">
+        <v>1488</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290" t="s">
         <v>1489</v>
       </c>
-      <c r="L290">
-        <v>1</v>
-      </c>
-      <c r="M290" t="s">
+      <c r="N290">
+        <v>1</v>
+      </c>
+      <c r="O290" t="s">
         <v>1490</v>
-      </c>
-      <c r="N290">
-        <v>1</v>
-      </c>
-      <c r="O290" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B291" t="s">
         <v>1492</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1493</v>
       </c>
       <c r="C291">
         <v>46.8</v>
@@ -19253,27 +19250,27 @@
         <v>70</v>
       </c>
       <c r="K291" t="s">
+        <v>1493</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291" t="s">
         <v>1494</v>
       </c>
-      <c r="L291">
-        <v>1</v>
-      </c>
-      <c r="M291" t="s">
+      <c r="N291">
+        <v>1</v>
+      </c>
+      <c r="O291" t="s">
         <v>1495</v>
-      </c>
-      <c r="N291">
-        <v>1</v>
-      </c>
-      <c r="O291" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B292" t="s">
         <v>1497</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1498</v>
       </c>
       <c r="C292">
         <v>59.6</v>
@@ -19300,27 +19297,27 @@
         <v>70</v>
       </c>
       <c r="K292" t="s">
+        <v>1498</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292" t="s">
         <v>1499</v>
       </c>
-      <c r="L292">
-        <v>1</v>
-      </c>
-      <c r="M292" t="s">
+      <c r="N292">
+        <v>1</v>
+      </c>
+      <c r="O292" t="s">
         <v>1500</v>
-      </c>
-      <c r="N292">
-        <v>1</v>
-      </c>
-      <c r="O292" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B293" t="s">
         <v>1502</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1503</v>
       </c>
       <c r="C293">
         <v>72.3</v>
@@ -19347,27 +19344,27 @@
         <v>70</v>
       </c>
       <c r="K293" t="s">
+        <v>1503</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293" t="s">
         <v>1504</v>
       </c>
-      <c r="L293">
-        <v>1</v>
-      </c>
-      <c r="M293" t="s">
+      <c r="N293">
+        <v>1</v>
+      </c>
+      <c r="O293" t="s">
         <v>1505</v>
-      </c>
-      <c r="N293">
-        <v>1</v>
-      </c>
-      <c r="O293" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B294" t="s">
         <v>1507</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1508</v>
       </c>
       <c r="C294">
         <v>85.1</v>
@@ -19394,27 +19391,27 @@
         <v>70</v>
       </c>
       <c r="K294" t="s">
+        <v>1508</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294" t="s">
         <v>1509</v>
       </c>
-      <c r="L294">
-        <v>1</v>
-      </c>
-      <c r="M294" t="s">
+      <c r="N294">
+        <v>1</v>
+      </c>
+      <c r="O294" t="s">
         <v>1510</v>
-      </c>
-      <c r="N294">
-        <v>1</v>
-      </c>
-      <c r="O294" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B295" t="s">
         <v>1512</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1513</v>
       </c>
       <c r="C295">
         <v>102.6</v>
@@ -19441,27 +19438,27 @@
         <v>70</v>
       </c>
       <c r="K295" t="s">
+        <v>1513</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295" t="s">
         <v>1514</v>
       </c>
-      <c r="L295">
-        <v>1</v>
-      </c>
-      <c r="M295" t="s">
+      <c r="N295">
+        <v>1</v>
+      </c>
+      <c r="O295" t="s">
         <v>1515</v>
-      </c>
-      <c r="N295">
-        <v>1</v>
-      </c>
-      <c r="O295" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B296" t="s">
         <v>1517</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1518</v>
       </c>
       <c r="C296">
         <v>115.4</v>
@@ -19488,27 +19485,27 @@
         <v>70</v>
       </c>
       <c r="K296" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296" t="s">
         <v>1519</v>
       </c>
-      <c r="L296">
-        <v>1</v>
-      </c>
-      <c r="M296" t="s">
+      <c r="N296">
+        <v>1</v>
+      </c>
+      <c r="O296" t="s">
         <v>1520</v>
-      </c>
-      <c r="N296">
-        <v>1</v>
-      </c>
-      <c r="O296" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B297" t="s">
         <v>1522</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1523</v>
       </c>
       <c r="C297">
         <v>128.1</v>
@@ -19535,27 +19532,27 @@
         <v>70</v>
       </c>
       <c r="K297" t="s">
+        <v>1523</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297" t="s">
         <v>1524</v>
       </c>
-      <c r="L297">
-        <v>1</v>
-      </c>
-      <c r="M297" t="s">
+      <c r="N297">
+        <v>1</v>
+      </c>
+      <c r="O297" t="s">
         <v>1525</v>
-      </c>
-      <c r="N297">
-        <v>1</v>
-      </c>
-      <c r="O297" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B298" t="s">
         <v>1527</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1528</v>
       </c>
       <c r="C298">
         <v>142.80000000000001</v>
@@ -19582,27 +19579,27 @@
         <v>70</v>
       </c>
       <c r="K298" t="s">
+        <v>1528</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298" t="s">
         <v>1529</v>
       </c>
-      <c r="L298">
-        <v>1</v>
-      </c>
-      <c r="M298" t="s">
+      <c r="N298">
+        <v>1</v>
+      </c>
+      <c r="O298" t="s">
         <v>1530</v>
-      </c>
-      <c r="N298">
-        <v>1</v>
-      </c>
-      <c r="O298" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B299" t="s">
         <v>1532</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1533</v>
       </c>
       <c r="C299">
         <v>155.5</v>
@@ -19629,27 +19626,27 @@
         <v>70</v>
       </c>
       <c r="K299" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299" t="s">
         <v>1534</v>
       </c>
-      <c r="L299">
-        <v>1</v>
-      </c>
-      <c r="M299" t="s">
+      <c r="N299">
+        <v>1</v>
+      </c>
+      <c r="O299" t="s">
         <v>1535</v>
-      </c>
-      <c r="N299">
-        <v>1</v>
-      </c>
-      <c r="O299" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B300" t="s">
         <v>1537</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1538</v>
       </c>
       <c r="C300">
         <v>168.3</v>
@@ -19676,27 +19673,27 @@
         <v>70</v>
       </c>
       <c r="K300" t="s">
+        <v>1538</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300" t="s">
         <v>1539</v>
       </c>
-      <c r="L300">
-        <v>1</v>
-      </c>
-      <c r="M300" t="s">
+      <c r="N300">
+        <v>1</v>
+      </c>
+      <c r="O300" t="s">
         <v>1540</v>
-      </c>
-      <c r="N300">
-        <v>1</v>
-      </c>
-      <c r="O300" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B301" t="s">
         <v>1542</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1543</v>
       </c>
       <c r="C301">
         <v>181.1</v>
@@ -19723,27 +19720,27 @@
         <v>70</v>
       </c>
       <c r="K301" t="s">
+        <v>1543</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+      <c r="M301" t="s">
         <v>1544</v>
       </c>
-      <c r="L301">
-        <v>1</v>
-      </c>
-      <c r="M301" t="s">
+      <c r="N301">
+        <v>1</v>
+      </c>
+      <c r="O301" t="s">
         <v>1545</v>
-      </c>
-      <c r="N301">
-        <v>1</v>
-      </c>
-      <c r="O301" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B302" t="s">
         <v>1547</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1548</v>
       </c>
       <c r="C302">
         <v>193.8</v>
@@ -19770,27 +19767,27 @@
         <v>70</v>
       </c>
       <c r="K302" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302" t="s">
         <v>1549</v>
       </c>
-      <c r="L302">
-        <v>1</v>
-      </c>
-      <c r="M302" t="s">
+      <c r="N302">
+        <v>1</v>
+      </c>
+      <c r="O302" t="s">
         <v>1550</v>
-      </c>
-      <c r="N302">
-        <v>1</v>
-      </c>
-      <c r="O302" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B303" t="s">
         <v>1552</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1553</v>
       </c>
       <c r="C303">
         <v>206.6</v>
@@ -19817,19 +19814,19 @@
         <v>70</v>
       </c>
       <c r="K303" t="s">
+        <v>1553</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303" t="s">
         <v>1554</v>
       </c>
-      <c r="L303">
-        <v>1</v>
-      </c>
-      <c r="M303" t="s">
+      <c r="N303">
+        <v>1</v>
+      </c>
+      <c r="O303" t="s">
         <v>1555</v>
-      </c>
-      <c r="N303">
-        <v>1</v>
-      </c>
-      <c r="O303" t="s">
-        <v>1556</v>
       </c>
     </row>
   </sheetData>
@@ -22740,8 +22737,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23184,7 +23181,7 @@
         <v>695</v>
       </c>
       <c r="E28" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -23194,8 +23191,14 @@
       <c r="B29">
         <v>20</v>
       </c>
+      <c r="C29" t="s">
+        <v>687</v>
+      </c>
       <c r="D29" t="s">
-        <v>910</v>
+        <v>695</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -23209,7 +23212,7 @@
         <v>910</v>
       </c>
       <c r="E30" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -23220,10 +23223,10 @@
         <v>10</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="E31" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -23233,11 +23236,14 @@
       <c r="B32">
         <v>23</v>
       </c>
+      <c r="C32" t="s">
+        <v>687</v>
+      </c>
       <c r="D32" t="s">
         <v>910</v>
       </c>
       <c r="E32" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -23254,7 +23260,7 @@
         <v>695</v>
       </c>
       <c r="E33" t="s">
-        <v>921</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -23271,7 +23277,7 @@
         <v>695</v>
       </c>
       <c r="E34" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -23282,10 +23288,10 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>1564</v>
+        <v>687</v>
       </c>
       <c r="D35" t="s">
-        <v>910</v>
+        <v>695</v>
       </c>
       <c r="E35" t="s">
         <v>909</v>
@@ -23319,7 +23325,7 @@
         <v>910</v>
       </c>
       <c r="E37" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -23330,7 +23336,7 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -23347,7 +23353,7 @@
         <v>910</v>
       </c>
       <c r="E39" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -23372,10 +23378,10 @@
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>1562</v>
+        <v>687</v>
       </c>
       <c r="D41" t="s">
-        <v>910</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">

--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A09BC2A-4D2C-48AC-8316-EFDA7D90A4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2799DB-1D2E-49D5-9F31-E2BCE928E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1830">
   <si>
     <t>ObsID</t>
   </si>
@@ -4771,6 +4771,801 @@
   </si>
   <si>
     <t>Fair focus?; Good GRS. 20241231UTc has a strong gradient</t>
+  </si>
+  <si>
+    <t>20241231UTa</t>
+  </si>
+  <si>
+    <t>2024-12-31_04:01:12</t>
+  </si>
+  <si>
+    <t>2024-12-31-0401_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-31-0401_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-31-0411_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241231UTb</t>
+  </si>
+  <si>
+    <t>2024-12-31_04:22:06</t>
+  </si>
+  <si>
+    <t>2024-12-31-0422_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-31-0422_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-31-0432_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241231UTc</t>
+  </si>
+  <si>
+    <t>2024-12-31_04:43:00</t>
+  </si>
+  <si>
+    <t>2024-12-31-0443_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-31-0443_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-31-0453_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20241231UTd</t>
+  </si>
+  <si>
+    <t>2024-12-31_05:03:54</t>
+  </si>
+  <si>
+    <t>2024-12-31-0503_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-31-0503_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2024-12-31-0514_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTa</t>
+  </si>
+  <si>
+    <t>2025-01-06_00:22:12</t>
+  </si>
+  <si>
+    <t>2025-01-06-0022_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0022_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0032_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTb</t>
+  </si>
+  <si>
+    <t>2025-01-06_00:43:06</t>
+  </si>
+  <si>
+    <t>2025-01-06-0043_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0043_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0053_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTc</t>
+  </si>
+  <si>
+    <t>2025-01-06_01:05:24</t>
+  </si>
+  <si>
+    <t>2025-01-06-0105_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0105_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0115_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTd</t>
+  </si>
+  <si>
+    <t>2025-01-06_01:26:18</t>
+  </si>
+  <si>
+    <t>2025-01-06-0126_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0126_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0136_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTe</t>
+  </si>
+  <si>
+    <t>2025-01-06_01:47:12</t>
+  </si>
+  <si>
+    <t>2025-01-06-0147_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0147_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0157_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTf</t>
+  </si>
+  <si>
+    <t>2025-01-06_02:08:06</t>
+  </si>
+  <si>
+    <t>2025-01-06-0208_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0208_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0218_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTg</t>
+  </si>
+  <si>
+    <t>2025-01-06_02:30:12</t>
+  </si>
+  <si>
+    <t>2025-01-06-0230_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0230_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0240_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTh</t>
+  </si>
+  <si>
+    <t>2025-01-06_02:52:24</t>
+  </si>
+  <si>
+    <t>2025-01-06-0252_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0252_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0302_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTi</t>
+  </si>
+  <si>
+    <t>2025-01-06_03:13:00</t>
+  </si>
+  <si>
+    <t>2025-01-06-0313_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0313_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0323_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTj</t>
+  </si>
+  <si>
+    <t>2025-01-06_03:34:12</t>
+  </si>
+  <si>
+    <t>2025-01-06-0334_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0334_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0344_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTk</t>
+  </si>
+  <si>
+    <t>2025-01-06_03:55:30</t>
+  </si>
+  <si>
+    <t>2025-01-06-0355_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0355_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0407_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTl</t>
+  </si>
+  <si>
+    <t>2025-01-06_04:17:36</t>
+  </si>
+  <si>
+    <t>2025-01-06-0417_6-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0417_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0428_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTm</t>
+  </si>
+  <si>
+    <t>2025-01-06_04:38:42</t>
+  </si>
+  <si>
+    <t>2025-01-06-0438_7-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0438_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0449_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTn</t>
+  </si>
+  <si>
+    <t>2025-01-06_05:10:54</t>
+  </si>
+  <si>
+    <t>2025-01-06-0510_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0510_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0518_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTo</t>
+  </si>
+  <si>
+    <t>2025-01-06_05:29:24</t>
+  </si>
+  <si>
+    <t>2025-01-06-0529_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0529_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0539_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTp</t>
+  </si>
+  <si>
+    <t>2025-01-06_05:50:18</t>
+  </si>
+  <si>
+    <t>2025-01-06-0550_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0550_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0600_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTq</t>
+  </si>
+  <si>
+    <t>2025-01-06_06:11:12</t>
+  </si>
+  <si>
+    <t>2025-01-06-0611_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0611_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0621_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTr</t>
+  </si>
+  <si>
+    <t>2025-01-06_06:32:12</t>
+  </si>
+  <si>
+    <t>2025-01-06-0632_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0632_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0642_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTs</t>
+  </si>
+  <si>
+    <t>2025-01-06_06:53:06</t>
+  </si>
+  <si>
+    <t>2025-01-06-0653_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0653_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0703_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250106UTt</t>
+  </si>
+  <si>
+    <t>2025-01-06_07:14:00</t>
+  </si>
+  <si>
+    <t>2025-01-06-0714_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0714_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-06-0724_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTa</t>
+  </si>
+  <si>
+    <t>2025-01-28_00:31:12</t>
+  </si>
+  <si>
+    <t>2025-01-28-0031_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0031_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0041_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTb</t>
+  </si>
+  <si>
+    <t>2025-01-28_00:52:06</t>
+  </si>
+  <si>
+    <t>2025-01-28-0052_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0052_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0102_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTc</t>
+  </si>
+  <si>
+    <t>2025-01-28_01:13:06</t>
+  </si>
+  <si>
+    <t>2025-01-28-0113_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0113_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0123_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTd</t>
+  </si>
+  <si>
+    <t>2025-01-28_01:36:30</t>
+  </si>
+  <si>
+    <t>2025-01-28-0136_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0136_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0146_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTe</t>
+  </si>
+  <si>
+    <t>2025-01-28_01:57:24</t>
+  </si>
+  <si>
+    <t>2025-01-28-0157_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0157_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0207_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTf</t>
+  </si>
+  <si>
+    <t>2025-01-28_02:18:18</t>
+  </si>
+  <si>
+    <t>2025-01-28-0218_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0218_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0228_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal_WV</t>
+  </si>
+  <si>
+    <t>20250128UTg</t>
+  </si>
+  <si>
+    <t>2025-01-28_02:39:12</t>
+  </si>
+  <si>
+    <t>2025-01-28-0239_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0239_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0249_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTh</t>
+  </si>
+  <si>
+    <t>2025-01-28_03:00:06</t>
+  </si>
+  <si>
+    <t>2025-01-28-0300_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0300_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0310_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTi</t>
+  </si>
+  <si>
+    <t>2025-01-28_03:21:00</t>
+  </si>
+  <si>
+    <t>2025-01-28-0321_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0321_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0331_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTj</t>
+  </si>
+  <si>
+    <t>2025-01-28_03:44:06</t>
+  </si>
+  <si>
+    <t>2025-01-28-0344_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0344_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0354_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTk</t>
+  </si>
+  <si>
+    <t>2025-01-28_04:18:36</t>
+  </si>
+  <si>
+    <t>2025-01-28-0418_6-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0418_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0429_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTl</t>
+  </si>
+  <si>
+    <t>2025-01-28_04:39:36</t>
+  </si>
+  <si>
+    <t>2025-01-28-0439_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0439_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0450_0-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTm</t>
+  </si>
+  <si>
+    <t>2025-01-28_05:00:30</t>
+  </si>
+  <si>
+    <t>2025-01-28-0500_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0500_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0510_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTn</t>
+  </si>
+  <si>
+    <t>2025-01-28_05:21:24</t>
+  </si>
+  <si>
+    <t>2025-01-28-0521_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0521_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0531_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal_WV</t>
+  </si>
+  <si>
+    <t>20250128UTo</t>
+  </si>
+  <si>
+    <t>2025-01-28_05:42:18</t>
+  </si>
+  <si>
+    <t>2025-01-28-0542_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0542_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0552_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTp</t>
+  </si>
+  <si>
+    <t>2025-01-28_06:03:12</t>
+  </si>
+  <si>
+    <t>2025-01-28-0603_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0603_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0613_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTq</t>
+  </si>
+  <si>
+    <t>2025-01-28_06:24:06</t>
+  </si>
+  <si>
+    <t>2025-01-28-0624_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0624_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0634_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTr</t>
+  </si>
+  <si>
+    <t>2025-01-28_06:45:00</t>
+  </si>
+  <si>
+    <t>2025-01-28-0645_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0645_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0655_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTrFltBkg</t>
+  </si>
+  <si>
+    <t>2025-01-28-0645_1-Jupiter_R656G620B632-RGB-WhtBal-FltBkg</t>
+  </si>
+  <si>
+    <t>2025-01-28-0645_0-Jupiter_R656G647B632-RGB-WhtBal-FltBkg</t>
+  </si>
+  <si>
+    <t>20250128UTs</t>
+  </si>
+  <si>
+    <t>2025-01-28_07:05:54</t>
+  </si>
+  <si>
+    <t>2025-01-28-0705_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0705_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-01-28-0716_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250128UTsReAl</t>
+  </si>
+  <si>
+    <t>2025-01-28-0705_9-Jupiter_R656G647B632-RGB-WhtBal-Realigned647</t>
+  </si>
+  <si>
+    <t>20250302UTa</t>
+  </si>
+  <si>
+    <t>2025-03-02_01:59:06</t>
+  </si>
+  <si>
+    <t>2025-03-02-0159_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0159_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0209_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250302UTb</t>
+  </si>
+  <si>
+    <t>2025-03-02_02:20:00</t>
+  </si>
+  <si>
+    <t>2025-03-02-0220_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0220_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0230_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250302UTc</t>
+  </si>
+  <si>
+    <t>2025-03-02_02:40:54</t>
+  </si>
+  <si>
+    <t>2025-03-02-0240_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0240_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0251_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250302UTd</t>
+  </si>
+  <si>
+    <t>2025-03-02_03:06:48</t>
+  </si>
+  <si>
+    <t>2025-03-02-0306_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0306_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0317_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250302UTe</t>
+  </si>
+  <si>
+    <t>2025-03-02_03:32:00</t>
+  </si>
+  <si>
+    <t>2025-03-02-0332_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0332_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0342_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250302UTf</t>
+  </si>
+  <si>
+    <t>2025-03-02_03:52:54</t>
+  </si>
+  <si>
+    <t>2025-03-02-0352_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0352_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0403_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250302UTg</t>
+  </si>
+  <si>
+    <t>2025-03-02_04:13:48</t>
+  </si>
+  <si>
+    <t>2025-03-02-0413_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0413_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0424_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250302UTh</t>
+  </si>
+  <si>
+    <t>2025-03-02_04:38:06</t>
+  </si>
+  <si>
+    <t>2025-03-02-0438_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0438_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0448_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250302UTi</t>
+  </si>
+  <si>
+    <t>2025-03-02_04:59:00</t>
+  </si>
+  <si>
+    <t>2025-03-02-0459_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0459_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-03-02-0509_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
   </si>
 </sst>
 </file>
@@ -5358,7 +6153,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -5403,6 +6198,7 @@
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5758,13 +6554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O303"/>
+  <dimension ref="A1:O357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B343" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomRight" activeCell="B353" sqref="B353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17246,19 +18042,19 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1281</v>
+        <v>1565</v>
       </c>
       <c r="B249" t="s">
-        <v>1282</v>
+        <v>1566</v>
       </c>
       <c r="C249">
-        <v>249</v>
+        <v>204.7</v>
       </c>
       <c r="D249">
-        <v>269.8</v>
+        <v>354.1</v>
       </c>
       <c r="E249">
-        <v>64.599999999999994</v>
+        <v>144.5</v>
       </c>
       <c r="F249" t="s">
         <v>26</v>
@@ -17276,36 +18072,36 @@
         <v>70</v>
       </c>
       <c r="K249" t="s">
-        <v>1283</v>
+        <v>1567</v>
       </c>
       <c r="L249">
         <v>1</v>
       </c>
       <c r="M249" t="s">
-        <v>1284</v>
+        <v>1568</v>
       </c>
       <c r="N249">
         <v>1</v>
       </c>
       <c r="O249" t="s">
-        <v>1285</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1286</v>
+        <v>1570</v>
       </c>
       <c r="B250" t="s">
-        <v>1287</v>
+        <v>1571</v>
       </c>
       <c r="C250">
-        <v>261.8</v>
+        <v>217.5</v>
       </c>
       <c r="D250">
-        <v>282.5</v>
+        <v>6.8</v>
       </c>
       <c r="E250">
-        <v>77.3</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="F250" t="s">
         <v>26</v>
@@ -17323,36 +18119,36 @@
         <v>70</v>
       </c>
       <c r="K250" t="s">
-        <v>1288</v>
+        <v>1572</v>
       </c>
       <c r="L250">
         <v>1</v>
       </c>
       <c r="M250" t="s">
-        <v>1289</v>
+        <v>1573</v>
       </c>
       <c r="N250">
         <v>1</v>
       </c>
       <c r="O250" t="s">
-        <v>1290</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1291</v>
+        <v>1575</v>
       </c>
       <c r="B251" t="s">
-        <v>1292</v>
+        <v>1576</v>
       </c>
       <c r="C251">
-        <v>274.60000000000002</v>
+        <v>230.2</v>
       </c>
       <c r="D251">
-        <v>295.10000000000002</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E251">
-        <v>90</v>
+        <v>169.8</v>
       </c>
       <c r="F251" t="s">
         <v>26</v>
@@ -17370,36 +18166,36 @@
         <v>70</v>
       </c>
       <c r="K251" t="s">
-        <v>1293</v>
+        <v>1577</v>
       </c>
       <c r="L251">
         <v>1</v>
       </c>
       <c r="M251" t="s">
-        <v>1294</v>
+        <v>1578</v>
       </c>
       <c r="N251">
         <v>1</v>
       </c>
       <c r="O251" t="s">
-        <v>1295</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1296</v>
+        <v>1580</v>
       </c>
       <c r="B252" t="s">
-        <v>1297</v>
+        <v>1581</v>
       </c>
       <c r="C252">
-        <v>287.3</v>
+        <v>243</v>
       </c>
       <c r="D252">
-        <v>307.7</v>
+        <v>32</v>
       </c>
       <c r="E252">
-        <v>102.6</v>
+        <v>182.4</v>
       </c>
       <c r="F252" t="s">
         <v>26</v>
@@ -17417,36 +18213,36 @@
         <v>70</v>
       </c>
       <c r="K252" t="s">
-        <v>1298</v>
+        <v>1582</v>
       </c>
       <c r="L252">
         <v>1</v>
       </c>
       <c r="M252" t="s">
-        <v>1299</v>
+        <v>1583</v>
       </c>
       <c r="N252">
         <v>1</v>
       </c>
       <c r="O252" t="s">
-        <v>1300</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1301</v>
+        <v>1585</v>
       </c>
       <c r="B253" t="s">
-        <v>1302</v>
+        <v>1586</v>
       </c>
       <c r="C253">
-        <v>300.10000000000002</v>
+        <v>298.89999999999998</v>
       </c>
       <c r="D253">
-        <v>320.3</v>
+        <v>43.7</v>
       </c>
       <c r="E253">
-        <v>115.2</v>
+        <v>195.6</v>
       </c>
       <c r="F253" t="s">
         <v>26</v>
@@ -17464,36 +18260,36 @@
         <v>70</v>
       </c>
       <c r="K253" t="s">
-        <v>1303</v>
+        <v>1587</v>
       </c>
       <c r="L253">
         <v>1</v>
       </c>
       <c r="M253" t="s">
-        <v>1304</v>
+        <v>1588</v>
       </c>
       <c r="N253">
         <v>1</v>
       </c>
       <c r="O253" t="s">
-        <v>1305</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1306</v>
+        <v>1590</v>
       </c>
       <c r="B254" t="s">
-        <v>1307</v>
+        <v>1591</v>
       </c>
       <c r="C254">
-        <v>312.8</v>
+        <v>311.7</v>
       </c>
       <c r="D254">
-        <v>333</v>
+        <v>56.3</v>
       </c>
       <c r="E254">
-        <v>127.9</v>
+        <v>208.3</v>
       </c>
       <c r="F254" t="s">
         <v>26</v>
@@ -17511,36 +18307,36 @@
         <v>70</v>
       </c>
       <c r="K254" t="s">
-        <v>1308</v>
+        <v>1592</v>
       </c>
       <c r="L254">
         <v>1</v>
       </c>
       <c r="M254" t="s">
-        <v>1309</v>
+        <v>1593</v>
       </c>
       <c r="N254">
         <v>1</v>
       </c>
       <c r="O254" t="s">
-        <v>1310</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1311</v>
+        <v>1595</v>
       </c>
       <c r="B255" t="s">
-        <v>1312</v>
+        <v>1596</v>
       </c>
       <c r="C255">
-        <v>326.60000000000002</v>
+        <v>325.3</v>
       </c>
       <c r="D255">
-        <v>346.6</v>
+        <v>69.8</v>
       </c>
       <c r="E255">
-        <v>141.5</v>
+        <v>221.8</v>
       </c>
       <c r="F255" t="s">
         <v>26</v>
@@ -17558,36 +18354,36 @@
         <v>70</v>
       </c>
       <c r="K255" t="s">
-        <v>1313</v>
+        <v>1597</v>
       </c>
       <c r="L255">
         <v>1</v>
       </c>
       <c r="M255" t="s">
-        <v>1314</v>
+        <v>1598</v>
       </c>
       <c r="N255">
         <v>1</v>
       </c>
       <c r="O255" t="s">
-        <v>1315</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1316</v>
+        <v>1600</v>
       </c>
       <c r="B256" t="s">
-        <v>1317</v>
+        <v>1601</v>
       </c>
       <c r="C256">
-        <v>339.3</v>
+        <v>338</v>
       </c>
       <c r="D256">
-        <v>359.3</v>
+        <v>82.4</v>
       </c>
       <c r="E256">
-        <v>154.19999999999999</v>
+        <v>234.4</v>
       </c>
       <c r="F256" t="s">
         <v>26</v>
@@ -17605,36 +18401,36 @@
         <v>70</v>
       </c>
       <c r="K256" t="s">
-        <v>1318</v>
+        <v>1602</v>
       </c>
       <c r="L256">
         <v>1</v>
       </c>
       <c r="M256" t="s">
-        <v>1319</v>
+        <v>1603</v>
       </c>
       <c r="N256">
         <v>1</v>
       </c>
       <c r="O256" t="s">
-        <v>1320</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1321</v>
+        <v>1605</v>
       </c>
       <c r="B257" t="s">
-        <v>1322</v>
+        <v>1606</v>
       </c>
       <c r="C257">
-        <v>352.1</v>
+        <v>350.7</v>
       </c>
       <c r="D257">
-        <v>11.9</v>
+        <v>95.1</v>
       </c>
       <c r="E257">
-        <v>166.8</v>
+        <v>247</v>
       </c>
       <c r="F257" t="s">
         <v>26</v>
@@ -17652,36 +18448,36 @@
         <v>70</v>
       </c>
       <c r="K257" t="s">
-        <v>1323</v>
+        <v>1607</v>
       </c>
       <c r="L257">
         <v>1</v>
       </c>
       <c r="M257" t="s">
-        <v>1324</v>
+        <v>1608</v>
       </c>
       <c r="N257">
         <v>1</v>
       </c>
       <c r="O257" t="s">
-        <v>1325</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1326</v>
+        <v>1610</v>
       </c>
       <c r="B258" t="s">
-        <v>1327</v>
+        <v>1611</v>
       </c>
       <c r="C258">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="D258">
-        <v>24.5</v>
+        <v>107.7</v>
       </c>
       <c r="E258">
-        <v>179.5</v>
+        <v>259.7</v>
       </c>
       <c r="F258" t="s">
         <v>26</v>
@@ -17699,36 +18495,36 @@
         <v>70</v>
       </c>
       <c r="K258" t="s">
-        <v>1328</v>
+        <v>1612</v>
       </c>
       <c r="L258">
         <v>1</v>
       </c>
       <c r="M258" t="s">
-        <v>1329</v>
+        <v>1613</v>
       </c>
       <c r="N258">
         <v>1</v>
       </c>
       <c r="O258" t="s">
-        <v>1330</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1331</v>
+        <v>1615</v>
       </c>
       <c r="B259" t="s">
-        <v>1332</v>
+        <v>1616</v>
       </c>
       <c r="C259">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="D259">
-        <v>37.200000000000003</v>
+        <v>121</v>
       </c>
       <c r="E259">
-        <v>192.1</v>
+        <v>273</v>
       </c>
       <c r="F259" t="s">
         <v>26</v>
@@ -17746,36 +18542,36 @@
         <v>70</v>
       </c>
       <c r="K259" t="s">
-        <v>1333</v>
+        <v>1617</v>
       </c>
       <c r="L259">
         <v>1</v>
       </c>
       <c r="M259" t="s">
-        <v>1334</v>
+        <v>1618</v>
       </c>
       <c r="N259">
         <v>1</v>
       </c>
       <c r="O259" t="s">
-        <v>1335</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1336</v>
+        <v>1620</v>
       </c>
       <c r="B260" t="s">
-        <v>1337</v>
+        <v>1621</v>
       </c>
       <c r="C260">
-        <v>40.799999999999997</v>
+        <v>30.5</v>
       </c>
       <c r="D260">
-        <v>60.2</v>
+        <v>134.5</v>
       </c>
       <c r="E260">
-        <v>215.2</v>
+        <v>286.39999999999998</v>
       </c>
       <c r="F260" t="s">
         <v>26</v>
@@ -17793,36 +18589,36 @@
         <v>70</v>
       </c>
       <c r="K260" t="s">
-        <v>1338</v>
+        <v>1622</v>
       </c>
       <c r="L260">
         <v>1</v>
       </c>
       <c r="M260" t="s">
-        <v>1339</v>
+        <v>1623</v>
       </c>
       <c r="N260">
         <v>1</v>
       </c>
       <c r="O260" t="s">
-        <v>1340</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1341</v>
+        <v>1625</v>
       </c>
       <c r="B261" t="s">
-        <v>1342</v>
+        <v>1626</v>
       </c>
       <c r="C261">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D261">
-        <v>72.3</v>
+        <v>146.9</v>
       </c>
       <c r="E261">
-        <v>227.3</v>
+        <v>298.89999999999998</v>
       </c>
       <c r="F261" t="s">
         <v>26</v>
@@ -17840,36 +18636,36 @@
         <v>70</v>
       </c>
       <c r="K261" t="s">
-        <v>1343</v>
+        <v>1627</v>
       </c>
       <c r="L261">
         <v>1</v>
       </c>
       <c r="M261" t="s">
-        <v>1344</v>
+        <v>1628</v>
       </c>
       <c r="N261">
         <v>1</v>
       </c>
       <c r="O261" t="s">
-        <v>1345</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1346</v>
+        <v>1630</v>
       </c>
       <c r="B262" t="s">
-        <v>1347</v>
+        <v>1631</v>
       </c>
       <c r="C262">
-        <v>65.8</v>
+        <v>56</v>
       </c>
       <c r="D262">
-        <v>85</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="E262">
-        <v>239.9</v>
+        <v>311.7</v>
       </c>
       <c r="F262" t="s">
         <v>26</v>
@@ -17887,36 +18683,36 @@
         <v>70</v>
       </c>
       <c r="K262" t="s">
-        <v>1348</v>
+        <v>1632</v>
       </c>
       <c r="L262">
         <v>1</v>
       </c>
       <c r="M262" t="s">
-        <v>1349</v>
+        <v>1633</v>
       </c>
       <c r="N262">
         <v>1</v>
       </c>
       <c r="O262" t="s">
-        <v>1350</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1351</v>
+        <v>1635</v>
       </c>
       <c r="B263" t="s">
-        <v>1352</v>
+        <v>1636</v>
       </c>
       <c r="C263">
-        <v>78.5</v>
+        <v>69</v>
       </c>
       <c r="D263">
-        <v>97.6</v>
+        <v>172.6</v>
       </c>
       <c r="E263">
-        <v>252.5</v>
+        <v>324.60000000000002</v>
       </c>
       <c r="F263" t="s">
         <v>26</v>
@@ -17934,36 +18730,36 @@
         <v>70</v>
       </c>
       <c r="K263" t="s">
-        <v>1353</v>
+        <v>1637</v>
       </c>
       <c r="L263">
         <v>1</v>
       </c>
       <c r="M263" t="s">
-        <v>1354</v>
+        <v>1638</v>
       </c>
       <c r="N263">
         <v>1</v>
       </c>
       <c r="O263" t="s">
-        <v>1355</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1356</v>
+        <v>1640</v>
       </c>
       <c r="B264" t="s">
-        <v>1357</v>
+        <v>1641</v>
       </c>
       <c r="C264">
-        <v>91.3</v>
+        <v>82.4</v>
       </c>
       <c r="D264">
-        <v>110.3</v>
+        <v>186</v>
       </c>
       <c r="E264">
-        <v>265.2</v>
+        <v>338</v>
       </c>
       <c r="F264" t="s">
         <v>26</v>
@@ -17981,36 +18777,36 @@
         <v>70</v>
       </c>
       <c r="K264" t="s">
-        <v>1358</v>
+        <v>1642</v>
       </c>
       <c r="L264">
         <v>1</v>
       </c>
       <c r="M264" t="s">
-        <v>1359</v>
+        <v>1643</v>
       </c>
       <c r="N264">
         <v>1</v>
       </c>
       <c r="O264" t="s">
-        <v>1360</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1361</v>
+        <v>1645</v>
       </c>
       <c r="B265" t="s">
-        <v>1362</v>
+        <v>1646</v>
       </c>
       <c r="C265">
-        <v>105.9</v>
+        <v>95.3</v>
       </c>
       <c r="D265">
-        <v>124.7</v>
+        <v>198.7</v>
       </c>
       <c r="E265">
-        <v>279.7</v>
+        <v>350.7</v>
       </c>
       <c r="F265" t="s">
         <v>26</v>
@@ -18028,36 +18824,36 @@
         <v>70</v>
       </c>
       <c r="K265" t="s">
-        <v>1363</v>
+        <v>1647</v>
       </c>
       <c r="L265">
         <v>1</v>
       </c>
       <c r="M265" t="s">
-        <v>1364</v>
+        <v>1648</v>
       </c>
       <c r="N265">
         <v>1</v>
       </c>
       <c r="O265" t="s">
-        <v>1365</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1366</v>
+        <v>1650</v>
       </c>
       <c r="B266" t="s">
-        <v>1367</v>
+        <v>1651</v>
       </c>
       <c r="C266">
-        <v>118.6</v>
+        <v>114.9</v>
       </c>
       <c r="D266">
-        <v>137.4</v>
+        <v>218.2</v>
       </c>
       <c r="E266">
-        <v>292.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F266" t="s">
         <v>26</v>
@@ -18075,36 +18871,36 @@
         <v>70</v>
       </c>
       <c r="K266" t="s">
-        <v>1368</v>
+        <v>1652</v>
       </c>
       <c r="L266">
         <v>1</v>
       </c>
       <c r="M266" t="s">
-        <v>1369</v>
+        <v>1653</v>
       </c>
       <c r="N266">
         <v>1</v>
       </c>
       <c r="O266" t="s">
-        <v>1370</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1371</v>
+        <v>1655</v>
       </c>
       <c r="B267" t="s">
-        <v>1372</v>
+        <v>1656</v>
       </c>
       <c r="C267">
-        <v>131.4</v>
+        <v>126.2</v>
       </c>
       <c r="D267">
-        <v>150</v>
+        <v>229.3</v>
       </c>
       <c r="E267">
-        <v>305</v>
+        <v>21.4</v>
       </c>
       <c r="F267" t="s">
         <v>26</v>
@@ -18122,36 +18918,36 @@
         <v>70</v>
       </c>
       <c r="K267" t="s">
-        <v>1373</v>
+        <v>1657</v>
       </c>
       <c r="L267">
         <v>1</v>
       </c>
       <c r="M267" t="s">
-        <v>1374</v>
+        <v>1658</v>
       </c>
       <c r="N267">
         <v>1</v>
       </c>
       <c r="O267" t="s">
-        <v>1375</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1376</v>
+        <v>1660</v>
       </c>
       <c r="B268" t="s">
-        <v>1377</v>
+        <v>1661</v>
       </c>
       <c r="C268">
-        <v>144.1</v>
+        <v>139</v>
       </c>
       <c r="D268">
-        <v>162.6</v>
+        <v>242</v>
       </c>
       <c r="E268">
-        <v>317.60000000000002</v>
+        <v>34</v>
       </c>
       <c r="F268" t="s">
         <v>26</v>
@@ -18169,36 +18965,36 @@
         <v>70</v>
       </c>
       <c r="K268" t="s">
-        <v>1378</v>
+        <v>1662</v>
       </c>
       <c r="L268">
         <v>1</v>
       </c>
       <c r="M268" t="s">
-        <v>1379</v>
+        <v>1663</v>
       </c>
       <c r="N268">
         <v>1</v>
       </c>
       <c r="O268" t="s">
-        <v>1380</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1381</v>
+        <v>1665</v>
       </c>
       <c r="B269" t="s">
-        <v>1382</v>
+        <v>1666</v>
       </c>
       <c r="C269">
-        <v>62.3</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="D269">
-        <v>6.4</v>
+        <v>254.6</v>
       </c>
       <c r="E269">
-        <v>163.9</v>
+        <v>46.6</v>
       </c>
       <c r="F269" t="s">
         <v>26</v>
@@ -18216,36 +19012,36 @@
         <v>70</v>
       </c>
       <c r="K269" t="s">
-        <v>1383</v>
+        <v>1667</v>
       </c>
       <c r="L269">
         <v>1</v>
       </c>
       <c r="M269" t="s">
-        <v>1384</v>
+        <v>1668</v>
       </c>
       <c r="N269">
         <v>1</v>
       </c>
       <c r="O269" t="s">
-        <v>1385</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1386</v>
+        <v>1670</v>
       </c>
       <c r="B270" t="s">
-        <v>1387</v>
+        <v>1671</v>
       </c>
       <c r="C270">
-        <v>75</v>
+        <v>164.5</v>
       </c>
       <c r="D270">
-        <v>19</v>
+        <v>267.3</v>
       </c>
       <c r="E270">
-        <v>176.6</v>
+        <v>59.3</v>
       </c>
       <c r="F270" t="s">
         <v>26</v>
@@ -18263,36 +19059,36 @@
         <v>70</v>
       </c>
       <c r="K270" t="s">
-        <v>1388</v>
+        <v>1672</v>
       </c>
       <c r="L270">
         <v>1</v>
       </c>
       <c r="M270" t="s">
-        <v>1389</v>
+        <v>1673</v>
       </c>
       <c r="N270">
         <v>1</v>
       </c>
       <c r="O270" t="s">
-        <v>1390</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1391</v>
+        <v>1675</v>
       </c>
       <c r="B271" t="s">
-        <v>1392</v>
+        <v>1676</v>
       </c>
       <c r="C271">
-        <v>87.7</v>
+        <v>177.2</v>
       </c>
       <c r="D271">
-        <v>31.6</v>
+        <v>279.89999999999998</v>
       </c>
       <c r="E271">
-        <v>189.2</v>
+        <v>72</v>
       </c>
       <c r="F271" t="s">
         <v>26</v>
@@ -18310,36 +19106,36 @@
         <v>70</v>
       </c>
       <c r="K271" t="s">
-        <v>1393</v>
+        <v>1677</v>
       </c>
       <c r="L271">
         <v>1</v>
       </c>
       <c r="M271" t="s">
-        <v>1394</v>
+        <v>1678</v>
       </c>
       <c r="N271">
         <v>1</v>
       </c>
       <c r="O271" t="s">
-        <v>1395</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1396</v>
+        <v>1680</v>
       </c>
       <c r="B272" t="s">
-        <v>1397</v>
+        <v>1681</v>
       </c>
       <c r="C272">
-        <v>100.5</v>
+        <v>190</v>
       </c>
       <c r="D272">
-        <v>44.3</v>
+        <v>292.60000000000002</v>
       </c>
       <c r="E272">
-        <v>201.9</v>
+        <v>84.6</v>
       </c>
       <c r="F272" t="s">
         <v>26</v>
@@ -18357,36 +19153,36 @@
         <v>70</v>
       </c>
       <c r="K272" t="s">
-        <v>1398</v>
+        <v>1682</v>
       </c>
       <c r="L272">
         <v>1</v>
       </c>
       <c r="M272" t="s">
-        <v>1399</v>
+        <v>1683</v>
       </c>
       <c r="N272">
         <v>1</v>
       </c>
       <c r="O272" t="s">
-        <v>1400</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1401</v>
+        <v>1281</v>
       </c>
       <c r="B273" t="s">
-        <v>1402</v>
+        <v>1282</v>
       </c>
       <c r="C273">
-        <v>113.3</v>
+        <v>249</v>
       </c>
       <c r="D273">
-        <v>57</v>
+        <v>269.8</v>
       </c>
       <c r="E273">
-        <v>214.5</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="F273" t="s">
         <v>26</v>
@@ -18404,36 +19200,36 @@
         <v>70</v>
       </c>
       <c r="K273" t="s">
-        <v>1403</v>
+        <v>1283</v>
       </c>
       <c r="L273">
         <v>1</v>
       </c>
       <c r="M273" t="s">
-        <v>1404</v>
+        <v>1284</v>
       </c>
       <c r="N273">
         <v>1</v>
       </c>
       <c r="O273" t="s">
-        <v>1405</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1406</v>
+        <v>1286</v>
       </c>
       <c r="B274" t="s">
-        <v>1407</v>
+        <v>1287</v>
       </c>
       <c r="C274">
-        <v>126</v>
+        <v>261.8</v>
       </c>
       <c r="D274">
-        <v>69.599999999999994</v>
+        <v>282.5</v>
       </c>
       <c r="E274">
-        <v>227.2</v>
+        <v>77.3</v>
       </c>
       <c r="F274" t="s">
         <v>26</v>
@@ -18451,36 +19247,36 @@
         <v>70</v>
       </c>
       <c r="K274" t="s">
-        <v>1408</v>
+        <v>1288</v>
       </c>
       <c r="L274">
         <v>1</v>
       </c>
       <c r="M274" t="s">
-        <v>1409</v>
+        <v>1289</v>
       </c>
       <c r="N274">
         <v>1</v>
       </c>
       <c r="O274" t="s">
-        <v>1410</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1411</v>
+        <v>1291</v>
       </c>
       <c r="B275" t="s">
-        <v>1412</v>
+        <v>1292</v>
       </c>
       <c r="C275">
-        <v>138.80000000000001</v>
+        <v>274.60000000000002</v>
       </c>
       <c r="D275">
-        <v>82.2</v>
+        <v>295.10000000000002</v>
       </c>
       <c r="E275">
-        <v>239.8</v>
+        <v>90</v>
       </c>
       <c r="F275" t="s">
         <v>26</v>
@@ -18498,36 +19294,36 @@
         <v>70</v>
       </c>
       <c r="K275" t="s">
-        <v>1413</v>
+        <v>1293</v>
       </c>
       <c r="L275">
         <v>1</v>
       </c>
       <c r="M275" t="s">
-        <v>1414</v>
+        <v>1294</v>
       </c>
       <c r="N275">
         <v>1</v>
       </c>
       <c r="O275" t="s">
-        <v>1415</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1416</v>
+        <v>1296</v>
       </c>
       <c r="B276" t="s">
-        <v>1417</v>
+        <v>1297</v>
       </c>
       <c r="C276">
-        <v>160.5</v>
+        <v>287.3</v>
       </c>
       <c r="D276">
-        <v>103.7</v>
+        <v>307.7</v>
       </c>
       <c r="E276">
-        <v>261.3</v>
+        <v>102.6</v>
       </c>
       <c r="F276" t="s">
         <v>26</v>
@@ -18545,36 +19341,36 @@
         <v>70</v>
       </c>
       <c r="K276" t="s">
-        <v>1418</v>
+        <v>1298</v>
       </c>
       <c r="L276">
         <v>1</v>
       </c>
       <c r="M276" t="s">
-        <v>1419</v>
+        <v>1299</v>
       </c>
       <c r="N276">
         <v>1</v>
       </c>
       <c r="O276" t="s">
-        <v>1420</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1421</v>
+        <v>1301</v>
       </c>
       <c r="B277" t="s">
-        <v>1422</v>
+        <v>1302</v>
       </c>
       <c r="C277">
-        <v>173.3</v>
+        <v>300.10000000000002</v>
       </c>
       <c r="D277">
-        <v>116.4</v>
+        <v>320.3</v>
       </c>
       <c r="E277">
-        <v>274</v>
+        <v>115.2</v>
       </c>
       <c r="F277" t="s">
         <v>26</v>
@@ -18592,36 +19388,36 @@
         <v>70</v>
       </c>
       <c r="K277" t="s">
-        <v>1423</v>
+        <v>1303</v>
       </c>
       <c r="L277">
         <v>1</v>
       </c>
       <c r="M277" t="s">
-        <v>1424</v>
+        <v>1304</v>
       </c>
       <c r="N277">
         <v>1</v>
       </c>
       <c r="O277" t="s">
-        <v>1425</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1426</v>
+        <v>1306</v>
       </c>
       <c r="B278" t="s">
-        <v>1427</v>
+        <v>1307</v>
       </c>
       <c r="C278">
-        <v>186</v>
+        <v>312.8</v>
       </c>
       <c r="D278">
-        <v>129.1</v>
+        <v>333</v>
       </c>
       <c r="E278">
-        <v>286.7</v>
+        <v>127.9</v>
       </c>
       <c r="F278" t="s">
         <v>26</v>
@@ -18639,36 +19435,36 @@
         <v>70</v>
       </c>
       <c r="K278" t="s">
-        <v>1428</v>
+        <v>1308</v>
       </c>
       <c r="L278">
         <v>1</v>
       </c>
       <c r="M278" t="s">
-        <v>1429</v>
+        <v>1309</v>
       </c>
       <c r="N278">
         <v>1</v>
       </c>
       <c r="O278" t="s">
-        <v>1430</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1431</v>
+        <v>1311</v>
       </c>
       <c r="B279" t="s">
-        <v>1432</v>
+        <v>1312</v>
       </c>
       <c r="C279">
-        <v>198.7</v>
+        <v>326.60000000000002</v>
       </c>
       <c r="D279">
-        <v>141.69999999999999</v>
+        <v>346.6</v>
       </c>
       <c r="E279">
-        <v>299.3</v>
+        <v>141.5</v>
       </c>
       <c r="F279" t="s">
         <v>26</v>
@@ -18686,36 +19482,36 @@
         <v>70</v>
       </c>
       <c r="K279" t="s">
-        <v>1433</v>
+        <v>1313</v>
       </c>
       <c r="L279">
         <v>1</v>
       </c>
       <c r="M279" t="s">
-        <v>1434</v>
+        <v>1314</v>
       </c>
       <c r="N279">
         <v>1</v>
       </c>
       <c r="O279" t="s">
-        <v>1435</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1436</v>
+        <v>1316</v>
       </c>
       <c r="B280" t="s">
-        <v>1437</v>
+        <v>1317</v>
       </c>
       <c r="C280">
-        <v>211.5</v>
+        <v>339.3</v>
       </c>
       <c r="D280">
-        <v>154.30000000000001</v>
+        <v>359.3</v>
       </c>
       <c r="E280">
-        <v>311.89999999999998</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="F280" t="s">
         <v>26</v>
@@ -18733,36 +19529,36 @@
         <v>70</v>
       </c>
       <c r="K280" t="s">
-        <v>1438</v>
+        <v>1318</v>
       </c>
       <c r="L280">
         <v>1</v>
       </c>
       <c r="M280" t="s">
-        <v>1439</v>
+        <v>1319</v>
       </c>
       <c r="N280">
         <v>1</v>
       </c>
       <c r="O280" t="s">
-        <v>1440</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1441</v>
+        <v>1321</v>
       </c>
       <c r="B281" t="s">
-        <v>1442</v>
+        <v>1322</v>
       </c>
       <c r="C281">
-        <v>224.3</v>
+        <v>352.1</v>
       </c>
       <c r="D281">
-        <v>167</v>
+        <v>11.9</v>
       </c>
       <c r="E281">
-        <v>324.60000000000002</v>
+        <v>166.8</v>
       </c>
       <c r="F281" t="s">
         <v>26</v>
@@ -18780,36 +19576,36 @@
         <v>70</v>
       </c>
       <c r="K281" t="s">
-        <v>1443</v>
+        <v>1323</v>
       </c>
       <c r="L281">
         <v>1</v>
       </c>
       <c r="M281" t="s">
-        <v>1444</v>
+        <v>1324</v>
       </c>
       <c r="N281">
         <v>1</v>
       </c>
       <c r="O281" t="s">
-        <v>1445</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1446</v>
+        <v>1326</v>
       </c>
       <c r="B282" t="s">
-        <v>1447</v>
+        <v>1327</v>
       </c>
       <c r="C282">
-        <v>237</v>
+        <v>4.8</v>
       </c>
       <c r="D282">
-        <v>179.6</v>
+        <v>24.5</v>
       </c>
       <c r="E282">
-        <v>337.3</v>
+        <v>179.5</v>
       </c>
       <c r="F282" t="s">
         <v>26</v>
@@ -18827,36 +19623,36 @@
         <v>70</v>
       </c>
       <c r="K282" t="s">
-        <v>1448</v>
+        <v>1328</v>
       </c>
       <c r="L282">
         <v>1</v>
       </c>
       <c r="M282" t="s">
-        <v>1449</v>
+        <v>1329</v>
       </c>
       <c r="N282">
         <v>1</v>
       </c>
       <c r="O282" t="s">
-        <v>1450</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1451</v>
+        <v>1331</v>
       </c>
       <c r="B283" t="s">
-        <v>1452</v>
+        <v>1332</v>
       </c>
       <c r="C283">
-        <v>249.8</v>
+        <v>17.5</v>
       </c>
       <c r="D283">
-        <v>192.3</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E283">
-        <v>349.9</v>
+        <v>192.1</v>
       </c>
       <c r="F283" t="s">
         <v>26</v>
@@ -18874,36 +19670,36 @@
         <v>70</v>
       </c>
       <c r="K283" t="s">
-        <v>1453</v>
+        <v>1333</v>
       </c>
       <c r="L283">
         <v>1</v>
       </c>
       <c r="M283" t="s">
-        <v>1454</v>
+        <v>1334</v>
       </c>
       <c r="N283">
         <v>1</v>
       </c>
       <c r="O283" t="s">
-        <v>1455</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>1456</v>
+        <v>1336</v>
       </c>
       <c r="B284" t="s">
-        <v>1457</v>
+        <v>1337</v>
       </c>
       <c r="C284">
-        <v>262.60000000000002</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D284">
-        <v>205</v>
+        <v>60.2</v>
       </c>
       <c r="E284">
-        <v>2.6</v>
+        <v>215.2</v>
       </c>
       <c r="F284" t="s">
         <v>26</v>
@@ -18921,36 +19717,36 @@
         <v>70</v>
       </c>
       <c r="K284" t="s">
-        <v>1458</v>
+        <v>1338</v>
       </c>
       <c r="L284">
         <v>1</v>
       </c>
       <c r="M284" t="s">
-        <v>1459</v>
+        <v>1339</v>
       </c>
       <c r="N284">
         <v>1</v>
       </c>
       <c r="O284" t="s">
-        <v>1460</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>1461</v>
+        <v>1341</v>
       </c>
       <c r="B285" t="s">
-        <v>1462</v>
+        <v>1342</v>
       </c>
       <c r="C285">
-        <v>329.1</v>
+        <v>53</v>
       </c>
       <c r="D285">
-        <v>258.39999999999998</v>
+        <v>72.3</v>
       </c>
       <c r="E285">
-        <v>56.5</v>
+        <v>227.3</v>
       </c>
       <c r="F285" t="s">
         <v>26</v>
@@ -18968,36 +19764,36 @@
         <v>70</v>
       </c>
       <c r="K285" t="s">
-        <v>1463</v>
+        <v>1343</v>
       </c>
       <c r="L285">
         <v>1</v>
       </c>
       <c r="M285" t="s">
-        <v>1464</v>
+        <v>1344</v>
       </c>
       <c r="N285">
         <v>1</v>
       </c>
       <c r="O285" t="s">
-        <v>1465</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>1466</v>
+        <v>1346</v>
       </c>
       <c r="B286" t="s">
-        <v>1467</v>
+        <v>1347</v>
       </c>
       <c r="C286">
-        <v>341.9</v>
+        <v>65.8</v>
       </c>
       <c r="D286">
-        <v>271.10000000000002</v>
+        <v>85</v>
       </c>
       <c r="E286">
-        <v>69.2</v>
+        <v>239.9</v>
       </c>
       <c r="F286" t="s">
         <v>26</v>
@@ -19015,36 +19811,36 @@
         <v>70</v>
       </c>
       <c r="K286" t="s">
-        <v>1468</v>
+        <v>1348</v>
       </c>
       <c r="L286">
         <v>1</v>
       </c>
       <c r="M286" t="s">
-        <v>1469</v>
+        <v>1349</v>
       </c>
       <c r="N286">
         <v>1</v>
       </c>
       <c r="O286" t="s">
-        <v>1470</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>1471</v>
+        <v>1351</v>
       </c>
       <c r="B287" t="s">
-        <v>1472</v>
+        <v>1352</v>
       </c>
       <c r="C287">
-        <v>355.3</v>
+        <v>78.5</v>
       </c>
       <c r="D287">
-        <v>284.3</v>
+        <v>97.6</v>
       </c>
       <c r="E287">
-        <v>82.4</v>
+        <v>252.5</v>
       </c>
       <c r="F287" t="s">
         <v>26</v>
@@ -19062,36 +19858,36 @@
         <v>70</v>
       </c>
       <c r="K287" t="s">
-        <v>1473</v>
+        <v>1353</v>
       </c>
       <c r="L287">
         <v>1</v>
       </c>
       <c r="M287" t="s">
-        <v>1474</v>
+        <v>1354</v>
       </c>
       <c r="N287">
         <v>1</v>
       </c>
       <c r="O287" t="s">
-        <v>1475</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>1476</v>
+        <v>1356</v>
       </c>
       <c r="B288" t="s">
-        <v>1477</v>
+        <v>1357</v>
       </c>
       <c r="C288">
-        <v>8</v>
+        <v>91.3</v>
       </c>
       <c r="D288">
-        <v>297</v>
+        <v>110.3</v>
       </c>
       <c r="E288">
-        <v>95.1</v>
+        <v>265.2</v>
       </c>
       <c r="F288" t="s">
         <v>26</v>
@@ -19109,36 +19905,36 @@
         <v>70</v>
       </c>
       <c r="K288" t="s">
-        <v>1478</v>
+        <v>1358</v>
       </c>
       <c r="L288">
         <v>1</v>
       </c>
       <c r="M288" t="s">
-        <v>1479</v>
+        <v>1359</v>
       </c>
       <c r="N288">
         <v>1</v>
       </c>
       <c r="O288" t="s">
-        <v>1480</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>1481</v>
+        <v>1361</v>
       </c>
       <c r="B289" t="s">
-        <v>1482</v>
+        <v>1362</v>
       </c>
       <c r="C289">
-        <v>20.8</v>
+        <v>105.9</v>
       </c>
       <c r="D289">
-        <v>309.7</v>
+        <v>124.7</v>
       </c>
       <c r="E289">
-        <v>107.8</v>
+        <v>279.7</v>
       </c>
       <c r="F289" t="s">
         <v>26</v>
@@ -19156,36 +19952,36 @@
         <v>70</v>
       </c>
       <c r="K289" t="s">
-        <v>1483</v>
+        <v>1363</v>
       </c>
       <c r="L289">
         <v>1</v>
       </c>
       <c r="M289" t="s">
-        <v>1484</v>
+        <v>1364</v>
       </c>
       <c r="N289">
         <v>1</v>
       </c>
       <c r="O289" t="s">
-        <v>1485</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>1486</v>
+        <v>1366</v>
       </c>
       <c r="B290" t="s">
-        <v>1487</v>
+        <v>1367</v>
       </c>
       <c r="C290">
-        <v>33.6</v>
+        <v>118.6</v>
       </c>
       <c r="D290">
-        <v>322.3</v>
+        <v>137.4</v>
       </c>
       <c r="E290">
-        <v>120.4</v>
+        <v>292.3</v>
       </c>
       <c r="F290" t="s">
         <v>26</v>
@@ -19203,36 +19999,36 @@
         <v>70</v>
       </c>
       <c r="K290" t="s">
-        <v>1488</v>
+        <v>1368</v>
       </c>
       <c r="L290">
         <v>1</v>
       </c>
       <c r="M290" t="s">
-        <v>1489</v>
+        <v>1369</v>
       </c>
       <c r="N290">
         <v>1</v>
       </c>
       <c r="O290" t="s">
-        <v>1490</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>1491</v>
+        <v>1371</v>
       </c>
       <c r="B291" t="s">
-        <v>1492</v>
+        <v>1372</v>
       </c>
       <c r="C291">
-        <v>46.8</v>
+        <v>131.4</v>
       </c>
       <c r="D291">
-        <v>335.5</v>
+        <v>150</v>
       </c>
       <c r="E291">
-        <v>133.6</v>
+        <v>305</v>
       </c>
       <c r="F291" t="s">
         <v>26</v>
@@ -19250,36 +20046,36 @@
         <v>70</v>
       </c>
       <c r="K291" t="s">
-        <v>1493</v>
+        <v>1373</v>
       </c>
       <c r="L291">
         <v>1</v>
       </c>
       <c r="M291" t="s">
-        <v>1494</v>
+        <v>1374</v>
       </c>
       <c r="N291">
         <v>1</v>
       </c>
       <c r="O291" t="s">
-        <v>1495</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>1496</v>
+        <v>1376</v>
       </c>
       <c r="B292" t="s">
-        <v>1497</v>
+        <v>1377</v>
       </c>
       <c r="C292">
-        <v>59.6</v>
+        <v>144.1</v>
       </c>
       <c r="D292">
-        <v>348.1</v>
+        <v>162.6</v>
       </c>
       <c r="E292">
-        <v>146.19999999999999</v>
+        <v>317.60000000000002</v>
       </c>
       <c r="F292" t="s">
         <v>26</v>
@@ -19297,36 +20093,36 @@
         <v>70</v>
       </c>
       <c r="K292" t="s">
-        <v>1498</v>
+        <v>1378</v>
       </c>
       <c r="L292">
         <v>1</v>
       </c>
       <c r="M292" t="s">
-        <v>1499</v>
+        <v>1379</v>
       </c>
       <c r="N292">
         <v>1</v>
       </c>
       <c r="O292" t="s">
-        <v>1500</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>1501</v>
+        <v>1381</v>
       </c>
       <c r="B293" t="s">
-        <v>1502</v>
+        <v>1382</v>
       </c>
       <c r="C293">
-        <v>72.3</v>
+        <v>62.3</v>
       </c>
       <c r="D293">
-        <v>0.7</v>
+        <v>6.4</v>
       </c>
       <c r="E293">
-        <v>158.80000000000001</v>
+        <v>163.9</v>
       </c>
       <c r="F293" t="s">
         <v>26</v>
@@ -19344,36 +20140,36 @@
         <v>70</v>
       </c>
       <c r="K293" t="s">
-        <v>1503</v>
+        <v>1383</v>
       </c>
       <c r="L293">
         <v>1</v>
       </c>
       <c r="M293" t="s">
-        <v>1504</v>
+        <v>1384</v>
       </c>
       <c r="N293">
         <v>1</v>
       </c>
       <c r="O293" t="s">
-        <v>1505</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>1506</v>
+        <v>1386</v>
       </c>
       <c r="B294" t="s">
-        <v>1507</v>
+        <v>1387</v>
       </c>
       <c r="C294">
-        <v>85.1</v>
+        <v>75</v>
       </c>
       <c r="D294">
-        <v>13.4</v>
+        <v>19</v>
       </c>
       <c r="E294">
-        <v>171.5</v>
+        <v>176.6</v>
       </c>
       <c r="F294" t="s">
         <v>26</v>
@@ -19391,36 +20187,36 @@
         <v>70</v>
       </c>
       <c r="K294" t="s">
-        <v>1508</v>
+        <v>1388</v>
       </c>
       <c r="L294">
         <v>1</v>
       </c>
       <c r="M294" t="s">
-        <v>1509</v>
+        <v>1389</v>
       </c>
       <c r="N294">
         <v>1</v>
       </c>
       <c r="O294" t="s">
-        <v>1510</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>1511</v>
+        <v>1391</v>
       </c>
       <c r="B295" t="s">
-        <v>1512</v>
+        <v>1392</v>
       </c>
       <c r="C295">
-        <v>102.6</v>
+        <v>87.7</v>
       </c>
       <c r="D295">
-        <v>30.8</v>
+        <v>31.6</v>
       </c>
       <c r="E295">
-        <v>188.9</v>
+        <v>189.2</v>
       </c>
       <c r="F295" t="s">
         <v>26</v>
@@ -19438,36 +20234,36 @@
         <v>70</v>
       </c>
       <c r="K295" t="s">
-        <v>1513</v>
+        <v>1393</v>
       </c>
       <c r="L295">
         <v>1</v>
       </c>
       <c r="M295" t="s">
-        <v>1514</v>
+        <v>1394</v>
       </c>
       <c r="N295">
         <v>1</v>
       </c>
       <c r="O295" t="s">
-        <v>1515</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>1516</v>
+        <v>1396</v>
       </c>
       <c r="B296" t="s">
-        <v>1517</v>
+        <v>1397</v>
       </c>
       <c r="C296">
-        <v>115.4</v>
+        <v>100.5</v>
       </c>
       <c r="D296">
-        <v>43.4</v>
+        <v>44.3</v>
       </c>
       <c r="E296">
-        <v>201.5</v>
+        <v>201.9</v>
       </c>
       <c r="F296" t="s">
         <v>26</v>
@@ -19485,36 +20281,36 @@
         <v>70</v>
       </c>
       <c r="K296" t="s">
-        <v>1518</v>
+        <v>1398</v>
       </c>
       <c r="L296">
         <v>1</v>
       </c>
       <c r="M296" t="s">
-        <v>1519</v>
+        <v>1399</v>
       </c>
       <c r="N296">
         <v>1</v>
       </c>
       <c r="O296" t="s">
-        <v>1520</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>1521</v>
+        <v>1401</v>
       </c>
       <c r="B297" t="s">
-        <v>1522</v>
+        <v>1402</v>
       </c>
       <c r="C297">
-        <v>128.1</v>
+        <v>113.3</v>
       </c>
       <c r="D297">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E297">
-        <v>214.1</v>
+        <v>214.5</v>
       </c>
       <c r="F297" t="s">
         <v>26</v>
@@ -19532,36 +20328,36 @@
         <v>70</v>
       </c>
       <c r="K297" t="s">
-        <v>1523</v>
+        <v>1403</v>
       </c>
       <c r="L297">
         <v>1</v>
       </c>
       <c r="M297" t="s">
-        <v>1524</v>
+        <v>1404</v>
       </c>
       <c r="N297">
         <v>1</v>
       </c>
       <c r="O297" t="s">
-        <v>1525</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>1526</v>
+        <v>1406</v>
       </c>
       <c r="B298" t="s">
-        <v>1527</v>
+        <v>1407</v>
       </c>
       <c r="C298">
-        <v>142.80000000000001</v>
+        <v>126</v>
       </c>
       <c r="D298">
-        <v>70.599999999999994</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="E298">
-        <v>228.7</v>
+        <v>227.2</v>
       </c>
       <c r="F298" t="s">
         <v>26</v>
@@ -19579,36 +20375,36 @@
         <v>70</v>
       </c>
       <c r="K298" t="s">
-        <v>1528</v>
+        <v>1408</v>
       </c>
       <c r="L298">
         <v>1</v>
       </c>
       <c r="M298" t="s">
-        <v>1529</v>
+        <v>1409</v>
       </c>
       <c r="N298">
         <v>1</v>
       </c>
       <c r="O298" t="s">
-        <v>1530</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>1531</v>
+        <v>1411</v>
       </c>
       <c r="B299" t="s">
-        <v>1532</v>
+        <v>1412</v>
       </c>
       <c r="C299">
-        <v>155.5</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="D299">
-        <v>83.2</v>
+        <v>82.2</v>
       </c>
       <c r="E299">
-        <v>241.3</v>
+        <v>239.8</v>
       </c>
       <c r="F299" t="s">
         <v>26</v>
@@ -19626,36 +20422,36 @@
         <v>70</v>
       </c>
       <c r="K299" t="s">
-        <v>1533</v>
+        <v>1413</v>
       </c>
       <c r="L299">
         <v>1</v>
       </c>
       <c r="M299" t="s">
-        <v>1534</v>
+        <v>1414</v>
       </c>
       <c r="N299">
         <v>1</v>
       </c>
       <c r="O299" t="s">
-        <v>1535</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>1536</v>
+        <v>1416</v>
       </c>
       <c r="B300" t="s">
-        <v>1537</v>
+        <v>1417</v>
       </c>
       <c r="C300">
-        <v>168.3</v>
+        <v>160.5</v>
       </c>
       <c r="D300">
-        <v>95.9</v>
+        <v>103.7</v>
       </c>
       <c r="E300">
-        <v>254</v>
+        <v>261.3</v>
       </c>
       <c r="F300" t="s">
         <v>26</v>
@@ -19673,36 +20469,36 @@
         <v>70</v>
       </c>
       <c r="K300" t="s">
-        <v>1538</v>
+        <v>1418</v>
       </c>
       <c r="L300">
         <v>1</v>
       </c>
       <c r="M300" t="s">
-        <v>1539</v>
+        <v>1419</v>
       </c>
       <c r="N300">
         <v>1</v>
       </c>
       <c r="O300" t="s">
-        <v>1540</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>1541</v>
+        <v>1421</v>
       </c>
       <c r="B301" t="s">
-        <v>1542</v>
+        <v>1422</v>
       </c>
       <c r="C301">
-        <v>181.1</v>
+        <v>173.3</v>
       </c>
       <c r="D301">
-        <v>108.5</v>
+        <v>116.4</v>
       </c>
       <c r="E301">
-        <v>266.7</v>
+        <v>274</v>
       </c>
       <c r="F301" t="s">
         <v>26</v>
@@ -19720,36 +20516,36 @@
         <v>70</v>
       </c>
       <c r="K301" t="s">
-        <v>1543</v>
+        <v>1423</v>
       </c>
       <c r="L301">
         <v>1</v>
       </c>
       <c r="M301" t="s">
-        <v>1544</v>
+        <v>1424</v>
       </c>
       <c r="N301">
         <v>1</v>
       </c>
       <c r="O301" t="s">
-        <v>1545</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>1546</v>
+        <v>1426</v>
       </c>
       <c r="B302" t="s">
-        <v>1547</v>
+        <v>1427</v>
       </c>
       <c r="C302">
-        <v>193.8</v>
+        <v>186</v>
       </c>
       <c r="D302">
-        <v>121.2</v>
+        <v>129.1</v>
       </c>
       <c r="E302">
-        <v>279.3</v>
+        <v>286.7</v>
       </c>
       <c r="F302" t="s">
         <v>26</v>
@@ -19767,36 +20563,36 @@
         <v>70</v>
       </c>
       <c r="K302" t="s">
-        <v>1548</v>
+        <v>1428</v>
       </c>
       <c r="L302">
         <v>1</v>
       </c>
       <c r="M302" t="s">
-        <v>1549</v>
+        <v>1429</v>
       </c>
       <c r="N302">
         <v>1</v>
       </c>
       <c r="O302" t="s">
-        <v>1550</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>1551</v>
+        <v>1431</v>
       </c>
       <c r="B303" t="s">
-        <v>1552</v>
+        <v>1432</v>
       </c>
       <c r="C303">
-        <v>206.6</v>
+        <v>198.7</v>
       </c>
       <c r="D303">
-        <v>133.80000000000001</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="E303">
-        <v>291.89999999999998</v>
+        <v>299.3</v>
       </c>
       <c r="F303" t="s">
         <v>26</v>
@@ -19814,23 +20610,2560 @@
         <v>70</v>
       </c>
       <c r="K303" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303" t="s">
+        <v>1434</v>
+      </c>
+      <c r="N303">
+        <v>1</v>
+      </c>
+      <c r="O303" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C304">
+        <v>211.5</v>
+      </c>
+      <c r="D304">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="E304">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="F304" t="s">
+        <v>26</v>
+      </c>
+      <c r="G304" t="s">
+        <v>18</v>
+      </c>
+      <c r="H304" t="s">
+        <v>27</v>
+      </c>
+      <c r="I304" t="s">
+        <v>132</v>
+      </c>
+      <c r="J304" t="s">
+        <v>70</v>
+      </c>
+      <c r="K304" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304" t="s">
+        <v>1439</v>
+      </c>
+      <c r="N304">
+        <v>1</v>
+      </c>
+      <c r="O304" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C305">
+        <v>224.3</v>
+      </c>
+      <c r="D305">
+        <v>167</v>
+      </c>
+      <c r="E305">
+        <v>324.60000000000002</v>
+      </c>
+      <c r="F305" t="s">
+        <v>26</v>
+      </c>
+      <c r="G305" t="s">
+        <v>18</v>
+      </c>
+      <c r="H305" t="s">
+        <v>27</v>
+      </c>
+      <c r="I305" t="s">
+        <v>132</v>
+      </c>
+      <c r="J305" t="s">
+        <v>70</v>
+      </c>
+      <c r="K305" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305" t="s">
+        <v>1444</v>
+      </c>
+      <c r="N305">
+        <v>1</v>
+      </c>
+      <c r="O305" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C306">
+        <v>237</v>
+      </c>
+      <c r="D306">
+        <v>179.6</v>
+      </c>
+      <c r="E306">
+        <v>337.3</v>
+      </c>
+      <c r="F306" t="s">
+        <v>26</v>
+      </c>
+      <c r="G306" t="s">
+        <v>18</v>
+      </c>
+      <c r="H306" t="s">
+        <v>27</v>
+      </c>
+      <c r="I306" t="s">
+        <v>132</v>
+      </c>
+      <c r="J306" t="s">
+        <v>70</v>
+      </c>
+      <c r="K306" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
+      </c>
+      <c r="M306" t="s">
+        <v>1449</v>
+      </c>
+      <c r="N306">
+        <v>1</v>
+      </c>
+      <c r="O306" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C307">
+        <v>249.8</v>
+      </c>
+      <c r="D307">
+        <v>192.3</v>
+      </c>
+      <c r="E307">
+        <v>349.9</v>
+      </c>
+      <c r="F307" t="s">
+        <v>26</v>
+      </c>
+      <c r="G307" t="s">
+        <v>18</v>
+      </c>
+      <c r="H307" t="s">
+        <v>27</v>
+      </c>
+      <c r="I307" t="s">
+        <v>132</v>
+      </c>
+      <c r="J307" t="s">
+        <v>70</v>
+      </c>
+      <c r="K307" t="s">
+        <v>1453</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+      <c r="M307" t="s">
+        <v>1454</v>
+      </c>
+      <c r="N307">
+        <v>1</v>
+      </c>
+      <c r="O307" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C308">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="D308">
+        <v>205</v>
+      </c>
+      <c r="E308">
+        <v>2.6</v>
+      </c>
+      <c r="F308" t="s">
+        <v>26</v>
+      </c>
+      <c r="G308" t="s">
+        <v>18</v>
+      </c>
+      <c r="H308" t="s">
+        <v>27</v>
+      </c>
+      <c r="I308" t="s">
+        <v>132</v>
+      </c>
+      <c r="J308" t="s">
+        <v>70</v>
+      </c>
+      <c r="K308" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308" t="s">
+        <v>1459</v>
+      </c>
+      <c r="N308">
+        <v>1</v>
+      </c>
+      <c r="O308" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C309">
+        <v>178</v>
+      </c>
+      <c r="D309">
+        <v>114.9</v>
+      </c>
+      <c r="E309">
+        <v>272.7</v>
+      </c>
+      <c r="F309" t="s">
+        <v>26</v>
+      </c>
+      <c r="G309" t="s">
+        <v>18</v>
+      </c>
+      <c r="H309" t="s">
+        <v>27</v>
+      </c>
+      <c r="I309" t="s">
+        <v>132</v>
+      </c>
+      <c r="J309" t="s">
+        <v>70</v>
+      </c>
+      <c r="K309" t="s">
+        <v>1687</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+      <c r="M309" t="s">
+        <v>1688</v>
+      </c>
+      <c r="N309">
+        <v>1</v>
+      </c>
+      <c r="O309" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C310">
+        <v>190.8</v>
+      </c>
+      <c r="D310">
+        <v>127.5</v>
+      </c>
+      <c r="E310">
+        <v>285.39999999999998</v>
+      </c>
+      <c r="F310" t="s">
+        <v>26</v>
+      </c>
+      <c r="G310" t="s">
+        <v>18</v>
+      </c>
+      <c r="H310" t="s">
+        <v>27</v>
+      </c>
+      <c r="I310" t="s">
+        <v>132</v>
+      </c>
+      <c r="J310" t="s">
+        <v>70</v>
+      </c>
+      <c r="K310" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+      <c r="M310" t="s">
+        <v>1693</v>
+      </c>
+      <c r="N310">
+        <v>1</v>
+      </c>
+      <c r="O310" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C311">
+        <v>203.6</v>
+      </c>
+      <c r="D311">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="E311">
+        <v>298</v>
+      </c>
+      <c r="F311" t="s">
+        <v>26</v>
+      </c>
+      <c r="G311" t="s">
+        <v>18</v>
+      </c>
+      <c r="H311" t="s">
+        <v>27</v>
+      </c>
+      <c r="I311" t="s">
+        <v>132</v>
+      </c>
+      <c r="J311" t="s">
+        <v>70</v>
+      </c>
+      <c r="K311" t="s">
+        <v>1697</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+      <c r="M311" t="s">
+        <v>1698</v>
+      </c>
+      <c r="N311">
+        <v>1</v>
+      </c>
+      <c r="O311" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C312">
+        <v>217.8</v>
+      </c>
+      <c r="D312">
+        <v>154.4</v>
+      </c>
+      <c r="E312">
+        <v>312.2</v>
+      </c>
+      <c r="F312" t="s">
+        <v>26</v>
+      </c>
+      <c r="G312" t="s">
+        <v>18</v>
+      </c>
+      <c r="H312" t="s">
+        <v>27</v>
+      </c>
+      <c r="I312" t="s">
+        <v>132</v>
+      </c>
+      <c r="J312" t="s">
+        <v>70</v>
+      </c>
+      <c r="K312" t="s">
+        <v>1702</v>
+      </c>
+      <c r="L312">
+        <v>1</v>
+      </c>
+      <c r="M312" t="s">
+        <v>1703</v>
+      </c>
+      <c r="N312">
+        <v>1</v>
+      </c>
+      <c r="O312" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C313">
+        <v>230.6</v>
+      </c>
+      <c r="D313">
+        <v>167</v>
+      </c>
+      <c r="E313">
+        <v>324.8</v>
+      </c>
+      <c r="F313" t="s">
+        <v>26</v>
+      </c>
+      <c r="G313" t="s">
+        <v>18</v>
+      </c>
+      <c r="H313" t="s">
+        <v>27</v>
+      </c>
+      <c r="I313" t="s">
+        <v>132</v>
+      </c>
+      <c r="J313" t="s">
+        <v>70</v>
+      </c>
+      <c r="K313" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+      <c r="M313" t="s">
+        <v>1708</v>
+      </c>
+      <c r="N313">
+        <v>1</v>
+      </c>
+      <c r="O313" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C314">
+        <v>243.3</v>
+      </c>
+      <c r="D314">
+        <v>179.6</v>
+      </c>
+      <c r="E314">
+        <v>337.5</v>
+      </c>
+      <c r="F314" t="s">
+        <v>26</v>
+      </c>
+      <c r="G314" t="s">
+        <v>18</v>
+      </c>
+      <c r="H314" t="s">
+        <v>27</v>
+      </c>
+      <c r="I314" t="s">
+        <v>132</v>
+      </c>
+      <c r="J314" t="s">
+        <v>70</v>
+      </c>
+      <c r="K314" t="s">
+        <v>1712</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314" t="s">
+        <v>1713</v>
+      </c>
+      <c r="N314">
+        <v>1</v>
+      </c>
+      <c r="O314" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C315">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="D315">
+        <v>192.3</v>
+      </c>
+      <c r="E315">
+        <v>350.1</v>
+      </c>
+      <c r="F315" t="s">
+        <v>26</v>
+      </c>
+      <c r="G315" t="s">
+        <v>18</v>
+      </c>
+      <c r="H315" t="s">
+        <v>27</v>
+      </c>
+      <c r="I315" t="s">
+        <v>132</v>
+      </c>
+      <c r="J315" t="s">
+        <v>70</v>
+      </c>
+      <c r="K315" t="s">
+        <v>1717</v>
+      </c>
+      <c r="L315">
+        <v>1</v>
+      </c>
+      <c r="M315" t="s">
+        <v>1718</v>
+      </c>
+      <c r="N315">
+        <v>1</v>
+      </c>
+      <c r="O315" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C316">
+        <v>268.8</v>
+      </c>
+      <c r="D316">
+        <v>204.9</v>
+      </c>
+      <c r="E316">
+        <v>2.7</v>
+      </c>
+      <c r="F316" t="s">
+        <v>26</v>
+      </c>
+      <c r="G316" t="s">
+        <v>18</v>
+      </c>
+      <c r="H316" t="s">
+        <v>27</v>
+      </c>
+      <c r="I316" t="s">
+        <v>132</v>
+      </c>
+      <c r="J316" t="s">
+        <v>70</v>
+      </c>
+      <c r="K316" t="s">
+        <v>1722</v>
+      </c>
+      <c r="L316">
+        <v>1</v>
+      </c>
+      <c r="M316" t="s">
+        <v>1723</v>
+      </c>
+      <c r="N316">
+        <v>1</v>
+      </c>
+      <c r="O316" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C317">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="D317">
+        <v>217.5</v>
+      </c>
+      <c r="E317">
+        <v>15.4</v>
+      </c>
+      <c r="F317" t="s">
+        <v>26</v>
+      </c>
+      <c r="G317" t="s">
+        <v>18</v>
+      </c>
+      <c r="H317" t="s">
+        <v>27</v>
+      </c>
+      <c r="I317" t="s">
+        <v>132</v>
+      </c>
+      <c r="J317" t="s">
+        <v>70</v>
+      </c>
+      <c r="K317" t="s">
+        <v>1727</v>
+      </c>
+      <c r="L317">
+        <v>1</v>
+      </c>
+      <c r="M317" t="s">
+        <v>1728</v>
+      </c>
+      <c r="N317">
+        <v>1</v>
+      </c>
+      <c r="O317" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C318">
+        <v>295.60000000000002</v>
+      </c>
+      <c r="D318">
+        <v>231.5</v>
+      </c>
+      <c r="E318">
+        <v>29.3</v>
+      </c>
+      <c r="F318" t="s">
+        <v>26</v>
+      </c>
+      <c r="G318" t="s">
+        <v>18</v>
+      </c>
+      <c r="H318" t="s">
+        <v>27</v>
+      </c>
+      <c r="I318" t="s">
+        <v>132</v>
+      </c>
+      <c r="J318" t="s">
+        <v>70</v>
+      </c>
+      <c r="K318" t="s">
+        <v>1732</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+      <c r="M318" t="s">
+        <v>1733</v>
+      </c>
+      <c r="N318">
+        <v>1</v>
+      </c>
+      <c r="O318" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C319">
+        <v>316.7</v>
+      </c>
+      <c r="D319">
+        <v>252.3</v>
+      </c>
+      <c r="E319">
+        <v>50.2</v>
+      </c>
+      <c r="F319" t="s">
+        <v>26</v>
+      </c>
+      <c r="G319" t="s">
+        <v>18</v>
+      </c>
+      <c r="H319" t="s">
+        <v>27</v>
+      </c>
+      <c r="I319" t="s">
+        <v>132</v>
+      </c>
+      <c r="J319" t="s">
+        <v>70</v>
+      </c>
+      <c r="K319" t="s">
+        <v>1737</v>
+      </c>
+      <c r="L319">
+        <v>1</v>
+      </c>
+      <c r="M319" t="s">
+        <v>1738</v>
+      </c>
+      <c r="N319">
+        <v>1</v>
+      </c>
+      <c r="O319" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C320">
+        <v>329.5</v>
+      </c>
+      <c r="D320">
+        <v>265</v>
+      </c>
+      <c r="E320">
+        <v>62.9</v>
+      </c>
+      <c r="F320" t="s">
+        <v>26</v>
+      </c>
+      <c r="G320" t="s">
+        <v>18</v>
+      </c>
+      <c r="H320" t="s">
+        <v>27</v>
+      </c>
+      <c r="I320" t="s">
+        <v>132</v>
+      </c>
+      <c r="J320" t="s">
+        <v>70</v>
+      </c>
+      <c r="K320" t="s">
+        <v>1742</v>
+      </c>
+      <c r="L320">
+        <v>1</v>
+      </c>
+      <c r="M320" t="s">
+        <v>1743</v>
+      </c>
+      <c r="N320">
+        <v>1</v>
+      </c>
+      <c r="O320" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C321">
+        <v>342.2</v>
+      </c>
+      <c r="D321">
+        <v>277.7</v>
+      </c>
+      <c r="E321">
+        <v>75.5</v>
+      </c>
+      <c r="F321" t="s">
+        <v>26</v>
+      </c>
+      <c r="G321" t="s">
+        <v>18</v>
+      </c>
+      <c r="H321" t="s">
+        <v>27</v>
+      </c>
+      <c r="I321" t="s">
+        <v>132</v>
+      </c>
+      <c r="J321" t="s">
+        <v>70</v>
+      </c>
+      <c r="K321" t="s">
+        <v>1747</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+      <c r="M321" t="s">
+        <v>1748</v>
+      </c>
+      <c r="N321">
+        <v>1</v>
+      </c>
+      <c r="O321" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C322">
+        <v>355</v>
+      </c>
+      <c r="D322">
+        <v>290.3</v>
+      </c>
+      <c r="E322">
+        <v>88.1</v>
+      </c>
+      <c r="F322" t="s">
+        <v>26</v>
+      </c>
+      <c r="G322" t="s">
+        <v>18</v>
+      </c>
+      <c r="H322" t="s">
+        <v>27</v>
+      </c>
+      <c r="I322" t="s">
+        <v>132</v>
+      </c>
+      <c r="J322" t="s">
+        <v>70</v>
+      </c>
+      <c r="K322" t="s">
+        <v>1752</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+      <c r="M322" t="s">
+        <v>1753</v>
+      </c>
+      <c r="N322">
+        <v>1</v>
+      </c>
+      <c r="O322" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C323">
+        <v>7.7</v>
+      </c>
+      <c r="D323">
+        <v>302.89999999999998</v>
+      </c>
+      <c r="E323">
+        <v>100.8</v>
+      </c>
+      <c r="F323" t="s">
+        <v>26</v>
+      </c>
+      <c r="G323" t="s">
+        <v>18</v>
+      </c>
+      <c r="H323" t="s">
+        <v>27</v>
+      </c>
+      <c r="I323" t="s">
+        <v>132</v>
+      </c>
+      <c r="J323" t="s">
+        <v>70</v>
+      </c>
+      <c r="K323" t="s">
+        <v>1757</v>
+      </c>
+      <c r="L323">
+        <v>1</v>
+      </c>
+      <c r="M323" t="s">
+        <v>1758</v>
+      </c>
+      <c r="N323">
+        <v>1</v>
+      </c>
+      <c r="O323" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C324">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D324">
+        <v>315.5</v>
+      </c>
+      <c r="E324">
+        <v>113.4</v>
+      </c>
+      <c r="F324" t="s">
+        <v>26</v>
+      </c>
+      <c r="G324" t="s">
+        <v>18</v>
+      </c>
+      <c r="H324" t="s">
+        <v>27</v>
+      </c>
+      <c r="I324" t="s">
+        <v>132</v>
+      </c>
+      <c r="J324" t="s">
+        <v>70</v>
+      </c>
+      <c r="K324" t="s">
+        <v>1762</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="M324" t="s">
+        <v>1763</v>
+      </c>
+      <c r="N324">
+        <v>1</v>
+      </c>
+      <c r="O324" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C325">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="D325">
+        <v>328.2</v>
+      </c>
+      <c r="E325">
+        <v>126</v>
+      </c>
+      <c r="F325" t="s">
+        <v>26</v>
+      </c>
+      <c r="G325" t="s">
+        <v>18</v>
+      </c>
+      <c r="H325" t="s">
+        <v>27</v>
+      </c>
+      <c r="I325" t="s">
+        <v>132</v>
+      </c>
+      <c r="J325" t="s">
+        <v>70</v>
+      </c>
+      <c r="K325" t="s">
+        <v>1767</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+      <c r="M325" t="s">
+        <v>1768</v>
+      </c>
+      <c r="N325">
+        <v>1</v>
+      </c>
+      <c r="O325" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C326">
+        <v>45.9</v>
+      </c>
+      <c r="D326">
+        <v>340.8</v>
+      </c>
+      <c r="E326">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="F326" t="s">
+        <v>26</v>
+      </c>
+      <c r="G326" t="s">
+        <v>18</v>
+      </c>
+      <c r="H326" t="s">
+        <v>27</v>
+      </c>
+      <c r="I326" t="s">
+        <v>132</v>
+      </c>
+      <c r="J326" t="s">
+        <v>70</v>
+      </c>
+      <c r="K326" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+      <c r="M326" t="s">
+        <v>1773</v>
+      </c>
+      <c r="N326">
+        <v>1</v>
+      </c>
+      <c r="O326" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C327">
+        <v>45.9</v>
+      </c>
+      <c r="D327">
+        <v>340.8</v>
+      </c>
+      <c r="E327">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="F327" t="s">
+        <v>26</v>
+      </c>
+      <c r="G327" t="s">
+        <v>18</v>
+      </c>
+      <c r="H327" t="s">
+        <v>27</v>
+      </c>
+      <c r="I327" t="s">
+        <v>132</v>
+      </c>
+      <c r="J327" t="s">
+        <v>70</v>
+      </c>
+      <c r="K327" t="s">
+        <v>1776</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327" t="s">
+        <v>1777</v>
+      </c>
+      <c r="N327">
+        <v>1</v>
+      </c>
+      <c r="O327" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C328">
+        <v>58.7</v>
+      </c>
+      <c r="D328">
+        <v>353.4</v>
+      </c>
+      <c r="E328">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="F328" t="s">
+        <v>26</v>
+      </c>
+      <c r="G328" t="s">
+        <v>18</v>
+      </c>
+      <c r="H328" t="s">
+        <v>27</v>
+      </c>
+      <c r="I328" t="s">
+        <v>132</v>
+      </c>
+      <c r="J328" t="s">
+        <v>70</v>
+      </c>
+      <c r="K328" t="s">
+        <v>1780</v>
+      </c>
+      <c r="L328">
+        <v>1</v>
+      </c>
+      <c r="M328" t="s">
+        <v>1781</v>
+      </c>
+      <c r="N328">
+        <v>1</v>
+      </c>
+      <c r="O328" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C329">
+        <v>58.7</v>
+      </c>
+      <c r="D329">
+        <v>353.4</v>
+      </c>
+      <c r="E329">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="F329" t="s">
+        <v>26</v>
+      </c>
+      <c r="G329" t="s">
+        <v>18</v>
+      </c>
+      <c r="H329" t="s">
+        <v>27</v>
+      </c>
+      <c r="I329" t="s">
+        <v>132</v>
+      </c>
+      <c r="J329" t="s">
+        <v>70</v>
+      </c>
+      <c r="K329" t="s">
+        <v>1780</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="M329" t="s">
+        <v>1784</v>
+      </c>
+      <c r="N329">
+        <v>1</v>
+      </c>
+      <c r="O329" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C330">
+        <v>329.1</v>
+      </c>
+      <c r="D330">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="E330">
+        <v>56.5</v>
+      </c>
+      <c r="F330" t="s">
+        <v>26</v>
+      </c>
+      <c r="G330" t="s">
+        <v>18</v>
+      </c>
+      <c r="H330" t="s">
+        <v>27</v>
+      </c>
+      <c r="I330" t="s">
+        <v>132</v>
+      </c>
+      <c r="J330" t="s">
+        <v>70</v>
+      </c>
+      <c r="K330" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L330">
+        <v>1</v>
+      </c>
+      <c r="M330" t="s">
+        <v>1464</v>
+      </c>
+      <c r="N330">
+        <v>1</v>
+      </c>
+      <c r="O330" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C331">
+        <v>341.9</v>
+      </c>
+      <c r="D331">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="E331">
+        <v>69.2</v>
+      </c>
+      <c r="F331" t="s">
+        <v>26</v>
+      </c>
+      <c r="G331" t="s">
+        <v>18</v>
+      </c>
+      <c r="H331" t="s">
+        <v>27</v>
+      </c>
+      <c r="I331" t="s">
+        <v>132</v>
+      </c>
+      <c r="J331" t="s">
+        <v>70</v>
+      </c>
+      <c r="K331" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331" t="s">
+        <v>1469</v>
+      </c>
+      <c r="N331">
+        <v>1</v>
+      </c>
+      <c r="O331" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C332">
+        <v>355.3</v>
+      </c>
+      <c r="D332">
+        <v>284.3</v>
+      </c>
+      <c r="E332">
+        <v>82.4</v>
+      </c>
+      <c r="F332" t="s">
+        <v>26</v>
+      </c>
+      <c r="G332" t="s">
+        <v>18</v>
+      </c>
+      <c r="H332" t="s">
+        <v>27</v>
+      </c>
+      <c r="I332" t="s">
+        <v>132</v>
+      </c>
+      <c r="J332" t="s">
+        <v>70</v>
+      </c>
+      <c r="K332" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L332">
+        <v>1</v>
+      </c>
+      <c r="M332" t="s">
+        <v>1474</v>
+      </c>
+      <c r="N332">
+        <v>1</v>
+      </c>
+      <c r="O332" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C333">
+        <v>8</v>
+      </c>
+      <c r="D333">
+        <v>297</v>
+      </c>
+      <c r="E333">
+        <v>95.1</v>
+      </c>
+      <c r="F333" t="s">
+        <v>26</v>
+      </c>
+      <c r="G333" t="s">
+        <v>18</v>
+      </c>
+      <c r="H333" t="s">
+        <v>27</v>
+      </c>
+      <c r="I333" t="s">
+        <v>132</v>
+      </c>
+      <c r="J333" t="s">
+        <v>70</v>
+      </c>
+      <c r="K333" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L333">
+        <v>1</v>
+      </c>
+      <c r="M333" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N333">
+        <v>1</v>
+      </c>
+      <c r="O333" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C334">
+        <v>20.8</v>
+      </c>
+      <c r="D334">
+        <v>309.7</v>
+      </c>
+      <c r="E334">
+        <v>107.8</v>
+      </c>
+      <c r="F334" t="s">
+        <v>26</v>
+      </c>
+      <c r="G334" t="s">
+        <v>18</v>
+      </c>
+      <c r="H334" t="s">
+        <v>27</v>
+      </c>
+      <c r="I334" t="s">
+        <v>132</v>
+      </c>
+      <c r="J334" t="s">
+        <v>70</v>
+      </c>
+      <c r="K334" t="s">
+        <v>1483</v>
+      </c>
+      <c r="L334">
+        <v>1</v>
+      </c>
+      <c r="M334" t="s">
+        <v>1484</v>
+      </c>
+      <c r="N334">
+        <v>1</v>
+      </c>
+      <c r="O334" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C335">
+        <v>33.6</v>
+      </c>
+      <c r="D335">
+        <v>322.3</v>
+      </c>
+      <c r="E335">
+        <v>120.4</v>
+      </c>
+      <c r="F335" t="s">
+        <v>26</v>
+      </c>
+      <c r="G335" t="s">
+        <v>18</v>
+      </c>
+      <c r="H335" t="s">
+        <v>27</v>
+      </c>
+      <c r="I335" t="s">
+        <v>132</v>
+      </c>
+      <c r="J335" t="s">
+        <v>70</v>
+      </c>
+      <c r="K335" t="s">
+        <v>1488</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+      <c r="M335" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N335">
+        <v>1</v>
+      </c>
+      <c r="O335" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C336">
+        <v>46.8</v>
+      </c>
+      <c r="D336">
+        <v>335.5</v>
+      </c>
+      <c r="E336">
+        <v>133.6</v>
+      </c>
+      <c r="F336" t="s">
+        <v>26</v>
+      </c>
+      <c r="G336" t="s">
+        <v>18</v>
+      </c>
+      <c r="H336" t="s">
+        <v>27</v>
+      </c>
+      <c r="I336" t="s">
+        <v>132</v>
+      </c>
+      <c r="J336" t="s">
+        <v>70</v>
+      </c>
+      <c r="K336" t="s">
+        <v>1493</v>
+      </c>
+      <c r="L336">
+        <v>1</v>
+      </c>
+      <c r="M336" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N336">
+        <v>1</v>
+      </c>
+      <c r="O336" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C337">
+        <v>59.6</v>
+      </c>
+      <c r="D337">
+        <v>348.1</v>
+      </c>
+      <c r="E337">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="F337" t="s">
+        <v>26</v>
+      </c>
+      <c r="G337" t="s">
+        <v>18</v>
+      </c>
+      <c r="H337" t="s">
+        <v>27</v>
+      </c>
+      <c r="I337" t="s">
+        <v>132</v>
+      </c>
+      <c r="J337" t="s">
+        <v>70</v>
+      </c>
+      <c r="K337" t="s">
+        <v>1498</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="M337" t="s">
+        <v>1499</v>
+      </c>
+      <c r="N337">
+        <v>1</v>
+      </c>
+      <c r="O337" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C338">
+        <v>72.3</v>
+      </c>
+      <c r="D338">
+        <v>0.7</v>
+      </c>
+      <c r="E338">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="F338" t="s">
+        <v>26</v>
+      </c>
+      <c r="G338" t="s">
+        <v>18</v>
+      </c>
+      <c r="H338" t="s">
+        <v>27</v>
+      </c>
+      <c r="I338" t="s">
+        <v>132</v>
+      </c>
+      <c r="J338" t="s">
+        <v>70</v>
+      </c>
+      <c r="K338" t="s">
+        <v>1503</v>
+      </c>
+      <c r="L338">
+        <v>1</v>
+      </c>
+      <c r="M338" t="s">
+        <v>1504</v>
+      </c>
+      <c r="N338">
+        <v>1</v>
+      </c>
+      <c r="O338" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C339">
+        <v>85.1</v>
+      </c>
+      <c r="D339">
+        <v>13.4</v>
+      </c>
+      <c r="E339">
+        <v>171.5</v>
+      </c>
+      <c r="F339" t="s">
+        <v>26</v>
+      </c>
+      <c r="G339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H339" t="s">
+        <v>27</v>
+      </c>
+      <c r="I339" t="s">
+        <v>132</v>
+      </c>
+      <c r="J339" t="s">
+        <v>70</v>
+      </c>
+      <c r="K339" t="s">
+        <v>1508</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+      <c r="M339" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N339">
+        <v>1</v>
+      </c>
+      <c r="O339" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C340">
+        <v>102.6</v>
+      </c>
+      <c r="D340">
+        <v>30.8</v>
+      </c>
+      <c r="E340">
+        <v>188.9</v>
+      </c>
+      <c r="F340" t="s">
+        <v>26</v>
+      </c>
+      <c r="G340" t="s">
+        <v>18</v>
+      </c>
+      <c r="H340" t="s">
+        <v>27</v>
+      </c>
+      <c r="I340" t="s">
+        <v>132</v>
+      </c>
+      <c r="J340" t="s">
+        <v>70</v>
+      </c>
+      <c r="K340" t="s">
+        <v>1513</v>
+      </c>
+      <c r="L340">
+        <v>1</v>
+      </c>
+      <c r="M340" t="s">
+        <v>1514</v>
+      </c>
+      <c r="N340">
+        <v>1</v>
+      </c>
+      <c r="O340" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C341">
+        <v>115.4</v>
+      </c>
+      <c r="D341">
+        <v>43.4</v>
+      </c>
+      <c r="E341">
+        <v>201.5</v>
+      </c>
+      <c r="F341" t="s">
+        <v>26</v>
+      </c>
+      <c r="G341" t="s">
+        <v>18</v>
+      </c>
+      <c r="H341" t="s">
+        <v>27</v>
+      </c>
+      <c r="I341" t="s">
+        <v>132</v>
+      </c>
+      <c r="J341" t="s">
+        <v>70</v>
+      </c>
+      <c r="K341" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L341">
+        <v>1</v>
+      </c>
+      <c r="M341" t="s">
+        <v>1519</v>
+      </c>
+      <c r="N341">
+        <v>1</v>
+      </c>
+      <c r="O341" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C342">
+        <v>128.1</v>
+      </c>
+      <c r="D342">
+        <v>56</v>
+      </c>
+      <c r="E342">
+        <v>214.1</v>
+      </c>
+      <c r="F342" t="s">
+        <v>26</v>
+      </c>
+      <c r="G342" t="s">
+        <v>18</v>
+      </c>
+      <c r="H342" t="s">
+        <v>27</v>
+      </c>
+      <c r="I342" t="s">
+        <v>132</v>
+      </c>
+      <c r="J342" t="s">
+        <v>70</v>
+      </c>
+      <c r="K342" t="s">
+        <v>1523</v>
+      </c>
+      <c r="L342">
+        <v>1</v>
+      </c>
+      <c r="M342" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N342">
+        <v>1</v>
+      </c>
+      <c r="O342" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C343">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="D343">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E343">
+        <v>228.7</v>
+      </c>
+      <c r="F343" t="s">
+        <v>26</v>
+      </c>
+      <c r="G343" t="s">
+        <v>18</v>
+      </c>
+      <c r="H343" t="s">
+        <v>27</v>
+      </c>
+      <c r="I343" t="s">
+        <v>132</v>
+      </c>
+      <c r="J343" t="s">
+        <v>70</v>
+      </c>
+      <c r="K343" t="s">
+        <v>1528</v>
+      </c>
+      <c r="L343">
+        <v>1</v>
+      </c>
+      <c r="M343" t="s">
+        <v>1529</v>
+      </c>
+      <c r="N343">
+        <v>1</v>
+      </c>
+      <c r="O343" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C344">
+        <v>155.5</v>
+      </c>
+      <c r="D344">
+        <v>83.2</v>
+      </c>
+      <c r="E344">
+        <v>241.3</v>
+      </c>
+      <c r="F344" t="s">
+        <v>26</v>
+      </c>
+      <c r="G344" t="s">
+        <v>18</v>
+      </c>
+      <c r="H344" t="s">
+        <v>27</v>
+      </c>
+      <c r="I344" t="s">
+        <v>132</v>
+      </c>
+      <c r="J344" t="s">
+        <v>70</v>
+      </c>
+      <c r="K344" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L344">
+        <v>1</v>
+      </c>
+      <c r="M344" t="s">
+        <v>1534</v>
+      </c>
+      <c r="N344">
+        <v>1</v>
+      </c>
+      <c r="O344" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C345">
+        <v>168.3</v>
+      </c>
+      <c r="D345">
+        <v>95.9</v>
+      </c>
+      <c r="E345">
+        <v>254</v>
+      </c>
+      <c r="F345" t="s">
+        <v>26</v>
+      </c>
+      <c r="G345" t="s">
+        <v>18</v>
+      </c>
+      <c r="H345" t="s">
+        <v>27</v>
+      </c>
+      <c r="I345" t="s">
+        <v>132</v>
+      </c>
+      <c r="J345" t="s">
+        <v>70</v>
+      </c>
+      <c r="K345" t="s">
+        <v>1538</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+      <c r="M345" t="s">
+        <v>1539</v>
+      </c>
+      <c r="N345">
+        <v>1</v>
+      </c>
+      <c r="O345" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C346">
+        <v>181.1</v>
+      </c>
+      <c r="D346">
+        <v>108.5</v>
+      </c>
+      <c r="E346">
+        <v>266.7</v>
+      </c>
+      <c r="F346" t="s">
+        <v>26</v>
+      </c>
+      <c r="G346" t="s">
+        <v>18</v>
+      </c>
+      <c r="H346" t="s">
+        <v>27</v>
+      </c>
+      <c r="I346" t="s">
+        <v>132</v>
+      </c>
+      <c r="J346" t="s">
+        <v>70</v>
+      </c>
+      <c r="K346" t="s">
+        <v>1543</v>
+      </c>
+      <c r="L346">
+        <v>1</v>
+      </c>
+      <c r="M346" t="s">
+        <v>1544</v>
+      </c>
+      <c r="N346">
+        <v>1</v>
+      </c>
+      <c r="O346" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C347">
+        <v>193.8</v>
+      </c>
+      <c r="D347">
+        <v>121.2</v>
+      </c>
+      <c r="E347">
+        <v>279.3</v>
+      </c>
+      <c r="F347" t="s">
+        <v>26</v>
+      </c>
+      <c r="G347" t="s">
+        <v>18</v>
+      </c>
+      <c r="H347" t="s">
+        <v>27</v>
+      </c>
+      <c r="I347" t="s">
+        <v>132</v>
+      </c>
+      <c r="J347" t="s">
+        <v>70</v>
+      </c>
+      <c r="K347" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L347">
+        <v>1</v>
+      </c>
+      <c r="M347" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N347">
+        <v>1</v>
+      </c>
+      <c r="O347" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C348">
+        <v>206.6</v>
+      </c>
+      <c r="D348">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="E348">
+        <v>291.89999999999998</v>
+      </c>
+      <c r="F348" t="s">
+        <v>26</v>
+      </c>
+      <c r="G348" t="s">
+        <v>18</v>
+      </c>
+      <c r="H348" t="s">
+        <v>27</v>
+      </c>
+      <c r="I348" t="s">
+        <v>132</v>
+      </c>
+      <c r="J348" t="s">
+        <v>70</v>
+      </c>
+      <c r="K348" t="s">
         <v>1553</v>
       </c>
-      <c r="L303">
-        <v>1</v>
-      </c>
-      <c r="M303" t="s">
+      <c r="L348">
+        <v>1</v>
+      </c>
+      <c r="M348" t="s">
         <v>1554</v>
       </c>
-      <c r="N303">
-        <v>1</v>
-      </c>
-      <c r="O303" t="s">
+      <c r="N348">
+        <v>1</v>
+      </c>
+      <c r="O348" t="s">
         <v>1555</v>
       </c>
     </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C349">
+        <v>38.6</v>
+      </c>
+      <c r="D349">
+        <v>83.2</v>
+      </c>
+      <c r="E349">
+        <v>249.8</v>
+      </c>
+      <c r="F349" t="s">
+        <v>26</v>
+      </c>
+      <c r="G349" t="s">
+        <v>18</v>
+      </c>
+      <c r="H349" t="s">
+        <v>27</v>
+      </c>
+      <c r="I349" t="s">
+        <v>132</v>
+      </c>
+      <c r="J349" t="s">
+        <v>70</v>
+      </c>
+      <c r="K349" t="s">
+        <v>1787</v>
+      </c>
+      <c r="L349">
+        <v>1</v>
+      </c>
+      <c r="M349" t="s">
+        <v>1788</v>
+      </c>
+      <c r="N349">
+        <v>1</v>
+      </c>
+      <c r="O349" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C350">
+        <v>51.3</v>
+      </c>
+      <c r="D350">
+        <v>95.9</v>
+      </c>
+      <c r="E350">
+        <v>262.5</v>
+      </c>
+      <c r="F350" t="s">
+        <v>26</v>
+      </c>
+      <c r="G350" t="s">
+        <v>18</v>
+      </c>
+      <c r="H350" t="s">
+        <v>27</v>
+      </c>
+      <c r="I350" t="s">
+        <v>132</v>
+      </c>
+      <c r="J350" t="s">
+        <v>70</v>
+      </c>
+      <c r="K350" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L350">
+        <v>1</v>
+      </c>
+      <c r="M350" t="s">
+        <v>1793</v>
+      </c>
+      <c r="N350">
+        <v>1</v>
+      </c>
+      <c r="O350" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C351">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="D351">
+        <v>108.5</v>
+      </c>
+      <c r="E351">
+        <v>275.10000000000002</v>
+      </c>
+      <c r="F351" t="s">
+        <v>26</v>
+      </c>
+      <c r="G351" t="s">
+        <v>18</v>
+      </c>
+      <c r="H351" t="s">
+        <v>27</v>
+      </c>
+      <c r="I351" t="s">
+        <v>132</v>
+      </c>
+      <c r="J351" t="s">
+        <v>70</v>
+      </c>
+      <c r="K351" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L351">
+        <v>1</v>
+      </c>
+      <c r="M351" t="s">
+        <v>1798</v>
+      </c>
+      <c r="N351">
+        <v>1</v>
+      </c>
+      <c r="O351" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C352">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D352">
+        <v>124.1</v>
+      </c>
+      <c r="E352">
+        <v>290.8</v>
+      </c>
+      <c r="F352" t="s">
+        <v>26</v>
+      </c>
+      <c r="G352" t="s">
+        <v>18</v>
+      </c>
+      <c r="H352" t="s">
+        <v>27</v>
+      </c>
+      <c r="I352" t="s">
+        <v>132</v>
+      </c>
+      <c r="J352" t="s">
+        <v>70</v>
+      </c>
+      <c r="K352" t="s">
+        <v>1802</v>
+      </c>
+      <c r="L352">
+        <v>1</v>
+      </c>
+      <c r="M352" t="s">
+        <v>1803</v>
+      </c>
+      <c r="N352">
+        <v>1</v>
+      </c>
+      <c r="O352" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C353">
+        <v>95.2</v>
+      </c>
+      <c r="D353">
+        <v>139.4</v>
+      </c>
+      <c r="E353">
+        <v>306</v>
+      </c>
+      <c r="F353" t="s">
+        <v>26</v>
+      </c>
+      <c r="G353" t="s">
+        <v>18</v>
+      </c>
+      <c r="H353" t="s">
+        <v>27</v>
+      </c>
+      <c r="I353" t="s">
+        <v>132</v>
+      </c>
+      <c r="J353" t="s">
+        <v>70</v>
+      </c>
+      <c r="K353" t="s">
+        <v>1807</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="M353" t="s">
+        <v>1808</v>
+      </c>
+      <c r="N353">
+        <v>1</v>
+      </c>
+      <c r="O353" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C354">
+        <v>108</v>
+      </c>
+      <c r="D354">
+        <v>152</v>
+      </c>
+      <c r="E354">
+        <v>318.60000000000002</v>
+      </c>
+      <c r="F354" t="s">
+        <v>26</v>
+      </c>
+      <c r="G354" t="s">
+        <v>18</v>
+      </c>
+      <c r="H354" t="s">
+        <v>27</v>
+      </c>
+      <c r="I354" t="s">
+        <v>132</v>
+      </c>
+      <c r="J354" t="s">
+        <v>70</v>
+      </c>
+      <c r="K354" t="s">
+        <v>1812</v>
+      </c>
+      <c r="L354">
+        <v>1</v>
+      </c>
+      <c r="M354" t="s">
+        <v>1813</v>
+      </c>
+      <c r="N354">
+        <v>1</v>
+      </c>
+      <c r="O354" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C355">
+        <v>120.7</v>
+      </c>
+      <c r="D355">
+        <v>164.6</v>
+      </c>
+      <c r="E355">
+        <v>331.3</v>
+      </c>
+      <c r="F355" t="s">
+        <v>26</v>
+      </c>
+      <c r="G355" t="s">
+        <v>18</v>
+      </c>
+      <c r="H355" t="s">
+        <v>27</v>
+      </c>
+      <c r="I355" t="s">
+        <v>132</v>
+      </c>
+      <c r="J355" t="s">
+        <v>70</v>
+      </c>
+      <c r="K355" t="s">
+        <v>1817</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N355">
+        <v>1</v>
+      </c>
+      <c r="O355" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C356">
+        <v>135.5</v>
+      </c>
+      <c r="D356">
+        <v>179.3</v>
+      </c>
+      <c r="E356">
+        <v>345.9</v>
+      </c>
+      <c r="F356" t="s">
+        <v>26</v>
+      </c>
+      <c r="G356" t="s">
+        <v>18</v>
+      </c>
+      <c r="H356" t="s">
+        <v>27</v>
+      </c>
+      <c r="I356" t="s">
+        <v>132</v>
+      </c>
+      <c r="J356" t="s">
+        <v>70</v>
+      </c>
+      <c r="K356" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356" t="s">
+        <v>1823</v>
+      </c>
+      <c r="N356">
+        <v>1</v>
+      </c>
+      <c r="O356" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C357">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="D357">
+        <v>191.9</v>
+      </c>
+      <c r="E357">
+        <v>358.6</v>
+      </c>
+      <c r="F357" t="s">
+        <v>26</v>
+      </c>
+      <c r="G357" t="s">
+        <v>18</v>
+      </c>
+      <c r="H357" t="s">
+        <v>27</v>
+      </c>
+      <c r="I357" t="s">
+        <v>132</v>
+      </c>
+      <c r="J357" t="s">
+        <v>70</v>
+      </c>
+      <c r="K357" t="s">
+        <v>1827</v>
+      </c>
+      <c r="L357">
+        <v>1</v>
+      </c>
+      <c r="M357" t="s">
+        <v>1828</v>
+      </c>
+      <c r="N357">
+        <v>1</v>
+      </c>
+      <c r="O357" t="s">
+        <v>1829</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -22737,8 +26070,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23007,7 +26340,7 @@
       <c r="C18" t="s">
         <v>687</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>910</v>
       </c>
       <c r="E18" t="s">
@@ -23058,7 +26391,7 @@
       <c r="C21" t="s">
         <v>687</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>910</v>
       </c>
       <c r="E21" t="s">
@@ -23075,7 +26408,7 @@
       <c r="C22" t="s">
         <v>687</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="9" t="s">
         <v>910</v>
       </c>
       <c r="E22" t="s">
@@ -23208,7 +26541,7 @@
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="9" t="s">
         <v>910</v>
       </c>
       <c r="E30" t="s">
@@ -23222,7 +26555,7 @@
       <c r="B31">
         <v>10</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="34" t="s">
         <v>1561</v>
       </c>
       <c r="E31" t="s">
@@ -23239,7 +26572,7 @@
       <c r="C32" t="s">
         <v>687</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="9" t="s">
         <v>910</v>
       </c>
       <c r="E32" t="s">
@@ -23321,7 +26654,7 @@
       <c r="B37">
         <v>14</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="9" t="s">
         <v>910</v>
       </c>
       <c r="E37" t="s">
@@ -23349,7 +26682,7 @@
       <c r="C39" t="s">
         <v>687</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="9" t="s">
         <v>910</v>
       </c>
       <c r="E39" t="s">
@@ -23366,7 +26699,7 @@
       <c r="C40" t="s">
         <v>687</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="9" t="s">
         <v>910</v>
       </c>
     </row>
@@ -23391,7 +26724,7 @@
       <c r="B42">
         <v>7</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="9" t="s">
         <v>910</v>
       </c>
     </row>
@@ -23402,7 +26735,7 @@
       <c r="B43">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="9" t="s">
         <v>910</v>
       </c>
     </row>

--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2799DB-1D2E-49D5-9F31-E2BCE928E834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5DDD7F-FC39-4ADD-8491-AC4190320D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalog-static'!$A$1:$O$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="1831">
   <si>
     <t>ObsID</t>
   </si>
@@ -2810,9 +2811,6 @@
     <t>Good to very good focus, Good GRS, Good SEB outbreak, Good NTB outbreak</t>
   </si>
   <si>
-    <t>Poor focus, Maybe some good NEDFs</t>
-  </si>
-  <si>
     <t>L1~15-240 NEDF coverage</t>
   </si>
   <si>
@@ -4767,9 +4765,6 @@
     <t>Some very sharp images, includes coverage of SEB outbreak</t>
   </si>
   <si>
-    <t>Flats! Poor to fair focus, Good GRS, Good SEB outbreak; Quality is pretty variable</t>
-  </si>
-  <si>
     <t>Fair focus?; Good GRS. 20241231UTc has a strong gradient</t>
   </si>
   <si>
@@ -5566,6 +5561,15 @@
   </si>
   <si>
     <t>2025-03-02-0509_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>Ready to navigate</t>
+  </si>
+  <si>
+    <t>Poor to worse focus, Maybe some good NEDFs; 5/25/2025 - processed one observation</t>
+  </si>
+  <si>
+    <t>Flats taken! Poor to fair focus, Good GRS, Good SEB outbreak; Quality is pretty variable</t>
   </si>
 </sst>
 </file>
@@ -5575,7 +5579,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5733,6 +5737,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -6153,7 +6164,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -6199,6 +6210,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6556,11 +6568,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O357"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B343" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B353" sqref="B353"/>
+      <selection pane="bottomRight" activeCell="B352" sqref="B352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13154,10 +13166,10 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>921</v>
+      </c>
+      <c r="B141" t="s">
         <v>922</v>
-      </c>
-      <c r="B141" t="s">
-        <v>923</v>
       </c>
       <c r="C141">
         <v>20.2</v>
@@ -13184,27 +13196,27 @@
         <v>70</v>
       </c>
       <c r="K141" t="s">
+        <v>923</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141" t="s">
         <v>924</v>
       </c>
-      <c r="L141">
-        <v>1</v>
-      </c>
-      <c r="M141" t="s">
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
         <v>925</v>
-      </c>
-      <c r="N141">
-        <v>1</v>
-      </c>
-      <c r="O141" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>926</v>
+      </c>
+      <c r="B142" t="s">
         <v>927</v>
-      </c>
-      <c r="B142" t="s">
-        <v>928</v>
       </c>
       <c r="C142">
         <v>39</v>
@@ -13231,27 +13243,27 @@
         <v>70</v>
       </c>
       <c r="K142" t="s">
+        <v>928</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142" t="s">
         <v>929</v>
       </c>
-      <c r="L142">
-        <v>1</v>
-      </c>
-      <c r="M142" t="s">
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
         <v>930</v>
-      </c>
-      <c r="N142">
-        <v>1</v>
-      </c>
-      <c r="O142" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
+        <v>931</v>
+      </c>
+      <c r="B143" t="s">
         <v>932</v>
-      </c>
-      <c r="B143" t="s">
-        <v>933</v>
       </c>
       <c r="C143">
         <v>57.8</v>
@@ -13278,27 +13290,27 @@
         <v>70</v>
       </c>
       <c r="K143" t="s">
+        <v>933</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143" t="s">
         <v>934</v>
       </c>
-      <c r="L143">
-        <v>1</v>
-      </c>
-      <c r="M143" t="s">
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143" t="s">
         <v>935</v>
-      </c>
-      <c r="N143">
-        <v>1</v>
-      </c>
-      <c r="O143" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>936</v>
+      </c>
+      <c r="B144" t="s">
         <v>937</v>
-      </c>
-      <c r="B144" t="s">
-        <v>938</v>
       </c>
       <c r="C144">
         <v>76.7</v>
@@ -13325,27 +13337,27 @@
         <v>70</v>
       </c>
       <c r="K144" t="s">
+        <v>938</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144" t="s">
         <v>939</v>
       </c>
-      <c r="L144">
-        <v>1</v>
-      </c>
-      <c r="M144" t="s">
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
         <v>940</v>
-      </c>
-      <c r="N144">
-        <v>1</v>
-      </c>
-      <c r="O144" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>941</v>
+      </c>
+      <c r="B145" t="s">
         <v>942</v>
-      </c>
-      <c r="B145" t="s">
-        <v>943</v>
       </c>
       <c r="C145">
         <v>95.5</v>
@@ -13372,19 +13384,19 @@
         <v>70</v>
       </c>
       <c r="K145" t="s">
+        <v>943</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145" t="s">
         <v>944</v>
       </c>
-      <c r="L145">
-        <v>1</v>
-      </c>
-      <c r="M145" t="s">
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
         <v>945</v>
-      </c>
-      <c r="N145">
-        <v>1</v>
-      </c>
-      <c r="O145" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
@@ -13436,10 +13448,10 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>946</v>
+      </c>
+      <c r="B147" t="s">
         <v>947</v>
-      </c>
-      <c r="B147" t="s">
-        <v>948</v>
       </c>
       <c r="C147">
         <v>133.30000000000001</v>
@@ -13466,27 +13478,27 @@
         <v>70</v>
       </c>
       <c r="K147" t="s">
+        <v>948</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147" t="s">
         <v>949</v>
       </c>
-      <c r="L147">
-        <v>1</v>
-      </c>
-      <c r="M147" t="s">
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
         <v>950</v>
-      </c>
-      <c r="N147">
-        <v>1</v>
-      </c>
-      <c r="O147" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>951</v>
+      </c>
+      <c r="B148" t="s">
         <v>952</v>
-      </c>
-      <c r="B148" t="s">
-        <v>953</v>
       </c>
       <c r="C148">
         <v>152.1</v>
@@ -13513,27 +13525,27 @@
         <v>70</v>
       </c>
       <c r="K148" t="s">
+        <v>953</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148" t="s">
         <v>954</v>
       </c>
-      <c r="L148">
-        <v>1</v>
-      </c>
-      <c r="M148" t="s">
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
         <v>955</v>
-      </c>
-      <c r="N148">
-        <v>1</v>
-      </c>
-      <c r="O148" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>956</v>
+      </c>
+      <c r="B149" t="s">
         <v>957</v>
-      </c>
-      <c r="B149" t="s">
-        <v>958</v>
       </c>
       <c r="C149">
         <v>170.9</v>
@@ -13560,27 +13572,27 @@
         <v>70</v>
       </c>
       <c r="K149" t="s">
+        <v>958</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149" t="s">
         <v>959</v>
       </c>
-      <c r="L149">
-        <v>1</v>
-      </c>
-      <c r="M149" t="s">
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
         <v>960</v>
-      </c>
-      <c r="N149">
-        <v>1</v>
-      </c>
-      <c r="O149" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>961</v>
+      </c>
+      <c r="B150" t="s">
         <v>962</v>
-      </c>
-      <c r="B150" t="s">
-        <v>963</v>
       </c>
       <c r="C150">
         <v>189.8</v>
@@ -13607,19 +13619,19 @@
         <v>70</v>
       </c>
       <c r="K150" t="s">
+        <v>963</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150" t="s">
         <v>964</v>
       </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-      <c r="M150" t="s">
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
         <v>965</v>
-      </c>
-      <c r="N150">
-        <v>1</v>
-      </c>
-      <c r="O150" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.35">
@@ -14047,10 +14059,10 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
+        <v>966</v>
+      </c>
+      <c r="B164" t="s">
         <v>967</v>
-      </c>
-      <c r="B164" t="s">
-        <v>968</v>
       </c>
       <c r="C164">
         <v>223.2</v>
@@ -14077,27 +14089,27 @@
         <v>70</v>
       </c>
       <c r="K164" t="s">
+        <v>968</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164" t="s">
         <v>969</v>
       </c>
-      <c r="L164">
-        <v>1</v>
-      </c>
-      <c r="M164" t="s">
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
         <v>970</v>
-      </c>
-      <c r="N164">
-        <v>1</v>
-      </c>
-      <c r="O164" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
+        <v>971</v>
+      </c>
+      <c r="B165" t="s">
         <v>972</v>
-      </c>
-      <c r="B165" t="s">
-        <v>973</v>
       </c>
       <c r="C165">
         <v>235.9</v>
@@ -14124,27 +14136,27 @@
         <v>70</v>
       </c>
       <c r="K165" t="s">
+        <v>973</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165" t="s">
         <v>974</v>
       </c>
-      <c r="L165">
-        <v>1</v>
-      </c>
-      <c r="M165" t="s">
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
         <v>975</v>
-      </c>
-      <c r="N165">
-        <v>1</v>
-      </c>
-      <c r="O165" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
+        <v>976</v>
+      </c>
+      <c r="B166" t="s">
         <v>977</v>
-      </c>
-      <c r="B166" t="s">
-        <v>978</v>
       </c>
       <c r="C166">
         <v>248.7</v>
@@ -14171,27 +14183,27 @@
         <v>70</v>
       </c>
       <c r="K166" t="s">
+        <v>978</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166" t="s">
         <v>979</v>
       </c>
-      <c r="L166">
-        <v>1</v>
-      </c>
-      <c r="M166" t="s">
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
         <v>980</v>
-      </c>
-      <c r="N166">
-        <v>1</v>
-      </c>
-      <c r="O166" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
+        <v>981</v>
+      </c>
+      <c r="B167" t="s">
         <v>982</v>
-      </c>
-      <c r="B167" t="s">
-        <v>983</v>
       </c>
       <c r="C167">
         <v>261.39999999999998</v>
@@ -14218,27 +14230,27 @@
         <v>70</v>
       </c>
       <c r="K167" t="s">
+        <v>983</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167" t="s">
         <v>984</v>
       </c>
-      <c r="L167">
-        <v>1</v>
-      </c>
-      <c r="M167" t="s">
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
         <v>985</v>
-      </c>
-      <c r="N167">
-        <v>1</v>
-      </c>
-      <c r="O167" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
+        <v>986</v>
+      </c>
+      <c r="B168" t="s">
         <v>987</v>
-      </c>
-      <c r="B168" t="s">
-        <v>988</v>
       </c>
       <c r="C168">
         <v>274.2</v>
@@ -14265,27 +14277,27 @@
         <v>70</v>
       </c>
       <c r="K168" t="s">
+        <v>988</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168" t="s">
         <v>989</v>
       </c>
-      <c r="L168">
-        <v>1</v>
-      </c>
-      <c r="M168" t="s">
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
         <v>990</v>
-      </c>
-      <c r="N168">
-        <v>1</v>
-      </c>
-      <c r="O168" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>991</v>
+      </c>
+      <c r="B169" t="s">
         <v>992</v>
-      </c>
-      <c r="B169" t="s">
-        <v>993</v>
       </c>
       <c r="C169">
         <v>289.10000000000002</v>
@@ -14312,27 +14324,27 @@
         <v>70</v>
       </c>
       <c r="K169" t="s">
+        <v>993</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169" t="s">
         <v>994</v>
       </c>
-      <c r="L169">
-        <v>1</v>
-      </c>
-      <c r="M169" t="s">
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
         <v>995</v>
-      </c>
-      <c r="N169">
-        <v>1</v>
-      </c>
-      <c r="O169" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
+        <v>996</v>
+      </c>
+      <c r="B170" t="s">
         <v>997</v>
-      </c>
-      <c r="B170" t="s">
-        <v>998</v>
       </c>
       <c r="C170">
         <v>301.89999999999998</v>
@@ -14359,27 +14371,27 @@
         <v>70</v>
       </c>
       <c r="K170" t="s">
+        <v>998</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170" t="s">
         <v>999</v>
       </c>
-      <c r="L170">
-        <v>1</v>
-      </c>
-      <c r="M170" t="s">
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
         <v>1000</v>
-      </c>
-      <c r="N170">
-        <v>1</v>
-      </c>
-      <c r="O170" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B171" t="s">
         <v>1002</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1003</v>
       </c>
       <c r="C171">
         <v>314.60000000000002</v>
@@ -14406,27 +14418,27 @@
         <v>70</v>
       </c>
       <c r="K171" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171" t="s">
         <v>1004</v>
       </c>
-      <c r="L171">
-        <v>1</v>
-      </c>
-      <c r="M171" t="s">
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
         <v>1005</v>
-      </c>
-      <c r="N171">
-        <v>1</v>
-      </c>
-      <c r="O171" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B172" t="s">
         <v>1007</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1008</v>
       </c>
       <c r="C172">
         <v>327.39999999999998</v>
@@ -14453,27 +14465,27 @@
         <v>70</v>
       </c>
       <c r="K172" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172" t="s">
         <v>1009</v>
       </c>
-      <c r="L172">
-        <v>1</v>
-      </c>
-      <c r="M172" t="s">
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
         <v>1010</v>
-      </c>
-      <c r="N172">
-        <v>1</v>
-      </c>
-      <c r="O172" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B173" t="s">
         <v>1012</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1013</v>
       </c>
       <c r="C173">
         <v>340.2</v>
@@ -14500,27 +14512,27 @@
         <v>70</v>
       </c>
       <c r="K173" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173" t="s">
         <v>1014</v>
       </c>
-      <c r="L173">
-        <v>1</v>
-      </c>
-      <c r="M173" t="s">
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173" t="s">
         <v>1015</v>
-      </c>
-      <c r="N173">
-        <v>1</v>
-      </c>
-      <c r="O173" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B174" t="s">
         <v>1017</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1018</v>
       </c>
       <c r="C174">
         <v>352.9</v>
@@ -14547,27 +14559,27 @@
         <v>70</v>
       </c>
       <c r="K174" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174" t="s">
         <v>1019</v>
       </c>
-      <c r="L174">
-        <v>1</v>
-      </c>
-      <c r="M174" t="s">
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
         <v>1020</v>
-      </c>
-      <c r="N174">
-        <v>1</v>
-      </c>
-      <c r="O174" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B175" t="s">
         <v>1022</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1023</v>
       </c>
       <c r="C175">
         <v>5.7</v>
@@ -14594,27 +14606,27 @@
         <v>70</v>
       </c>
       <c r="K175" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175" t="s">
         <v>1024</v>
       </c>
-      <c r="L175">
-        <v>1</v>
-      </c>
-      <c r="M175" t="s">
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
         <v>1025</v>
-      </c>
-      <c r="N175">
-        <v>1</v>
-      </c>
-      <c r="O175" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B176" t="s">
         <v>1027</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1028</v>
       </c>
       <c r="C176">
         <v>18.399999999999999</v>
@@ -14641,27 +14653,27 @@
         <v>70</v>
       </c>
       <c r="K176" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176" t="s">
         <v>1029</v>
       </c>
-      <c r="L176">
-        <v>1</v>
-      </c>
-      <c r="M176" t="s">
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
         <v>1030</v>
-      </c>
-      <c r="N176">
-        <v>1</v>
-      </c>
-      <c r="O176" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B177" t="s">
         <v>1032</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1033</v>
       </c>
       <c r="C177">
         <v>31.1</v>
@@ -14688,27 +14700,27 @@
         <v>70</v>
       </c>
       <c r="K177" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177" t="s">
         <v>1034</v>
       </c>
-      <c r="L177">
-        <v>1</v>
-      </c>
-      <c r="M177" t="s">
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
         <v>1035</v>
-      </c>
-      <c r="N177">
-        <v>1</v>
-      </c>
-      <c r="O177" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B178" t="s">
         <v>1037</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1038</v>
       </c>
       <c r="C178">
         <v>43.9</v>
@@ -14735,27 +14747,27 @@
         <v>70</v>
       </c>
       <c r="K178" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178" t="s">
         <v>1039</v>
       </c>
-      <c r="L178">
-        <v>1</v>
-      </c>
-      <c r="M178" t="s">
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
         <v>1040</v>
-      </c>
-      <c r="N178">
-        <v>1</v>
-      </c>
-      <c r="O178" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B179" t="s">
         <v>1042</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1043</v>
       </c>
       <c r="C179">
         <v>56.7</v>
@@ -14782,27 +14794,27 @@
         <v>70</v>
       </c>
       <c r="K179" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179" t="s">
         <v>1044</v>
       </c>
-      <c r="L179">
-        <v>1</v>
-      </c>
-      <c r="M179" t="s">
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
         <v>1045</v>
-      </c>
-      <c r="N179">
-        <v>1</v>
-      </c>
-      <c r="O179" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B180" t="s">
         <v>1047</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1048</v>
       </c>
       <c r="C180">
         <v>3.4</v>
@@ -14829,27 +14841,27 @@
         <v>70</v>
       </c>
       <c r="K180" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180" t="s">
         <v>1049</v>
       </c>
-      <c r="L180">
-        <v>1</v>
-      </c>
-      <c r="M180" t="s">
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
         <v>1050</v>
-      </c>
-      <c r="N180">
-        <v>1</v>
-      </c>
-      <c r="O180" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B181" t="s">
         <v>1052</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1053</v>
       </c>
       <c r="C181">
         <v>16.100000000000001</v>
@@ -14876,27 +14888,27 @@
         <v>70</v>
       </c>
       <c r="K181" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181" t="s">
         <v>1054</v>
       </c>
-      <c r="L181">
-        <v>1</v>
-      </c>
-      <c r="M181" t="s">
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
         <v>1055</v>
-      </c>
-      <c r="N181">
-        <v>1</v>
-      </c>
-      <c r="O181" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B182" t="s">
         <v>1057</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1058</v>
       </c>
       <c r="C182">
         <v>28.9</v>
@@ -14923,27 +14935,27 @@
         <v>70</v>
       </c>
       <c r="K182" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182" t="s">
         <v>1059</v>
       </c>
-      <c r="L182">
-        <v>1</v>
-      </c>
-      <c r="M182" t="s">
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
         <v>1060</v>
-      </c>
-      <c r="N182">
-        <v>1</v>
-      </c>
-      <c r="O182" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B183" t="s">
         <v>1062</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1063</v>
       </c>
       <c r="C183">
         <v>41.6</v>
@@ -14970,27 +14982,27 @@
         <v>70</v>
       </c>
       <c r="K183" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183" t="s">
         <v>1064</v>
       </c>
-      <c r="L183">
-        <v>1</v>
-      </c>
-      <c r="M183" t="s">
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
         <v>1065</v>
-      </c>
-      <c r="N183">
-        <v>1</v>
-      </c>
-      <c r="O183" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B184" t="s">
         <v>1067</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1068</v>
       </c>
       <c r="C184">
         <v>54.3</v>
@@ -15017,27 +15029,27 @@
         <v>70</v>
       </c>
       <c r="K184" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184" t="s">
         <v>1069</v>
       </c>
-      <c r="L184">
-        <v>1</v>
-      </c>
-      <c r="M184" t="s">
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
         <v>1070</v>
-      </c>
-      <c r="N184">
-        <v>1</v>
-      </c>
-      <c r="O184" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B185" t="s">
         <v>1072</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1073</v>
       </c>
       <c r="C185">
         <v>67.2</v>
@@ -15064,27 +15076,27 @@
         <v>70</v>
       </c>
       <c r="K185" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185" t="s">
         <v>1074</v>
       </c>
-      <c r="L185">
-        <v>1</v>
-      </c>
-      <c r="M185" t="s">
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
         <v>1075</v>
-      </c>
-      <c r="N185">
-        <v>1</v>
-      </c>
-      <c r="O185" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B186" t="s">
         <v>1077</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1078</v>
       </c>
       <c r="C186">
         <v>79.900000000000006</v>
@@ -15111,27 +15123,27 @@
         <v>70</v>
       </c>
       <c r="K186" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186" t="s">
         <v>1079</v>
       </c>
-      <c r="L186">
-        <v>1</v>
-      </c>
-      <c r="M186" t="s">
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
         <v>1080</v>
-      </c>
-      <c r="N186">
-        <v>1</v>
-      </c>
-      <c r="O186" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B187" t="s">
         <v>1082</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1083</v>
       </c>
       <c r="C187">
         <v>92.6</v>
@@ -15158,27 +15170,27 @@
         <v>70</v>
       </c>
       <c r="K187" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187" t="s">
         <v>1084</v>
       </c>
-      <c r="L187">
-        <v>1</v>
-      </c>
-      <c r="M187" t="s">
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
         <v>1085</v>
-      </c>
-      <c r="N187">
-        <v>1</v>
-      </c>
-      <c r="O187" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B188" t="s">
         <v>1087</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1088</v>
       </c>
       <c r="C188">
         <v>105.4</v>
@@ -15205,27 +15217,27 @@
         <v>70</v>
       </c>
       <c r="K188" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188" t="s">
         <v>1089</v>
       </c>
-      <c r="L188">
-        <v>1</v>
-      </c>
-      <c r="M188" t="s">
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
         <v>1090</v>
-      </c>
-      <c r="N188">
-        <v>1</v>
-      </c>
-      <c r="O188" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B189" t="s">
         <v>1092</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1093</v>
       </c>
       <c r="C189">
         <v>121.2</v>
@@ -15252,27 +15264,27 @@
         <v>70</v>
       </c>
       <c r="K189" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189" t="s">
         <v>1094</v>
       </c>
-      <c r="L189">
-        <v>1</v>
-      </c>
-      <c r="M189" t="s">
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
         <v>1095</v>
-      </c>
-      <c r="N189">
-        <v>1</v>
-      </c>
-      <c r="O189" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B190" t="s">
         <v>1097</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1098</v>
       </c>
       <c r="C190">
         <v>134</v>
@@ -15299,27 +15311,27 @@
         <v>70</v>
       </c>
       <c r="K190" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190" t="s">
         <v>1099</v>
       </c>
-      <c r="L190">
-        <v>1</v>
-      </c>
-      <c r="M190" t="s">
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
         <v>1100</v>
-      </c>
-      <c r="N190">
-        <v>1</v>
-      </c>
-      <c r="O190" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B191" t="s">
         <v>1102</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1103</v>
       </c>
       <c r="C191">
         <v>146.69999999999999</v>
@@ -15346,27 +15358,27 @@
         <v>70</v>
       </c>
       <c r="K191" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191" t="s">
         <v>1104</v>
       </c>
-      <c r="L191">
-        <v>1</v>
-      </c>
-      <c r="M191" t="s">
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
         <v>1105</v>
-      </c>
-      <c r="N191">
-        <v>1</v>
-      </c>
-      <c r="O191" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B192" t="s">
         <v>1107</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1108</v>
       </c>
       <c r="C192">
         <v>159.5</v>
@@ -15393,27 +15405,27 @@
         <v>70</v>
       </c>
       <c r="K192" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192" t="s">
         <v>1109</v>
       </c>
-      <c r="L192">
-        <v>1</v>
-      </c>
-      <c r="M192" t="s">
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" t="s">
         <v>1110</v>
-      </c>
-      <c r="N192">
-        <v>1</v>
-      </c>
-      <c r="O192" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B193" t="s">
         <v>1112</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1113</v>
       </c>
       <c r="C193">
         <v>172.3</v>
@@ -15440,27 +15452,27 @@
         <v>70</v>
       </c>
       <c r="K193" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193" t="s">
         <v>1114</v>
       </c>
-      <c r="L193">
-        <v>1</v>
-      </c>
-      <c r="M193" t="s">
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193" t="s">
         <v>1115</v>
-      </c>
-      <c r="N193">
-        <v>1</v>
-      </c>
-      <c r="O193" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B194" t="s">
         <v>1117</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1118</v>
       </c>
       <c r="C194">
         <v>183.6</v>
@@ -15487,19 +15499,19 @@
         <v>70</v>
       </c>
       <c r="K194" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194" t="s">
         <v>1119</v>
       </c>
-      <c r="L194">
-        <v>1</v>
-      </c>
-      <c r="M194" t="s">
-        <v>1120</v>
-      </c>
       <c r="N194">
         <v>1</v>
       </c>
       <c r="O194" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.35">
@@ -16538,10 +16550,10 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B217" t="s">
         <v>1121</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1122</v>
       </c>
       <c r="C217">
         <v>43.3</v>
@@ -16568,27 +16580,27 @@
         <v>70</v>
       </c>
       <c r="K217" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217" t="s">
         <v>1123</v>
       </c>
-      <c r="L217">
-        <v>1</v>
-      </c>
-      <c r="M217" t="s">
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
         <v>1124</v>
-      </c>
-      <c r="N217">
-        <v>1</v>
-      </c>
-      <c r="O217" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B218" t="s">
         <v>1126</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1127</v>
       </c>
       <c r="C218">
         <v>56.1</v>
@@ -16615,27 +16627,27 @@
         <v>70</v>
       </c>
       <c r="K218" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218" t="s">
         <v>1128</v>
       </c>
-      <c r="L218">
-        <v>1</v>
-      </c>
-      <c r="M218" t="s">
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
         <v>1129</v>
-      </c>
-      <c r="N218">
-        <v>1</v>
-      </c>
-      <c r="O218" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B219" t="s">
         <v>1131</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1132</v>
       </c>
       <c r="C219">
         <v>68.8</v>
@@ -16662,27 +16674,27 @@
         <v>70</v>
       </c>
       <c r="K219" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219" t="s">
         <v>1133</v>
       </c>
-      <c r="L219">
-        <v>1</v>
-      </c>
-      <c r="M219" t="s">
+      <c r="N219">
+        <v>1</v>
+      </c>
+      <c r="O219" t="s">
         <v>1134</v>
-      </c>
-      <c r="N219">
-        <v>1</v>
-      </c>
-      <c r="O219" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B220" t="s">
         <v>1136</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1137</v>
       </c>
       <c r="C220">
         <v>81.599999999999994</v>
@@ -16709,27 +16721,27 @@
         <v>70</v>
       </c>
       <c r="K220" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220" t="s">
         <v>1138</v>
       </c>
-      <c r="L220">
-        <v>1</v>
-      </c>
-      <c r="M220" t="s">
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220" t="s">
         <v>1139</v>
-      </c>
-      <c r="N220">
-        <v>1</v>
-      </c>
-      <c r="O220" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B221" t="s">
         <v>1141</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1142</v>
       </c>
       <c r="C221">
         <v>94.3</v>
@@ -16756,27 +16768,27 @@
         <v>70</v>
       </c>
       <c r="K221" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221" t="s">
         <v>1143</v>
       </c>
-      <c r="L221">
-        <v>1</v>
-      </c>
-      <c r="M221" t="s">
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" t="s">
         <v>1144</v>
-      </c>
-      <c r="N221">
-        <v>1</v>
-      </c>
-      <c r="O221" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B222" t="s">
         <v>1146</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1147</v>
       </c>
       <c r="C222">
         <v>112.3</v>
@@ -16803,27 +16815,27 @@
         <v>70</v>
       </c>
       <c r="K222" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222" t="s">
         <v>1148</v>
       </c>
-      <c r="L222">
-        <v>1</v>
-      </c>
-      <c r="M222" t="s">
+      <c r="N222">
+        <v>1</v>
+      </c>
+      <c r="O222" t="s">
         <v>1149</v>
-      </c>
-      <c r="N222">
-        <v>1</v>
-      </c>
-      <c r="O222" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B223" t="s">
         <v>1151</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1152</v>
       </c>
       <c r="C223">
         <v>125.1</v>
@@ -16850,27 +16862,27 @@
         <v>70</v>
       </c>
       <c r="K223" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223" t="s">
         <v>1153</v>
       </c>
-      <c r="L223">
-        <v>1</v>
-      </c>
-      <c r="M223" t="s">
+      <c r="N223">
+        <v>1</v>
+      </c>
+      <c r="O223" t="s">
         <v>1154</v>
-      </c>
-      <c r="N223">
-        <v>1</v>
-      </c>
-      <c r="O223" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B224" t="s">
         <v>1156</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1157</v>
       </c>
       <c r="C224">
         <v>137.80000000000001</v>
@@ -16897,27 +16909,27 @@
         <v>70</v>
       </c>
       <c r="K224" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224" t="s">
         <v>1158</v>
       </c>
-      <c r="L224">
-        <v>1</v>
-      </c>
-      <c r="M224" t="s">
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
         <v>1159</v>
-      </c>
-      <c r="N224">
-        <v>1</v>
-      </c>
-      <c r="O224" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B225" t="s">
         <v>1161</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1162</v>
       </c>
       <c r="C225">
         <v>150.6</v>
@@ -16944,27 +16956,27 @@
         <v>70</v>
       </c>
       <c r="K225" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225" t="s">
         <v>1163</v>
       </c>
-      <c r="L225">
-        <v>1</v>
-      </c>
-      <c r="M225" t="s">
+      <c r="N225">
+        <v>1</v>
+      </c>
+      <c r="O225" t="s">
         <v>1164</v>
-      </c>
-      <c r="N225">
-        <v>1</v>
-      </c>
-      <c r="O225" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B226" t="s">
         <v>1166</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1167</v>
       </c>
       <c r="C226">
         <v>163.30000000000001</v>
@@ -16991,27 +17003,27 @@
         <v>70</v>
       </c>
       <c r="K226" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226" t="s">
         <v>1168</v>
       </c>
-      <c r="L226">
-        <v>1</v>
-      </c>
-      <c r="M226" t="s">
+      <c r="N226">
+        <v>1</v>
+      </c>
+      <c r="O226" t="s">
         <v>1169</v>
-      </c>
-      <c r="N226">
-        <v>1</v>
-      </c>
-      <c r="O226" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B227" t="s">
         <v>1171</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1172</v>
       </c>
       <c r="C227">
         <v>176.1</v>
@@ -17038,27 +17050,27 @@
         <v>70</v>
       </c>
       <c r="K227" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227" t="s">
         <v>1173</v>
       </c>
-      <c r="L227">
-        <v>1</v>
-      </c>
-      <c r="M227" t="s">
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" t="s">
         <v>1174</v>
-      </c>
-      <c r="N227">
-        <v>1</v>
-      </c>
-      <c r="O227" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B228" t="s">
         <v>1176</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1177</v>
       </c>
       <c r="C228">
         <v>188.8</v>
@@ -17085,27 +17097,27 @@
         <v>70</v>
       </c>
       <c r="K228" t="s">
+        <v>1177</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228" t="s">
         <v>1178</v>
       </c>
-      <c r="L228">
-        <v>1</v>
-      </c>
-      <c r="M228" t="s">
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" t="s">
         <v>1179</v>
-      </c>
-      <c r="N228">
-        <v>1</v>
-      </c>
-      <c r="O228" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B229" t="s">
         <v>1181</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1182</v>
       </c>
       <c r="C229">
         <v>201.6</v>
@@ -17132,27 +17144,27 @@
         <v>70</v>
       </c>
       <c r="K229" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229" t="s">
         <v>1183</v>
       </c>
-      <c r="L229">
-        <v>1</v>
-      </c>
-      <c r="M229" t="s">
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229" t="s">
         <v>1184</v>
-      </c>
-      <c r="N229">
-        <v>1</v>
-      </c>
-      <c r="O229" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B230" t="s">
         <v>1186</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1187</v>
       </c>
       <c r="C230">
         <v>214.3</v>
@@ -17179,27 +17191,27 @@
         <v>70</v>
       </c>
       <c r="K230" t="s">
+        <v>1187</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230" t="s">
         <v>1188</v>
       </c>
-      <c r="L230">
-        <v>1</v>
-      </c>
-      <c r="M230" t="s">
+      <c r="N230">
+        <v>1</v>
+      </c>
+      <c r="O230" t="s">
         <v>1189</v>
-      </c>
-      <c r="N230">
-        <v>1</v>
-      </c>
-      <c r="O230" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B231" t="s">
         <v>1191</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1192</v>
       </c>
       <c r="C231">
         <v>227</v>
@@ -17226,27 +17238,27 @@
         <v>70</v>
       </c>
       <c r="K231" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231" t="s">
         <v>1193</v>
       </c>
-      <c r="L231">
-        <v>1</v>
-      </c>
-      <c r="M231" t="s">
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231" t="s">
         <v>1194</v>
-      </c>
-      <c r="N231">
-        <v>1</v>
-      </c>
-      <c r="O231" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B232" t="s">
         <v>1196</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1197</v>
       </c>
       <c r="C232">
         <v>239.9</v>
@@ -17273,27 +17285,27 @@
         <v>70</v>
       </c>
       <c r="K232" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232" t="s">
         <v>1198</v>
       </c>
-      <c r="L232">
-        <v>1</v>
-      </c>
-      <c r="M232" t="s">
+      <c r="N232">
+        <v>1</v>
+      </c>
+      <c r="O232" t="s">
         <v>1199</v>
-      </c>
-      <c r="N232">
-        <v>1</v>
-      </c>
-      <c r="O232" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B233" t="s">
         <v>1201</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1202</v>
       </c>
       <c r="C233">
         <v>342.9</v>
@@ -17320,27 +17332,27 @@
         <v>70</v>
       </c>
       <c r="K233" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233" t="s">
         <v>1203</v>
       </c>
-      <c r="L233">
-        <v>1</v>
-      </c>
-      <c r="M233" t="s">
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233" t="s">
         <v>1204</v>
-      </c>
-      <c r="N233">
-        <v>1</v>
-      </c>
-      <c r="O233" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B234" t="s">
         <v>1206</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1207</v>
       </c>
       <c r="C234">
         <v>355.6</v>
@@ -17367,27 +17379,27 @@
         <v>70</v>
       </c>
       <c r="K234" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234" t="s">
         <v>1208</v>
       </c>
-      <c r="L234">
-        <v>1</v>
-      </c>
-      <c r="M234" t="s">
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" t="s">
         <v>1209</v>
-      </c>
-      <c r="N234">
-        <v>1</v>
-      </c>
-      <c r="O234" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B235" t="s">
         <v>1211</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1212</v>
       </c>
       <c r="C235">
         <v>8.4</v>
@@ -17414,27 +17426,27 @@
         <v>70</v>
       </c>
       <c r="K235" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235" t="s">
         <v>1213</v>
       </c>
-      <c r="L235">
-        <v>1</v>
-      </c>
-      <c r="M235" t="s">
+      <c r="N235">
+        <v>1</v>
+      </c>
+      <c r="O235" t="s">
         <v>1214</v>
-      </c>
-      <c r="N235">
-        <v>1</v>
-      </c>
-      <c r="O235" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B236" t="s">
         <v>1216</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1217</v>
       </c>
       <c r="C236">
         <v>21.2</v>
@@ -17461,27 +17473,27 @@
         <v>70</v>
       </c>
       <c r="K236" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236" t="s">
         <v>1218</v>
       </c>
-      <c r="L236">
-        <v>1</v>
-      </c>
-      <c r="M236" t="s">
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
         <v>1219</v>
-      </c>
-      <c r="N236">
-        <v>1</v>
-      </c>
-      <c r="O236" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B237" t="s">
         <v>1221</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1222</v>
       </c>
       <c r="C237">
         <v>33.9</v>
@@ -17508,27 +17520,27 @@
         <v>70</v>
       </c>
       <c r="K237" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237" t="s">
         <v>1223</v>
       </c>
-      <c r="L237">
-        <v>1</v>
-      </c>
-      <c r="M237" t="s">
+      <c r="N237">
+        <v>1</v>
+      </c>
+      <c r="O237" t="s">
         <v>1224</v>
-      </c>
-      <c r="N237">
-        <v>1</v>
-      </c>
-      <c r="O237" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B238" t="s">
         <v>1226</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1227</v>
       </c>
       <c r="C238">
         <v>46.7</v>
@@ -17555,27 +17567,27 @@
         <v>70</v>
       </c>
       <c r="K238" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238" t="s">
         <v>1228</v>
       </c>
-      <c r="L238">
-        <v>1</v>
-      </c>
-      <c r="M238" t="s">
+      <c r="N238">
+        <v>1</v>
+      </c>
+      <c r="O238" t="s">
         <v>1229</v>
-      </c>
-      <c r="N238">
-        <v>1</v>
-      </c>
-      <c r="O238" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B239" t="s">
         <v>1231</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1232</v>
       </c>
       <c r="C239">
         <v>59.4</v>
@@ -17602,27 +17614,27 @@
         <v>70</v>
       </c>
       <c r="K239" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239" t="s">
         <v>1233</v>
       </c>
-      <c r="L239">
-        <v>1</v>
-      </c>
-      <c r="M239" t="s">
+      <c r="N239">
+        <v>1</v>
+      </c>
+      <c r="O239" t="s">
         <v>1234</v>
-      </c>
-      <c r="N239">
-        <v>1</v>
-      </c>
-      <c r="O239" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B240" t="s">
         <v>1236</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1237</v>
       </c>
       <c r="C240">
         <v>86.7</v>
@@ -17649,27 +17661,27 @@
         <v>70</v>
       </c>
       <c r="K240" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240" t="s">
         <v>1238</v>
       </c>
-      <c r="L240">
-        <v>1</v>
-      </c>
-      <c r="M240" t="s">
+      <c r="N240">
+        <v>1</v>
+      </c>
+      <c r="O240" t="s">
         <v>1239</v>
-      </c>
-      <c r="N240">
-        <v>1</v>
-      </c>
-      <c r="O240" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B241" t="s">
         <v>1241</v>
-      </c>
-      <c r="B241" t="s">
-        <v>1242</v>
       </c>
       <c r="C241">
         <v>98</v>
@@ -17696,27 +17708,27 @@
         <v>70</v>
       </c>
       <c r="K241" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241" t="s">
         <v>1243</v>
       </c>
-      <c r="L241">
-        <v>1</v>
-      </c>
-      <c r="M241" t="s">
+      <c r="N241">
+        <v>1</v>
+      </c>
+      <c r="O241" t="s">
         <v>1244</v>
-      </c>
-      <c r="N241">
-        <v>1</v>
-      </c>
-      <c r="O241" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B242" t="s">
         <v>1246</v>
-      </c>
-      <c r="B242" t="s">
-        <v>1247</v>
       </c>
       <c r="C242">
         <v>110.7</v>
@@ -17743,27 +17755,27 @@
         <v>70</v>
       </c>
       <c r="K242" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242" t="s">
         <v>1248</v>
       </c>
-      <c r="L242">
-        <v>1</v>
-      </c>
-      <c r="M242" t="s">
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="O242" t="s">
         <v>1249</v>
-      </c>
-      <c r="N242">
-        <v>1</v>
-      </c>
-      <c r="O242" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B243" t="s">
         <v>1251</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1252</v>
       </c>
       <c r="C243">
         <v>123.7</v>
@@ -17790,27 +17802,27 @@
         <v>70</v>
       </c>
       <c r="K243" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243" t="s">
         <v>1253</v>
       </c>
-      <c r="L243">
-        <v>1</v>
-      </c>
-      <c r="M243" t="s">
+      <c r="N243">
+        <v>1</v>
+      </c>
+      <c r="O243" t="s">
         <v>1254</v>
-      </c>
-      <c r="N243">
-        <v>1</v>
-      </c>
-      <c r="O243" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B244" t="s">
         <v>1256</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1257</v>
       </c>
       <c r="C244">
         <v>140</v>
@@ -17837,27 +17849,27 @@
         <v>70</v>
       </c>
       <c r="K244" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244" t="s">
         <v>1258</v>
       </c>
-      <c r="L244">
-        <v>1</v>
-      </c>
-      <c r="M244" t="s">
+      <c r="N244">
+        <v>1</v>
+      </c>
+      <c r="O244" t="s">
         <v>1259</v>
-      </c>
-      <c r="N244">
-        <v>1</v>
-      </c>
-      <c r="O244" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B245" t="s">
         <v>1261</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1262</v>
       </c>
       <c r="C245">
         <v>152.69999999999999</v>
@@ -17884,27 +17896,27 @@
         <v>70</v>
       </c>
       <c r="K245" t="s">
+        <v>1262</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245" t="s">
         <v>1263</v>
       </c>
-      <c r="L245">
-        <v>1</v>
-      </c>
-      <c r="M245" t="s">
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
         <v>1264</v>
-      </c>
-      <c r="N245">
-        <v>1</v>
-      </c>
-      <c r="O245" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B246" t="s">
         <v>1266</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1267</v>
       </c>
       <c r="C246">
         <v>165.4</v>
@@ -17931,27 +17943,27 @@
         <v>70</v>
       </c>
       <c r="K246" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246" t="s">
         <v>1268</v>
       </c>
-      <c r="L246">
-        <v>1</v>
-      </c>
-      <c r="M246" t="s">
+      <c r="N246">
+        <v>1</v>
+      </c>
+      <c r="O246" t="s">
         <v>1269</v>
-      </c>
-      <c r="N246">
-        <v>1</v>
-      </c>
-      <c r="O246" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B247" t="s">
         <v>1271</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1272</v>
       </c>
       <c r="C247">
         <v>178.2</v>
@@ -17978,27 +17990,27 @@
         <v>70</v>
       </c>
       <c r="K247" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247" t="s">
         <v>1273</v>
       </c>
-      <c r="L247">
-        <v>1</v>
-      </c>
-      <c r="M247" t="s">
+      <c r="N247">
+        <v>1</v>
+      </c>
+      <c r="O247" t="s">
         <v>1274</v>
-      </c>
-      <c r="N247">
-        <v>1</v>
-      </c>
-      <c r="O247" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B248" t="s">
         <v>1276</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1277</v>
       </c>
       <c r="C248">
         <v>190.9</v>
@@ -18025,27 +18037,27 @@
         <v>70</v>
       </c>
       <c r="K248" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248" t="s">
         <v>1278</v>
       </c>
-      <c r="L248">
-        <v>1</v>
-      </c>
-      <c r="M248" t="s">
+      <c r="N248">
+        <v>1</v>
+      </c>
+      <c r="O248" t="s">
         <v>1279</v>
-      </c>
-      <c r="N248">
-        <v>1</v>
-      </c>
-      <c r="O248" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B249" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C249">
         <v>204.7</v>
@@ -18072,27 +18084,27 @@
         <v>70</v>
       </c>
       <c r="K249" t="s">
+        <v>1565</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249" t="s">
+        <v>1566</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" t="s">
         <v>1567</v>
-      </c>
-      <c r="L249">
-        <v>1</v>
-      </c>
-      <c r="M249" t="s">
-        <v>1568</v>
-      </c>
-      <c r="N249">
-        <v>1</v>
-      </c>
-      <c r="O249" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B250" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C250">
         <v>217.5</v>
@@ -18119,27 +18131,27 @@
         <v>70</v>
       </c>
       <c r="K250" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250" t="s">
+        <v>1571</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="O250" t="s">
         <v>1572</v>
-      </c>
-      <c r="L250">
-        <v>1</v>
-      </c>
-      <c r="M250" t="s">
-        <v>1573</v>
-      </c>
-      <c r="N250">
-        <v>1</v>
-      </c>
-      <c r="O250" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B251" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C251">
         <v>230.2</v>
@@ -18166,27 +18178,27 @@
         <v>70</v>
       </c>
       <c r="K251" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L251">
+        <v>1</v>
+      </c>
+      <c r="M251" t="s">
+        <v>1576</v>
+      </c>
+      <c r="N251">
+        <v>1</v>
+      </c>
+      <c r="O251" t="s">
         <v>1577</v>
-      </c>
-      <c r="L251">
-        <v>1</v>
-      </c>
-      <c r="M251" t="s">
-        <v>1578</v>
-      </c>
-      <c r="N251">
-        <v>1</v>
-      </c>
-      <c r="O251" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B252" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C252">
         <v>243</v>
@@ -18213,27 +18225,27 @@
         <v>70</v>
       </c>
       <c r="K252" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252" t="s">
+        <v>1581</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252" t="s">
         <v>1582</v>
-      </c>
-      <c r="L252">
-        <v>1</v>
-      </c>
-      <c r="M252" t="s">
-        <v>1583</v>
-      </c>
-      <c r="N252">
-        <v>1</v>
-      </c>
-      <c r="O252" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B253" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C253">
         <v>298.89999999999998</v>
@@ -18260,27 +18272,27 @@
         <v>70</v>
       </c>
       <c r="K253" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253" t="s">
+        <v>1586</v>
+      </c>
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="O253" t="s">
         <v>1587</v>
-      </c>
-      <c r="L253">
-        <v>1</v>
-      </c>
-      <c r="M253" t="s">
-        <v>1588</v>
-      </c>
-      <c r="N253">
-        <v>1</v>
-      </c>
-      <c r="O253" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B254" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C254">
         <v>311.7</v>
@@ -18307,27 +18319,27 @@
         <v>70</v>
       </c>
       <c r="K254" t="s">
+        <v>1590</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254" t="s">
+        <v>1591</v>
+      </c>
+      <c r="N254">
+        <v>1</v>
+      </c>
+      <c r="O254" t="s">
         <v>1592</v>
-      </c>
-      <c r="L254">
-        <v>1</v>
-      </c>
-      <c r="M254" t="s">
-        <v>1593</v>
-      </c>
-      <c r="N254">
-        <v>1</v>
-      </c>
-      <c r="O254" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B255" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C255">
         <v>325.3</v>
@@ -18354,27 +18366,27 @@
         <v>70</v>
       </c>
       <c r="K255" t="s">
+        <v>1595</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="M255" t="s">
+        <v>1596</v>
+      </c>
+      <c r="N255">
+        <v>1</v>
+      </c>
+      <c r="O255" t="s">
         <v>1597</v>
-      </c>
-      <c r="L255">
-        <v>1</v>
-      </c>
-      <c r="M255" t="s">
-        <v>1598</v>
-      </c>
-      <c r="N255">
-        <v>1</v>
-      </c>
-      <c r="O255" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B256" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C256">
         <v>338</v>
@@ -18401,27 +18413,27 @@
         <v>70</v>
       </c>
       <c r="K256" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="M256" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="O256" t="s">
         <v>1602</v>
-      </c>
-      <c r="L256">
-        <v>1</v>
-      </c>
-      <c r="M256" t="s">
-        <v>1603</v>
-      </c>
-      <c r="N256">
-        <v>1</v>
-      </c>
-      <c r="O256" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B257" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C257">
         <v>350.7</v>
@@ -18448,27 +18460,27 @@
         <v>70</v>
       </c>
       <c r="K257" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257" t="s">
+        <v>1606</v>
+      </c>
+      <c r="N257">
+        <v>1</v>
+      </c>
+      <c r="O257" t="s">
         <v>1607</v>
-      </c>
-      <c r="L257">
-        <v>1</v>
-      </c>
-      <c r="M257" t="s">
-        <v>1608</v>
-      </c>
-      <c r="N257">
-        <v>1</v>
-      </c>
-      <c r="O257" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B258" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C258">
         <v>3.5</v>
@@ -18495,27 +18507,27 @@
         <v>70</v>
       </c>
       <c r="K258" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258" t="s">
+        <v>1611</v>
+      </c>
+      <c r="N258">
+        <v>1</v>
+      </c>
+      <c r="O258" t="s">
         <v>1612</v>
-      </c>
-      <c r="L258">
-        <v>1</v>
-      </c>
-      <c r="M258" t="s">
-        <v>1613</v>
-      </c>
-      <c r="N258">
-        <v>1</v>
-      </c>
-      <c r="O258" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B259" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C259">
         <v>17</v>
@@ -18542,27 +18554,27 @@
         <v>70</v>
       </c>
       <c r="K259" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259" t="s">
+        <v>1616</v>
+      </c>
+      <c r="N259">
+        <v>1</v>
+      </c>
+      <c r="O259" t="s">
         <v>1617</v>
-      </c>
-      <c r="L259">
-        <v>1</v>
-      </c>
-      <c r="M259" t="s">
-        <v>1618</v>
-      </c>
-      <c r="N259">
-        <v>1</v>
-      </c>
-      <c r="O259" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B260" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C260">
         <v>30.5</v>
@@ -18589,27 +18601,27 @@
         <v>70</v>
       </c>
       <c r="K260" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260" t="s">
+        <v>1621</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260" t="s">
         <v>1622</v>
-      </c>
-      <c r="L260">
-        <v>1</v>
-      </c>
-      <c r="M260" t="s">
-        <v>1623</v>
-      </c>
-      <c r="N260">
-        <v>1</v>
-      </c>
-      <c r="O260" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B261" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C261">
         <v>43</v>
@@ -18636,27 +18648,27 @@
         <v>70</v>
       </c>
       <c r="K261" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261" t="s">
+        <v>1626</v>
+      </c>
+      <c r="N261">
+        <v>1</v>
+      </c>
+      <c r="O261" t="s">
         <v>1627</v>
-      </c>
-      <c r="L261">
-        <v>1</v>
-      </c>
-      <c r="M261" t="s">
-        <v>1628</v>
-      </c>
-      <c r="N261">
-        <v>1</v>
-      </c>
-      <c r="O261" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B262" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C262">
         <v>56</v>
@@ -18683,27 +18695,27 @@
         <v>70</v>
       </c>
       <c r="K262" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262" t="s">
+        <v>1631</v>
+      </c>
+      <c r="N262">
+        <v>1</v>
+      </c>
+      <c r="O262" t="s">
         <v>1632</v>
-      </c>
-      <c r="L262">
-        <v>1</v>
-      </c>
-      <c r="M262" t="s">
-        <v>1633</v>
-      </c>
-      <c r="N262">
-        <v>1</v>
-      </c>
-      <c r="O262" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B263" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C263">
         <v>69</v>
@@ -18730,27 +18742,27 @@
         <v>70</v>
       </c>
       <c r="K263" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263" t="s">
+        <v>1636</v>
+      </c>
+      <c r="N263">
+        <v>1</v>
+      </c>
+      <c r="O263" t="s">
         <v>1637</v>
-      </c>
-      <c r="L263">
-        <v>1</v>
-      </c>
-      <c r="M263" t="s">
-        <v>1638</v>
-      </c>
-      <c r="N263">
-        <v>1</v>
-      </c>
-      <c r="O263" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B264" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="C264">
         <v>82.4</v>
@@ -18777,27 +18789,27 @@
         <v>70</v>
       </c>
       <c r="K264" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L264">
+        <v>1</v>
+      </c>
+      <c r="M264" t="s">
+        <v>1641</v>
+      </c>
+      <c r="N264">
+        <v>1</v>
+      </c>
+      <c r="O264" t="s">
         <v>1642</v>
-      </c>
-      <c r="L264">
-        <v>1</v>
-      </c>
-      <c r="M264" t="s">
-        <v>1643</v>
-      </c>
-      <c r="N264">
-        <v>1</v>
-      </c>
-      <c r="O264" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B265" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C265">
         <v>95.3</v>
@@ -18824,27 +18836,27 @@
         <v>70</v>
       </c>
       <c r="K265" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265" t="s">
+        <v>1646</v>
+      </c>
+      <c r="N265">
+        <v>1</v>
+      </c>
+      <c r="O265" t="s">
         <v>1647</v>
-      </c>
-      <c r="L265">
-        <v>1</v>
-      </c>
-      <c r="M265" t="s">
-        <v>1648</v>
-      </c>
-      <c r="N265">
-        <v>1</v>
-      </c>
-      <c r="O265" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B266" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="C266">
         <v>114.9</v>
@@ -18871,27 +18883,27 @@
         <v>70</v>
       </c>
       <c r="K266" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266" t="s">
+        <v>1651</v>
+      </c>
+      <c r="N266">
+        <v>1</v>
+      </c>
+      <c r="O266" t="s">
         <v>1652</v>
-      </c>
-      <c r="L266">
-        <v>1</v>
-      </c>
-      <c r="M266" t="s">
-        <v>1653</v>
-      </c>
-      <c r="N266">
-        <v>1</v>
-      </c>
-      <c r="O266" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B267" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="C267">
         <v>126.2</v>
@@ -18918,27 +18930,27 @@
         <v>70</v>
       </c>
       <c r="K267" t="s">
+        <v>1655</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267" t="s">
+        <v>1656</v>
+      </c>
+      <c r="N267">
+        <v>1</v>
+      </c>
+      <c r="O267" t="s">
         <v>1657</v>
-      </c>
-      <c r="L267">
-        <v>1</v>
-      </c>
-      <c r="M267" t="s">
-        <v>1658</v>
-      </c>
-      <c r="N267">
-        <v>1</v>
-      </c>
-      <c r="O267" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B268" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C268">
         <v>139</v>
@@ -18965,27 +18977,27 @@
         <v>70</v>
       </c>
       <c r="K268" t="s">
+        <v>1660</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268" t="s">
+        <v>1661</v>
+      </c>
+      <c r="N268">
+        <v>1</v>
+      </c>
+      <c r="O268" t="s">
         <v>1662</v>
-      </c>
-      <c r="L268">
-        <v>1</v>
-      </c>
-      <c r="M268" t="s">
-        <v>1663</v>
-      </c>
-      <c r="N268">
-        <v>1</v>
-      </c>
-      <c r="O268" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B269" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C269">
         <v>151.69999999999999</v>
@@ -19012,27 +19024,27 @@
         <v>70</v>
       </c>
       <c r="K269" t="s">
+        <v>1665</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269" t="s">
+        <v>1666</v>
+      </c>
+      <c r="N269">
+        <v>1</v>
+      </c>
+      <c r="O269" t="s">
         <v>1667</v>
-      </c>
-      <c r="L269">
-        <v>1</v>
-      </c>
-      <c r="M269" t="s">
-        <v>1668</v>
-      </c>
-      <c r="N269">
-        <v>1</v>
-      </c>
-      <c r="O269" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="B270" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="C270">
         <v>164.5</v>
@@ -19059,27 +19071,27 @@
         <v>70</v>
       </c>
       <c r="K270" t="s">
+        <v>1670</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270" t="s">
+        <v>1671</v>
+      </c>
+      <c r="N270">
+        <v>1</v>
+      </c>
+      <c r="O270" t="s">
         <v>1672</v>
-      </c>
-      <c r="L270">
-        <v>1</v>
-      </c>
-      <c r="M270" t="s">
-        <v>1673</v>
-      </c>
-      <c r="N270">
-        <v>1</v>
-      </c>
-      <c r="O270" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B271" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C271">
         <v>177.2</v>
@@ -19106,27 +19118,27 @@
         <v>70</v>
       </c>
       <c r="K271" t="s">
+        <v>1675</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N271">
+        <v>1</v>
+      </c>
+      <c r="O271" t="s">
         <v>1677</v>
-      </c>
-      <c r="L271">
-        <v>1</v>
-      </c>
-      <c r="M271" t="s">
-        <v>1678</v>
-      </c>
-      <c r="N271">
-        <v>1</v>
-      </c>
-      <c r="O271" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B272" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C272">
         <v>190</v>
@@ -19153,27 +19165,27 @@
         <v>70</v>
       </c>
       <c r="K272" t="s">
+        <v>1680</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N272">
+        <v>1</v>
+      </c>
+      <c r="O272" t="s">
         <v>1682</v>
-      </c>
-      <c r="L272">
-        <v>1</v>
-      </c>
-      <c r="M272" t="s">
-        <v>1683</v>
-      </c>
-      <c r="N272">
-        <v>1</v>
-      </c>
-      <c r="O272" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B273" t="s">
         <v>1281</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1282</v>
       </c>
       <c r="C273">
         <v>249</v>
@@ -19200,27 +19212,27 @@
         <v>70</v>
       </c>
       <c r="K273" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273" t="s">
         <v>1283</v>
       </c>
-      <c r="L273">
-        <v>1</v>
-      </c>
-      <c r="M273" t="s">
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" t="s">
         <v>1284</v>
-      </c>
-      <c r="N273">
-        <v>1</v>
-      </c>
-      <c r="O273" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B274" t="s">
         <v>1286</v>
-      </c>
-      <c r="B274" t="s">
-        <v>1287</v>
       </c>
       <c r="C274">
         <v>261.8</v>
@@ -19247,27 +19259,27 @@
         <v>70</v>
       </c>
       <c r="K274" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274" t="s">
         <v>1288</v>
       </c>
-      <c r="L274">
-        <v>1</v>
-      </c>
-      <c r="M274" t="s">
+      <c r="N274">
+        <v>1</v>
+      </c>
+      <c r="O274" t="s">
         <v>1289</v>
-      </c>
-      <c r="N274">
-        <v>1</v>
-      </c>
-      <c r="O274" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B275" t="s">
         <v>1291</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1292</v>
       </c>
       <c r="C275">
         <v>274.60000000000002</v>
@@ -19294,27 +19306,27 @@
         <v>70</v>
       </c>
       <c r="K275" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275" t="s">
         <v>1293</v>
       </c>
-      <c r="L275">
-        <v>1</v>
-      </c>
-      <c r="M275" t="s">
+      <c r="N275">
+        <v>1</v>
+      </c>
+      <c r="O275" t="s">
         <v>1294</v>
-      </c>
-      <c r="N275">
-        <v>1</v>
-      </c>
-      <c r="O275" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B276" t="s">
         <v>1296</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1297</v>
       </c>
       <c r="C276">
         <v>287.3</v>
@@ -19341,27 +19353,27 @@
         <v>70</v>
       </c>
       <c r="K276" t="s">
+        <v>1297</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276" t="s">
         <v>1298</v>
       </c>
-      <c r="L276">
-        <v>1</v>
-      </c>
-      <c r="M276" t="s">
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
         <v>1299</v>
-      </c>
-      <c r="N276">
-        <v>1</v>
-      </c>
-      <c r="O276" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B277" t="s">
         <v>1301</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1302</v>
       </c>
       <c r="C277">
         <v>300.10000000000002</v>
@@ -19388,27 +19400,27 @@
         <v>70</v>
       </c>
       <c r="K277" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277" t="s">
         <v>1303</v>
       </c>
-      <c r="L277">
-        <v>1</v>
-      </c>
-      <c r="M277" t="s">
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" t="s">
         <v>1304</v>
-      </c>
-      <c r="N277">
-        <v>1</v>
-      </c>
-      <c r="O277" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B278" t="s">
         <v>1306</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1307</v>
       </c>
       <c r="C278">
         <v>312.8</v>
@@ -19435,27 +19447,27 @@
         <v>70</v>
       </c>
       <c r="K278" t="s">
+        <v>1307</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278" t="s">
         <v>1308</v>
       </c>
-      <c r="L278">
-        <v>1</v>
-      </c>
-      <c r="M278" t="s">
+      <c r="N278">
+        <v>1</v>
+      </c>
+      <c r="O278" t="s">
         <v>1309</v>
-      </c>
-      <c r="N278">
-        <v>1</v>
-      </c>
-      <c r="O278" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B279" t="s">
         <v>1311</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1312</v>
       </c>
       <c r="C279">
         <v>326.60000000000002</v>
@@ -19482,27 +19494,27 @@
         <v>70</v>
       </c>
       <c r="K279" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279" t="s">
         <v>1313</v>
       </c>
-      <c r="L279">
-        <v>1</v>
-      </c>
-      <c r="M279" t="s">
+      <c r="N279">
+        <v>1</v>
+      </c>
+      <c r="O279" t="s">
         <v>1314</v>
-      </c>
-      <c r="N279">
-        <v>1</v>
-      </c>
-      <c r="O279" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B280" t="s">
         <v>1316</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1317</v>
       </c>
       <c r="C280">
         <v>339.3</v>
@@ -19529,27 +19541,27 @@
         <v>70</v>
       </c>
       <c r="K280" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280" t="s">
         <v>1318</v>
       </c>
-      <c r="L280">
-        <v>1</v>
-      </c>
-      <c r="M280" t="s">
+      <c r="N280">
+        <v>1</v>
+      </c>
+      <c r="O280" t="s">
         <v>1319</v>
-      </c>
-      <c r="N280">
-        <v>1</v>
-      </c>
-      <c r="O280" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B281" t="s">
         <v>1321</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1322</v>
       </c>
       <c r="C281">
         <v>352.1</v>
@@ -19576,27 +19588,27 @@
         <v>70</v>
       </c>
       <c r="K281" t="s">
+        <v>1322</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281" t="s">
         <v>1323</v>
       </c>
-      <c r="L281">
-        <v>1</v>
-      </c>
-      <c r="M281" t="s">
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
         <v>1324</v>
-      </c>
-      <c r="N281">
-        <v>1</v>
-      </c>
-      <c r="O281" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B282" t="s">
         <v>1326</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1327</v>
       </c>
       <c r="C282">
         <v>4.8</v>
@@ -19623,27 +19635,27 @@
         <v>70</v>
       </c>
       <c r="K282" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282" t="s">
         <v>1328</v>
       </c>
-      <c r="L282">
-        <v>1</v>
-      </c>
-      <c r="M282" t="s">
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" t="s">
         <v>1329</v>
-      </c>
-      <c r="N282">
-        <v>1</v>
-      </c>
-      <c r="O282" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B283" t="s">
         <v>1331</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1332</v>
       </c>
       <c r="C283">
         <v>17.5</v>
@@ -19670,27 +19682,27 @@
         <v>70</v>
       </c>
       <c r="K283" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283" t="s">
         <v>1333</v>
       </c>
-      <c r="L283">
-        <v>1</v>
-      </c>
-      <c r="M283" t="s">
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283" t="s">
         <v>1334</v>
-      </c>
-      <c r="N283">
-        <v>1</v>
-      </c>
-      <c r="O283" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B284" t="s">
         <v>1336</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1337</v>
       </c>
       <c r="C284">
         <v>40.799999999999997</v>
@@ -19717,27 +19729,27 @@
         <v>70</v>
       </c>
       <c r="K284" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284" t="s">
         <v>1338</v>
       </c>
-      <c r="L284">
-        <v>1</v>
-      </c>
-      <c r="M284" t="s">
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
         <v>1339</v>
-      </c>
-      <c r="N284">
-        <v>1</v>
-      </c>
-      <c r="O284" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B285" t="s">
         <v>1341</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1342</v>
       </c>
       <c r="C285">
         <v>53</v>
@@ -19764,27 +19776,27 @@
         <v>70</v>
       </c>
       <c r="K285" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285" t="s">
         <v>1343</v>
       </c>
-      <c r="L285">
-        <v>1</v>
-      </c>
-      <c r="M285" t="s">
+      <c r="N285">
+        <v>1</v>
+      </c>
+      <c r="O285" t="s">
         <v>1344</v>
-      </c>
-      <c r="N285">
-        <v>1</v>
-      </c>
-      <c r="O285" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B286" t="s">
         <v>1346</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1347</v>
       </c>
       <c r="C286">
         <v>65.8</v>
@@ -19811,27 +19823,27 @@
         <v>70</v>
       </c>
       <c r="K286" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286" t="s">
         <v>1348</v>
       </c>
-      <c r="L286">
-        <v>1</v>
-      </c>
-      <c r="M286" t="s">
+      <c r="N286">
+        <v>1</v>
+      </c>
+      <c r="O286" t="s">
         <v>1349</v>
-      </c>
-      <c r="N286">
-        <v>1</v>
-      </c>
-      <c r="O286" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B287" t="s">
         <v>1351</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1352</v>
       </c>
       <c r="C287">
         <v>78.5</v>
@@ -19858,27 +19870,27 @@
         <v>70</v>
       </c>
       <c r="K287" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287" t="s">
         <v>1353</v>
       </c>
-      <c r="L287">
-        <v>1</v>
-      </c>
-      <c r="M287" t="s">
+      <c r="N287">
+        <v>1</v>
+      </c>
+      <c r="O287" t="s">
         <v>1354</v>
-      </c>
-      <c r="N287">
-        <v>1</v>
-      </c>
-      <c r="O287" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B288" t="s">
         <v>1356</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1357</v>
       </c>
       <c r="C288">
         <v>91.3</v>
@@ -19905,27 +19917,27 @@
         <v>70</v>
       </c>
       <c r="K288" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288" t="s">
         <v>1358</v>
       </c>
-      <c r="L288">
-        <v>1</v>
-      </c>
-      <c r="M288" t="s">
+      <c r="N288">
+        <v>1</v>
+      </c>
+      <c r="O288" t="s">
         <v>1359</v>
-      </c>
-      <c r="N288">
-        <v>1</v>
-      </c>
-      <c r="O288" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B289" t="s">
         <v>1361</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1362</v>
       </c>
       <c r="C289">
         <v>105.9</v>
@@ -19952,27 +19964,27 @@
         <v>70</v>
       </c>
       <c r="K289" t="s">
+        <v>1362</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289" t="s">
         <v>1363</v>
       </c>
-      <c r="L289">
-        <v>1</v>
-      </c>
-      <c r="M289" t="s">
+      <c r="N289">
+        <v>1</v>
+      </c>
+      <c r="O289" t="s">
         <v>1364</v>
-      </c>
-      <c r="N289">
-        <v>1</v>
-      </c>
-      <c r="O289" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B290" t="s">
         <v>1366</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1367</v>
       </c>
       <c r="C290">
         <v>118.6</v>
@@ -19999,27 +20011,27 @@
         <v>70</v>
       </c>
       <c r="K290" t="s">
+        <v>1367</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290" t="s">
         <v>1368</v>
       </c>
-      <c r="L290">
-        <v>1</v>
-      </c>
-      <c r="M290" t="s">
+      <c r="N290">
+        <v>1</v>
+      </c>
+      <c r="O290" t="s">
         <v>1369</v>
-      </c>
-      <c r="N290">
-        <v>1</v>
-      </c>
-      <c r="O290" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B291" t="s">
         <v>1371</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1372</v>
       </c>
       <c r="C291">
         <v>131.4</v>
@@ -20046,27 +20058,27 @@
         <v>70</v>
       </c>
       <c r="K291" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291" t="s">
         <v>1373</v>
       </c>
-      <c r="L291">
-        <v>1</v>
-      </c>
-      <c r="M291" t="s">
+      <c r="N291">
+        <v>1</v>
+      </c>
+      <c r="O291" t="s">
         <v>1374</v>
-      </c>
-      <c r="N291">
-        <v>1</v>
-      </c>
-      <c r="O291" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B292" t="s">
         <v>1376</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1377</v>
       </c>
       <c r="C292">
         <v>144.1</v>
@@ -20093,27 +20105,27 @@
         <v>70</v>
       </c>
       <c r="K292" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292" t="s">
         <v>1378</v>
       </c>
-      <c r="L292">
-        <v>1</v>
-      </c>
-      <c r="M292" t="s">
+      <c r="N292">
+        <v>1</v>
+      </c>
+      <c r="O292" t="s">
         <v>1379</v>
-      </c>
-      <c r="N292">
-        <v>1</v>
-      </c>
-      <c r="O292" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B293" t="s">
         <v>1381</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1382</v>
       </c>
       <c r="C293">
         <v>62.3</v>
@@ -20140,27 +20152,27 @@
         <v>70</v>
       </c>
       <c r="K293" t="s">
+        <v>1382</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293" t="s">
         <v>1383</v>
       </c>
-      <c r="L293">
-        <v>1</v>
-      </c>
-      <c r="M293" t="s">
+      <c r="N293">
+        <v>1</v>
+      </c>
+      <c r="O293" t="s">
         <v>1384</v>
-      </c>
-      <c r="N293">
-        <v>1</v>
-      </c>
-      <c r="O293" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B294" t="s">
         <v>1386</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1387</v>
       </c>
       <c r="C294">
         <v>75</v>
@@ -20187,27 +20199,27 @@
         <v>70</v>
       </c>
       <c r="K294" t="s">
+        <v>1387</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294" t="s">
         <v>1388</v>
       </c>
-      <c r="L294">
-        <v>1</v>
-      </c>
-      <c r="M294" t="s">
+      <c r="N294">
+        <v>1</v>
+      </c>
+      <c r="O294" t="s">
         <v>1389</v>
-      </c>
-      <c r="N294">
-        <v>1</v>
-      </c>
-      <c r="O294" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B295" t="s">
         <v>1391</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1392</v>
       </c>
       <c r="C295">
         <v>87.7</v>
@@ -20234,27 +20246,27 @@
         <v>70</v>
       </c>
       <c r="K295" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295" t="s">
         <v>1393</v>
       </c>
-      <c r="L295">
-        <v>1</v>
-      </c>
-      <c r="M295" t="s">
+      <c r="N295">
+        <v>1</v>
+      </c>
+      <c r="O295" t="s">
         <v>1394</v>
-      </c>
-      <c r="N295">
-        <v>1</v>
-      </c>
-      <c r="O295" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B296" t="s">
         <v>1396</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1397</v>
       </c>
       <c r="C296">
         <v>100.5</v>
@@ -20281,27 +20293,27 @@
         <v>70</v>
       </c>
       <c r="K296" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296" t="s">
         <v>1398</v>
       </c>
-      <c r="L296">
-        <v>1</v>
-      </c>
-      <c r="M296" t="s">
+      <c r="N296">
+        <v>1</v>
+      </c>
+      <c r="O296" t="s">
         <v>1399</v>
-      </c>
-      <c r="N296">
-        <v>1</v>
-      </c>
-      <c r="O296" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B297" t="s">
         <v>1401</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1402</v>
       </c>
       <c r="C297">
         <v>113.3</v>
@@ -20328,27 +20340,27 @@
         <v>70</v>
       </c>
       <c r="K297" t="s">
+        <v>1402</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297" t="s">
         <v>1403</v>
       </c>
-      <c r="L297">
-        <v>1</v>
-      </c>
-      <c r="M297" t="s">
+      <c r="N297">
+        <v>1</v>
+      </c>
+      <c r="O297" t="s">
         <v>1404</v>
-      </c>
-      <c r="N297">
-        <v>1</v>
-      </c>
-      <c r="O297" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B298" t="s">
         <v>1406</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1407</v>
       </c>
       <c r="C298">
         <v>126</v>
@@ -20375,27 +20387,27 @@
         <v>70</v>
       </c>
       <c r="K298" t="s">
+        <v>1407</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298" t="s">
         <v>1408</v>
       </c>
-      <c r="L298">
-        <v>1</v>
-      </c>
-      <c r="M298" t="s">
+      <c r="N298">
+        <v>1</v>
+      </c>
+      <c r="O298" t="s">
         <v>1409</v>
-      </c>
-      <c r="N298">
-        <v>1</v>
-      </c>
-      <c r="O298" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B299" t="s">
         <v>1411</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1412</v>
       </c>
       <c r="C299">
         <v>138.80000000000001</v>
@@ -20422,27 +20434,27 @@
         <v>70</v>
       </c>
       <c r="K299" t="s">
+        <v>1412</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299" t="s">
         <v>1413</v>
       </c>
-      <c r="L299">
-        <v>1</v>
-      </c>
-      <c r="M299" t="s">
+      <c r="N299">
+        <v>1</v>
+      </c>
+      <c r="O299" t="s">
         <v>1414</v>
-      </c>
-      <c r="N299">
-        <v>1</v>
-      </c>
-      <c r="O299" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B300" t="s">
         <v>1416</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1417</v>
       </c>
       <c r="C300">
         <v>160.5</v>
@@ -20469,27 +20481,27 @@
         <v>70</v>
       </c>
       <c r="K300" t="s">
+        <v>1417</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300" t="s">
         <v>1418</v>
       </c>
-      <c r="L300">
-        <v>1</v>
-      </c>
-      <c r="M300" t="s">
+      <c r="N300">
+        <v>1</v>
+      </c>
+      <c r="O300" t="s">
         <v>1419</v>
-      </c>
-      <c r="N300">
-        <v>1</v>
-      </c>
-      <c r="O300" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B301" t="s">
         <v>1421</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1422</v>
       </c>
       <c r="C301">
         <v>173.3</v>
@@ -20516,27 +20528,27 @@
         <v>70</v>
       </c>
       <c r="K301" t="s">
+        <v>1422</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+      <c r="M301" t="s">
         <v>1423</v>
       </c>
-      <c r="L301">
-        <v>1</v>
-      </c>
-      <c r="M301" t="s">
+      <c r="N301">
+        <v>1</v>
+      </c>
+      <c r="O301" t="s">
         <v>1424</v>
-      </c>
-      <c r="N301">
-        <v>1</v>
-      </c>
-      <c r="O301" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B302" t="s">
         <v>1426</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1427</v>
       </c>
       <c r="C302">
         <v>186</v>
@@ -20563,27 +20575,27 @@
         <v>70</v>
       </c>
       <c r="K302" t="s">
+        <v>1427</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302" t="s">
         <v>1428</v>
       </c>
-      <c r="L302">
-        <v>1</v>
-      </c>
-      <c r="M302" t="s">
+      <c r="N302">
+        <v>1</v>
+      </c>
+      <c r="O302" t="s">
         <v>1429</v>
-      </c>
-      <c r="N302">
-        <v>1</v>
-      </c>
-      <c r="O302" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B303" t="s">
         <v>1431</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1432</v>
       </c>
       <c r="C303">
         <v>198.7</v>
@@ -20610,27 +20622,27 @@
         <v>70</v>
       </c>
       <c r="K303" t="s">
+        <v>1432</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303" t="s">
         <v>1433</v>
       </c>
-      <c r="L303">
-        <v>1</v>
-      </c>
-      <c r="M303" t="s">
+      <c r="N303">
+        <v>1</v>
+      </c>
+      <c r="O303" t="s">
         <v>1434</v>
-      </c>
-      <c r="N303">
-        <v>1</v>
-      </c>
-      <c r="O303" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B304" t="s">
         <v>1436</v>
-      </c>
-      <c r="B304" t="s">
-        <v>1437</v>
       </c>
       <c r="C304">
         <v>211.5</v>
@@ -20657,27 +20669,27 @@
         <v>70</v>
       </c>
       <c r="K304" t="s">
+        <v>1437</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304" t="s">
         <v>1438</v>
       </c>
-      <c r="L304">
-        <v>1</v>
-      </c>
-      <c r="M304" t="s">
+      <c r="N304">
+        <v>1</v>
+      </c>
+      <c r="O304" t="s">
         <v>1439</v>
-      </c>
-      <c r="N304">
-        <v>1</v>
-      </c>
-      <c r="O304" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B305" t="s">
         <v>1441</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1442</v>
       </c>
       <c r="C305">
         <v>224.3</v>
@@ -20704,27 +20716,27 @@
         <v>70</v>
       </c>
       <c r="K305" t="s">
+        <v>1442</v>
+      </c>
+      <c r="L305">
+        <v>1</v>
+      </c>
+      <c r="M305" t="s">
         <v>1443</v>
       </c>
-      <c r="L305">
-        <v>1</v>
-      </c>
-      <c r="M305" t="s">
+      <c r="N305">
+        <v>1</v>
+      </c>
+      <c r="O305" t="s">
         <v>1444</v>
-      </c>
-      <c r="N305">
-        <v>1</v>
-      </c>
-      <c r="O305" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B306" t="s">
         <v>1446</v>
-      </c>
-      <c r="B306" t="s">
-        <v>1447</v>
       </c>
       <c r="C306">
         <v>237</v>
@@ -20751,27 +20763,27 @@
         <v>70</v>
       </c>
       <c r="K306" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L306">
+        <v>1</v>
+      </c>
+      <c r="M306" t="s">
         <v>1448</v>
       </c>
-      <c r="L306">
-        <v>1</v>
-      </c>
-      <c r="M306" t="s">
+      <c r="N306">
+        <v>1</v>
+      </c>
+      <c r="O306" t="s">
         <v>1449</v>
-      </c>
-      <c r="N306">
-        <v>1</v>
-      </c>
-      <c r="O306" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B307" t="s">
         <v>1451</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1452</v>
       </c>
       <c r="C307">
         <v>249.8</v>
@@ -20798,27 +20810,27 @@
         <v>70</v>
       </c>
       <c r="K307" t="s">
+        <v>1452</v>
+      </c>
+      <c r="L307">
+        <v>1</v>
+      </c>
+      <c r="M307" t="s">
         <v>1453</v>
       </c>
-      <c r="L307">
-        <v>1</v>
-      </c>
-      <c r="M307" t="s">
+      <c r="N307">
+        <v>1</v>
+      </c>
+      <c r="O307" t="s">
         <v>1454</v>
-      </c>
-      <c r="N307">
-        <v>1</v>
-      </c>
-      <c r="O307" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B308" t="s">
         <v>1456</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1457</v>
       </c>
       <c r="C308">
         <v>262.60000000000002</v>
@@ -20845,27 +20857,27 @@
         <v>70</v>
       </c>
       <c r="K308" t="s">
+        <v>1457</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308" t="s">
         <v>1458</v>
       </c>
-      <c r="L308">
-        <v>1</v>
-      </c>
-      <c r="M308" t="s">
+      <c r="N308">
+        <v>1</v>
+      </c>
+      <c r="O308" t="s">
         <v>1459</v>
-      </c>
-      <c r="N308">
-        <v>1</v>
-      </c>
-      <c r="O308" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B309" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C309">
         <v>178</v>
@@ -20892,27 +20904,27 @@
         <v>70</v>
       </c>
       <c r="K309" t="s">
+        <v>1685</v>
+      </c>
+      <c r="L309">
+        <v>1</v>
+      </c>
+      <c r="M309" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N309">
+        <v>1</v>
+      </c>
+      <c r="O309" t="s">
         <v>1687</v>
-      </c>
-      <c r="L309">
-        <v>1</v>
-      </c>
-      <c r="M309" t="s">
-        <v>1688</v>
-      </c>
-      <c r="N309">
-        <v>1</v>
-      </c>
-      <c r="O309" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B310" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="C310">
         <v>190.8</v>
@@ -20939,27 +20951,27 @@
         <v>70</v>
       </c>
       <c r="K310" t="s">
+        <v>1690</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+      <c r="M310" t="s">
+        <v>1691</v>
+      </c>
+      <c r="N310">
+        <v>1</v>
+      </c>
+      <c r="O310" t="s">
         <v>1692</v>
-      </c>
-      <c r="L310">
-        <v>1</v>
-      </c>
-      <c r="M310" t="s">
-        <v>1693</v>
-      </c>
-      <c r="N310">
-        <v>1</v>
-      </c>
-      <c r="O310" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="B311" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C311">
         <v>203.6</v>
@@ -20986,27 +20998,27 @@
         <v>70</v>
       </c>
       <c r="K311" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+      <c r="M311" t="s">
+        <v>1696</v>
+      </c>
+      <c r="N311">
+        <v>1</v>
+      </c>
+      <c r="O311" t="s">
         <v>1697</v>
-      </c>
-      <c r="L311">
-        <v>1</v>
-      </c>
-      <c r="M311" t="s">
-        <v>1698</v>
-      </c>
-      <c r="N311">
-        <v>1</v>
-      </c>
-      <c r="O311" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B312" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="C312">
         <v>217.8</v>
@@ -21033,27 +21045,27 @@
         <v>70</v>
       </c>
       <c r="K312" t="s">
+        <v>1700</v>
+      </c>
+      <c r="L312">
+        <v>1</v>
+      </c>
+      <c r="M312" t="s">
+        <v>1701</v>
+      </c>
+      <c r="N312">
+        <v>1</v>
+      </c>
+      <c r="O312" t="s">
         <v>1702</v>
-      </c>
-      <c r="L312">
-        <v>1</v>
-      </c>
-      <c r="M312" t="s">
-        <v>1703</v>
-      </c>
-      <c r="N312">
-        <v>1</v>
-      </c>
-      <c r="O312" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B313" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C313">
         <v>230.6</v>
@@ -21080,27 +21092,27 @@
         <v>70</v>
       </c>
       <c r="K313" t="s">
+        <v>1705</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+      <c r="M313" t="s">
+        <v>1706</v>
+      </c>
+      <c r="N313">
+        <v>1</v>
+      </c>
+      <c r="O313" t="s">
         <v>1707</v>
-      </c>
-      <c r="L313">
-        <v>1</v>
-      </c>
-      <c r="M313" t="s">
-        <v>1708</v>
-      </c>
-      <c r="N313">
-        <v>1</v>
-      </c>
-      <c r="O313" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B314" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C314">
         <v>243.3</v>
@@ -21127,27 +21139,27 @@
         <v>70</v>
       </c>
       <c r="K314" t="s">
+        <v>1710</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314" t="s">
+        <v>1711</v>
+      </c>
+      <c r="N314">
+        <v>1</v>
+      </c>
+      <c r="O314" t="s">
         <v>1712</v>
-      </c>
-      <c r="L314">
-        <v>1</v>
-      </c>
-      <c r="M314" t="s">
-        <v>1713</v>
-      </c>
-      <c r="N314">
-        <v>1</v>
-      </c>
-      <c r="O314" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B315" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C315">
         <v>256.10000000000002</v>
@@ -21174,27 +21186,27 @@
         <v>70</v>
       </c>
       <c r="K315" t="s">
+        <v>1715</v>
+      </c>
+      <c r="L315">
+        <v>1</v>
+      </c>
+      <c r="M315" t="s">
+        <v>1716</v>
+      </c>
+      <c r="N315">
+        <v>1</v>
+      </c>
+      <c r="O315" t="s">
         <v>1717</v>
-      </c>
-      <c r="L315">
-        <v>1</v>
-      </c>
-      <c r="M315" t="s">
-        <v>1718</v>
-      </c>
-      <c r="N315">
-        <v>1</v>
-      </c>
-      <c r="O315" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B316" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C316">
         <v>268.8</v>
@@ -21221,27 +21233,27 @@
         <v>70</v>
       </c>
       <c r="K316" t="s">
+        <v>1720</v>
+      </c>
+      <c r="L316">
+        <v>1</v>
+      </c>
+      <c r="M316" t="s">
+        <v>1721</v>
+      </c>
+      <c r="N316">
+        <v>1</v>
+      </c>
+      <c r="O316" t="s">
         <v>1722</v>
-      </c>
-      <c r="L316">
-        <v>1</v>
-      </c>
-      <c r="M316" t="s">
-        <v>1723</v>
-      </c>
-      <c r="N316">
-        <v>1</v>
-      </c>
-      <c r="O316" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B317" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="C317">
         <v>281.60000000000002</v>
@@ -21268,27 +21280,27 @@
         <v>70</v>
       </c>
       <c r="K317" t="s">
+        <v>1725</v>
+      </c>
+      <c r="L317">
+        <v>1</v>
+      </c>
+      <c r="M317" t="s">
+        <v>1726</v>
+      </c>
+      <c r="N317">
+        <v>1</v>
+      </c>
+      <c r="O317" t="s">
         <v>1727</v>
-      </c>
-      <c r="L317">
-        <v>1</v>
-      </c>
-      <c r="M317" t="s">
-        <v>1728</v>
-      </c>
-      <c r="N317">
-        <v>1</v>
-      </c>
-      <c r="O317" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="B318" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C318">
         <v>295.60000000000002</v>
@@ -21315,27 +21327,27 @@
         <v>70</v>
       </c>
       <c r="K318" t="s">
+        <v>1730</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+      <c r="M318" t="s">
+        <v>1731</v>
+      </c>
+      <c r="N318">
+        <v>1</v>
+      </c>
+      <c r="O318" t="s">
         <v>1732</v>
-      </c>
-      <c r="L318">
-        <v>1</v>
-      </c>
-      <c r="M318" t="s">
-        <v>1733</v>
-      </c>
-      <c r="N318">
-        <v>1</v>
-      </c>
-      <c r="O318" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B319" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C319">
         <v>316.7</v>
@@ -21362,27 +21374,27 @@
         <v>70</v>
       </c>
       <c r="K319" t="s">
+        <v>1735</v>
+      </c>
+      <c r="L319">
+        <v>1</v>
+      </c>
+      <c r="M319" t="s">
+        <v>1736</v>
+      </c>
+      <c r="N319">
+        <v>1</v>
+      </c>
+      <c r="O319" t="s">
         <v>1737</v>
-      </c>
-      <c r="L319">
-        <v>1</v>
-      </c>
-      <c r="M319" t="s">
-        <v>1738</v>
-      </c>
-      <c r="N319">
-        <v>1</v>
-      </c>
-      <c r="O319" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B320" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C320">
         <v>329.5</v>
@@ -21409,27 +21421,27 @@
         <v>70</v>
       </c>
       <c r="K320" t="s">
+        <v>1740</v>
+      </c>
+      <c r="L320">
+        <v>1</v>
+      </c>
+      <c r="M320" t="s">
+        <v>1741</v>
+      </c>
+      <c r="N320">
+        <v>1</v>
+      </c>
+      <c r="O320" t="s">
         <v>1742</v>
-      </c>
-      <c r="L320">
-        <v>1</v>
-      </c>
-      <c r="M320" t="s">
-        <v>1743</v>
-      </c>
-      <c r="N320">
-        <v>1</v>
-      </c>
-      <c r="O320" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B321" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C321">
         <v>342.2</v>
@@ -21456,27 +21468,27 @@
         <v>70</v>
       </c>
       <c r="K321" t="s">
+        <v>1745</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+      <c r="M321" t="s">
+        <v>1746</v>
+      </c>
+      <c r="N321">
+        <v>1</v>
+      </c>
+      <c r="O321" t="s">
         <v>1747</v>
-      </c>
-      <c r="L321">
-        <v>1</v>
-      </c>
-      <c r="M321" t="s">
-        <v>1748</v>
-      </c>
-      <c r="N321">
-        <v>1</v>
-      </c>
-      <c r="O321" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B322" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C322">
         <v>355</v>
@@ -21503,27 +21515,27 @@
         <v>70</v>
       </c>
       <c r="K322" t="s">
+        <v>1750</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+      <c r="M322" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N322">
+        <v>1</v>
+      </c>
+      <c r="O322" t="s">
         <v>1752</v>
-      </c>
-      <c r="L322">
-        <v>1</v>
-      </c>
-      <c r="M322" t="s">
-        <v>1753</v>
-      </c>
-      <c r="N322">
-        <v>1</v>
-      </c>
-      <c r="O322" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B323" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C323">
         <v>7.7</v>
@@ -21550,27 +21562,27 @@
         <v>70</v>
       </c>
       <c r="K323" t="s">
+        <v>1755</v>
+      </c>
+      <c r="L323">
+        <v>1</v>
+      </c>
+      <c r="M323" t="s">
+        <v>1756</v>
+      </c>
+      <c r="N323">
+        <v>1</v>
+      </c>
+      <c r="O323" t="s">
         <v>1757</v>
-      </c>
-      <c r="L323">
-        <v>1</v>
-      </c>
-      <c r="M323" t="s">
-        <v>1758</v>
-      </c>
-      <c r="N323">
-        <v>1</v>
-      </c>
-      <c r="O323" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B324" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C324">
         <v>20.399999999999999</v>
@@ -21597,27 +21609,27 @@
         <v>70</v>
       </c>
       <c r="K324" t="s">
+        <v>1760</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="M324" t="s">
+        <v>1761</v>
+      </c>
+      <c r="N324">
+        <v>1</v>
+      </c>
+      <c r="O324" t="s">
         <v>1762</v>
-      </c>
-      <c r="L324">
-        <v>1</v>
-      </c>
-      <c r="M324" t="s">
-        <v>1763</v>
-      </c>
-      <c r="N324">
-        <v>1</v>
-      </c>
-      <c r="O324" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B325" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C325">
         <v>33.200000000000003</v>
@@ -21644,27 +21656,27 @@
         <v>70</v>
       </c>
       <c r="K325" t="s">
+        <v>1765</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+      <c r="M325" t="s">
+        <v>1766</v>
+      </c>
+      <c r="N325">
+        <v>1</v>
+      </c>
+      <c r="O325" t="s">
         <v>1767</v>
-      </c>
-      <c r="L325">
-        <v>1</v>
-      </c>
-      <c r="M325" t="s">
-        <v>1768</v>
-      </c>
-      <c r="N325">
-        <v>1</v>
-      </c>
-      <c r="O325" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B326" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="C326">
         <v>45.9</v>
@@ -21691,27 +21703,27 @@
         <v>70</v>
       </c>
       <c r="K326" t="s">
+        <v>1770</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+      <c r="M326" t="s">
+        <v>1771</v>
+      </c>
+      <c r="N326">
+        <v>1</v>
+      </c>
+      <c r="O326" t="s">
         <v>1772</v>
-      </c>
-      <c r="L326">
-        <v>1</v>
-      </c>
-      <c r="M326" t="s">
-        <v>1773</v>
-      </c>
-      <c r="N326">
-        <v>1</v>
-      </c>
-      <c r="O326" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B327" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="C327">
         <v>45.9</v>
@@ -21738,27 +21750,27 @@
         <v>70</v>
       </c>
       <c r="K327" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="L327">
         <v>1</v>
       </c>
       <c r="M327" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="N327">
         <v>1</v>
       </c>
       <c r="O327" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B328" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="C328">
         <v>58.7</v>
@@ -21785,27 +21797,27 @@
         <v>70</v>
       </c>
       <c r="K328" t="s">
+        <v>1778</v>
+      </c>
+      <c r="L328">
+        <v>1</v>
+      </c>
+      <c r="M328" t="s">
+        <v>1779</v>
+      </c>
+      <c r="N328">
+        <v>1</v>
+      </c>
+      <c r="O328" t="s">
         <v>1780</v>
-      </c>
-      <c r="L328">
-        <v>1</v>
-      </c>
-      <c r="M328" t="s">
-        <v>1781</v>
-      </c>
-      <c r="N328">
-        <v>1</v>
-      </c>
-      <c r="O328" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B329" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="C329">
         <v>58.7</v>
@@ -21832,27 +21844,27 @@
         <v>70</v>
       </c>
       <c r="K329" t="s">
+        <v>1778</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="M329" t="s">
+        <v>1782</v>
+      </c>
+      <c r="N329">
+        <v>1</v>
+      </c>
+      <c r="O329" t="s">
         <v>1780</v>
-      </c>
-      <c r="L329">
-        <v>1</v>
-      </c>
-      <c r="M329" t="s">
-        <v>1784</v>
-      </c>
-      <c r="N329">
-        <v>1</v>
-      </c>
-      <c r="O329" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B330" t="s">
         <v>1461</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1462</v>
       </c>
       <c r="C330">
         <v>329.1</v>
@@ -21879,27 +21891,27 @@
         <v>70</v>
       </c>
       <c r="K330" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L330">
+        <v>1</v>
+      </c>
+      <c r="M330" t="s">
         <v>1463</v>
       </c>
-      <c r="L330">
-        <v>1</v>
-      </c>
-      <c r="M330" t="s">
+      <c r="N330">
+        <v>1</v>
+      </c>
+      <c r="O330" t="s">
         <v>1464</v>
-      </c>
-      <c r="N330">
-        <v>1</v>
-      </c>
-      <c r="O330" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B331" t="s">
         <v>1466</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1467</v>
       </c>
       <c r="C331">
         <v>341.9</v>
@@ -21926,27 +21938,27 @@
         <v>70</v>
       </c>
       <c r="K331" t="s">
+        <v>1467</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331" t="s">
         <v>1468</v>
       </c>
-      <c r="L331">
-        <v>1</v>
-      </c>
-      <c r="M331" t="s">
+      <c r="N331">
+        <v>1</v>
+      </c>
+      <c r="O331" t="s">
         <v>1469</v>
-      </c>
-      <c r="N331">
-        <v>1</v>
-      </c>
-      <c r="O331" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B332" t="s">
         <v>1471</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1472</v>
       </c>
       <c r="C332">
         <v>355.3</v>
@@ -21973,27 +21985,27 @@
         <v>70</v>
       </c>
       <c r="K332" t="s">
+        <v>1472</v>
+      </c>
+      <c r="L332">
+        <v>1</v>
+      </c>
+      <c r="M332" t="s">
         <v>1473</v>
       </c>
-      <c r="L332">
-        <v>1</v>
-      </c>
-      <c r="M332" t="s">
+      <c r="N332">
+        <v>1</v>
+      </c>
+      <c r="O332" t="s">
         <v>1474</v>
-      </c>
-      <c r="N332">
-        <v>1</v>
-      </c>
-      <c r="O332" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B333" t="s">
         <v>1476</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1477</v>
       </c>
       <c r="C333">
         <v>8</v>
@@ -22020,27 +22032,27 @@
         <v>70</v>
       </c>
       <c r="K333" t="s">
+        <v>1477</v>
+      </c>
+      <c r="L333">
+        <v>1</v>
+      </c>
+      <c r="M333" t="s">
         <v>1478</v>
       </c>
-      <c r="L333">
-        <v>1</v>
-      </c>
-      <c r="M333" t="s">
+      <c r="N333">
+        <v>1</v>
+      </c>
+      <c r="O333" t="s">
         <v>1479</v>
-      </c>
-      <c r="N333">
-        <v>1</v>
-      </c>
-      <c r="O333" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B334" t="s">
         <v>1481</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1482</v>
       </c>
       <c r="C334">
         <v>20.8</v>
@@ -22067,27 +22079,27 @@
         <v>70</v>
       </c>
       <c r="K334" t="s">
+        <v>1482</v>
+      </c>
+      <c r="L334">
+        <v>1</v>
+      </c>
+      <c r="M334" t="s">
         <v>1483</v>
       </c>
-      <c r="L334">
-        <v>1</v>
-      </c>
-      <c r="M334" t="s">
+      <c r="N334">
+        <v>1</v>
+      </c>
+      <c r="O334" t="s">
         <v>1484</v>
-      </c>
-      <c r="N334">
-        <v>1</v>
-      </c>
-      <c r="O334" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B335" t="s">
         <v>1486</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1487</v>
       </c>
       <c r="C335">
         <v>33.6</v>
@@ -22114,27 +22126,27 @@
         <v>70</v>
       </c>
       <c r="K335" t="s">
+        <v>1487</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+      <c r="M335" t="s">
         <v>1488</v>
       </c>
-      <c r="L335">
-        <v>1</v>
-      </c>
-      <c r="M335" t="s">
+      <c r="N335">
+        <v>1</v>
+      </c>
+      <c r="O335" t="s">
         <v>1489</v>
-      </c>
-      <c r="N335">
-        <v>1</v>
-      </c>
-      <c r="O335" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B336" t="s">
         <v>1491</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1492</v>
       </c>
       <c r="C336">
         <v>46.8</v>
@@ -22161,27 +22173,27 @@
         <v>70</v>
       </c>
       <c r="K336" t="s">
+        <v>1492</v>
+      </c>
+      <c r="L336">
+        <v>1</v>
+      </c>
+      <c r="M336" t="s">
         <v>1493</v>
       </c>
-      <c r="L336">
-        <v>1</v>
-      </c>
-      <c r="M336" t="s">
+      <c r="N336">
+        <v>1</v>
+      </c>
+      <c r="O336" t="s">
         <v>1494</v>
-      </c>
-      <c r="N336">
-        <v>1</v>
-      </c>
-      <c r="O336" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B337" t="s">
         <v>1496</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1497</v>
       </c>
       <c r="C337">
         <v>59.6</v>
@@ -22208,27 +22220,27 @@
         <v>70</v>
       </c>
       <c r="K337" t="s">
+        <v>1497</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="M337" t="s">
         <v>1498</v>
       </c>
-      <c r="L337">
-        <v>1</v>
-      </c>
-      <c r="M337" t="s">
+      <c r="N337">
+        <v>1</v>
+      </c>
+      <c r="O337" t="s">
         <v>1499</v>
-      </c>
-      <c r="N337">
-        <v>1</v>
-      </c>
-      <c r="O337" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B338" t="s">
         <v>1501</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1502</v>
       </c>
       <c r="C338">
         <v>72.3</v>
@@ -22255,27 +22267,27 @@
         <v>70</v>
       </c>
       <c r="K338" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L338">
+        <v>1</v>
+      </c>
+      <c r="M338" t="s">
         <v>1503</v>
       </c>
-      <c r="L338">
-        <v>1</v>
-      </c>
-      <c r="M338" t="s">
+      <c r="N338">
+        <v>1</v>
+      </c>
+      <c r="O338" t="s">
         <v>1504</v>
-      </c>
-      <c r="N338">
-        <v>1</v>
-      </c>
-      <c r="O338" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B339" t="s">
         <v>1506</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1507</v>
       </c>
       <c r="C339">
         <v>85.1</v>
@@ -22302,27 +22314,27 @@
         <v>70</v>
       </c>
       <c r="K339" t="s">
+        <v>1507</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+      <c r="M339" t="s">
         <v>1508</v>
       </c>
-      <c r="L339">
-        <v>1</v>
-      </c>
-      <c r="M339" t="s">
+      <c r="N339">
+        <v>1</v>
+      </c>
+      <c r="O339" t="s">
         <v>1509</v>
-      </c>
-      <c r="N339">
-        <v>1</v>
-      </c>
-      <c r="O339" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B340" t="s">
         <v>1511</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1512</v>
       </c>
       <c r="C340">
         <v>102.6</v>
@@ -22349,27 +22361,27 @@
         <v>70</v>
       </c>
       <c r="K340" t="s">
+        <v>1512</v>
+      </c>
+      <c r="L340">
+        <v>1</v>
+      </c>
+      <c r="M340" t="s">
         <v>1513</v>
       </c>
-      <c r="L340">
-        <v>1</v>
-      </c>
-      <c r="M340" t="s">
+      <c r="N340">
+        <v>1</v>
+      </c>
+      <c r="O340" t="s">
         <v>1514</v>
-      </c>
-      <c r="N340">
-        <v>1</v>
-      </c>
-      <c r="O340" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B341" t="s">
         <v>1516</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1517</v>
       </c>
       <c r="C341">
         <v>115.4</v>
@@ -22396,27 +22408,27 @@
         <v>70</v>
       </c>
       <c r="K341" t="s">
+        <v>1517</v>
+      </c>
+      <c r="L341">
+        <v>1</v>
+      </c>
+      <c r="M341" t="s">
         <v>1518</v>
       </c>
-      <c r="L341">
-        <v>1</v>
-      </c>
-      <c r="M341" t="s">
+      <c r="N341">
+        <v>1</v>
+      </c>
+      <c r="O341" t="s">
         <v>1519</v>
-      </c>
-      <c r="N341">
-        <v>1</v>
-      </c>
-      <c r="O341" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B342" t="s">
         <v>1521</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1522</v>
       </c>
       <c r="C342">
         <v>128.1</v>
@@ -22443,27 +22455,27 @@
         <v>70</v>
       </c>
       <c r="K342" t="s">
+        <v>1522</v>
+      </c>
+      <c r="L342">
+        <v>1</v>
+      </c>
+      <c r="M342" t="s">
         <v>1523</v>
       </c>
-      <c r="L342">
-        <v>1</v>
-      </c>
-      <c r="M342" t="s">
+      <c r="N342">
+        <v>1</v>
+      </c>
+      <c r="O342" t="s">
         <v>1524</v>
-      </c>
-      <c r="N342">
-        <v>1</v>
-      </c>
-      <c r="O342" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B343" t="s">
         <v>1526</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1527</v>
       </c>
       <c r="C343">
         <v>142.80000000000001</v>
@@ -22490,27 +22502,27 @@
         <v>70</v>
       </c>
       <c r="K343" t="s">
+        <v>1527</v>
+      </c>
+      <c r="L343">
+        <v>1</v>
+      </c>
+      <c r="M343" t="s">
         <v>1528</v>
       </c>
-      <c r="L343">
-        <v>1</v>
-      </c>
-      <c r="M343" t="s">
+      <c r="N343">
+        <v>1</v>
+      </c>
+      <c r="O343" t="s">
         <v>1529</v>
-      </c>
-      <c r="N343">
-        <v>1</v>
-      </c>
-      <c r="O343" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B344" t="s">
         <v>1531</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1532</v>
       </c>
       <c r="C344">
         <v>155.5</v>
@@ -22537,27 +22549,27 @@
         <v>70</v>
       </c>
       <c r="K344" t="s">
+        <v>1532</v>
+      </c>
+      <c r="L344">
+        <v>1</v>
+      </c>
+      <c r="M344" t="s">
         <v>1533</v>
       </c>
-      <c r="L344">
-        <v>1</v>
-      </c>
-      <c r="M344" t="s">
+      <c r="N344">
+        <v>1</v>
+      </c>
+      <c r="O344" t="s">
         <v>1534</v>
-      </c>
-      <c r="N344">
-        <v>1</v>
-      </c>
-      <c r="O344" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B345" t="s">
         <v>1536</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1537</v>
       </c>
       <c r="C345">
         <v>168.3</v>
@@ -22584,27 +22596,27 @@
         <v>70</v>
       </c>
       <c r="K345" t="s">
+        <v>1537</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+      <c r="M345" t="s">
         <v>1538</v>
       </c>
-      <c r="L345">
-        <v>1</v>
-      </c>
-      <c r="M345" t="s">
+      <c r="N345">
+        <v>1</v>
+      </c>
+      <c r="O345" t="s">
         <v>1539</v>
-      </c>
-      <c r="N345">
-        <v>1</v>
-      </c>
-      <c r="O345" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B346" t="s">
         <v>1541</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1542</v>
       </c>
       <c r="C346">
         <v>181.1</v>
@@ -22631,27 +22643,27 @@
         <v>70</v>
       </c>
       <c r="K346" t="s">
+        <v>1542</v>
+      </c>
+      <c r="L346">
+        <v>1</v>
+      </c>
+      <c r="M346" t="s">
         <v>1543</v>
       </c>
-      <c r="L346">
-        <v>1</v>
-      </c>
-      <c r="M346" t="s">
+      <c r="N346">
+        <v>1</v>
+      </c>
+      <c r="O346" t="s">
         <v>1544</v>
-      </c>
-      <c r="N346">
-        <v>1</v>
-      </c>
-      <c r="O346" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B347" t="s">
         <v>1546</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1547</v>
       </c>
       <c r="C347">
         <v>193.8</v>
@@ -22678,27 +22690,27 @@
         <v>70</v>
       </c>
       <c r="K347" t="s">
+        <v>1547</v>
+      </c>
+      <c r="L347">
+        <v>1</v>
+      </c>
+      <c r="M347" t="s">
         <v>1548</v>
       </c>
-      <c r="L347">
-        <v>1</v>
-      </c>
-      <c r="M347" t="s">
+      <c r="N347">
+        <v>1</v>
+      </c>
+      <c r="O347" t="s">
         <v>1549</v>
-      </c>
-      <c r="N347">
-        <v>1</v>
-      </c>
-      <c r="O347" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B348" t="s">
         <v>1551</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1552</v>
       </c>
       <c r="C348">
         <v>206.6</v>
@@ -22725,27 +22737,27 @@
         <v>70</v>
       </c>
       <c r="K348" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L348">
+        <v>1</v>
+      </c>
+      <c r="M348" t="s">
         <v>1553</v>
       </c>
-      <c r="L348">
-        <v>1</v>
-      </c>
-      <c r="M348" t="s">
+      <c r="N348">
+        <v>1</v>
+      </c>
+      <c r="O348" t="s">
         <v>1554</v>
-      </c>
-      <c r="N348">
-        <v>1</v>
-      </c>
-      <c r="O348" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B349" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C349">
         <v>38.6</v>
@@ -22772,27 +22784,27 @@
         <v>70</v>
       </c>
       <c r="K349" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L349">
+        <v>1</v>
+      </c>
+      <c r="M349" t="s">
+        <v>1786</v>
+      </c>
+      <c r="N349">
+        <v>1</v>
+      </c>
+      <c r="O349" t="s">
         <v>1787</v>
-      </c>
-      <c r="L349">
-        <v>1</v>
-      </c>
-      <c r="M349" t="s">
-        <v>1788</v>
-      </c>
-      <c r="N349">
-        <v>1</v>
-      </c>
-      <c r="O349" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B350" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="C350">
         <v>51.3</v>
@@ -22819,27 +22831,27 @@
         <v>70</v>
       </c>
       <c r="K350" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L350">
+        <v>1</v>
+      </c>
+      <c r="M350" t="s">
+        <v>1791</v>
+      </c>
+      <c r="N350">
+        <v>1</v>
+      </c>
+      <c r="O350" t="s">
         <v>1792</v>
-      </c>
-      <c r="L350">
-        <v>1</v>
-      </c>
-      <c r="M350" t="s">
-        <v>1793</v>
-      </c>
-      <c r="N350">
-        <v>1</v>
-      </c>
-      <c r="O350" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B351" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="C351">
         <v>64.099999999999994</v>
@@ -22866,27 +22878,27 @@
         <v>70</v>
       </c>
       <c r="K351" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L351">
+        <v>1</v>
+      </c>
+      <c r="M351" t="s">
+        <v>1796</v>
+      </c>
+      <c r="N351">
+        <v>1</v>
+      </c>
+      <c r="O351" t="s">
         <v>1797</v>
-      </c>
-      <c r="L351">
-        <v>1</v>
-      </c>
-      <c r="M351" t="s">
-        <v>1798</v>
-      </c>
-      <c r="N351">
-        <v>1</v>
-      </c>
-      <c r="O351" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B352" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="C352">
         <v>79.900000000000006</v>
@@ -22913,27 +22925,27 @@
         <v>70</v>
       </c>
       <c r="K352" t="s">
+        <v>1800</v>
+      </c>
+      <c r="L352">
+        <v>1</v>
+      </c>
+      <c r="M352" t="s">
+        <v>1801</v>
+      </c>
+      <c r="N352">
+        <v>1</v>
+      </c>
+      <c r="O352" t="s">
         <v>1802</v>
-      </c>
-      <c r="L352">
-        <v>1</v>
-      </c>
-      <c r="M352" t="s">
-        <v>1803</v>
-      </c>
-      <c r="N352">
-        <v>1</v>
-      </c>
-      <c r="O352" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B353" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="C353">
         <v>95.2</v>
@@ -22960,27 +22972,27 @@
         <v>70</v>
       </c>
       <c r="K353" t="s">
+        <v>1805</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="M353" t="s">
+        <v>1806</v>
+      </c>
+      <c r="N353">
+        <v>1</v>
+      </c>
+      <c r="O353" t="s">
         <v>1807</v>
-      </c>
-      <c r="L353">
-        <v>1</v>
-      </c>
-      <c r="M353" t="s">
-        <v>1808</v>
-      </c>
-      <c r="N353">
-        <v>1</v>
-      </c>
-      <c r="O353" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B354" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="C354">
         <v>108</v>
@@ -23007,27 +23019,27 @@
         <v>70</v>
       </c>
       <c r="K354" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L354">
+        <v>1</v>
+      </c>
+      <c r="M354" t="s">
+        <v>1811</v>
+      </c>
+      <c r="N354">
+        <v>1</v>
+      </c>
+      <c r="O354" t="s">
         <v>1812</v>
-      </c>
-      <c r="L354">
-        <v>1</v>
-      </c>
-      <c r="M354" t="s">
-        <v>1813</v>
-      </c>
-      <c r="N354">
-        <v>1</v>
-      </c>
-      <c r="O354" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B355" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="C355">
         <v>120.7</v>
@@ -23054,27 +23066,27 @@
         <v>70</v>
       </c>
       <c r="K355" t="s">
+        <v>1815</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355" t="s">
+        <v>1816</v>
+      </c>
+      <c r="N355">
+        <v>1</v>
+      </c>
+      <c r="O355" t="s">
         <v>1817</v>
-      </c>
-      <c r="L355">
-        <v>1</v>
-      </c>
-      <c r="M355" t="s">
-        <v>1818</v>
-      </c>
-      <c r="N355">
-        <v>1</v>
-      </c>
-      <c r="O355" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B356" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="C356">
         <v>135.5</v>
@@ -23101,27 +23113,27 @@
         <v>70</v>
       </c>
       <c r="K356" t="s">
+        <v>1820</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356" t="s">
+        <v>1821</v>
+      </c>
+      <c r="N356">
+        <v>1</v>
+      </c>
+      <c r="O356" t="s">
         <v>1822</v>
-      </c>
-      <c r="L356">
-        <v>1</v>
-      </c>
-      <c r="M356" t="s">
-        <v>1823</v>
-      </c>
-      <c r="N356">
-        <v>1</v>
-      </c>
-      <c r="O356" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B357" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="C357">
         <v>148.30000000000001</v>
@@ -23148,19 +23160,19 @@
         <v>70</v>
       </c>
       <c r="K357" t="s">
+        <v>1825</v>
+      </c>
+      <c r="L357">
+        <v>1</v>
+      </c>
+      <c r="M357" t="s">
+        <v>1826</v>
+      </c>
+      <c r="N357">
+        <v>1</v>
+      </c>
+      <c r="O357" t="s">
         <v>1827</v>
-      </c>
-      <c r="L357">
-        <v>1</v>
-      </c>
-      <c r="M357" t="s">
-        <v>1828</v>
-      </c>
-      <c r="N357">
-        <v>1</v>
-      </c>
-      <c r="O357" t="s">
-        <v>1829</v>
       </c>
     </row>
   </sheetData>
@@ -26069,9 +26081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB822E-4FB0-4362-8846-871BD8F7A1EF}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26310,7 +26322,7 @@
         <v>695</v>
       </c>
       <c r="E16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -26327,7 +26339,7 @@
         <v>695</v>
       </c>
       <c r="E17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -26340,11 +26352,11 @@
       <c r="C18" t="s">
         <v>687</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="35" t="s">
         <v>910</v>
       </c>
       <c r="E18" t="s">
-        <v>915</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -26361,7 +26373,7 @@
         <v>695</v>
       </c>
       <c r="E19" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -26391,7 +26403,7 @@
       <c r="C21" t="s">
         <v>687</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="35" t="s">
         <v>910</v>
       </c>
       <c r="E21" t="s">
@@ -26408,7 +26420,7 @@
       <c r="C22" t="s">
         <v>687</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="35" t="s">
         <v>910</v>
       </c>
       <c r="E22" t="s">
@@ -26429,7 +26441,7 @@
         <v>695</v>
       </c>
       <c r="E23" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -26497,7 +26509,7 @@
         <v>695</v>
       </c>
       <c r="E27" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -26514,7 +26526,7 @@
         <v>695</v>
       </c>
       <c r="E28" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -26531,7 +26543,7 @@
         <v>695</v>
       </c>
       <c r="E29" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -26545,7 +26557,7 @@
         <v>910</v>
       </c>
       <c r="E30" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -26556,10 +26568,10 @@
         <v>10</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E31" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -26572,11 +26584,11 @@
       <c r="C32" t="s">
         <v>687</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="35" t="s">
         <v>910</v>
       </c>
       <c r="E32" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -26593,7 +26605,7 @@
         <v>695</v>
       </c>
       <c r="E33" t="s">
-        <v>1563</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -26610,7 +26622,7 @@
         <v>695</v>
       </c>
       <c r="E34" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -26658,7 +26670,7 @@
         <v>910</v>
       </c>
       <c r="E37" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -26669,7 +26681,7 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -26686,7 +26698,7 @@
         <v>910</v>
       </c>
       <c r="E39" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -26735,8 +26747,14 @@
       <c r="B43">
         <v>6</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="C43" t="s">
+        <v>687</v>
+      </c>
+      <c r="D43" s="35" t="s">
         <v>910</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">

--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5DDD7F-FC39-4ADD-8491-AC4190320D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96837D24-0DF5-43F6-B6D7-617BA7B9FD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalog-static'!$A$1:$O$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -6568,8 +6567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B343" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B349" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B352" sqref="B352"/>
@@ -26081,9 +26080,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB822E-4FB0-4362-8846-871BD8F7A1EF}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26100,7 +26099,7 @@
       </c>
       <c r="B1" s="18">
         <f>SUM(B2:B99)</f>
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>696</v>
@@ -26579,13 +26578,13 @@
         <v>45673</v>
       </c>
       <c r="B32">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>687</v>
       </c>
-      <c r="D32" s="35" t="s">
-        <v>910</v>
+      <c r="D32" t="s">
+        <v>695</v>
       </c>
       <c r="E32" t="s">
         <v>1559</v>

--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96837D24-0DF5-43F6-B6D7-617BA7B9FD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B011A-2394-4154-9032-218BDB7E609E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalog-static'!$A$1:$O$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26081,7 +26082,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>

--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B011A-2394-4154-9032-218BDB7E609E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE072B2A-28D5-45FC-BB6E-5ECFC660D330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalog-static'!$A$1:$O$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="1831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="1833">
   <si>
     <t>ObsID</t>
   </si>
@@ -5570,6 +5569,12 @@
   </si>
   <si>
     <t>Flats taken! Poor to fair focus, Good GRS, Good SEB outbreak; Quality is pretty variable</t>
+  </si>
+  <si>
+    <t>Tenth was not userful due to twilight</t>
+  </si>
+  <si>
+    <t>Eighth is not useful due to twilight</t>
   </si>
 </sst>
 </file>
@@ -26082,8 +26087,8 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26100,7 +26105,7 @@
       </c>
       <c r="B1" s="18">
         <f>SUM(B2:B99)</f>
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>696</v>
@@ -26553,8 +26558,11 @@
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>910</v>
+      <c r="C30" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="D30" t="s">
+        <v>695</v>
       </c>
       <c r="E30" t="s">
         <v>1556</v>
@@ -26736,8 +26744,11 @@
       <c r="B42">
         <v>7</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="35" t="s">
         <v>910</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1828</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -26758,19 +26769,77 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="32"/>
+      <c r="A44" s="32">
+        <v>45919</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>687</v>
+      </c>
+      <c r="D44" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="32"/>
+      <c r="A45" s="32">
+        <v>45925</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>687</v>
+      </c>
+      <c r="D45" t="s">
+        <v>695</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1832</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="32"/>
+      <c r="A46" s="32">
+        <v>45926</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D46" t="s">
+        <v>695</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1832</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="32"/>
+      <c r="A47" s="32">
+        <v>45930</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>910</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1831</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="32"/>
+      <c r="A48" s="32">
+        <v>45931</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1831</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE072B2A-28D5-45FC-BB6E-5ECFC660D330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD7AEAE-997A-467A-A37A-24B9C24FB288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="990" windowWidth="19190" windowHeight="9810" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="2049">
   <si>
     <t>ObsID</t>
   </si>
@@ -5574,7 +5574,655 @@
     <t>Tenth was not userful due to twilight</t>
   </si>
   <si>
-    <t>Eighth is not useful due to twilight</t>
+    <t>Eighth is not useful due to twilight - moon/shadow?</t>
+  </si>
+  <si>
+    <t>20250919UTa</t>
+  </si>
+  <si>
+    <t>2025-09-19_10:27:06</t>
+  </si>
+  <si>
+    <t>2025-09-19-1027_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-19-1027_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-19-1037_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250919UTb</t>
+  </si>
+  <si>
+    <t>2025-09-19_10:48:12</t>
+  </si>
+  <si>
+    <t>2025-09-19-1048_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-19-1048_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-19-1058_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250919UTc</t>
+  </si>
+  <si>
+    <t>2025-09-19_11:09:24</t>
+  </si>
+  <si>
+    <t>2025-09-19-1109_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-19-1109_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-19-1120_0-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250919UTd</t>
+  </si>
+  <si>
+    <t>2025-09-19_11:30:36</t>
+  </si>
+  <si>
+    <t>2025-09-19-1130_6-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-19-1130_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-19-1141_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250919UTe</t>
+  </si>
+  <si>
+    <t>2025-09-19_11:51:42</t>
+  </si>
+  <si>
+    <t>2025-09-19-1151_7-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-19-1151_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-19-1202_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250919UTf</t>
+  </si>
+  <si>
+    <t>2025-09-19_12:12:54</t>
+  </si>
+  <si>
+    <t>2025-09-19-1212_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-19-1212_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>20250925UTa</t>
+  </si>
+  <si>
+    <t>2025-09-25_10:04:42</t>
+  </si>
+  <si>
+    <t>2025-09-25-1004_7-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1004_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1015_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250925UTb</t>
+  </si>
+  <si>
+    <t>2025-09-25_10:29:06</t>
+  </si>
+  <si>
+    <t>2025-09-25-1029_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1029_1-Jupiter_R656G647B632-RGB-WhtBal-647shift</t>
+  </si>
+  <si>
+    <t>2025-09-25-1039_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250925UTc</t>
+  </si>
+  <si>
+    <t>2025-09-25_10:50:18</t>
+  </si>
+  <si>
+    <t>2025-09-25-1050_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1050_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1100_9-Jupiter_R685G550B450-RGB_ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250925UTd</t>
+  </si>
+  <si>
+    <t>2025-09-25_11:11:30</t>
+  </si>
+  <si>
+    <t>2025-09-25-1111_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1111_5-Jupiter_R656G647B632-RGB-WhtBal-647shift</t>
+  </si>
+  <si>
+    <t>2025-09-25-1122_0-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250925UTe</t>
+  </si>
+  <si>
+    <t>2025-09-25_11:32:36</t>
+  </si>
+  <si>
+    <t>2025-09-25-1132_6-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1132_6-Jupiter_R656G647B632-RGB-WhtBal-shift</t>
+  </si>
+  <si>
+    <t>2025-09-25-1143_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250925UTf</t>
+  </si>
+  <si>
+    <t>2025-09-25_11:53:48</t>
+  </si>
+  <si>
+    <t>2025-09-25-1153_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1153_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1204_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250925UTg</t>
+  </si>
+  <si>
+    <t>2025-09-25_12:15:36</t>
+  </si>
+  <si>
+    <t>2025-09-25-1214_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1215_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1225_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250925UTh</t>
+  </si>
+  <si>
+    <t>2025-09-25_12:36:06</t>
+  </si>
+  <si>
+    <t>2025-09-25-1236_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1236_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-25-1246_7-Jupiter_R685G550B450-RGB-ClrSmth_WhtBal-Shift-WV</t>
+  </si>
+  <si>
+    <t>20250926UTa</t>
+  </si>
+  <si>
+    <t>2025-09-26_10:06:42</t>
+  </si>
+  <si>
+    <t>2025-09-26-1006_7-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1006_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1017_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250926UTb</t>
+  </si>
+  <si>
+    <t>2025-09-26_10:27:54</t>
+  </si>
+  <si>
+    <t>2025-09-26-1027_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1027_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1038_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250926UTc</t>
+  </si>
+  <si>
+    <t>2025-09-26_10:49:00</t>
+  </si>
+  <si>
+    <t>2025-09-26-1049_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1049_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1059_6-Jupiter_R685G550B450-RGB-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250926UTd</t>
+  </si>
+  <si>
+    <t>2025-09-26_11:10:12</t>
+  </si>
+  <si>
+    <t>2025-09-26-1110_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1110_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1120_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250926UTe</t>
+  </si>
+  <si>
+    <t>2025-09-26_11:31:24</t>
+  </si>
+  <si>
+    <t>2025-09-26-1131_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1131_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1142_0-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250926UTf</t>
+  </si>
+  <si>
+    <t>2025-09-26_11:52:30</t>
+  </si>
+  <si>
+    <t>2025-09-26-1152_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1152_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1203_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250926UTg</t>
+  </si>
+  <si>
+    <t>2025-09-26_12:13:42</t>
+  </si>
+  <si>
+    <t>2025-09-26-1213_7-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1213_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1224_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250926UTh</t>
+  </si>
+  <si>
+    <t>2025-09-26_12:34:48</t>
+  </si>
+  <si>
+    <t>2025-09-26-1234_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1234_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-26-1245_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250930UTa</t>
+  </si>
+  <si>
+    <t>2025-09-30_09:15:42</t>
+  </si>
+  <si>
+    <t>2025-09-30-0915_7-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-0915_7-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-0926_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250930UTb</t>
+  </si>
+  <si>
+    <t>2025-09-30_09:36:48</t>
+  </si>
+  <si>
+    <t>2025-09-30-0936_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-0936_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-0947_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250930UTc</t>
+  </si>
+  <si>
+    <t>2025-09-30_09:58:00</t>
+  </si>
+  <si>
+    <t>2025-09-30-0958_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1008_6-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250930UTd</t>
+  </si>
+  <si>
+    <t>2025-09-30_10:19:06</t>
+  </si>
+  <si>
+    <t>2025-09-30-1019_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1019_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1029_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250930UTe</t>
+  </si>
+  <si>
+    <t>2025-09-30_10:40:18</t>
+  </si>
+  <si>
+    <t>2025-09-30-1040_3-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1040_3-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1050_9-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250930UTf</t>
+  </si>
+  <si>
+    <t>2025-09-30_11:01:30</t>
+  </si>
+  <si>
+    <t>2025-09-30-1101_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1101_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1112_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250930UTg</t>
+  </si>
+  <si>
+    <t>2025-09-30_11:22:36</t>
+  </si>
+  <si>
+    <t>2025-09-30-1122_6-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1122_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1133_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250930UTh</t>
+  </si>
+  <si>
+    <t>2025-09-30_11:43:48</t>
+  </si>
+  <si>
+    <t>2025-09-30-1143_8-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1143_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1154_4-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250930UTi</t>
+  </si>
+  <si>
+    <t>2025-09-30_12:04:54</t>
+  </si>
+  <si>
+    <t>2025-09-30-1205_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1204_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1215_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20250930UTj</t>
+  </si>
+  <si>
+    <t>2025-09-30_12:26:06</t>
+  </si>
+  <si>
+    <t>2025-09-30-1226_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1226_1-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-09-30-1236_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20251001UTa</t>
+  </si>
+  <si>
+    <t>2025-10-01_09:16:24</t>
+  </si>
+  <si>
+    <t>2025-10-01-0916_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-0916_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-0927_0-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20251001UTb</t>
+  </si>
+  <si>
+    <t>2025-10-01_09:37:36</t>
+  </si>
+  <si>
+    <t>2025-10-01-0937_6-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-0937_6-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-0948_2-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20251001UTc</t>
+  </si>
+  <si>
+    <t>2025-10-01_09:58:48</t>
+  </si>
+  <si>
+    <t>2025-10-01-0958_7-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-0958_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1009_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20251001UTd</t>
+  </si>
+  <si>
+    <t>2025-10-01_10:19:54</t>
+  </si>
+  <si>
+    <t>2025-10-01-1019_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1019_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1030_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20251001UTe</t>
+  </si>
+  <si>
+    <t>2025-10-01_10:40:48</t>
+  </si>
+  <si>
+    <t>2025-10-01-1041_1-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1040_8-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1051_7-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20251001UTf</t>
+  </si>
+  <si>
+    <t>2025-10-01_11:02:12</t>
+  </si>
+  <si>
+    <t>2025-10-01-1102_2-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1102_2-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1112_8-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20251001UTg</t>
+  </si>
+  <si>
+    <t>2025-10-01_11:23:24</t>
+  </si>
+  <si>
+    <t>2025-10-01-1123_4-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1123_4-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1134_0-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20251001UTh</t>
+  </si>
+  <si>
+    <t>2025-10-01_11:44:30</t>
+  </si>
+  <si>
+    <t>2025-10-01-1144_5-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1144_5-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1155_1-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20251001UTi</t>
+  </si>
+  <si>
+    <t>2025-10-01_12:05:42</t>
+  </si>
+  <si>
+    <t>2025-10-01-1205_7-Jupiter_R656G620B632-RGB-WhtBal-Shift656-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1205_7-Jupiter_R656G647B632-RGB-Shift647+632-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1216_3-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20251001UTj</t>
+  </si>
+  <si>
+    <t>2025-10-01_12:26:54</t>
+  </si>
+  <si>
+    <t>2025-10-01-1226_9-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1226_9-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1237_5-Jupiter_R685G550B450-RGB-ClrSmth-WhtBal-WV</t>
+  </si>
+  <si>
+    <t>20251001UTk</t>
+  </si>
+  <si>
+    <t>2025-10-01_12:48:00</t>
+  </si>
+  <si>
+    <t>2025-10-01-1248_0-Jupiter_R656G620B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>2025-10-01-1248_0-Jupiter_R656G647B632-RGB-WhtBal</t>
+  </si>
+  <si>
+    <t>Heavy dew forced an early end due to reduce SNR</t>
+  </si>
+  <si>
+    <t>First five are blurry, then refocued. Last RGB is missing G&amp;B due to meridian+10 crossing</t>
+  </si>
+  <si>
+    <t>Cloudy early in the morning, then cleared around 3:30</t>
+  </si>
+  <si>
+    <t>First night with shorter (60s v 90s) IrGB videos; very poor seeing; The 1103UT 632OI video is too dim to stack</t>
   </si>
 </sst>
 </file>
@@ -6571,13 +7219,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O357"/>
+  <dimension ref="A1:O400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B349" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B385" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B352" sqref="B352"/>
+      <selection pane="bottomRight" activeCell="C393" sqref="C393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23178,6 +23826,2027 @@
       </c>
       <c r="O357" t="s">
         <v>1827</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C358">
+        <v>6.1</v>
+      </c>
+      <c r="D358">
+        <v>314.39999999999998</v>
+      </c>
+      <c r="E358">
+        <v>174.6</v>
+      </c>
+      <c r="F358" t="s">
+        <v>26</v>
+      </c>
+      <c r="G358" t="s">
+        <v>18</v>
+      </c>
+      <c r="H358" t="s">
+        <v>27</v>
+      </c>
+      <c r="I358" t="s">
+        <v>132</v>
+      </c>
+      <c r="J358" t="s">
+        <v>70</v>
+      </c>
+      <c r="K358" t="s">
+        <v>1835</v>
+      </c>
+      <c r="L358">
+        <v>1</v>
+      </c>
+      <c r="M358" t="s">
+        <v>1836</v>
+      </c>
+      <c r="N358">
+        <v>1</v>
+      </c>
+      <c r="O358" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C359">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D359">
+        <v>327.2</v>
+      </c>
+      <c r="E359">
+        <v>187.3</v>
+      </c>
+      <c r="F359" t="s">
+        <v>26</v>
+      </c>
+      <c r="G359" t="s">
+        <v>18</v>
+      </c>
+      <c r="H359" t="s">
+        <v>27</v>
+      </c>
+      <c r="I359" t="s">
+        <v>132</v>
+      </c>
+      <c r="J359" t="s">
+        <v>70</v>
+      </c>
+      <c r="K359" t="s">
+        <v>1840</v>
+      </c>
+      <c r="L359">
+        <v>1</v>
+      </c>
+      <c r="M359" t="s">
+        <v>1841</v>
+      </c>
+      <c r="N359">
+        <v>1</v>
+      </c>
+      <c r="O359" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C360">
+        <v>31.9</v>
+      </c>
+      <c r="D360">
+        <v>340</v>
+      </c>
+      <c r="E360">
+        <v>200.1</v>
+      </c>
+      <c r="F360" t="s">
+        <v>26</v>
+      </c>
+      <c r="G360" t="s">
+        <v>18</v>
+      </c>
+      <c r="H360" t="s">
+        <v>27</v>
+      </c>
+      <c r="I360" t="s">
+        <v>132</v>
+      </c>
+      <c r="J360" t="s">
+        <v>70</v>
+      </c>
+      <c r="K360" t="s">
+        <v>1845</v>
+      </c>
+      <c r="L360">
+        <v>1</v>
+      </c>
+      <c r="M360" t="s">
+        <v>1846</v>
+      </c>
+      <c r="N360">
+        <v>1</v>
+      </c>
+      <c r="O360" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C361">
+        <v>44.8</v>
+      </c>
+      <c r="D361">
+        <v>352.8</v>
+      </c>
+      <c r="E361">
+        <v>213</v>
+      </c>
+      <c r="F361" t="s">
+        <v>26</v>
+      </c>
+      <c r="G361" t="s">
+        <v>18</v>
+      </c>
+      <c r="H361" t="s">
+        <v>27</v>
+      </c>
+      <c r="I361" t="s">
+        <v>132</v>
+      </c>
+      <c r="J361" t="s">
+        <v>70</v>
+      </c>
+      <c r="K361" t="s">
+        <v>1850</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361" t="s">
+        <v>1851</v>
+      </c>
+      <c r="N361">
+        <v>1</v>
+      </c>
+      <c r="O361" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C362">
+        <v>57.6</v>
+      </c>
+      <c r="D362">
+        <v>5.5</v>
+      </c>
+      <c r="E362">
+        <v>225.7</v>
+      </c>
+      <c r="F362" t="s">
+        <v>26</v>
+      </c>
+      <c r="G362" t="s">
+        <v>18</v>
+      </c>
+      <c r="H362" t="s">
+        <v>27</v>
+      </c>
+      <c r="I362" t="s">
+        <v>132</v>
+      </c>
+      <c r="J362" t="s">
+        <v>70</v>
+      </c>
+      <c r="K362" t="s">
+        <v>1855</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362" t="s">
+        <v>1856</v>
+      </c>
+      <c r="N362">
+        <v>1</v>
+      </c>
+      <c r="O362" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C363">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="D363">
+        <v>18.3</v>
+      </c>
+      <c r="E363">
+        <v>238.5</v>
+      </c>
+      <c r="F363" t="s">
+        <v>26</v>
+      </c>
+      <c r="G363" t="s">
+        <v>18</v>
+      </c>
+      <c r="H363" t="s">
+        <v>27</v>
+      </c>
+      <c r="I363" t="s">
+        <v>132</v>
+      </c>
+      <c r="J363" t="s">
+        <v>70</v>
+      </c>
+      <c r="K363" t="s">
+        <v>1860</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363" t="s">
+        <v>1861</v>
+      </c>
+      <c r="N363">
+        <v>1</v>
+      </c>
+      <c r="O363" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C364">
+        <v>219.4</v>
+      </c>
+      <c r="D364">
+        <v>122.1</v>
+      </c>
+      <c r="E364">
+        <v>343.9</v>
+      </c>
+      <c r="F364" t="s">
+        <v>26</v>
+      </c>
+      <c r="G364" t="s">
+        <v>18</v>
+      </c>
+      <c r="H364" t="s">
+        <v>27</v>
+      </c>
+      <c r="I364" t="s">
+        <v>132</v>
+      </c>
+      <c r="J364" t="s">
+        <v>70</v>
+      </c>
+      <c r="K364" t="s">
+        <v>1864</v>
+      </c>
+      <c r="L364">
+        <v>1</v>
+      </c>
+      <c r="M364" t="s">
+        <v>1865</v>
+      </c>
+      <c r="N364">
+        <v>1</v>
+      </c>
+      <c r="O364" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C365">
+        <v>234.3</v>
+      </c>
+      <c r="D365">
+        <v>136.9</v>
+      </c>
+      <c r="E365">
+        <v>358.6</v>
+      </c>
+      <c r="F365" t="s">
+        <v>26</v>
+      </c>
+      <c r="G365" t="s">
+        <v>18</v>
+      </c>
+      <c r="H365" t="s">
+        <v>27</v>
+      </c>
+      <c r="I365" t="s">
+        <v>132</v>
+      </c>
+      <c r="J365" t="s">
+        <v>70</v>
+      </c>
+      <c r="K365" t="s">
+        <v>1869</v>
+      </c>
+      <c r="L365">
+        <v>1</v>
+      </c>
+      <c r="M365" t="s">
+        <v>1870</v>
+      </c>
+      <c r="N365">
+        <v>1</v>
+      </c>
+      <c r="O365" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C366">
+        <v>247.2</v>
+      </c>
+      <c r="D366">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="E366">
+        <v>11.4</v>
+      </c>
+      <c r="F366" t="s">
+        <v>26</v>
+      </c>
+      <c r="G366" t="s">
+        <v>18</v>
+      </c>
+      <c r="H366" t="s">
+        <v>27</v>
+      </c>
+      <c r="I366" t="s">
+        <v>132</v>
+      </c>
+      <c r="J366" t="s">
+        <v>70</v>
+      </c>
+      <c r="K366" t="s">
+        <v>1874</v>
+      </c>
+      <c r="L366">
+        <v>1</v>
+      </c>
+      <c r="M366" t="s">
+        <v>1875</v>
+      </c>
+      <c r="N366">
+        <v>1</v>
+      </c>
+      <c r="O366" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C367">
+        <v>260.2</v>
+      </c>
+      <c r="D367">
+        <v>162.5</v>
+      </c>
+      <c r="E367">
+        <v>24.2</v>
+      </c>
+      <c r="F367" t="s">
+        <v>26</v>
+      </c>
+      <c r="G367" t="s">
+        <v>18</v>
+      </c>
+      <c r="H367" t="s">
+        <v>27</v>
+      </c>
+      <c r="I367" t="s">
+        <v>132</v>
+      </c>
+      <c r="J367" t="s">
+        <v>70</v>
+      </c>
+      <c r="K367" t="s">
+        <v>1879</v>
+      </c>
+      <c r="L367">
+        <v>1</v>
+      </c>
+      <c r="M367" t="s">
+        <v>1880</v>
+      </c>
+      <c r="N367">
+        <v>1</v>
+      </c>
+      <c r="O367" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C368">
+        <v>273</v>
+      </c>
+      <c r="D368">
+        <v>175.2</v>
+      </c>
+      <c r="E368">
+        <v>37</v>
+      </c>
+      <c r="F368" t="s">
+        <v>26</v>
+      </c>
+      <c r="G368" t="s">
+        <v>18</v>
+      </c>
+      <c r="H368" t="s">
+        <v>27</v>
+      </c>
+      <c r="I368" t="s">
+        <v>132</v>
+      </c>
+      <c r="J368" t="s">
+        <v>70</v>
+      </c>
+      <c r="K368" t="s">
+        <v>1884</v>
+      </c>
+      <c r="L368">
+        <v>1</v>
+      </c>
+      <c r="M368" t="s">
+        <v>1885</v>
+      </c>
+      <c r="N368">
+        <v>1</v>
+      </c>
+      <c r="O368" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C369">
+        <v>285.89999999999998</v>
+      </c>
+      <c r="D369">
+        <v>188</v>
+      </c>
+      <c r="E369">
+        <v>49.8</v>
+      </c>
+      <c r="F369" t="s">
+        <v>26</v>
+      </c>
+      <c r="G369" t="s">
+        <v>18</v>
+      </c>
+      <c r="H369" t="s">
+        <v>27</v>
+      </c>
+      <c r="I369" t="s">
+        <v>132</v>
+      </c>
+      <c r="J369" t="s">
+        <v>70</v>
+      </c>
+      <c r="K369" t="s">
+        <v>1889</v>
+      </c>
+      <c r="L369">
+        <v>1</v>
+      </c>
+      <c r="M369" t="s">
+        <v>1890</v>
+      </c>
+      <c r="N369">
+        <v>1</v>
+      </c>
+      <c r="O369" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C370">
+        <v>299.2</v>
+      </c>
+      <c r="D370">
+        <v>201.2</v>
+      </c>
+      <c r="E370">
+        <v>63</v>
+      </c>
+      <c r="F370" t="s">
+        <v>26</v>
+      </c>
+      <c r="G370" t="s">
+        <v>18</v>
+      </c>
+      <c r="H370" t="s">
+        <v>27</v>
+      </c>
+      <c r="I370" t="s">
+        <v>132</v>
+      </c>
+      <c r="J370" t="s">
+        <v>70</v>
+      </c>
+      <c r="K370" t="s">
+        <v>1894</v>
+      </c>
+      <c r="L370">
+        <v>1</v>
+      </c>
+      <c r="M370" t="s">
+        <v>1895</v>
+      </c>
+      <c r="N370">
+        <v>1</v>
+      </c>
+      <c r="O370" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C371">
+        <v>311.7</v>
+      </c>
+      <c r="D371">
+        <v>213.6</v>
+      </c>
+      <c r="E371">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F371" t="s">
+        <v>26</v>
+      </c>
+      <c r="G371" t="s">
+        <v>18</v>
+      </c>
+      <c r="H371" t="s">
+        <v>27</v>
+      </c>
+      <c r="I371" t="s">
+        <v>132</v>
+      </c>
+      <c r="J371" t="s">
+        <v>70</v>
+      </c>
+      <c r="K371" t="s">
+        <v>1899</v>
+      </c>
+      <c r="L371">
+        <v>1</v>
+      </c>
+      <c r="M371" t="s">
+        <v>1900</v>
+      </c>
+      <c r="N371">
+        <v>1</v>
+      </c>
+      <c r="O371" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C372">
+        <v>18.5</v>
+      </c>
+      <c r="D372">
+        <v>273.5</v>
+      </c>
+      <c r="E372">
+        <v>135.6</v>
+      </c>
+      <c r="F372" t="s">
+        <v>26</v>
+      </c>
+      <c r="G372" t="s">
+        <v>18</v>
+      </c>
+      <c r="H372" t="s">
+        <v>27</v>
+      </c>
+      <c r="I372" t="s">
+        <v>132</v>
+      </c>
+      <c r="J372" t="s">
+        <v>70</v>
+      </c>
+      <c r="K372" t="s">
+        <v>1904</v>
+      </c>
+      <c r="L372">
+        <v>1</v>
+      </c>
+      <c r="M372" t="s">
+        <v>1905</v>
+      </c>
+      <c r="N372">
+        <v>1</v>
+      </c>
+      <c r="O372" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C373">
+        <v>31.4</v>
+      </c>
+      <c r="D373">
+        <v>286.3</v>
+      </c>
+      <c r="E373">
+        <v>148.4</v>
+      </c>
+      <c r="F373" t="s">
+        <v>26</v>
+      </c>
+      <c r="G373" t="s">
+        <v>18</v>
+      </c>
+      <c r="H373" t="s">
+        <v>27</v>
+      </c>
+      <c r="I373" t="s">
+        <v>132</v>
+      </c>
+      <c r="J373" t="s">
+        <v>70</v>
+      </c>
+      <c r="K373" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L373">
+        <v>1</v>
+      </c>
+      <c r="M373" t="s">
+        <v>1910</v>
+      </c>
+      <c r="N373">
+        <v>1</v>
+      </c>
+      <c r="O373" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C374">
+        <v>44.3</v>
+      </c>
+      <c r="D374">
+        <v>299.10000000000002</v>
+      </c>
+      <c r="E374">
+        <v>161.1</v>
+      </c>
+      <c r="F374" t="s">
+        <v>26</v>
+      </c>
+      <c r="G374" t="s">
+        <v>18</v>
+      </c>
+      <c r="H374" t="s">
+        <v>27</v>
+      </c>
+      <c r="I374" t="s">
+        <v>132</v>
+      </c>
+      <c r="J374" t="s">
+        <v>70</v>
+      </c>
+      <c r="K374" t="s">
+        <v>1914</v>
+      </c>
+      <c r="L374">
+        <v>1</v>
+      </c>
+      <c r="M374" t="s">
+        <v>1915</v>
+      </c>
+      <c r="N374">
+        <v>1</v>
+      </c>
+      <c r="O374" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C375">
+        <v>57.2</v>
+      </c>
+      <c r="D375">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="E375">
+        <v>173.9</v>
+      </c>
+      <c r="F375" t="s">
+        <v>26</v>
+      </c>
+      <c r="G375" t="s">
+        <v>18</v>
+      </c>
+      <c r="H375" t="s">
+        <v>27</v>
+      </c>
+      <c r="I375" t="s">
+        <v>132</v>
+      </c>
+      <c r="J375" t="s">
+        <v>70</v>
+      </c>
+      <c r="K375" t="s">
+        <v>1919</v>
+      </c>
+      <c r="L375">
+        <v>1</v>
+      </c>
+      <c r="M375" t="s">
+        <v>1920</v>
+      </c>
+      <c r="N375">
+        <v>1</v>
+      </c>
+      <c r="O375" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C376">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="D376">
+        <v>324.7</v>
+      </c>
+      <c r="E376">
+        <v>186.8</v>
+      </c>
+      <c r="F376" t="s">
+        <v>26</v>
+      </c>
+      <c r="G376" t="s">
+        <v>18</v>
+      </c>
+      <c r="H376" t="s">
+        <v>27</v>
+      </c>
+      <c r="I376" t="s">
+        <v>132</v>
+      </c>
+      <c r="J376" t="s">
+        <v>70</v>
+      </c>
+      <c r="K376" t="s">
+        <v>1924</v>
+      </c>
+      <c r="L376">
+        <v>1</v>
+      </c>
+      <c r="M376" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N376">
+        <v>1</v>
+      </c>
+      <c r="O376" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C377">
+        <v>83</v>
+      </c>
+      <c r="D377">
+        <v>337.5</v>
+      </c>
+      <c r="E377">
+        <v>199.5</v>
+      </c>
+      <c r="F377" t="s">
+        <v>26</v>
+      </c>
+      <c r="G377" t="s">
+        <v>18</v>
+      </c>
+      <c r="H377" t="s">
+        <v>27</v>
+      </c>
+      <c r="I377" t="s">
+        <v>132</v>
+      </c>
+      <c r="J377" t="s">
+        <v>70</v>
+      </c>
+      <c r="K377" t="s">
+        <v>1929</v>
+      </c>
+      <c r="L377">
+        <v>1</v>
+      </c>
+      <c r="M377" t="s">
+        <v>1930</v>
+      </c>
+      <c r="N377">
+        <v>1</v>
+      </c>
+      <c r="O377" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C378">
+        <v>95.9</v>
+      </c>
+      <c r="D378">
+        <v>350.3</v>
+      </c>
+      <c r="E378">
+        <v>212.3</v>
+      </c>
+      <c r="F378" t="s">
+        <v>26</v>
+      </c>
+      <c r="G378" t="s">
+        <v>18</v>
+      </c>
+      <c r="H378" t="s">
+        <v>27</v>
+      </c>
+      <c r="I378" t="s">
+        <v>132</v>
+      </c>
+      <c r="J378" t="s">
+        <v>70</v>
+      </c>
+      <c r="K378" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L378">
+        <v>1</v>
+      </c>
+      <c r="M378" t="s">
+        <v>1935</v>
+      </c>
+      <c r="N378">
+        <v>1</v>
+      </c>
+      <c r="O378" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C379">
+        <v>108.8</v>
+      </c>
+      <c r="D379">
+        <v>3</v>
+      </c>
+      <c r="E379">
+        <v>225.1</v>
+      </c>
+      <c r="F379" t="s">
+        <v>26</v>
+      </c>
+      <c r="G379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H379" t="s">
+        <v>27</v>
+      </c>
+      <c r="I379" t="s">
+        <v>132</v>
+      </c>
+      <c r="J379" t="s">
+        <v>70</v>
+      </c>
+      <c r="K379" t="s">
+        <v>1939</v>
+      </c>
+      <c r="L379">
+        <v>1</v>
+      </c>
+      <c r="M379" t="s">
+        <v>1940</v>
+      </c>
+      <c r="N379">
+        <v>1</v>
+      </c>
+      <c r="O379" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C380">
+        <v>258.8</v>
+      </c>
+      <c r="D380">
+        <v>123.6</v>
+      </c>
+      <c r="E380">
+        <v>346.7</v>
+      </c>
+      <c r="F380" t="s">
+        <v>26</v>
+      </c>
+      <c r="G380" t="s">
+        <v>18</v>
+      </c>
+      <c r="H380" t="s">
+        <v>27</v>
+      </c>
+      <c r="I380" t="s">
+        <v>132</v>
+      </c>
+      <c r="J380" t="s">
+        <v>70</v>
+      </c>
+      <c r="K380" t="s">
+        <v>1944</v>
+      </c>
+      <c r="L380">
+        <v>1</v>
+      </c>
+      <c r="M380" t="s">
+        <v>1945</v>
+      </c>
+      <c r="N380">
+        <v>1</v>
+      </c>
+      <c r="O380" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C381">
+        <v>271.7</v>
+      </c>
+      <c r="D381">
+        <v>136.30000000000001</v>
+      </c>
+      <c r="E381">
+        <v>359.4</v>
+      </c>
+      <c r="F381" t="s">
+        <v>26</v>
+      </c>
+      <c r="G381" t="s">
+        <v>18</v>
+      </c>
+      <c r="H381" t="s">
+        <v>27</v>
+      </c>
+      <c r="I381" t="s">
+        <v>132</v>
+      </c>
+      <c r="J381" t="s">
+        <v>70</v>
+      </c>
+      <c r="K381" t="s">
+        <v>1949</v>
+      </c>
+      <c r="L381">
+        <v>1</v>
+      </c>
+      <c r="M381" t="s">
+        <v>1950</v>
+      </c>
+      <c r="N381">
+        <v>1</v>
+      </c>
+      <c r="O381" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C382">
+        <v>284.60000000000002</v>
+      </c>
+      <c r="D382">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="E382">
+        <v>12.2</v>
+      </c>
+      <c r="F382" t="s">
+        <v>26</v>
+      </c>
+      <c r="G382" t="s">
+        <v>18</v>
+      </c>
+      <c r="H382" t="s">
+        <v>27</v>
+      </c>
+      <c r="I382" t="s">
+        <v>132</v>
+      </c>
+      <c r="J382" t="s">
+        <v>70</v>
+      </c>
+      <c r="K382" t="s">
+        <v>1954</v>
+      </c>
+      <c r="L382">
+        <v>1</v>
+      </c>
+      <c r="M382" t="s">
+        <v>1954</v>
+      </c>
+      <c r="N382">
+        <v>1</v>
+      </c>
+      <c r="O382" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C383">
+        <v>297.5</v>
+      </c>
+      <c r="D383">
+        <v>161.9</v>
+      </c>
+      <c r="E383">
+        <v>25</v>
+      </c>
+      <c r="F383" t="s">
+        <v>26</v>
+      </c>
+      <c r="G383" t="s">
+        <v>18</v>
+      </c>
+      <c r="H383" t="s">
+        <v>27</v>
+      </c>
+      <c r="I383" t="s">
+        <v>132</v>
+      </c>
+      <c r="J383" t="s">
+        <v>70</v>
+      </c>
+      <c r="K383" t="s">
+        <v>1958</v>
+      </c>
+      <c r="L383">
+        <v>1</v>
+      </c>
+      <c r="M383" t="s">
+        <v>1959</v>
+      </c>
+      <c r="N383">
+        <v>1</v>
+      </c>
+      <c r="O383" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C384">
+        <v>310.39999999999998</v>
+      </c>
+      <c r="D384">
+        <v>174.7</v>
+      </c>
+      <c r="E384">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F384" t="s">
+        <v>26</v>
+      </c>
+      <c r="G384" t="s">
+        <v>18</v>
+      </c>
+      <c r="H384" t="s">
+        <v>27</v>
+      </c>
+      <c r="I384" t="s">
+        <v>132</v>
+      </c>
+      <c r="J384" t="s">
+        <v>70</v>
+      </c>
+      <c r="K384" t="s">
+        <v>1963</v>
+      </c>
+      <c r="L384">
+        <v>1</v>
+      </c>
+      <c r="M384" t="s">
+        <v>1964</v>
+      </c>
+      <c r="N384">
+        <v>1</v>
+      </c>
+      <c r="O384" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C385">
+        <v>323.3</v>
+      </c>
+      <c r="D385">
+        <v>187.5</v>
+      </c>
+      <c r="E385">
+        <v>50.6</v>
+      </c>
+      <c r="F385" t="s">
+        <v>26</v>
+      </c>
+      <c r="G385" t="s">
+        <v>18</v>
+      </c>
+      <c r="H385" t="s">
+        <v>27</v>
+      </c>
+      <c r="I385" t="s">
+        <v>132</v>
+      </c>
+      <c r="J385" t="s">
+        <v>70</v>
+      </c>
+      <c r="K385" t="s">
+        <v>1968</v>
+      </c>
+      <c r="L385">
+        <v>1</v>
+      </c>
+      <c r="M385" t="s">
+        <v>1969</v>
+      </c>
+      <c r="N385">
+        <v>1</v>
+      </c>
+      <c r="O385" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C386">
+        <v>336.2</v>
+      </c>
+      <c r="D386">
+        <v>200.3</v>
+      </c>
+      <c r="E386">
+        <v>63.4</v>
+      </c>
+      <c r="F386" t="s">
+        <v>26</v>
+      </c>
+      <c r="G386" t="s">
+        <v>18</v>
+      </c>
+      <c r="H386" t="s">
+        <v>27</v>
+      </c>
+      <c r="I386" t="s">
+        <v>132</v>
+      </c>
+      <c r="J386" t="s">
+        <v>70</v>
+      </c>
+      <c r="K386" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L386">
+        <v>1</v>
+      </c>
+      <c r="M386" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N386">
+        <v>1</v>
+      </c>
+      <c r="O386" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C387">
+        <v>349.1</v>
+      </c>
+      <c r="D387">
+        <v>213.1</v>
+      </c>
+      <c r="E387">
+        <v>76.2</v>
+      </c>
+      <c r="F387" t="s">
+        <v>26</v>
+      </c>
+      <c r="G387" t="s">
+        <v>18</v>
+      </c>
+      <c r="H387" t="s">
+        <v>27</v>
+      </c>
+      <c r="I387" t="s">
+        <v>132</v>
+      </c>
+      <c r="J387" t="s">
+        <v>70</v>
+      </c>
+      <c r="K387" t="s">
+        <v>1978</v>
+      </c>
+      <c r="L387">
+        <v>1</v>
+      </c>
+      <c r="M387" t="s">
+        <v>1979</v>
+      </c>
+      <c r="N387">
+        <v>1</v>
+      </c>
+      <c r="O387" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+      <c r="D388">
+        <v>225.8</v>
+      </c>
+      <c r="E388">
+        <v>89</v>
+      </c>
+      <c r="F388" t="s">
+        <v>26</v>
+      </c>
+      <c r="G388" t="s">
+        <v>18</v>
+      </c>
+      <c r="H388" t="s">
+        <v>27</v>
+      </c>
+      <c r="I388" t="s">
+        <v>132</v>
+      </c>
+      <c r="J388" t="s">
+        <v>70</v>
+      </c>
+      <c r="K388" t="s">
+        <v>1983</v>
+      </c>
+      <c r="L388">
+        <v>1</v>
+      </c>
+      <c r="M388" t="s">
+        <v>1984</v>
+      </c>
+      <c r="N388">
+        <v>1</v>
+      </c>
+      <c r="O388" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C389">
+        <v>14.9</v>
+      </c>
+      <c r="D389">
+        <v>238.7</v>
+      </c>
+      <c r="E389">
+        <v>101.8</v>
+      </c>
+      <c r="F389" t="s">
+        <v>26</v>
+      </c>
+      <c r="G389" t="s">
+        <v>18</v>
+      </c>
+      <c r="H389" t="s">
+        <v>27</v>
+      </c>
+      <c r="I389" t="s">
+        <v>132</v>
+      </c>
+      <c r="J389" t="s">
+        <v>70</v>
+      </c>
+      <c r="K389" t="s">
+        <v>1988</v>
+      </c>
+      <c r="L389">
+        <v>1</v>
+      </c>
+      <c r="M389" t="s">
+        <v>1989</v>
+      </c>
+      <c r="N389">
+        <v>1</v>
+      </c>
+      <c r="O389" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C390">
+        <v>57.1</v>
+      </c>
+      <c r="D390">
+        <v>274.2</v>
+      </c>
+      <c r="E390">
+        <v>137.6</v>
+      </c>
+      <c r="F390" t="s">
+        <v>26</v>
+      </c>
+      <c r="G390" t="s">
+        <v>18</v>
+      </c>
+      <c r="H390" t="s">
+        <v>27</v>
+      </c>
+      <c r="I390" t="s">
+        <v>132</v>
+      </c>
+      <c r="J390" t="s">
+        <v>70</v>
+      </c>
+      <c r="K390" t="s">
+        <v>1993</v>
+      </c>
+      <c r="L390">
+        <v>1</v>
+      </c>
+      <c r="M390" t="s">
+        <v>1994</v>
+      </c>
+      <c r="N390">
+        <v>1</v>
+      </c>
+      <c r="O390" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C391">
+        <v>70</v>
+      </c>
+      <c r="D391">
+        <v>287.10000000000002</v>
+      </c>
+      <c r="E391">
+        <v>150.4</v>
+      </c>
+      <c r="F391" t="s">
+        <v>26</v>
+      </c>
+      <c r="G391" t="s">
+        <v>18</v>
+      </c>
+      <c r="H391" t="s">
+        <v>27</v>
+      </c>
+      <c r="I391" t="s">
+        <v>132</v>
+      </c>
+      <c r="J391" t="s">
+        <v>70</v>
+      </c>
+      <c r="K391" t="s">
+        <v>1998</v>
+      </c>
+      <c r="L391">
+        <v>1</v>
+      </c>
+      <c r="M391" t="s">
+        <v>1999</v>
+      </c>
+      <c r="N391">
+        <v>1</v>
+      </c>
+      <c r="O391" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B392" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C392">
+        <v>82.9</v>
+      </c>
+      <c r="D392">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E392">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="F392" t="s">
+        <v>26</v>
+      </c>
+      <c r="G392" t="s">
+        <v>18</v>
+      </c>
+      <c r="H392" t="s">
+        <v>27</v>
+      </c>
+      <c r="I392" t="s">
+        <v>132</v>
+      </c>
+      <c r="J392" t="s">
+        <v>70</v>
+      </c>
+      <c r="K392" t="s">
+        <v>2003</v>
+      </c>
+      <c r="L392">
+        <v>1</v>
+      </c>
+      <c r="M392" t="s">
+        <v>2004</v>
+      </c>
+      <c r="N392">
+        <v>1</v>
+      </c>
+      <c r="O392" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B393" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C393">
+        <v>95.8</v>
+      </c>
+      <c r="D393">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="E393">
+        <v>176</v>
+      </c>
+      <c r="F393" t="s">
+        <v>26</v>
+      </c>
+      <c r="G393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H393" t="s">
+        <v>27</v>
+      </c>
+      <c r="I393" t="s">
+        <v>132</v>
+      </c>
+      <c r="J393" t="s">
+        <v>70</v>
+      </c>
+      <c r="K393" t="s">
+        <v>2008</v>
+      </c>
+      <c r="L393">
+        <v>1</v>
+      </c>
+      <c r="M393" t="s">
+        <v>2009</v>
+      </c>
+      <c r="N393">
+        <v>1</v>
+      </c>
+      <c r="O393" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B394" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C394">
+        <v>108.6</v>
+      </c>
+      <c r="D394">
+        <v>325.2</v>
+      </c>
+      <c r="E394">
+        <v>188.6</v>
+      </c>
+      <c r="F394" t="s">
+        <v>26</v>
+      </c>
+      <c r="G394" t="s">
+        <v>18</v>
+      </c>
+      <c r="H394" t="s">
+        <v>27</v>
+      </c>
+      <c r="I394" t="s">
+        <v>132</v>
+      </c>
+      <c r="J394" t="s">
+        <v>70</v>
+      </c>
+      <c r="K394" t="s">
+        <v>2013</v>
+      </c>
+      <c r="L394">
+        <v>1</v>
+      </c>
+      <c r="M394" t="s">
+        <v>2014</v>
+      </c>
+      <c r="N394">
+        <v>1</v>
+      </c>
+      <c r="O394" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B395" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C395">
+        <v>121.6</v>
+      </c>
+      <c r="D395">
+        <v>338.2</v>
+      </c>
+      <c r="E395">
+        <v>201.5</v>
+      </c>
+      <c r="F395" t="s">
+        <v>26</v>
+      </c>
+      <c r="G395" t="s">
+        <v>18</v>
+      </c>
+      <c r="H395" t="s">
+        <v>27</v>
+      </c>
+      <c r="I395" t="s">
+        <v>132</v>
+      </c>
+      <c r="J395" t="s">
+        <v>70</v>
+      </c>
+      <c r="K395" t="s">
+        <v>2018</v>
+      </c>
+      <c r="L395">
+        <v>1</v>
+      </c>
+      <c r="M395" t="s">
+        <v>2019</v>
+      </c>
+      <c r="N395">
+        <v>1</v>
+      </c>
+      <c r="O395" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B396" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C396">
+        <v>134.5</v>
+      </c>
+      <c r="D396">
+        <v>351</v>
+      </c>
+      <c r="E396">
+        <v>214.4</v>
+      </c>
+      <c r="F396" t="s">
+        <v>26</v>
+      </c>
+      <c r="G396" t="s">
+        <v>18</v>
+      </c>
+      <c r="H396" t="s">
+        <v>27</v>
+      </c>
+      <c r="I396" t="s">
+        <v>132</v>
+      </c>
+      <c r="J396" t="s">
+        <v>70</v>
+      </c>
+      <c r="K396" t="s">
+        <v>2023</v>
+      </c>
+      <c r="L396">
+        <v>1</v>
+      </c>
+      <c r="M396" t="s">
+        <v>2024</v>
+      </c>
+      <c r="N396">
+        <v>1</v>
+      </c>
+      <c r="O396" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B397" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C397">
+        <v>147.4</v>
+      </c>
+      <c r="D397">
+        <v>3.7</v>
+      </c>
+      <c r="E397">
+        <v>227.1</v>
+      </c>
+      <c r="F397" t="s">
+        <v>26</v>
+      </c>
+      <c r="G397" t="s">
+        <v>18</v>
+      </c>
+      <c r="H397" t="s">
+        <v>27</v>
+      </c>
+      <c r="I397" t="s">
+        <v>132</v>
+      </c>
+      <c r="J397" t="s">
+        <v>70</v>
+      </c>
+      <c r="K397" t="s">
+        <v>2028</v>
+      </c>
+      <c r="L397">
+        <v>1</v>
+      </c>
+      <c r="M397" t="s">
+        <v>2029</v>
+      </c>
+      <c r="N397">
+        <v>1</v>
+      </c>
+      <c r="O397" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B398" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C398">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="D398">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E398">
+        <v>239.9</v>
+      </c>
+      <c r="F398" t="s">
+        <v>26</v>
+      </c>
+      <c r="G398" t="s">
+        <v>18</v>
+      </c>
+      <c r="H398" t="s">
+        <v>27</v>
+      </c>
+      <c r="I398" t="s">
+        <v>132</v>
+      </c>
+      <c r="J398" t="s">
+        <v>70</v>
+      </c>
+      <c r="K398" t="s">
+        <v>2033</v>
+      </c>
+      <c r="L398">
+        <v>1</v>
+      </c>
+      <c r="M398" t="s">
+        <v>2034</v>
+      </c>
+      <c r="N398">
+        <v>1</v>
+      </c>
+      <c r="O398" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B399" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C399">
+        <v>173.2</v>
+      </c>
+      <c r="D399">
+        <v>29.4</v>
+      </c>
+      <c r="E399">
+        <v>252.7</v>
+      </c>
+      <c r="F399" t="s">
+        <v>26</v>
+      </c>
+      <c r="G399" t="s">
+        <v>18</v>
+      </c>
+      <c r="H399" t="s">
+        <v>27</v>
+      </c>
+      <c r="I399" t="s">
+        <v>132</v>
+      </c>
+      <c r="J399" t="s">
+        <v>70</v>
+      </c>
+      <c r="K399" t="s">
+        <v>2038</v>
+      </c>
+      <c r="L399">
+        <v>1</v>
+      </c>
+      <c r="M399" t="s">
+        <v>2039</v>
+      </c>
+      <c r="N399">
+        <v>1</v>
+      </c>
+      <c r="O399" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B400" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C400">
+        <v>186.1</v>
+      </c>
+      <c r="D400">
+        <v>42.1</v>
+      </c>
+      <c r="E400">
+        <v>265.5</v>
+      </c>
+      <c r="F400" t="s">
+        <v>26</v>
+      </c>
+      <c r="G400" t="s">
+        <v>18</v>
+      </c>
+      <c r="H400" t="s">
+        <v>27</v>
+      </c>
+      <c r="I400" t="s">
+        <v>132</v>
+      </c>
+      <c r="J400" t="s">
+        <v>70</v>
+      </c>
+      <c r="K400" t="s">
+        <v>2043</v>
+      </c>
+      <c r="L400">
+        <v>1</v>
+      </c>
+      <c r="M400" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N400">
+        <v>1</v>
+      </c>
+      <c r="O400" t="s">
+        <v>2040</v>
       </c>
     </row>
   </sheetData>
@@ -26084,11 +28753,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB822E-4FB0-4362-8846-871BD8F7A1EF}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26104,8 +28773,8 @@
         <v>685</v>
       </c>
       <c r="B1" s="18">
-        <f>SUM(B2:B99)</f>
-        <v>421</v>
+        <f>SUM(B2:B100)</f>
+        <v>532</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>696</v>
@@ -26823,8 +29492,11 @@
       <c r="B47">
         <v>9</v>
       </c>
+      <c r="C47" t="s">
+        <v>687</v>
+      </c>
       <c r="D47" t="s">
-        <v>910</v>
+        <v>695</v>
       </c>
       <c r="E47" t="s">
         <v>1831</v>
@@ -26837,8 +29509,111 @@
       <c r="B48">
         <v>9</v>
       </c>
+      <c r="C48" t="s">
+        <v>687</v>
+      </c>
+      <c r="D48" t="s">
+        <v>695</v>
+      </c>
       <c r="E48" t="s">
         <v>1831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="32">
+        <v>45939</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="32">
+        <v>45942</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="32">
+        <v>45946</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>687</v>
+      </c>
+      <c r="D51" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="32">
+        <v>45947</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>687</v>
+      </c>
+      <c r="D52" t="s">
+        <v>695</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="32">
+        <v>45949</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>687</v>
+      </c>
+      <c r="D53" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="32">
+        <v>45950</v>
+      </c>
+      <c r="B54">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="32">
+        <v>45959</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="32">
+        <v>45960</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2047</v>
       </c>
     </row>
   </sheetData>

--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F716DB-C011-4DE7-835B-D8CC41FABB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD0EF73-A6A2-48B7-ABAD-847C45E95D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5861" uniqueCount="2441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5869" uniqueCount="2446">
   <si>
     <t>ObsID</t>
   </si>
@@ -6228,12 +6228,6 @@
     <t>Strong refocus after 12, achieved very good focus then. Flipped after meridian and took two more</t>
   </si>
   <si>
-    <t>First merdian flip from inside - used offset measured last night</t>
-  </si>
-  <si>
-    <t>First use of autofocus before each IrGB set using 685NIR and contrast/edge detection</t>
-  </si>
-  <si>
     <t>20220725
 20220726</t>
   </si>
@@ -7401,12 +7395,6 @@
     <t>Another autofocus crash. I made changes to the script and restarted. Lost about 3 hours of data</t>
   </si>
   <si>
-    <t>Near perfect run. Very good to excellent seeing</t>
-  </si>
-  <si>
-    <t>Some clouds, appears to be clearing (some clouds throughout the night?). Seeing  was very good to excellent. Last sequence may be contaminated by twilight.</t>
-  </si>
-  <si>
     <t>Some clouds in the middle of the observations</t>
   </si>
   <si>
@@ -7426,6 +7414,73 @@
   </si>
   <si>
     <t>Took lots more, but many clouds</t>
+  </si>
+  <si>
+    <t>Took lots more, but they were clouded. Some of these have low SNR due to clouds</t>
+  </si>
+  <si>
+    <t>Very clear when I started very poor later, possibly the best seeing this apparition</t>
+  </si>
+  <si>
+    <t>Very clear and pretty good seeing</t>
+  </si>
+  <si>
+    <t>Very clear initially, pretty good seeing. Got clouded out about 3:45am LT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First use of autofocus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> before each IrGB set using 685NIR and contrast/edge detection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First merdian flip from inside</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - used offset measured last night</t>
+    </r>
+  </si>
+  <si>
+    <t>Near perfect run. Very good to excellent seeing - HST was 11/20/2025 - moons?</t>
+  </si>
+  <si>
+    <t>Some clouds, appears to be clearing (some clouds throughout the night?). Seeing  was very good to excellent. Last sequence may be contaminated by twilight. Moons?</t>
+  </si>
+  <si>
+    <t>Very clear, fair seeing</t>
   </si>
 </sst>
 </file>
@@ -9550,10 +9605,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="B23" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="C23">
         <v>307.3</v>
@@ -9574,25 +9629,25 @@
         <v>19</v>
       </c>
       <c r="I23" t="s">
+        <v>2410</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2410</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2411</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>2412</v>
       </c>
-      <c r="J23" t="s">
-        <v>2412</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
         <v>2413</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>2414</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
-        <v>2415</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -9600,7 +9655,7 @@
         <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="C24">
         <v>339.2</v>
@@ -9621,30 +9676,30 @@
         <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="J24" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="K24" t="s">
+        <v>2416</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2417</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
         <v>2418</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>2419</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24" t="s">
-        <v>2420</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>131</v>
@@ -9694,7 +9749,7 @@
         <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="C26">
         <v>142.9</v>
@@ -9715,30 +9770,30 @@
         <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="J26" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="K26" t="s">
+        <v>2421</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2422</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
         <v>2423</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26" t="s">
-        <v>2424</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>137</v>
@@ -10349,10 +10404,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="B40" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="C40">
         <v>321.8</v>
@@ -10373,25 +10428,25 @@
         <v>19</v>
       </c>
       <c r="I40" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="J40" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="K40" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>2427</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
         <v>2428</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40" t="s">
-        <v>2429</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40" t="s">
-        <v>2430</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -15754,10 +15809,10 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B155" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="C155">
         <v>255.3</v>
@@ -15784,19 +15839,19 @@
         <v>70</v>
       </c>
       <c r="K155" t="s">
+        <v>2085</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155" t="s">
+        <v>2086</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
         <v>2087</v>
-      </c>
-      <c r="L155">
-        <v>1</v>
-      </c>
-      <c r="M155" t="s">
-        <v>2088</v>
-      </c>
-      <c r="N155">
-        <v>1</v>
-      </c>
-      <c r="O155" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.35">
@@ -21347,10 +21402,10 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="B274" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="C274">
         <v>216.5</v>
@@ -21377,27 +21432,27 @@
         <v>70</v>
       </c>
       <c r="K274" t="s">
+        <v>2089</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274" t="s">
+        <v>2090</v>
+      </c>
+      <c r="N274">
+        <v>1</v>
+      </c>
+      <c r="O274" t="s">
         <v>2091</v>
-      </c>
-      <c r="L274">
-        <v>1</v>
-      </c>
-      <c r="M274" t="s">
-        <v>2092</v>
-      </c>
-      <c r="N274">
-        <v>1</v>
-      </c>
-      <c r="O274" t="s">
-        <v>2093</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="B275" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="C275">
         <v>235.9</v>
@@ -21424,27 +21479,27 @@
         <v>70</v>
       </c>
       <c r="K275" t="s">
+        <v>2093</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N275">
+        <v>1</v>
+      </c>
+      <c r="O275" t="s">
         <v>2095</v>
-      </c>
-      <c r="L275">
-        <v>1</v>
-      </c>
-      <c r="M275" t="s">
-        <v>2096</v>
-      </c>
-      <c r="N275">
-        <v>1</v>
-      </c>
-      <c r="O275" t="s">
-        <v>2097</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B276" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="C276">
         <v>250.1</v>
@@ -21471,27 +21526,27 @@
         <v>70</v>
       </c>
       <c r="K276" t="s">
+        <v>2097</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276" t="s">
+        <v>2098</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
         <v>2099</v>
-      </c>
-      <c r="L276">
-        <v>1</v>
-      </c>
-      <c r="M276" t="s">
-        <v>2100</v>
-      </c>
-      <c r="N276">
-        <v>1</v>
-      </c>
-      <c r="O276" t="s">
-        <v>2101</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B277" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="C277">
         <v>262.8</v>
@@ -21518,27 +21573,27 @@
         <v>70</v>
       </c>
       <c r="K277" t="s">
+        <v>2101</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277" t="s">
+        <v>2102</v>
+      </c>
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" t="s">
         <v>2103</v>
-      </c>
-      <c r="L277">
-        <v>1</v>
-      </c>
-      <c r="M277" t="s">
-        <v>2104</v>
-      </c>
-      <c r="N277">
-        <v>1</v>
-      </c>
-      <c r="O277" t="s">
-        <v>2105</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B278" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="C278">
         <v>285.60000000000002</v>
@@ -21565,27 +21620,27 @@
         <v>70</v>
       </c>
       <c r="K278" t="s">
+        <v>2105</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278" t="s">
+        <v>2106</v>
+      </c>
+      <c r="N278">
+        <v>1</v>
+      </c>
+      <c r="O278" t="s">
         <v>2107</v>
-      </c>
-      <c r="L278">
-        <v>1</v>
-      </c>
-      <c r="M278" t="s">
-        <v>2108</v>
-      </c>
-      <c r="N278">
-        <v>1</v>
-      </c>
-      <c r="O278" t="s">
-        <v>2109</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B279" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C279">
         <v>298.39999999999998</v>
@@ -21612,27 +21667,27 @@
         <v>70</v>
       </c>
       <c r="K279" t="s">
+        <v>2109</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279" t="s">
+        <v>2110</v>
+      </c>
+      <c r="N279">
+        <v>1</v>
+      </c>
+      <c r="O279" t="s">
         <v>2111</v>
-      </c>
-      <c r="L279">
-        <v>1</v>
-      </c>
-      <c r="M279" t="s">
-        <v>2112</v>
-      </c>
-      <c r="N279">
-        <v>1</v>
-      </c>
-      <c r="O279" t="s">
-        <v>2113</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B280" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="C280">
         <v>311.10000000000002</v>
@@ -21659,27 +21714,27 @@
         <v>70</v>
       </c>
       <c r="K280" t="s">
+        <v>2113</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280" t="s">
+        <v>2114</v>
+      </c>
+      <c r="N280">
+        <v>1</v>
+      </c>
+      <c r="O280" t="s">
         <v>2115</v>
-      </c>
-      <c r="L280">
-        <v>1</v>
-      </c>
-      <c r="M280" t="s">
-        <v>2116</v>
-      </c>
-      <c r="N280">
-        <v>1</v>
-      </c>
-      <c r="O280" t="s">
-        <v>2117</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B281" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="C281">
         <v>323.89999999999998</v>
@@ -21706,27 +21761,27 @@
         <v>70</v>
       </c>
       <c r="K281" t="s">
+        <v>2117</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281" t="s">
+        <v>2118</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
         <v>2119</v>
-      </c>
-      <c r="L281">
-        <v>1</v>
-      </c>
-      <c r="M281" t="s">
-        <v>2120</v>
-      </c>
-      <c r="N281">
-        <v>1</v>
-      </c>
-      <c r="O281" t="s">
-        <v>2121</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="B282" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C282">
         <v>88.2</v>
@@ -21753,27 +21808,27 @@
         <v>70</v>
       </c>
       <c r="K282" t="s">
+        <v>2121</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282" t="s">
+        <v>2122</v>
+      </c>
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" t="s">
         <v>2123</v>
-      </c>
-      <c r="L282">
-        <v>1</v>
-      </c>
-      <c r="M282" t="s">
-        <v>2124</v>
-      </c>
-      <c r="N282">
-        <v>1</v>
-      </c>
-      <c r="O282" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="B283" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="C283">
         <v>103.6</v>
@@ -21800,27 +21855,27 @@
         <v>70</v>
       </c>
       <c r="K283" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283" t="s">
+        <v>2126</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283" t="s">
         <v>2127</v>
-      </c>
-      <c r="L283">
-        <v>1</v>
-      </c>
-      <c r="M283" t="s">
-        <v>2128</v>
-      </c>
-      <c r="N283">
-        <v>1</v>
-      </c>
-      <c r="O283" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="B284" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="C284">
         <v>116.3</v>
@@ -21847,27 +21902,27 @@
         <v>70</v>
       </c>
       <c r="K284" t="s">
+        <v>2129</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284" t="s">
+        <v>2130</v>
+      </c>
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284" t="s">
         <v>2131</v>
-      </c>
-      <c r="L284">
-        <v>1</v>
-      </c>
-      <c r="M284" t="s">
-        <v>2132</v>
-      </c>
-      <c r="N284">
-        <v>1</v>
-      </c>
-      <c r="O284" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="B285" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="C285">
         <v>129.1</v>
@@ -21894,27 +21949,27 @@
         <v>70</v>
       </c>
       <c r="K285" t="s">
+        <v>2133</v>
+      </c>
+      <c r="L285">
+        <v>1</v>
+      </c>
+      <c r="M285" t="s">
+        <v>2134</v>
+      </c>
+      <c r="N285">
+        <v>1</v>
+      </c>
+      <c r="O285" t="s">
         <v>2135</v>
-      </c>
-      <c r="L285">
-        <v>1</v>
-      </c>
-      <c r="M285" t="s">
-        <v>2136</v>
-      </c>
-      <c r="N285">
-        <v>1</v>
-      </c>
-      <c r="O285" t="s">
-        <v>2137</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="B286" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="C286">
         <v>141.80000000000001</v>
@@ -21941,27 +21996,27 @@
         <v>70</v>
       </c>
       <c r="K286" t="s">
+        <v>2137</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286" t="s">
+        <v>2138</v>
+      </c>
+      <c r="N286">
+        <v>1</v>
+      </c>
+      <c r="O286" t="s">
         <v>2139</v>
-      </c>
-      <c r="L286">
-        <v>1</v>
-      </c>
-      <c r="M286" t="s">
-        <v>2140</v>
-      </c>
-      <c r="N286">
-        <v>1</v>
-      </c>
-      <c r="O286" t="s">
-        <v>2141</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="B287" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="C287">
         <v>154.5</v>
@@ -21988,27 +22043,27 @@
         <v>70</v>
       </c>
       <c r="K287" t="s">
+        <v>2141</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287" t="s">
+        <v>2142</v>
+      </c>
+      <c r="N287">
+        <v>1</v>
+      </c>
+      <c r="O287" t="s">
         <v>2143</v>
-      </c>
-      <c r="L287">
-        <v>1</v>
-      </c>
-      <c r="M287" t="s">
-        <v>2144</v>
-      </c>
-      <c r="N287">
-        <v>1</v>
-      </c>
-      <c r="O287" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="B288" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="C288">
         <v>167.3</v>
@@ -22035,27 +22090,27 @@
         <v>70</v>
       </c>
       <c r="K288" t="s">
+        <v>2145</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288" t="s">
+        <v>2146</v>
+      </c>
+      <c r="N288">
+        <v>1</v>
+      </c>
+      <c r="O288" t="s">
         <v>2147</v>
-      </c>
-      <c r="L288">
-        <v>1</v>
-      </c>
-      <c r="M288" t="s">
-        <v>2148</v>
-      </c>
-      <c r="N288">
-        <v>1</v>
-      </c>
-      <c r="O288" t="s">
-        <v>2149</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="B289" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="C289">
         <v>181.1</v>
@@ -22082,27 +22137,27 @@
         <v>70</v>
       </c>
       <c r="K289" t="s">
+        <v>2149</v>
+      </c>
+      <c r="L289">
+        <v>1</v>
+      </c>
+      <c r="M289" t="s">
+        <v>2150</v>
+      </c>
+      <c r="N289">
+        <v>1</v>
+      </c>
+      <c r="O289" t="s">
         <v>2151</v>
-      </c>
-      <c r="L289">
-        <v>1</v>
-      </c>
-      <c r="M289" t="s">
-        <v>2152</v>
-      </c>
-      <c r="N289">
-        <v>1</v>
-      </c>
-      <c r="O289" t="s">
-        <v>2153</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="B290" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="C290">
         <v>193.9</v>
@@ -22129,27 +22184,27 @@
         <v>70</v>
       </c>
       <c r="K290" t="s">
+        <v>2153</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290" t="s">
+        <v>2154</v>
+      </c>
+      <c r="N290">
+        <v>1</v>
+      </c>
+      <c r="O290" t="s">
         <v>2155</v>
-      </c>
-      <c r="L290">
-        <v>1</v>
-      </c>
-      <c r="M290" t="s">
-        <v>2156</v>
-      </c>
-      <c r="N290">
-        <v>1</v>
-      </c>
-      <c r="O290" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="B291" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="C291">
         <v>207.5</v>
@@ -22176,27 +22231,27 @@
         <v>70</v>
       </c>
       <c r="K291" t="s">
+        <v>2157</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291" t="s">
+        <v>2158</v>
+      </c>
+      <c r="N291">
+        <v>1</v>
+      </c>
+      <c r="O291" t="s">
         <v>2159</v>
-      </c>
-      <c r="L291">
-        <v>1</v>
-      </c>
-      <c r="M291" t="s">
-        <v>2160</v>
-      </c>
-      <c r="N291">
-        <v>1</v>
-      </c>
-      <c r="O291" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="B292" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="C292">
         <v>220.3</v>
@@ -22223,27 +22278,27 @@
         <v>70</v>
       </c>
       <c r="K292" t="s">
+        <v>2161</v>
+      </c>
+      <c r="L292">
+        <v>1</v>
+      </c>
+      <c r="M292" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N292">
+        <v>1</v>
+      </c>
+      <c r="O292" t="s">
         <v>2163</v>
-      </c>
-      <c r="L292">
-        <v>1</v>
-      </c>
-      <c r="M292" t="s">
-        <v>2164</v>
-      </c>
-      <c r="N292">
-        <v>1</v>
-      </c>
-      <c r="O292" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="B293" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="C293">
         <v>240.4</v>
@@ -22270,27 +22325,27 @@
         <v>70</v>
       </c>
       <c r="K293" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293" t="s">
+        <v>2166</v>
+      </c>
+      <c r="N293">
+        <v>1</v>
+      </c>
+      <c r="O293" t="s">
         <v>2167</v>
-      </c>
-      <c r="L293">
-        <v>1</v>
-      </c>
-      <c r="M293" t="s">
-        <v>2168</v>
-      </c>
-      <c r="N293">
-        <v>1</v>
-      </c>
-      <c r="O293" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="B294" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="C294">
         <v>253.1</v>
@@ -22317,27 +22372,27 @@
         <v>70</v>
       </c>
       <c r="K294" t="s">
+        <v>2169</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294" t="s">
+        <v>2170</v>
+      </c>
+      <c r="N294">
+        <v>1</v>
+      </c>
+      <c r="O294" t="s">
         <v>2171</v>
-      </c>
-      <c r="L294">
-        <v>1</v>
-      </c>
-      <c r="M294" t="s">
-        <v>2172</v>
-      </c>
-      <c r="N294">
-        <v>1</v>
-      </c>
-      <c r="O294" t="s">
-        <v>2173</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="B295" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="C295">
         <v>265.89999999999998</v>
@@ -22364,27 +22419,27 @@
         <v>70</v>
       </c>
       <c r="K295" t="s">
+        <v>2173</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295" t="s">
+        <v>2174</v>
+      </c>
+      <c r="N295">
+        <v>1</v>
+      </c>
+      <c r="O295" t="s">
         <v>2175</v>
-      </c>
-      <c r="L295">
-        <v>1</v>
-      </c>
-      <c r="M295" t="s">
-        <v>2176</v>
-      </c>
-      <c r="N295">
-        <v>1</v>
-      </c>
-      <c r="O295" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B296" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="C296">
         <v>278.60000000000002</v>
@@ -22411,27 +22466,27 @@
         <v>70</v>
       </c>
       <c r="K296" t="s">
+        <v>2177</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296" t="s">
+        <v>2178</v>
+      </c>
+      <c r="N296">
+        <v>1</v>
+      </c>
+      <c r="O296" t="s">
         <v>2179</v>
-      </c>
-      <c r="L296">
-        <v>1</v>
-      </c>
-      <c r="M296" t="s">
-        <v>2180</v>
-      </c>
-      <c r="N296">
-        <v>1</v>
-      </c>
-      <c r="O296" t="s">
-        <v>2181</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="B297" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="C297">
         <v>291.39999999999998</v>
@@ -22458,27 +22513,27 @@
         <v>70</v>
       </c>
       <c r="K297" t="s">
+        <v>2181</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297" t="s">
+        <v>2182</v>
+      </c>
+      <c r="N297">
+        <v>1</v>
+      </c>
+      <c r="O297" t="s">
         <v>2183</v>
-      </c>
-      <c r="L297">
-        <v>1</v>
-      </c>
-      <c r="M297" t="s">
-        <v>2184</v>
-      </c>
-      <c r="N297">
-        <v>1</v>
-      </c>
-      <c r="O297" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="B298" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="C298">
         <v>304.2</v>
@@ -22505,27 +22560,27 @@
         <v>70</v>
       </c>
       <c r="K298" t="s">
+        <v>2185</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298" t="s">
+        <v>2186</v>
+      </c>
+      <c r="N298">
+        <v>1</v>
+      </c>
+      <c r="O298" t="s">
         <v>2187</v>
-      </c>
-      <c r="L298">
-        <v>1</v>
-      </c>
-      <c r="M298" t="s">
-        <v>2188</v>
-      </c>
-      <c r="N298">
-        <v>1</v>
-      </c>
-      <c r="O298" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="B299" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="C299">
         <v>316.89999999999998</v>
@@ -22552,27 +22607,27 @@
         <v>70</v>
       </c>
       <c r="K299" t="s">
+        <v>2189</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299" t="s">
+        <v>2190</v>
+      </c>
+      <c r="N299">
+        <v>1</v>
+      </c>
+      <c r="O299" t="s">
         <v>2191</v>
-      </c>
-      <c r="L299">
-        <v>1</v>
-      </c>
-      <c r="M299" t="s">
-        <v>2192</v>
-      </c>
-      <c r="N299">
-        <v>1</v>
-      </c>
-      <c r="O299" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="B300" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="C300">
         <v>329.6</v>
@@ -22599,27 +22654,27 @@
         <v>70</v>
       </c>
       <c r="K300" t="s">
+        <v>2193</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N300">
+        <v>1</v>
+      </c>
+      <c r="O300" t="s">
         <v>2195</v>
-      </c>
-      <c r="L300">
-        <v>1</v>
-      </c>
-      <c r="M300" t="s">
-        <v>2196</v>
-      </c>
-      <c r="N300">
-        <v>1</v>
-      </c>
-      <c r="O300" t="s">
-        <v>2197</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="B301" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="C301">
         <v>342.4</v>
@@ -22646,27 +22701,27 @@
         <v>70</v>
       </c>
       <c r="K301" t="s">
+        <v>2197</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+      <c r="M301" t="s">
+        <v>2198</v>
+      </c>
+      <c r="N301">
+        <v>1</v>
+      </c>
+      <c r="O301" t="s">
         <v>2199</v>
-      </c>
-      <c r="L301">
-        <v>1</v>
-      </c>
-      <c r="M301" t="s">
-        <v>2200</v>
-      </c>
-      <c r="N301">
-        <v>1</v>
-      </c>
-      <c r="O301" t="s">
-        <v>2201</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="B302" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="C302">
         <v>355.1</v>
@@ -22693,19 +22748,19 @@
         <v>70</v>
       </c>
       <c r="K302" t="s">
+        <v>2201</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302" t="s">
+        <v>2202</v>
+      </c>
+      <c r="N302">
+        <v>1</v>
+      </c>
+      <c r="O302" t="s">
         <v>2203</v>
-      </c>
-      <c r="L302">
-        <v>1</v>
-      </c>
-      <c r="M302" t="s">
-        <v>2204</v>
-      </c>
-      <c r="N302">
-        <v>1</v>
-      </c>
-      <c r="O302" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.35">
@@ -28726,10 +28781,10 @@
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="B431" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C431">
         <v>220.5</v>
@@ -28756,27 +28811,27 @@
         <v>70</v>
       </c>
       <c r="K431" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L431">
+        <v>1</v>
+      </c>
+      <c r="M431" t="s">
+        <v>2211</v>
+      </c>
+      <c r="N431">
+        <v>1</v>
+      </c>
+      <c r="O431" t="s">
         <v>2212</v>
-      </c>
-      <c r="L431">
-        <v>1</v>
-      </c>
-      <c r="M431" t="s">
-        <v>2213</v>
-      </c>
-      <c r="N431">
-        <v>1</v>
-      </c>
-      <c r="O431" t="s">
-        <v>2214</v>
       </c>
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="B432" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="C432">
         <v>233.4</v>
@@ -28803,27 +28858,27 @@
         <v>70</v>
       </c>
       <c r="K432" t="s">
+        <v>2215</v>
+      </c>
+      <c r="L432">
+        <v>1</v>
+      </c>
+      <c r="M432" t="s">
+        <v>2216</v>
+      </c>
+      <c r="N432">
+        <v>1</v>
+      </c>
+      <c r="O432" t="s">
         <v>2217</v>
-      </c>
-      <c r="L432">
-        <v>1</v>
-      </c>
-      <c r="M432" t="s">
-        <v>2218</v>
-      </c>
-      <c r="N432">
-        <v>1</v>
-      </c>
-      <c r="O432" t="s">
-        <v>2219</v>
       </c>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="B433" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C433">
         <v>246.3</v>
@@ -28850,27 +28905,27 @@
         <v>70</v>
       </c>
       <c r="K433" t="s">
+        <v>2220</v>
+      </c>
+      <c r="L433">
+        <v>1</v>
+      </c>
+      <c r="M433" t="s">
+        <v>2221</v>
+      </c>
+      <c r="N433">
+        <v>1</v>
+      </c>
+      <c r="O433" t="s">
         <v>2222</v>
-      </c>
-      <c r="L433">
-        <v>1</v>
-      </c>
-      <c r="M433" t="s">
-        <v>2223</v>
-      </c>
-      <c r="N433">
-        <v>1</v>
-      </c>
-      <c r="O433" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="B434" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="C434">
         <v>259.2</v>
@@ -28897,27 +28952,27 @@
         <v>70</v>
       </c>
       <c r="K434" t="s">
+        <v>2225</v>
+      </c>
+      <c r="L434">
+        <v>1</v>
+      </c>
+      <c r="M434" t="s">
+        <v>2226</v>
+      </c>
+      <c r="N434">
+        <v>1</v>
+      </c>
+      <c r="O434" t="s">
         <v>2227</v>
-      </c>
-      <c r="L434">
-        <v>1</v>
-      </c>
-      <c r="M434" t="s">
-        <v>2228</v>
-      </c>
-      <c r="N434">
-        <v>1</v>
-      </c>
-      <c r="O434" t="s">
-        <v>2229</v>
       </c>
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="B435" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="C435">
         <v>272.10000000000002</v>
@@ -28944,27 +28999,27 @@
         <v>70</v>
       </c>
       <c r="K435" t="s">
+        <v>2230</v>
+      </c>
+      <c r="L435">
+        <v>1</v>
+      </c>
+      <c r="M435" t="s">
+        <v>2231</v>
+      </c>
+      <c r="N435">
+        <v>1</v>
+      </c>
+      <c r="O435" t="s">
         <v>2232</v>
-      </c>
-      <c r="L435">
-        <v>1</v>
-      </c>
-      <c r="M435" t="s">
-        <v>2233</v>
-      </c>
-      <c r="N435">
-        <v>1</v>
-      </c>
-      <c r="O435" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="B436" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="C436">
         <v>285.60000000000002</v>
@@ -28991,27 +29046,27 @@
         <v>70</v>
       </c>
       <c r="K436" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="L436">
         <v>1</v>
       </c>
       <c r="M436" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="N436">
         <v>1</v>
       </c>
       <c r="O436" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="B437" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="C437">
         <v>298.5</v>
@@ -29038,27 +29093,27 @@
         <v>70</v>
       </c>
       <c r="K437" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="L437">
         <v>1</v>
       </c>
       <c r="M437" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N437">
         <v>1</v>
       </c>
       <c r="O437" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="B438" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="C438">
         <v>311.3</v>
@@ -29085,27 +29140,27 @@
         <v>70</v>
       </c>
       <c r="K438" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="L438">
         <v>1</v>
       </c>
       <c r="M438" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="N438">
         <v>1</v>
       </c>
       <c r="O438" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B439" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="C439">
         <v>324.3</v>
@@ -29132,27 +29187,27 @@
         <v>70</v>
       </c>
       <c r="K439" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="L439">
         <v>1</v>
       </c>
       <c r="M439" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N439">
         <v>1</v>
       </c>
       <c r="O439" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B440" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="C440">
         <v>337.1</v>
@@ -29179,27 +29234,27 @@
         <v>70</v>
       </c>
       <c r="K440" t="s">
+        <v>2251</v>
+      </c>
+      <c r="L440">
+        <v>1</v>
+      </c>
+      <c r="M440" t="s">
+        <v>2252</v>
+      </c>
+      <c r="N440">
+        <v>1</v>
+      </c>
+      <c r="O440" t="s">
         <v>2253</v>
-      </c>
-      <c r="L440">
-        <v>1</v>
-      </c>
-      <c r="M440" t="s">
-        <v>2254</v>
-      </c>
-      <c r="N440">
-        <v>1</v>
-      </c>
-      <c r="O440" t="s">
-        <v>2255</v>
       </c>
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="B441" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="C441">
         <v>350.1</v>
@@ -29226,27 +29281,27 @@
         <v>70</v>
       </c>
       <c r="K441" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L441">
+        <v>1</v>
+      </c>
+      <c r="M441" t="s">
+        <v>2257</v>
+      </c>
+      <c r="N441">
+        <v>1</v>
+      </c>
+      <c r="O441" t="s">
         <v>2258</v>
-      </c>
-      <c r="L441">
-        <v>1</v>
-      </c>
-      <c r="M441" t="s">
-        <v>2259</v>
-      </c>
-      <c r="N441">
-        <v>1</v>
-      </c>
-      <c r="O441" t="s">
-        <v>2260</v>
       </c>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B442" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="C442">
         <v>2.9</v>
@@ -29273,27 +29328,27 @@
         <v>70</v>
       </c>
       <c r="K442" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="L442">
         <v>1</v>
       </c>
       <c r="M442" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="N442">
         <v>1</v>
       </c>
       <c r="O442" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="B443" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="C443">
         <v>15.8</v>
@@ -29320,27 +29375,27 @@
         <v>70</v>
       </c>
       <c r="K443" t="s">
+        <v>2265</v>
+      </c>
+      <c r="L443">
+        <v>1</v>
+      </c>
+      <c r="M443" t="s">
+        <v>2266</v>
+      </c>
+      <c r="N443">
+        <v>1</v>
+      </c>
+      <c r="O443" t="s">
         <v>2267</v>
-      </c>
-      <c r="L443">
-        <v>1</v>
-      </c>
-      <c r="M443" t="s">
-        <v>2268</v>
-      </c>
-      <c r="N443">
-        <v>1</v>
-      </c>
-      <c r="O443" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="444" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B444" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="C444">
         <v>28.8</v>
@@ -29367,27 +29422,27 @@
         <v>70</v>
       </c>
       <c r="K444" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L444">
+        <v>1</v>
+      </c>
+      <c r="M444" t="s">
+        <v>2271</v>
+      </c>
+      <c r="N444">
+        <v>1</v>
+      </c>
+      <c r="O444" t="s">
         <v>2272</v>
-      </c>
-      <c r="L444">
-        <v>1</v>
-      </c>
-      <c r="M444" t="s">
-        <v>2273</v>
-      </c>
-      <c r="N444">
-        <v>1</v>
-      </c>
-      <c r="O444" t="s">
-        <v>2274</v>
       </c>
     </row>
     <row r="445" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B445" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="C445">
         <v>24.9</v>
@@ -29414,27 +29469,27 @@
         <v>70</v>
       </c>
       <c r="K445" t="s">
+        <v>2275</v>
+      </c>
+      <c r="L445">
+        <v>1</v>
+      </c>
+      <c r="M445" t="s">
+        <v>2276</v>
+      </c>
+      <c r="N445">
+        <v>1</v>
+      </c>
+      <c r="O445" t="s">
         <v>2277</v>
-      </c>
-      <c r="L445">
-        <v>1</v>
-      </c>
-      <c r="M445" t="s">
-        <v>2278</v>
-      </c>
-      <c r="N445">
-        <v>1</v>
-      </c>
-      <c r="O445" t="s">
-        <v>2279</v>
       </c>
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="B446" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="C446">
         <v>37.799999999999997</v>
@@ -29461,27 +29516,27 @@
         <v>70</v>
       </c>
       <c r="K446" t="s">
+        <v>2280</v>
+      </c>
+      <c r="L446">
+        <v>1</v>
+      </c>
+      <c r="M446" t="s">
+        <v>2281</v>
+      </c>
+      <c r="N446">
+        <v>1</v>
+      </c>
+      <c r="O446" t="s">
         <v>2282</v>
-      </c>
-      <c r="L446">
-        <v>1</v>
-      </c>
-      <c r="M446" t="s">
-        <v>2283</v>
-      </c>
-      <c r="N446">
-        <v>1</v>
-      </c>
-      <c r="O446" t="s">
-        <v>2284</v>
       </c>
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B447" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="C447">
         <v>50.7</v>
@@ -29508,27 +29563,27 @@
         <v>70</v>
       </c>
       <c r="K447" t="s">
+        <v>2285</v>
+      </c>
+      <c r="L447">
+        <v>1</v>
+      </c>
+      <c r="M447" t="s">
+        <v>2286</v>
+      </c>
+      <c r="N447">
+        <v>1</v>
+      </c>
+      <c r="O447" t="s">
         <v>2287</v>
-      </c>
-      <c r="L447">
-        <v>1</v>
-      </c>
-      <c r="M447" t="s">
-        <v>2288</v>
-      </c>
-      <c r="N447">
-        <v>1</v>
-      </c>
-      <c r="O447" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="448" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="B448" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="C448">
         <v>63.6</v>
@@ -29555,27 +29610,27 @@
         <v>70</v>
       </c>
       <c r="K448" t="s">
+        <v>2290</v>
+      </c>
+      <c r="L448">
+        <v>1</v>
+      </c>
+      <c r="M448" t="s">
+        <v>2291</v>
+      </c>
+      <c r="N448">
+        <v>1</v>
+      </c>
+      <c r="O448" t="s">
         <v>2292</v>
-      </c>
-      <c r="L448">
-        <v>1</v>
-      </c>
-      <c r="M448" t="s">
-        <v>2293</v>
-      </c>
-      <c r="N448">
-        <v>1</v>
-      </c>
-      <c r="O448" t="s">
-        <v>2294</v>
       </c>
     </row>
     <row r="449" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="B449" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="C449">
         <v>76.3</v>
@@ -29602,27 +29657,27 @@
         <v>70</v>
       </c>
       <c r="K449" t="s">
+        <v>2295</v>
+      </c>
+      <c r="L449">
+        <v>1</v>
+      </c>
+      <c r="M449" t="s">
+        <v>2296</v>
+      </c>
+      <c r="N449">
+        <v>1</v>
+      </c>
+      <c r="O449" t="s">
         <v>2297</v>
-      </c>
-      <c r="L449">
-        <v>1</v>
-      </c>
-      <c r="M449" t="s">
-        <v>2298</v>
-      </c>
-      <c r="N449">
-        <v>1</v>
-      </c>
-      <c r="O449" t="s">
-        <v>2299</v>
       </c>
     </row>
     <row r="450" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B450" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="C450">
         <v>89.4</v>
@@ -29649,27 +29704,27 @@
         <v>70</v>
       </c>
       <c r="K450" t="s">
+        <v>2300</v>
+      </c>
+      <c r="L450">
+        <v>1</v>
+      </c>
+      <c r="M450" t="s">
+        <v>2301</v>
+      </c>
+      <c r="N450">
+        <v>1</v>
+      </c>
+      <c r="O450" t="s">
         <v>2302</v>
-      </c>
-      <c r="L450">
-        <v>1</v>
-      </c>
-      <c r="M450" t="s">
-        <v>2303</v>
-      </c>
-      <c r="N450">
-        <v>1</v>
-      </c>
-      <c r="O450" t="s">
-        <v>2304</v>
       </c>
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B451" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="C451">
         <v>102.3</v>
@@ -29696,27 +29751,27 @@
         <v>70</v>
       </c>
       <c r="K451" t="s">
+        <v>2305</v>
+      </c>
+      <c r="L451">
+        <v>1</v>
+      </c>
+      <c r="M451" t="s">
+        <v>2306</v>
+      </c>
+      <c r="N451">
+        <v>1</v>
+      </c>
+      <c r="O451" t="s">
         <v>2307</v>
-      </c>
-      <c r="L451">
-        <v>1</v>
-      </c>
-      <c r="M451" t="s">
-        <v>2308</v>
-      </c>
-      <c r="N451">
-        <v>1</v>
-      </c>
-      <c r="O451" t="s">
-        <v>2309</v>
       </c>
     </row>
     <row r="452" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="B452" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="C452">
         <v>115.2</v>
@@ -29743,27 +29798,27 @@
         <v>70</v>
       </c>
       <c r="K452" t="s">
+        <v>2310</v>
+      </c>
+      <c r="L452">
+        <v>1</v>
+      </c>
+      <c r="M452" t="s">
+        <v>2311</v>
+      </c>
+      <c r="N452">
+        <v>1</v>
+      </c>
+      <c r="O452" t="s">
         <v>2312</v>
-      </c>
-      <c r="L452">
-        <v>1</v>
-      </c>
-      <c r="M452" t="s">
-        <v>2313</v>
-      </c>
-      <c r="N452">
-        <v>1</v>
-      </c>
-      <c r="O452" t="s">
-        <v>2314</v>
       </c>
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="B453" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="C453">
         <v>128.1</v>
@@ -29790,27 +29845,27 @@
         <v>70</v>
       </c>
       <c r="K453" t="s">
+        <v>2315</v>
+      </c>
+      <c r="L453">
+        <v>1</v>
+      </c>
+      <c r="M453" t="s">
+        <v>2316</v>
+      </c>
+      <c r="N453">
+        <v>1</v>
+      </c>
+      <c r="O453" t="s">
         <v>2317</v>
-      </c>
-      <c r="L453">
-        <v>1</v>
-      </c>
-      <c r="M453" t="s">
-        <v>2318</v>
-      </c>
-      <c r="N453">
-        <v>1</v>
-      </c>
-      <c r="O453" t="s">
-        <v>2319</v>
       </c>
     </row>
     <row r="454" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B454" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="C454">
         <v>141</v>
@@ -29837,27 +29892,27 @@
         <v>70</v>
       </c>
       <c r="K454" t="s">
+        <v>2320</v>
+      </c>
+      <c r="L454">
+        <v>1</v>
+      </c>
+      <c r="M454" t="s">
+        <v>2321</v>
+      </c>
+      <c r="N454">
+        <v>1</v>
+      </c>
+      <c r="O454" t="s">
         <v>2322</v>
-      </c>
-      <c r="L454">
-        <v>1</v>
-      </c>
-      <c r="M454" t="s">
-        <v>2323</v>
-      </c>
-      <c r="N454">
-        <v>1</v>
-      </c>
-      <c r="O454" t="s">
-        <v>2324</v>
       </c>
     </row>
     <row r="455" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="B455" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="C455">
         <v>153.9</v>
@@ -29884,27 +29939,27 @@
         <v>70</v>
       </c>
       <c r="K455" t="s">
+        <v>2325</v>
+      </c>
+      <c r="L455">
+        <v>1</v>
+      </c>
+      <c r="M455" t="s">
+        <v>2326</v>
+      </c>
+      <c r="N455">
+        <v>1</v>
+      </c>
+      <c r="O455" t="s">
         <v>2327</v>
-      </c>
-      <c r="L455">
-        <v>1</v>
-      </c>
-      <c r="M455" t="s">
-        <v>2328</v>
-      </c>
-      <c r="N455">
-        <v>1</v>
-      </c>
-      <c r="O455" t="s">
-        <v>2329</v>
       </c>
     </row>
     <row r="456" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="B456" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="C456">
         <v>166.8</v>
@@ -29931,27 +29986,27 @@
         <v>70</v>
       </c>
       <c r="K456" t="s">
+        <v>2330</v>
+      </c>
+      <c r="L456">
+        <v>1</v>
+      </c>
+      <c r="M456" t="s">
+        <v>2331</v>
+      </c>
+      <c r="N456">
+        <v>1</v>
+      </c>
+      <c r="O456" t="s">
         <v>2332</v>
-      </c>
-      <c r="L456">
-        <v>1</v>
-      </c>
-      <c r="M456" t="s">
-        <v>2333</v>
-      </c>
-      <c r="N456">
-        <v>1</v>
-      </c>
-      <c r="O456" t="s">
-        <v>2334</v>
       </c>
     </row>
     <row r="457" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B457" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="C457">
         <v>333.4</v>
@@ -29978,27 +30033,27 @@
         <v>70</v>
       </c>
       <c r="K457" t="s">
+        <v>2335</v>
+      </c>
+      <c r="L457">
+        <v>1</v>
+      </c>
+      <c r="M457" t="s">
+        <v>2336</v>
+      </c>
+      <c r="N457">
+        <v>1</v>
+      </c>
+      <c r="O457" t="s">
         <v>2337</v>
-      </c>
-      <c r="L457">
-        <v>1</v>
-      </c>
-      <c r="M457" t="s">
-        <v>2338</v>
-      </c>
-      <c r="N457">
-        <v>1</v>
-      </c>
-      <c r="O457" t="s">
-        <v>2339</v>
       </c>
     </row>
     <row r="458" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B458" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C458">
         <v>346.3</v>
@@ -30025,27 +30080,27 @@
         <v>70</v>
       </c>
       <c r="K458" t="s">
+        <v>2340</v>
+      </c>
+      <c r="L458">
+        <v>1</v>
+      </c>
+      <c r="M458" t="s">
+        <v>2341</v>
+      </c>
+      <c r="N458">
+        <v>1</v>
+      </c>
+      <c r="O458" t="s">
         <v>2342</v>
-      </c>
-      <c r="L458">
-        <v>1</v>
-      </c>
-      <c r="M458" t="s">
-        <v>2343</v>
-      </c>
-      <c r="N458">
-        <v>1</v>
-      </c>
-      <c r="O458" t="s">
-        <v>2344</v>
       </c>
     </row>
     <row r="459" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="B459" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="C459">
         <v>359.2</v>
@@ -30072,27 +30127,27 @@
         <v>70</v>
       </c>
       <c r="K459" t="s">
+        <v>2345</v>
+      </c>
+      <c r="L459">
+        <v>1</v>
+      </c>
+      <c r="M459" t="s">
+        <v>2346</v>
+      </c>
+      <c r="N459">
+        <v>1</v>
+      </c>
+      <c r="O459" t="s">
         <v>2347</v>
-      </c>
-      <c r="L459">
-        <v>1</v>
-      </c>
-      <c r="M459" t="s">
-        <v>2348</v>
-      </c>
-      <c r="N459">
-        <v>1</v>
-      </c>
-      <c r="O459" t="s">
-        <v>2349</v>
       </c>
     </row>
     <row r="460" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B460" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="C460">
         <v>12.1</v>
@@ -30119,27 +30174,27 @@
         <v>70</v>
       </c>
       <c r="K460" t="s">
+        <v>2350</v>
+      </c>
+      <c r="L460">
+        <v>1</v>
+      </c>
+      <c r="M460" t="s">
+        <v>2351</v>
+      </c>
+      <c r="N460">
+        <v>1</v>
+      </c>
+      <c r="O460" t="s">
         <v>2352</v>
-      </c>
-      <c r="L460">
-        <v>1</v>
-      </c>
-      <c r="M460" t="s">
-        <v>2353</v>
-      </c>
-      <c r="N460">
-        <v>1</v>
-      </c>
-      <c r="O460" t="s">
-        <v>2354</v>
       </c>
     </row>
     <row r="461" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B461" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="C461">
         <v>27.1</v>
@@ -30166,27 +30221,27 @@
         <v>70</v>
       </c>
       <c r="K461" t="s">
+        <v>2355</v>
+      </c>
+      <c r="L461">
+        <v>1</v>
+      </c>
+      <c r="M461" t="s">
+        <v>2356</v>
+      </c>
+      <c r="N461">
+        <v>1</v>
+      </c>
+      <c r="O461" t="s">
         <v>2357</v>
-      </c>
-      <c r="L461">
-        <v>1</v>
-      </c>
-      <c r="M461" t="s">
-        <v>2358</v>
-      </c>
-      <c r="N461">
-        <v>1</v>
-      </c>
-      <c r="O461" t="s">
-        <v>2359</v>
       </c>
     </row>
     <row r="462" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="B462" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="C462">
         <v>40</v>
@@ -30213,27 +30268,27 @@
         <v>70</v>
       </c>
       <c r="K462" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L462">
+        <v>1</v>
+      </c>
+      <c r="M462" t="s">
+        <v>2361</v>
+      </c>
+      <c r="N462">
+        <v>1</v>
+      </c>
+      <c r="O462" t="s">
         <v>2362</v>
-      </c>
-      <c r="L462">
-        <v>1</v>
-      </c>
-      <c r="M462" t="s">
-        <v>2363</v>
-      </c>
-      <c r="N462">
-        <v>1</v>
-      </c>
-      <c r="O462" t="s">
-        <v>2364</v>
       </c>
     </row>
     <row r="463" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="B463" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="C463">
         <v>52.9</v>
@@ -30260,27 +30315,27 @@
         <v>70</v>
       </c>
       <c r="K463" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L463">
+        <v>1</v>
+      </c>
+      <c r="M463" t="s">
+        <v>2366</v>
+      </c>
+      <c r="N463">
+        <v>1</v>
+      </c>
+      <c r="O463" t="s">
         <v>2367</v>
-      </c>
-      <c r="L463">
-        <v>1</v>
-      </c>
-      <c r="M463" t="s">
-        <v>2368</v>
-      </c>
-      <c r="N463">
-        <v>1</v>
-      </c>
-      <c r="O463" t="s">
-        <v>2369</v>
       </c>
     </row>
     <row r="464" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="B464" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="C464">
         <v>65.8</v>
@@ -30307,27 +30362,27 @@
         <v>70</v>
       </c>
       <c r="K464" t="s">
+        <v>2370</v>
+      </c>
+      <c r="L464">
+        <v>1</v>
+      </c>
+      <c r="M464" t="s">
+        <v>2371</v>
+      </c>
+      <c r="N464">
+        <v>1</v>
+      </c>
+      <c r="O464" t="s">
         <v>2372</v>
-      </c>
-      <c r="L464">
-        <v>1</v>
-      </c>
-      <c r="M464" t="s">
-        <v>2373</v>
-      </c>
-      <c r="N464">
-        <v>1</v>
-      </c>
-      <c r="O464" t="s">
-        <v>2374</v>
       </c>
     </row>
     <row r="465" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="B465" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="C465">
         <v>78.7</v>
@@ -30354,27 +30409,27 @@
         <v>70</v>
       </c>
       <c r="K465" t="s">
+        <v>2375</v>
+      </c>
+      <c r="L465">
+        <v>1</v>
+      </c>
+      <c r="M465" t="s">
+        <v>2376</v>
+      </c>
+      <c r="N465">
+        <v>1</v>
+      </c>
+      <c r="O465" t="s">
         <v>2377</v>
-      </c>
-      <c r="L465">
-        <v>1</v>
-      </c>
-      <c r="M465" t="s">
-        <v>2378</v>
-      </c>
-      <c r="N465">
-        <v>1</v>
-      </c>
-      <c r="O465" t="s">
-        <v>2379</v>
       </c>
     </row>
     <row r="466" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="B466" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="C466">
         <v>91.6</v>
@@ -30401,27 +30456,27 @@
         <v>70</v>
       </c>
       <c r="K466" t="s">
+        <v>2380</v>
+      </c>
+      <c r="L466">
+        <v>1</v>
+      </c>
+      <c r="M466" t="s">
+        <v>2381</v>
+      </c>
+      <c r="N466">
+        <v>1</v>
+      </c>
+      <c r="O466" t="s">
         <v>2382</v>
-      </c>
-      <c r="L466">
-        <v>1</v>
-      </c>
-      <c r="M466" t="s">
-        <v>2383</v>
-      </c>
-      <c r="N466">
-        <v>1</v>
-      </c>
-      <c r="O466" t="s">
-        <v>2384</v>
       </c>
     </row>
     <row r="467" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B467" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="C467">
         <v>104.5</v>
@@ -30448,27 +30503,27 @@
         <v>70</v>
       </c>
       <c r="K467" t="s">
+        <v>2385</v>
+      </c>
+      <c r="L467">
+        <v>1</v>
+      </c>
+      <c r="M467" t="s">
+        <v>2386</v>
+      </c>
+      <c r="N467">
+        <v>1</v>
+      </c>
+      <c r="O467" t="s">
         <v>2387</v>
-      </c>
-      <c r="L467">
-        <v>1</v>
-      </c>
-      <c r="M467" t="s">
-        <v>2388</v>
-      </c>
-      <c r="N467">
-        <v>1</v>
-      </c>
-      <c r="O467" t="s">
-        <v>2389</v>
       </c>
     </row>
     <row r="468" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B468" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="C468">
         <v>117.4</v>
@@ -30495,27 +30550,27 @@
         <v>70</v>
       </c>
       <c r="K468" t="s">
+        <v>2390</v>
+      </c>
+      <c r="L468">
+        <v>1</v>
+      </c>
+      <c r="M468" t="s">
+        <v>2391</v>
+      </c>
+      <c r="N468">
+        <v>1</v>
+      </c>
+      <c r="O468" t="s">
         <v>2392</v>
-      </c>
-      <c r="L468">
-        <v>1</v>
-      </c>
-      <c r="M468" t="s">
-        <v>2393</v>
-      </c>
-      <c r="N468">
-        <v>1</v>
-      </c>
-      <c r="O468" t="s">
-        <v>2394</v>
       </c>
     </row>
     <row r="469" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="B469" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="C469">
         <v>130.30000000000001</v>
@@ -30542,27 +30597,27 @@
         <v>70</v>
       </c>
       <c r="K469" t="s">
+        <v>2395</v>
+      </c>
+      <c r="L469">
+        <v>1</v>
+      </c>
+      <c r="M469" t="s">
+        <v>2396</v>
+      </c>
+      <c r="N469">
+        <v>1</v>
+      </c>
+      <c r="O469" t="s">
         <v>2397</v>
-      </c>
-      <c r="L469">
-        <v>1</v>
-      </c>
-      <c r="M469" t="s">
-        <v>2398</v>
-      </c>
-      <c r="N469">
-        <v>1</v>
-      </c>
-      <c r="O469" t="s">
-        <v>2399</v>
       </c>
     </row>
     <row r="470" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="B470" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="C470">
         <v>143.19999999999999</v>
@@ -30589,27 +30644,27 @@
         <v>70</v>
       </c>
       <c r="K470" t="s">
+        <v>2400</v>
+      </c>
+      <c r="L470">
+        <v>1</v>
+      </c>
+      <c r="M470" t="s">
+        <v>2401</v>
+      </c>
+      <c r="N470">
+        <v>1</v>
+      </c>
+      <c r="O470" t="s">
         <v>2402</v>
-      </c>
-      <c r="L470">
-        <v>1</v>
-      </c>
-      <c r="M470" t="s">
-        <v>2403</v>
-      </c>
-      <c r="N470">
-        <v>1</v>
-      </c>
-      <c r="O470" t="s">
-        <v>2404</v>
       </c>
     </row>
     <row r="471" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="B471" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="C471">
         <v>156.1</v>
@@ -30636,19 +30691,19 @@
         <v>70</v>
       </c>
       <c r="K471" t="s">
+        <v>2405</v>
+      </c>
+      <c r="L471">
+        <v>1</v>
+      </c>
+      <c r="M471" t="s">
+        <v>2406</v>
+      </c>
+      <c r="N471">
+        <v>1</v>
+      </c>
+      <c r="O471" t="s">
         <v>2407</v>
-      </c>
-      <c r="L471">
-        <v>1</v>
-      </c>
-      <c r="M471" t="s">
-        <v>2408</v>
-      </c>
-      <c r="N471">
-        <v>1</v>
-      </c>
-      <c r="O471" t="s">
-        <v>2409</v>
       </c>
     </row>
   </sheetData>
@@ -31603,13 +31658,13 @@
         <v>532</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>629</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="18" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -31635,7 +31690,7 @@
         <v>44772</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="I2" s="26">
         <v>44775</v>
@@ -31705,7 +31760,7 @@
         <v>44790</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="I5" s="26">
         <v>44791</v>
@@ -32056,7 +32111,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="52" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="B23" s="52">
         <v>307.3</v>
@@ -32080,7 +32135,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="52" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="B24" s="52">
         <v>339.2</v>
@@ -32127,7 +32182,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="B26">
         <v>142.9</v>
@@ -32382,7 +32437,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="52" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="B40" s="52">
         <v>321.8</v>
@@ -32517,7 +32572,7 @@
         <v>26</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -32543,7 +32598,7 @@
         <v>45214</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="J47" s="28"/>
     </row>
@@ -34482,7 +34537,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="B157">
         <v>255.3</v>
@@ -36541,7 +36596,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B276">
         <v>216.5</v>
@@ -36558,7 +36613,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="B277">
         <v>235.9</v>
@@ -36575,7 +36630,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B278">
         <v>250.1</v>
@@ -36592,7 +36647,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="B279">
         <v>262.8</v>
@@ -36609,7 +36664,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="B280">
         <v>285.60000000000002</v>
@@ -36626,7 +36681,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="B281">
         <v>298.39999999999998</v>
@@ -36643,7 +36698,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="B282">
         <v>311.10000000000002</v>
@@ -36660,7 +36715,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B283">
         <v>323.89999999999998</v>
@@ -36677,7 +36732,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="B284">
         <v>88.2</v>
@@ -36694,7 +36749,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="B285">
         <v>103.6</v>
@@ -36711,7 +36766,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="B286">
         <v>116.3</v>
@@ -36728,7 +36783,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="B287">
         <v>129.1</v>
@@ -36745,7 +36800,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B288">
         <v>141.80000000000001</v>
@@ -36762,7 +36817,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B289">
         <v>154.5</v>
@@ -36779,7 +36834,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="B290">
         <v>167.3</v>
@@ -36796,7 +36851,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="B291">
         <v>181.1</v>
@@ -36813,7 +36868,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B292">
         <v>193.9</v>
@@ -36830,7 +36885,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="B293">
         <v>207.5</v>
@@ -36847,7 +36902,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B294">
         <v>220.3</v>
@@ -36864,7 +36919,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B295">
         <v>240.4</v>
@@ -36881,7 +36936,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="B296">
         <v>253.1</v>
@@ -36898,7 +36953,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B297">
         <v>265.89999999999998</v>
@@ -36915,7 +36970,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="B298">
         <v>278.60000000000002</v>
@@ -36932,7 +36987,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B299">
         <v>291.39999999999998</v>
@@ -36949,7 +37004,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="B300">
         <v>304.2</v>
@@ -36966,7 +37021,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B301">
         <v>316.89999999999998</v>
@@ -36983,7 +37038,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="B302">
         <v>329.6</v>
@@ -37000,7 +37055,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B303">
         <v>342.4</v>
@@ -37017,7 +37072,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="B304">
         <v>355.1</v>
@@ -39472,7 +39527,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="B437">
         <v>220.5</v>
@@ -39491,7 +39546,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="B438">
         <v>233.4</v>
@@ -39510,7 +39565,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="B439">
         <v>246.3</v>
@@ -39529,7 +39584,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="B440">
         <v>259.2</v>
@@ -39548,7 +39603,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="B441">
         <v>272.10000000000002</v>
@@ -39567,7 +39622,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="B442">
         <v>285.60000000000002</v>
@@ -39586,7 +39641,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B443">
         <v>298.5</v>
@@ -39605,7 +39660,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B444">
         <v>311.3</v>
@@ -39624,7 +39679,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B445">
         <v>324.3</v>
@@ -39643,7 +39698,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="B446">
         <v>337.1</v>
@@ -39662,7 +39717,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B447">
         <v>350.1</v>
@@ -39681,7 +39736,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B448">
         <v>2.9</v>
@@ -39700,7 +39755,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B449">
         <v>15.8</v>
@@ -39719,7 +39774,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B450">
         <v>28.8</v>
@@ -39738,7 +39793,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="B451">
         <v>24.9</v>
@@ -39757,7 +39812,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B452">
         <v>37.799999999999997</v>
@@ -39776,7 +39831,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B453">
         <v>50.7</v>
@@ -39795,7 +39850,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="B454">
         <v>63.6</v>
@@ -39814,7 +39869,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="B455">
         <v>76.3</v>
@@ -39833,7 +39888,7 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B456">
         <v>89.4</v>
@@ -39852,7 +39907,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="B457">
         <v>102.3</v>
@@ -39871,7 +39926,7 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="B458">
         <v>115.2</v>
@@ -39890,7 +39945,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="B459">
         <v>128.1</v>
@@ -39909,7 +39964,7 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="B460">
         <v>141</v>
@@ -39928,7 +39983,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="B461">
         <v>153.9</v>
@@ -39947,7 +40002,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B462">
         <v>166.8</v>
@@ -39966,7 +40021,7 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B463">
         <v>333.4</v>
@@ -39985,7 +40040,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B464">
         <v>346.3</v>
@@ -40004,7 +40059,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="B465">
         <v>359.2</v>
@@ -40023,7 +40078,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B466">
         <v>12.1</v>
@@ -40042,7 +40097,7 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B467">
         <v>27.1</v>
@@ -40061,7 +40116,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="B468">
         <v>40</v>
@@ -40080,7 +40135,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="B469">
         <v>52.9</v>
@@ -40099,7 +40154,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="B470">
         <v>65.8</v>
@@ -40118,7 +40173,7 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="B471">
         <v>78.7</v>
@@ -40137,7 +40192,7 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="B472">
         <v>91.6</v>
@@ -40156,7 +40211,7 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B473">
         <v>104.5</v>
@@ -40175,7 +40230,7 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="B474">
         <v>117.4</v>
@@ -40194,7 +40249,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="B475">
         <v>130.30000000000001</v>
@@ -40213,7 +40268,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="B476">
         <v>143.19999999999999</v>
@@ -40232,7 +40287,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="B477">
         <v>156.1</v>
@@ -40259,8 +40314,8 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40277,7 +40332,7 @@
       </c>
       <c r="B1" s="18">
         <f>SUM(B2:B101)</f>
-        <v>760</v>
+        <v>853</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>696</v>
@@ -41090,6 +41145,9 @@
       <c r="B54">
         <v>16</v>
       </c>
+      <c r="D54" t="s">
+        <v>695</v>
+      </c>
       <c r="E54" t="s">
         <v>2048</v>
       </c>
@@ -41135,7 +41193,7 @@
         <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>2050</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -41146,7 +41204,7 @@
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>2051</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -41157,7 +41215,7 @@
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -41168,7 +41226,7 @@
         <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -41179,7 +41237,7 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -41190,7 +41248,7 @@
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -41200,8 +41258,11 @@
       <c r="B64">
         <v>21</v>
       </c>
+      <c r="D64" t="s">
+        <v>695</v>
+      </c>
       <c r="E64" s="18" t="s">
-        <v>2432</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -41209,10 +41270,13 @@
         <v>45980</v>
       </c>
       <c r="B65">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>695</v>
       </c>
       <c r="E65" t="s">
-        <v>2433</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -41223,7 +41287,7 @@
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -41234,7 +41298,7 @@
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -41245,7 +41309,7 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -41256,7 +41320,7 @@
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -41267,7 +41331,7 @@
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -41278,7 +41342,7 @@
         <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -41289,23 +41353,64 @@
         <v>4</v>
       </c>
       <c r="E72" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="30">
+        <v>46002</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="30">
+        <v>46005</v>
+      </c>
+      <c r="B74">
+        <f>198/22</f>
+        <v>9</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="30">
+        <v>46006</v>
+      </c>
+      <c r="B75">
+        <v>27</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="30">
+        <v>46007</v>
+      </c>
+      <c r="B76">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
         <v>2440</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="30"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="30"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="30"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="30"/>
-    </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="30"/>
+      <c r="A77" s="30">
+        <v>46012</v>
+      </c>
+      <c r="B77">
+        <v>28</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2445</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="30"/>

--- a/Catalog/Catalog-static.xlsx
+++ b/Catalog/Catalog-static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\Catalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD0EF73-A6A2-48B7-ABAD-847C45E95D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A7DC70-4E54-446D-A224-0DF26005EE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Catalog-static" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5869" uniqueCount="2446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5874" uniqueCount="2451">
   <si>
     <t>ObsID</t>
   </si>
@@ -7481,6 +7481,21 @@
   </si>
   <si>
     <t>Very clear, fair seeing</t>
+  </si>
+  <si>
+    <t>Very clear. Good seeing once Jupiter was high enough above the horizon</t>
+  </si>
+  <si>
+    <t>Very clear, very good seeing (expected from GFS). Extraordinary seeing at 11:35pm LT</t>
+  </si>
+  <si>
+    <t>Very clear, very good seeing (not quite as good as the prior night)</t>
+  </si>
+  <si>
+    <t>Very clear, good seeing</t>
+  </si>
+  <si>
+    <t>Very clear, very good seeing. Had power interrupt lost 20 mins, then later found mount clock was wrong and lost about 65 mins around flip</t>
   </si>
 </sst>
 </file>
@@ -7670,7 +7685,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7934,6 +7949,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -8095,7 +8116,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -8196,6 +8217,7 @@
     <xf numFmtId="165" fontId="16" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -40315,7 +40337,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40332,7 +40354,7 @@
       </c>
       <c r="B1" s="18">
         <f>SUM(B2:B101)</f>
-        <v>853</v>
+        <v>986</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>696</v>
@@ -41103,7 +41125,7 @@
       <c r="C51" t="s">
         <v>687</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="51" t="s">
         <v>695</v>
       </c>
     </row>
@@ -41117,7 +41139,7 @@
       <c r="C52" t="s">
         <v>687</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="51" t="s">
         <v>695</v>
       </c>
       <c r="E52" t="s">
@@ -41134,7 +41156,7 @@
       <c r="C53" t="s">
         <v>687</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="51" t="s">
         <v>695</v>
       </c>
     </row>
@@ -41145,7 +41167,7 @@
       <c r="B54">
         <v>16</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="51" t="s">
         <v>695</v>
       </c>
       <c r="E54" t="s">
@@ -41258,7 +41280,7 @@
       <c r="B64">
         <v>21</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="51" t="s">
         <v>695</v>
       </c>
       <c r="E64" s="18" t="s">
@@ -41272,7 +41294,7 @@
       <c r="B65">
         <v>20</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="51" t="s">
         <v>695</v>
       </c>
       <c r="E65" t="s">
@@ -41375,6 +41397,7 @@
         <f>198/22</f>
         <v>9</v>
       </c>
+      <c r="D74" s="51"/>
       <c r="E74" s="18" t="s">
         <v>2438</v>
       </c>
@@ -41386,6 +41409,7 @@
       <c r="B75">
         <v>27</v>
       </c>
+      <c r="D75" s="51"/>
       <c r="E75" t="s">
         <v>2439</v>
       </c>
@@ -41397,40 +41421,85 @@
       <c r="B76">
         <v>19</v>
       </c>
+      <c r="D76" s="58"/>
       <c r="E76" t="s">
         <v>2440</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="30">
-        <v>46012</v>
+        <v>46013</v>
       </c>
       <c r="B77">
         <v>28</v>
       </c>
+      <c r="D77" s="58"/>
       <c r="E77" t="s">
         <v>2445</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="30"/>
+      <c r="A78" s="30">
+        <v>46017</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="D78" s="51"/>
+      <c r="E78" t="s">
+        <v>2446</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="30"/>
+      <c r="A79" s="30">
+        <v>46021</v>
+      </c>
+      <c r="B79">
+        <v>27</v>
+      </c>
+      <c r="D79" s="51"/>
+      <c r="E79" t="s">
+        <v>2447</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="30"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="30"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="30"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="30">
+        <v>46022</v>
+      </c>
+      <c r="B80">
+        <v>28</v>
+      </c>
+      <c r="D80" s="51"/>
+      <c r="E80" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="30">
+        <v>46028</v>
+      </c>
+      <c r="B81">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="30">
+        <v>46033</v>
+      </c>
+      <c r="B82">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="30"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="30"/>
       <c r="B84" s="30"/>
     </row>
